--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
     <sheet name="tips" sheetId="5" r:id="rId2"/>
     <sheet name="tmplt" sheetId="2" r:id="rId3"/>
-    <sheet name="sum_tmplt" sheetId="4" r:id="rId4"/>
+    <sheet name="sum_session" sheetId="9" r:id="rId4"/>
+    <sheet name="sum_tmplt" sheetId="7" r:id="rId5"/>
+    <sheet name="sum_session_4" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="88">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,9 +187,6 @@
   </si>
   <si>
     <t>鱼宝宝</t>
-  </si>
-  <si>
-    <t>鱼宝宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,13 +229,7 @@
     <t>求和的net</t>
   </si>
   <si>
-    <t>求和的realnet</t>
-  </si>
-  <si>
     <t>钓鱼</t>
-  </si>
-  <si>
-    <t>星际</t>
   </si>
   <si>
     <t>starttime</t>
@@ -291,27 +284,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BB/hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BB/100hand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大值的duration</t>
   </si>
+  <si>
+    <t>joan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾米</t>
+  </si>
+  <si>
+    <t>虾米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5环</t>
+  </si>
+  <si>
+    <t>5环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰桂坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小文</t>
+  </si>
+  <si>
+    <t>该期视频需要回放，有1/2/4,1/2也有心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2桌上，preflop被4bet基本都是高对AA,KK等超强牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise 6,3bet 17 QQ,4bet allin 200 AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和的net2</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb/hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb/100hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hands_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb_net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -415,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -553,8 +616,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,8 +712,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="195">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -661,6 +794,35 @@
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -729,39 +891,38 @@
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -812,305 +973,27 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Van" refreshedDate="42925.835374768518" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Van" refreshedDate="42935.056013541667" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="22">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W1048576" sheet="rec"/>
   </cacheSource>
   <cacheFields count="23">
     <cacheField name="start" numFmtId="177">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-06-05T20:00:00" maxDate="2017-07-09T15:09:00" count="7">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-06-05T20:00:00" maxDate="2017-07-18T22:56:00" count="9">
         <d v="2017-06-05T20:00:00"/>
         <d v="2017-06-08T20:00:00"/>
         <d v="2017-06-13T20:00:00"/>
         <d v="2017-06-18T20:00:00"/>
         <d v="2017-06-19T21:12:00"/>
         <d v="2017-07-09T15:09:00"/>
+        <d v="2017-07-18T21:02:00"/>
+        <d v="2017-07-18T22:56:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1118,12 +1001,14 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="room" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="8">
         <s v="虾米"/>
         <s v="星际"/>
         <s v="钓鱼"/>
         <s v="小文"/>
         <s v="鱼宝宝"/>
+        <s v="5环"/>
+        <s v="兰桂坊"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1131,35 +1016,46 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="500"/>
     </cacheField>
     <cacheField name="checkout" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="611"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1018"/>
     </cacheField>
     <cacheField name="checkflag" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="326" maxValue="508"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="232" maxValue="988"/>
     </cacheField>
     <cacheField name="realnet" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-174" maxValue="308"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-200" maxValue="588" count="9">
+        <m/>
+        <n v="-174"/>
+        <n v="308"/>
+        <n v="67"/>
+        <n v="103"/>
+        <n v="-200"/>
+        <n v="588"/>
+        <n v="32"/>
+        <n v="169"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="net" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-200" maxValue="307"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-200" maxValue="587"/>
     </cacheField>
     <cacheField name="end" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-06-06T00:00:00" maxDate="2017-07-09T19:29:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-06-06T00:00:00" maxDate="2017-07-19T01:00:00"/>
     </cacheField>
     <cacheField name="total1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1509" maxValue="2213"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1509" maxValue="2584"/>
     </cacheField>
     <cacheField name="vpip1" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.61" maxValue="0.71"/>
     </cacheField>
     <cacheField name="total2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1753" maxValue="2379"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1753" maxValue="2816"/>
     </cacheField>
     <cacheField name="vpip2" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.57999999999999996" maxValue="0.64"/>
     </cacheField>
     <cacheField name="bigblind" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4" count="3">
         <n v="2"/>
+        <n v="4"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1167,28 +1063,28 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="duration" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.63" maxValue="4.33"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.88" maxValue="4.33"/>
     </cacheField>
     <cacheField name="hand" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="166" maxValue="249"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="249"/>
     </cacheField>
     <cacheField name="flop" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="51"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="51"/>
     </cacheField>
     <cacheField name="flop1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1071" maxValue="1349"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1054" maxValue="1602"/>
     </cacheField>
     <cacheField name="flop2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1121" maxValue="1379"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1098" maxValue="1633"/>
     </cacheField>
     <cacheField name="vpip" numFmtId="179">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.18072289156626506" maxValue="0.20491803278688525"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.8039215686274508E-2" maxValue="0.28205128205128205"/>
     </cacheField>
     <cacheField name="BB/100hand" numFmtId="178">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.3493975903614458" maxValue="0.92469879518072284"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.3493975903614458" maxValue="1.4387254901960784"/>
     </cacheField>
-    <cacheField name="BB/hour" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    <cacheField name="BB/hour" numFmtId="178">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-25.188916876574307" maxValue="77.368421052631589"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1200,7 +1096,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
   <r>
     <x v="0"/>
     <s v="joan"/>
@@ -1208,7 +1104,7 @@
     <n v="200"/>
     <n v="0"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="-200"/>
     <d v="2017-06-06T00:00:00"/>
     <m/>
@@ -1233,7 +1129,7 @@
     <n v="200"/>
     <n v="170"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="-30"/>
     <d v="2017-06-06T00:00:00"/>
     <m/>
@@ -1258,7 +1154,7 @@
     <n v="200"/>
     <n v="290"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="85"/>
     <d v="2017-06-09T00:00:00"/>
     <m/>
@@ -1283,7 +1179,7 @@
     <n v="200"/>
     <n v="222"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="20"/>
     <d v="2017-06-09T00:00:00"/>
     <m/>
@@ -1308,7 +1204,7 @@
     <n v="200"/>
     <n v="275"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="71"/>
     <d v="2017-06-09T00:00:00"/>
     <m/>
@@ -1333,7 +1229,7 @@
     <n v="200"/>
     <n v="31"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="-169"/>
     <d v="2017-06-14T00:00:00"/>
     <m/>
@@ -1358,7 +1254,7 @@
     <n v="200"/>
     <n v="217"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="16"/>
     <d v="2017-06-14T00:00:00"/>
     <m/>
@@ -1383,7 +1279,7 @@
     <n v="200"/>
     <n v="401"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="190"/>
     <d v="2017-06-19T00:00:00"/>
     <m/>
@@ -1408,7 +1304,7 @@
     <n v="200"/>
     <n v="194"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="-6"/>
     <d v="2017-06-19T00:00:00"/>
     <m/>
@@ -1433,7 +1329,7 @@
     <n v="200"/>
     <n v="215"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="14"/>
     <d v="2017-06-19T00:00:00"/>
     <m/>
@@ -1458,7 +1354,7 @@
     <n v="400"/>
     <n v="611"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="200"/>
     <d v="2017-06-20T00:00:00"/>
     <m/>
@@ -1483,7 +1379,7 @@
     <n v="300"/>
     <n v="406"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="100"/>
     <d v="2017-06-20T00:00:00"/>
     <m/>
@@ -1508,7 +1404,7 @@
     <n v="200"/>
     <n v="191"/>
     <m/>
-    <m/>
+    <x v="0"/>
     <n v="-9"/>
     <d v="2017-06-20T00:00:00"/>
     <m/>
@@ -1533,7 +1429,7 @@
     <n v="500"/>
     <n v="326"/>
     <n v="326"/>
-    <n v="-174"/>
+    <x v="1"/>
     <n v="-174"/>
     <d v="2017-07-09T19:25:00"/>
     <n v="1732"/>
@@ -1549,7 +1445,7 @@
     <n v="1228"/>
     <n v="0.20481927710843373"/>
     <n v="-0.3493975903614458"/>
-    <m/>
+    <n v="-20.374707259953162"/>
   </r>
   <r>
     <x v="5"/>
@@ -1558,7 +1454,7 @@
     <n v="200"/>
     <n v="524"/>
     <n v="508"/>
-    <n v="308"/>
+    <x v="2"/>
     <n v="307"/>
     <d v="2017-07-09T17:47:00"/>
     <n v="2213"/>
@@ -1574,7 +1470,7 @@
     <n v="1379"/>
     <n v="0.18072289156626506"/>
     <n v="0.92469879518072284"/>
-    <m/>
+    <n v="58.555133079847913"/>
   </r>
   <r>
     <x v="5"/>
@@ -1583,7 +1479,7 @@
     <n v="300"/>
     <n v="367"/>
     <n v="367"/>
-    <n v="67"/>
+    <x v="3"/>
     <n v="63"/>
     <d v="2017-07-09T19:29:00"/>
     <n v="1509"/>
@@ -1599,23 +1495,148 @@
     <n v="1121"/>
     <n v="0.20491803278688525"/>
     <n v="0.12909836065573771"/>
-    <m/>
+    <n v="7.7367205542725168"/>
   </r>
   <r>
     <x v="6"/>
-    <m/>
+    <s v="laughing"/>
     <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="300"/>
+    <n v="408"/>
+    <n v="403"/>
+    <x v="4"/>
+    <n v="102"/>
+    <d v="2017-07-19T00:32:00"/>
+    <n v="2186"/>
+    <n v="0.66"/>
+    <n v="2320"/>
+    <n v="0.63"/>
+    <x v="0"/>
+    <s v="1/2"/>
+    <n v="3.5"/>
+    <n v="134"/>
+    <n v="19"/>
+    <n v="1442"/>
+    <n v="1461"/>
+    <n v="0.1417910447761194"/>
+    <n v="0.38059701492537312"/>
+    <n v="14.714285714285714"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="m4n"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="207"/>
+    <m/>
+    <x v="5"/>
+    <n v="6"/>
+    <d v="2017-07-19T01:00:00"/>
+    <n v="2584"/>
+    <n v="0.62"/>
+    <n v="2816"/>
+    <n v="0.57999999999999996"/>
+    <x v="0"/>
+    <s v="1/2"/>
+    <n v="3.97"/>
+    <n v="232"/>
+    <n v="31"/>
+    <n v="1602"/>
+    <n v="1633"/>
+    <n v="0.1336206896551724"/>
+    <n v="1.2931034482758621E-2"/>
+    <n v="-25.188916876574307"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="monoray"/>
+    <x v="6"/>
+    <n v="400"/>
+    <n v="1018"/>
+    <n v="988"/>
+    <x v="6"/>
+    <n v="587"/>
+    <d v="2017-07-18T22:56:00"/>
+    <n v="1753"/>
+    <n v="0.64"/>
+    <n v="1855"/>
+    <n v="0.61"/>
     <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="1.9"/>
+    <n v="102"/>
+    <n v="10"/>
+    <n v="1121"/>
+    <n v="1131"/>
+    <n v="9.8039215686274508E-2"/>
+    <n v="1.4387254901960784"/>
+    <n v="77.368421052631589"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="joan"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="232"/>
+    <n v="232"/>
+    <x v="7"/>
+    <n v="30"/>
+    <d v="2017-07-18T23:41:00"/>
+    <n v="1674"/>
+    <n v="0.63"/>
+    <n v="1830"/>
+    <n v="0.6"/>
+    <x v="0"/>
+    <s v="1/2"/>
+    <n v="2.65"/>
+    <n v="156"/>
+    <n v="44"/>
+    <n v="1054"/>
+    <n v="1098"/>
+    <n v="0.28205128205128205"/>
+    <n v="9.6153846153846159E-2"/>
+    <n v="6.0377358490566042"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="monoray"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="377"/>
+    <n v="369"/>
+    <x v="8"/>
+    <n v="168"/>
+    <d v="2017-07-19T00:49:00"/>
+    <n v="1855"/>
+    <n v="0.61"/>
+    <n v="1967"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <s v="1/2"/>
+    <n v="1.88"/>
+    <n v="112"/>
+    <n v="29"/>
+    <n v="1131"/>
+    <n v="1160"/>
+    <n v="0.25892857142857145"/>
+    <n v="0.75"/>
+    <n v="44.946808510638299"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1630,37 +1651,54 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="D3:L10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="D3:L13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="10">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="9">
         <item x="2"/>
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
         <item x="4"/>
+        <item x="7"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1668,9 +1706,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1689,9 +1728,9 @@
     <field x="13"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="9">
     <i>
-      <x v="5"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x/>
@@ -1700,10 +1739,19 @@
       <x/>
     </i>
     <i r="2">
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="2">
-      <x v="4"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1741,65 +1789,79 @@
   <dataFields count="8">
     <dataField name="求和的hand" fld="16" baseField="0" baseItem="0"/>
     <dataField name="求和的flop" fld="17" baseField="0" baseItem="0"/>
-    <dataField name="求和的realnet" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和的net2" fld="7" baseField="0" baseItem="0"/>
     <dataField name="求和的buyin" fld="3" baseField="0" baseItem="0"/>
     <dataField name="求和的checkout" fld="4" baseField="0" baseItem="0"/>
     <dataField name="求和的net" fld="7" baseField="0" baseItem="0"/>
     <dataField name="求和的checkflag" fld="5" baseField="0" baseItem="0"/>
     <dataField name="最大值的duration" fld="15" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="8">
-    <format dxfId="71">
+  <formats count="10">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="3" selected="0">
+          <reference field="4294967294" count="2" selected="0">
             <x v="0"/>
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="67">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="66">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
+          <reference field="4294967294" count="1">
             <x v="2"/>
           </reference>
         </references>
@@ -2137,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2151,9 +2213,9 @@
     <col min="4" max="4" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -2187,12 +2249,12 @@
         <v>11</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -2223,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>16</v>
@@ -2261,8 +2323,8 @@
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <f t="shared" ref="H2:H17" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
+      <c r="H2" s="28">
+        <f t="shared" ref="H2:H21" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-200</v>
       </c>
       <c r="I2" s="8">
@@ -2299,7 +2361,7 @@
       <c r="E3" s="9">
         <v>170</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="28">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
@@ -2338,7 +2400,7 @@
         <f>D4+90</f>
         <v>290</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="28">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2377,7 +2439,7 @@
         <f>D5+22</f>
         <v>222</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2416,7 +2478,7 @@
         <f>D6+75</f>
         <v>275</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
@@ -2455,7 +2517,7 @@
         <f>D7-169</f>
         <v>31</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>-169</v>
       </c>
@@ -2494,7 +2556,7 @@
         <f>D8+17</f>
         <v>217</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2533,7 +2595,7 @@
         <f>D9+201</f>
         <v>401</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
@@ -2572,7 +2634,7 @@
         <f>D10-6</f>
         <v>194</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -2611,7 +2673,7 @@
         <f>D11+15</f>
         <v>215</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2650,7 +2712,7 @@
         <f>D12+211</f>
         <v>611</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -2689,7 +2751,7 @@
         <f>D13+106</f>
         <v>406</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2728,7 +2790,7 @@
         <f>D14-9</f>
         <v>191</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="28">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
@@ -2770,11 +2832,11 @@
       <c r="F15" s="18">
         <v>326</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="29">
         <f>F15-D15</f>
         <v>-174</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>-174</v>
       </c>
@@ -2854,11 +2916,11 @@
       <c r="F16" s="18">
         <v>508</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="29">
         <f>F16-D16</f>
         <v>308</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
@@ -2927,7 +2989,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5">
         <v>300</v>
@@ -2938,11 +3000,11 @@
       <c r="F17" s="18">
         <v>367</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="29">
         <f>F17-D17</f>
         <v>67</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -3000,6 +3062,430 @@
         <v>7.7367205542725168</v>
       </c>
       <c r="X17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="4">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5">
+        <f>200+100</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="9">
+        <f>D18+108</f>
+        <v>408</v>
+      </c>
+      <c r="F18" s="18">
+        <v>403</v>
+      </c>
+      <c r="G18" s="29">
+        <f>F18-D18</f>
+        <v>103</v>
+      </c>
+      <c r="H18" s="28">
+        <f>IF(E18&gt;D18,INT((E18-D18)*0.95),E18-D18)</f>
+        <v>102</v>
+      </c>
+      <c r="I18" s="4">
+        <v>42935.022222222222</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2186</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2320</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" ref="P18:P20" si="3">ROUND((I18-A18)*24,2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>L18-J18</f>
+        <v>134</v>
+      </c>
+      <c r="R18" s="15">
+        <f>T18-S18</f>
+        <v>19</v>
+      </c>
+      <c r="S18" s="15">
+        <f>INT(J18*K18)</f>
+        <v>1442</v>
+      </c>
+      <c r="T18" s="15">
+        <f>INT(L18*M18)</f>
+        <v>1461</v>
+      </c>
+      <c r="U18" s="16">
+        <f>R18/Q18</f>
+        <v>0.1417910447761194</v>
+      </c>
+      <c r="V18" s="17">
+        <f>H18/Q18/N18</f>
+        <v>0.38059701492537312</v>
+      </c>
+      <c r="W18" s="17">
+        <f>G18/P18/N18</f>
+        <v>14.714285714285714</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="4">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>200</v>
+      </c>
+      <c r="E19" s="9">
+        <f>D19+7</f>
+        <v>207</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" ref="G18:G21" si="4">F19-D19</f>
+        <v>-200</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2584</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2816</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="3"/>
+        <v>3.97</v>
+      </c>
+      <c r="Q19" s="15">
+        <f>L19-J19</f>
+        <v>232</v>
+      </c>
+      <c r="R19" s="15">
+        <f>T19-S19</f>
+        <v>31</v>
+      </c>
+      <c r="S19" s="15">
+        <f>INT(J19*K19)</f>
+        <v>1602</v>
+      </c>
+      <c r="T19" s="15">
+        <f>INT(L19*M19)</f>
+        <v>1633</v>
+      </c>
+      <c r="U19" s="16">
+        <f>R19/Q19</f>
+        <v>0.1336206896551724</v>
+      </c>
+      <c r="V19" s="17">
+        <f>H19/Q19/N19</f>
+        <v>1.2931034482758621E-2</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" ref="W19:W20" si="5">G19/P19/N19</f>
+        <v>-25.188916876574307</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="4">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E20" s="9">
+        <f>D20+618</f>
+        <v>1018</v>
+      </c>
+      <c r="F20" s="18">
+        <v>988</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="4"/>
+        <v>588</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="I20" s="4">
+        <v>42934.955555555556</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1753</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1855</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="N20" s="6">
+        <v>4</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q20" s="15">
+        <f>L20-J20</f>
+        <v>102</v>
+      </c>
+      <c r="R20" s="15">
+        <f>T20-S20</f>
+        <v>10</v>
+      </c>
+      <c r="S20" s="15">
+        <f>INT(J20*K20)</f>
+        <v>1121</v>
+      </c>
+      <c r="T20" s="15">
+        <f>INT(L20*M20)</f>
+        <v>1131</v>
+      </c>
+      <c r="U20" s="16">
+        <f>R20/Q20</f>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="V20" s="17">
+        <f>H20/Q20/N20</f>
+        <v>1.4387254901960784</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" si="5"/>
+        <v>77.368421052631589</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="4">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5">
+        <v>200</v>
+      </c>
+      <c r="E21" s="9">
+        <f>D21+32</f>
+        <v>232</v>
+      </c>
+      <c r="F21" s="18">
+        <v>232</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I21" s="4">
+        <v>42934.986805555556</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1674</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1830</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" ref="P21:P22" si="6">ROUND((I21-A21)*24,2)</f>
+        <v>2.65</v>
+      </c>
+      <c r="Q21" s="15">
+        <f>L21-J21</f>
+        <v>156</v>
+      </c>
+      <c r="R21" s="15">
+        <f>T21-S21</f>
+        <v>44</v>
+      </c>
+      <c r="S21" s="15">
+        <f>INT(J21*K21)</f>
+        <v>1054</v>
+      </c>
+      <c r="T21" s="15">
+        <f>INT(L21*M21)</f>
+        <v>1098</v>
+      </c>
+      <c r="U21" s="16">
+        <f>R21/Q21</f>
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="V21" s="17">
+        <f>H21/Q21/N21</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="W21" s="17">
+        <f>G21/P21/N21</f>
+        <v>6.0377358490566042</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="4">
+        <v>42934.955555555556</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5">
+        <v>200</v>
+      </c>
+      <c r="E22" s="9">
+        <f>D22+177</f>
+        <v>377</v>
+      </c>
+      <c r="F22" s="18">
+        <v>369</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" ref="G22" si="7">F22-D22</f>
+        <v>169</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" ref="H22" si="8">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
+        <v>168</v>
+      </c>
+      <c r="I22" s="4">
+        <v>42935.03402777778</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1855</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1967</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="6"/>
+        <v>1.88</v>
+      </c>
+      <c r="Q22" s="15">
+        <f>L22-J22</f>
+        <v>112</v>
+      </c>
+      <c r="R22" s="15">
+        <f>T22-S22</f>
+        <v>29</v>
+      </c>
+      <c r="S22" s="15">
+        <f>INT(J22*K22)</f>
+        <v>1131</v>
+      </c>
+      <c r="T22" s="15">
+        <f>INT(L22*M22)</f>
+        <v>1160</v>
+      </c>
+      <c r="U22" s="16">
+        <f>R22/Q22</f>
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="V22" s="17">
+        <f>H22/Q22/N22</f>
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" ref="W22" si="9">G22/P22/N22</f>
+        <v>44.946808510638299</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3017,28 +3503,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3046,10 +3532,10 @@
         <v>42925.631249999999</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3057,7 +3543,7 @@
         <v>42925.631249999999</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3065,10 +3551,10 @@
         <v>42925.631249999999</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3076,10 +3562,10 @@
         <v>42925.631249999999</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3087,10 +3573,29 @@
         <v>42925.631249999999</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="30">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="30">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3153,10 +3658,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -3189,7 +3694,7 @@
         <v>21</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>16</v>
@@ -3378,7 +3883,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5">
         <v>300</v>
@@ -3478,352 +3983,4280 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L12"/>
+  <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
-    <col min="2" max="3" width="10.83203125" style="26"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1"/>
-    <col min="16" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="5.5" customWidth="1"/>
-    <col min="19" max="19" width="7.5" customWidth="1"/>
-    <col min="20" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="5.5" customWidth="1"/>
-    <col min="22" max="22" width="7.5" customWidth="1"/>
-    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="7.5" customWidth="1"/>
-    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5" customWidth="1"/>
-    <col min="28" max="28" width="7.5" customWidth="1"/>
-    <col min="29" max="30" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="8" width="10.83203125" style="20"/>
+    <col min="9" max="9" width="10.83203125" style="39"/>
+    <col min="11" max="16" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="E3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="22">
-        <f>F5/E5</f>
-        <v>0.19878603945371776</v>
-      </c>
-      <c r="B5" s="26">
-        <f>G5/$D$6/L5</f>
+    <row r="1" spans="1:16">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42925</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4.33</v>
+      </c>
+      <c r="D2" s="7">
+        <v>659</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <f>201/A2</f>
+        <v>100.5</v>
+      </c>
+      <c r="G2" s="36">
+        <f>F2/C2</f>
         <v>23.210161662817551</v>
       </c>
-      <c r="C5" s="26">
-        <f>G5/E5*100</f>
-        <v>30.500758725341427</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="E5" s="25">
-        <v>659</v>
-      </c>
-      <c r="F5" s="25">
-        <v>131</v>
-      </c>
-      <c r="G5" s="25">
-        <v>201</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1217</v>
-      </c>
-      <c r="J5" s="13">
-        <v>196</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1201</v>
-      </c>
-      <c r="L5" s="13">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="22">
-        <f>F6/E6</f>
-        <v>0.19878603945371776</v>
-      </c>
-      <c r="B6" s="26">
-        <f t="shared" ref="B6:B9" si="0">G6/$D$6/L6</f>
-        <v>23.210161662817551</v>
-      </c>
-      <c r="C6" s="26">
-        <f t="shared" ref="C6:C9" si="1">G6/E6*100</f>
-        <v>30.500758725341427</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="H2" s="36">
+        <f>F2*100/D2</f>
+        <v>15.250379362670714</v>
+      </c>
+      <c r="I2" s="39">
+        <f>D2*E2</f>
+        <v>131.14100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="25">
-        <v>659</v>
-      </c>
-      <c r="F6" s="25">
-        <v>131</v>
-      </c>
-      <c r="G6" s="25">
-        <v>201</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1217</v>
-      </c>
-      <c r="J6" s="13">
-        <v>196</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1201</v>
-      </c>
-      <c r="L6" s="13">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="22">
-        <f>F7/E7</f>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="B7" s="26">
-        <f t="shared" si="0"/>
-        <v>58.555133079847913</v>
-      </c>
-      <c r="C7" s="26">
-        <f t="shared" si="1"/>
-        <v>185.54216867469879</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>166</v>
-      </c>
-      <c r="F7" s="25">
-        <v>30</v>
-      </c>
-      <c r="G7" s="25">
-        <v>308</v>
-      </c>
-      <c r="H7" s="13">
-        <v>200</v>
-      </c>
-      <c r="I7" s="13">
-        <v>524</v>
-      </c>
-      <c r="J7" s="13">
-        <v>307</v>
-      </c>
-      <c r="K7" s="13">
-        <v>508</v>
-      </c>
-      <c r="L7" s="13">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="22">
-        <f>F8/E8</f>
-        <v>0.20481927710843373</v>
-      </c>
-      <c r="B8" s="26">
-        <f t="shared" si="0"/>
-        <v>-20.374707259953162</v>
-      </c>
-      <c r="C8" s="26">
-        <f t="shared" si="1"/>
-        <v>-69.879518072289159</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="25">
-        <v>249</v>
-      </c>
-      <c r="F8" s="25">
-        <v>51</v>
-      </c>
-      <c r="G8" s="25">
-        <v>-174</v>
-      </c>
-      <c r="H8" s="13">
-        <v>500</v>
-      </c>
-      <c r="I8" s="13">
-        <v>326</v>
-      </c>
-      <c r="J8" s="13">
-        <v>-174</v>
-      </c>
-      <c r="K8" s="13">
-        <v>326</v>
-      </c>
-      <c r="L8" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="22">
-        <f>F9/E9</f>
-        <v>0.20491803278688525</v>
-      </c>
-      <c r="B9" s="26">
-        <f t="shared" si="0"/>
-        <v>7.7367205542725168</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" si="1"/>
-        <v>27.459016393442624</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="25">
-        <v>244</v>
-      </c>
-      <c r="F9" s="25">
-        <v>50</v>
-      </c>
-      <c r="G9" s="25">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13">
-        <v>300</v>
-      </c>
-      <c r="I9" s="13">
-        <v>367</v>
-      </c>
-      <c r="J9" s="13">
-        <v>63</v>
-      </c>
-      <c r="K9" s="13">
-        <v>367</v>
-      </c>
-      <c r="L9" s="13">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="22">
-        <f>F10/E10</f>
-        <v>0.19878603945371776</v>
-      </c>
-      <c r="B10" s="26">
-        <f>G10/$D$6/L10</f>
-        <v>23.210161662817551</v>
-      </c>
-      <c r="C10" s="26">
-        <f>G10/E10*100</f>
-        <v>30.500758725341427</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="25">
-        <v>659</v>
-      </c>
-      <c r="F10" s="25">
-        <v>131</v>
-      </c>
-      <c r="G10" s="25">
-        <v>201</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1217</v>
-      </c>
-      <c r="J10" s="13">
-        <v>196</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1201</v>
-      </c>
-      <c r="L10" s="13">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="B3" s="31">
+        <v>42934</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.97</v>
+      </c>
+      <c r="D3" s="7">
+        <v>634</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <f>306/A3</f>
+        <v>153</v>
+      </c>
+      <c r="G3" s="36">
+        <f>F3/C3</f>
+        <v>38.539042821158688</v>
+      </c>
+      <c r="H3" s="36">
+        <f>F3*100/D3</f>
+        <v>24.13249211356467</v>
+      </c>
+      <c r="I3" s="39">
+        <f>D3*E3</f>
+        <v>122.99600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="G4" s="36" t="e">
+        <f t="shared" ref="G4:G67" si="0">F4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="36" t="e">
+        <f t="shared" ref="H4:H67" si="1">F4*100/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" ref="I4:I67" si="2">D4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="G5" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>2</v>
+      </c>
+      <c r="L5" s="32">
+        <f>SUM(C2:C1150)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M5" s="32">
+        <f>SUM(D2:D1150)</f>
+        <v>1293</v>
+      </c>
+      <c r="N5" s="34">
+        <f>SUM(I2:I1150)/SUM(D2:D1150)</f>
+        <v>0.19654833720030937</v>
+      </c>
+      <c r="O5" s="33">
+        <f>SUM(F2:F1150)/SUM(C2:C1150)</f>
+        <v>30.542168674698793</v>
+      </c>
+      <c r="P5" s="33">
+        <f>SUM(F2:F1150)*100/SUM(D2:D1150)</f>
+        <v>19.605568445475637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="G6" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>4</v>
+      </c>
+      <c r="L6" s="37">
+        <f>SUM(sum_session_4!C2:C2072)</f>
+        <v>1.9</v>
+      </c>
+      <c r="M6" s="38">
+        <f>SUM(sum_session_4!D2:D2072)</f>
+        <v>102</v>
+      </c>
+      <c r="N6" s="34">
+        <f>SUM(sum_session_4!I2:I2072)/SUM(sum_session_4!D2:D2072)</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O6" s="33">
+        <f>SUM(sum_session_4!F2:F2072)/SUM(sum_session_4!C2:C2072)</f>
+        <v>77.236842105263165</v>
+      </c>
+      <c r="P6" s="33">
+        <f>SUM(sum_session_4!F2:F2072)*100/SUM(sum_session_4!D2:D2072)</f>
+        <v>143.87254901960785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="G7" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="G8" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="G9" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="G10" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="G11" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="G12" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="G13" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="G16" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="G29" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="G30" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="G31" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9">
+      <c r="G32" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
+      <c r="G37" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
+      <c r="G38" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
+      <c r="G39" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9">
+      <c r="G42" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9">
+      <c r="G43" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9">
+      <c r="G44" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9">
+      <c r="G45" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9">
+      <c r="G46" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9">
+      <c r="G47" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9">
+      <c r="G48" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9">
+      <c r="G51" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9">
+      <c r="G53" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9">
+      <c r="G54" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
+      <c r="G55" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9">
+      <c r="G56" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9">
+      <c r="G57" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9">
+      <c r="G58" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9">
+      <c r="G59" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9">
+      <c r="G60" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9">
+      <c r="G61" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9">
+      <c r="G62" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9">
+      <c r="G63" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9">
+      <c r="G64" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9">
+      <c r="G65" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9">
+      <c r="G66" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9">
+      <c r="G67" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9">
+      <c r="G68" s="36" t="e">
+        <f t="shared" ref="G68:G131" si="3">F68/C68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" s="36" t="e">
+        <f t="shared" ref="H68:H131" si="4">F68*100/D68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68" s="39">
+        <f t="shared" ref="I68:I131" si="5">D68*E68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9">
+      <c r="G69" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9">
+      <c r="G70" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9">
+      <c r="G71" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9">
+      <c r="G72" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9">
+      <c r="G73" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9">
+      <c r="G74" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I74" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9">
+      <c r="G75" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9">
+      <c r="G76" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9">
+      <c r="G77" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9">
+      <c r="G78" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9">
+      <c r="G79" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9">
+      <c r="G80" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9">
+      <c r="G81" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9">
+      <c r="G82" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9">
+      <c r="G83" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9">
+      <c r="G84" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I84" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9">
+      <c r="G85" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I85" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9">
+      <c r="G86" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I86" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9">
+      <c r="G87" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9">
+      <c r="G88" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9">
+      <c r="G89" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I89" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9">
+      <c r="G90" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I90" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9">
+      <c r="G91" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I91" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9">
+      <c r="G92" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I92" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9">
+      <c r="G93" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I93" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9">
+      <c r="G94" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I94" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9">
+      <c r="G95" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I95" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9">
+      <c r="G96" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I96" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9">
+      <c r="G97" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9">
+      <c r="G98" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I98" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9">
+      <c r="G99" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I99" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9">
+      <c r="G100" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9">
+      <c r="G101" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9">
+      <c r="G102" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I102" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9">
+      <c r="G103" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I103" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9">
+      <c r="G104" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H104" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I104" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9">
+      <c r="G105" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H105" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9">
+      <c r="G106" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9">
+      <c r="G107" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H107" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I107" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9">
+      <c r="G108" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H108" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I108" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9">
+      <c r="G109" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I109" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9">
+      <c r="G110" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I110" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9">
+      <c r="G111" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H111" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I111" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9">
+      <c r="G112" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H112" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I112" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9">
+      <c r="G113" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H113" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I113" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9">
+      <c r="G114" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H114" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I114" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9">
+      <c r="G115" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I115" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9">
+      <c r="G116" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I116" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9">
+      <c r="G117" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I117" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9">
+      <c r="G118" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I118" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9">
+      <c r="G119" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9">
+      <c r="G120" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H120" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I120" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9">
+      <c r="G121" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H121" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I121" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9">
+      <c r="G122" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H122" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I122" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9">
+      <c r="G123" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H123" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I123" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9">
+      <c r="G124" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I124" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9">
+      <c r="G125" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H125" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I125" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9">
+      <c r="G126" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H126" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I126" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9">
+      <c r="G127" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I127" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9">
+      <c r="G128" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I128" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9">
+      <c r="G129" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9">
+      <c r="G130" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I130" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9">
+      <c r="G131" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I131" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9">
+      <c r="G132" s="36" t="e">
+        <f t="shared" ref="G132:G195" si="6">F132/C132</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="36" t="e">
+        <f t="shared" ref="H132:H195" si="7">F132*100/D132</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I132" s="39">
+        <f t="shared" ref="I132:I151" si="8">D132*E132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9">
+      <c r="G133" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I133" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9">
+      <c r="G134" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9">
+      <c r="G135" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9">
+      <c r="G136" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9">
+      <c r="G137" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9">
+      <c r="G138" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I138" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9">
+      <c r="G139" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9">
+      <c r="G140" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9">
+      <c r="G141" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H141" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9">
+      <c r="G142" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H142" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I142" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9">
+      <c r="G143" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H143" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I143" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9">
+      <c r="G144" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H144" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I144" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9">
+      <c r="G145" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H145" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I145" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9">
+      <c r="G146" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H146" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I146" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9">
+      <c r="G147" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H147" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I147" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9">
+      <c r="G148" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H148" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I148" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9">
+      <c r="G149" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H149" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I149" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9">
+      <c r="G150" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H150" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I150" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9">
+      <c r="G151" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H151" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I151" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9">
+      <c r="G152" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H152" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9">
+      <c r="G153" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H153" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9">
+      <c r="G154" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H154" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9">
+      <c r="G155" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H155" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9">
+      <c r="G156" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H156" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9">
+      <c r="G157" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H157" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9">
+      <c r="G158" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H158" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9">
+      <c r="G159" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H159" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9">
+      <c r="G160" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H160" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8">
+      <c r="G161" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H161" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8">
+      <c r="G162" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H162" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8">
+      <c r="G163" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H163" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8">
+      <c r="G164" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H164" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8">
+      <c r="G165" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H165" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8">
+      <c r="G166" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H166" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8">
+      <c r="G167" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H167" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8">
+      <c r="G168" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H168" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8">
+      <c r="G169" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H169" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8">
+      <c r="G170" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H170" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8">
+      <c r="G171" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H171" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8">
+      <c r="G172" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H172" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8">
+      <c r="G173" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H173" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8">
+      <c r="G174" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H174" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8">
+      <c r="G175" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H175" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8">
+      <c r="G176" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H176" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8">
+      <c r="G177" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H177" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8">
+      <c r="G178" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H178" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8">
+      <c r="G179" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H179" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8">
+      <c r="G180" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H180" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8">
+      <c r="G181" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H181" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8">
+      <c r="G182" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H182" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8">
+      <c r="G183" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H183" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8">
+      <c r="G184" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H184" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8">
+      <c r="G185" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H185" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8">
+      <c r="G186" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H186" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="7:8">
+      <c r="G187" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H187" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8">
+      <c r="G188" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H188" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8">
+      <c r="G189" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H189" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8">
+      <c r="G190" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H190" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H191" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8">
+      <c r="G192" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H192" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8">
+      <c r="G193" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H193" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H194" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195" s="36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H195" s="36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196" s="36" t="e">
+        <f t="shared" ref="G196:G259" si="9">F196/C196</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H196" s="36" t="e">
+        <f t="shared" ref="H196:H259" si="10">F196*100/D196</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8">
+      <c r="G197" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H197" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8">
+      <c r="G198" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H198" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8">
+      <c r="G199" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H199" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8">
+      <c r="G200" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H200" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8">
+      <c r="G201" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H201" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8">
+      <c r="G202" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H202" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8">
+      <c r="G203" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H203" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8">
+      <c r="G204" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H204" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8">
+      <c r="G205" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H205" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8">
+      <c r="G206" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H206" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8">
+      <c r="G207" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H207" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8">
+      <c r="G208" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H208" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H209" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="7:8">
+      <c r="G210" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H210" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="7:8">
+      <c r="G211" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H211" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="7:8">
+      <c r="G212" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H212" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="7:8">
+      <c r="G213" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H213" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="7:8">
+      <c r="G214" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H214" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="7:8">
+      <c r="G215" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H215" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="7:8">
+      <c r="G216" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H216" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="7:8">
+      <c r="G217" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H217" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="7:8">
+      <c r="G218" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H218" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="7:8">
+      <c r="G219" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H219" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="7:8">
+      <c r="G220" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H220" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="7:8">
+      <c r="G221" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H221" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="7:8">
+      <c r="G222" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H222" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="223" spans="7:8">
+      <c r="G223" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H223" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H224" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="225" spans="7:8">
+      <c r="G225" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H225" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="226" spans="7:8">
+      <c r="G226" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H226" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8">
+      <c r="G227" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H227" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8">
+      <c r="G228" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H228" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="7:8">
+      <c r="G229" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H229" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="7:8">
+      <c r="G230" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H230" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="231" spans="7:8">
+      <c r="G231" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H231" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8">
+      <c r="G232" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H232" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8">
+      <c r="G233" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H233" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="234" spans="7:8">
+      <c r="G234" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H234" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="235" spans="7:8">
+      <c r="G235" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H235" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="236" spans="7:8">
+      <c r="G236" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H236" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="237" spans="7:8">
+      <c r="G237" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H237" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="238" spans="7:8">
+      <c r="G238" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H238" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="7:8">
+      <c r="G239" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H239" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="7:8">
+      <c r="G240" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H240" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="241" spans="7:8">
+      <c r="G241" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H241" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="7:8">
+      <c r="G242" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H242" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="7:8">
+      <c r="G243" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H243" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="7:8">
+      <c r="G244" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H244" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="245" spans="7:8">
+      <c r="G245" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H245" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="7:8">
+      <c r="G246" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H246" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="7:8">
+      <c r="G247" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H247" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="7:8">
+      <c r="G248" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H248" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="249" spans="7:8">
+      <c r="G249" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H249" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="250" spans="7:8">
+      <c r="G250" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H250" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="251" spans="7:8">
+      <c r="G251" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H251" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="7:8">
+      <c r="G252" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H252" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="253" spans="7:8">
+      <c r="G253" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H253" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="254" spans="7:8">
+      <c r="G254" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H254" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="255" spans="7:8">
+      <c r="G255" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H255" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="256" spans="7:8">
+      <c r="G256" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H256" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="257" spans="7:8">
+      <c r="G257" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H257" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="258" spans="7:8">
+      <c r="G258" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H258" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="259" spans="7:8">
+      <c r="G259" s="36" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H259" s="36" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="260" spans="7:8">
+      <c r="G260" s="36" t="e">
+        <f t="shared" ref="G260:G323" si="11">F260/C260</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H260" s="36" t="e">
+        <f t="shared" ref="H260:H323" si="12">F260*100/D260</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="261" spans="7:8">
+      <c r="G261" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H261" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="262" spans="7:8">
+      <c r="G262" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H262" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="263" spans="7:8">
+      <c r="G263" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H263" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="264" spans="7:8">
+      <c r="G264" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H264" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="265" spans="7:8">
+      <c r="G265" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H265" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="266" spans="7:8">
+      <c r="G266" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H266" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="267" spans="7:8">
+      <c r="G267" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H267" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="268" spans="7:8">
+      <c r="G268" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H268" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="269" spans="7:8">
+      <c r="G269" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H269" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="270" spans="7:8">
+      <c r="G270" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H270" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="271" spans="7:8">
+      <c r="G271" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H271" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="272" spans="7:8">
+      <c r="G272" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H272" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="273" spans="7:8">
+      <c r="G273" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H273" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="274" spans="7:8">
+      <c r="G274" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H274" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="275" spans="7:8">
+      <c r="G275" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H275" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="276" spans="7:8">
+      <c r="G276" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H276" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="277" spans="7:8">
+      <c r="G277" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H277" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="278" spans="7:8">
+      <c r="G278" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H278" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="279" spans="7:8">
+      <c r="G279" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H279" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="7:8">
+      <c r="G280" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H280" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="281" spans="7:8">
+      <c r="G281" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H281" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="282" spans="7:8">
+      <c r="G282" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H282" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="283" spans="7:8">
+      <c r="G283" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H283" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="284" spans="7:8">
+      <c r="G284" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H284" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="285" spans="7:8">
+      <c r="G285" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H285" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="286" spans="7:8">
+      <c r="G286" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H286" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="287" spans="7:8">
+      <c r="G287" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H287" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="288" spans="7:8">
+      <c r="G288" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H288" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="289" spans="7:8">
+      <c r="G289" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H289" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="290" spans="7:8">
+      <c r="G290" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H290" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="291" spans="7:8">
+      <c r="G291" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H291" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="292" spans="7:8">
+      <c r="G292" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H292" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="293" spans="7:8">
+      <c r="G293" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H293" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="294" spans="7:8">
+      <c r="G294" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H294" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="295" spans="7:8">
+      <c r="G295" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H295" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="296" spans="7:8">
+      <c r="G296" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H296" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="297" spans="7:8">
+      <c r="G297" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H297" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="298" spans="7:8">
+      <c r="G298" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H298" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="299" spans="7:8">
+      <c r="G299" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H299" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="300" spans="7:8">
+      <c r="G300" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H300" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="301" spans="7:8">
+      <c r="G301" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H301" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="302" spans="7:8">
+      <c r="G302" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H302" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="303" spans="7:8">
+      <c r="G303" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H303" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="304" spans="7:8">
+      <c r="G304" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H304" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="305" spans="7:8">
+      <c r="G305" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H305" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="306" spans="7:8">
+      <c r="G306" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H306" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="307" spans="7:8">
+      <c r="G307" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H307" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="308" spans="7:8">
+      <c r="G308" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H308" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="309" spans="7:8">
+      <c r="G309" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H309" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="310" spans="7:8">
+      <c r="G310" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H310" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="311" spans="7:8">
+      <c r="G311" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H311" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="312" spans="7:8">
+      <c r="G312" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H312" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="313" spans="7:8">
+      <c r="G313" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H313" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="314" spans="7:8">
+      <c r="G314" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H314" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="315" spans="7:8">
+      <c r="G315" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H315" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="316" spans="7:8">
+      <c r="G316" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H316" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="317" spans="7:8">
+      <c r="G317" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H317" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="318" spans="7:8">
+      <c r="G318" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H318" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="319" spans="7:8">
+      <c r="G319" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H319" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="320" spans="7:8">
+      <c r="G320" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H320" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="321" spans="7:8">
+      <c r="G321" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H321" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="322" spans="7:8">
+      <c r="G322" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H322" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="7:8">
+      <c r="G323" s="36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H323" s="36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="324" spans="7:8">
+      <c r="G324" s="36" t="e">
+        <f t="shared" ref="G324:G354" si="13">F324/C324</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H324" s="36" t="e">
+        <f t="shared" ref="H324:H354" si="14">F324*100/D324</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="325" spans="7:8">
+      <c r="G325" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H325" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="326" spans="7:8">
+      <c r="G326" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H326" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="327" spans="7:8">
+      <c r="G327" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H327" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="328" spans="7:8">
+      <c r="G328" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H328" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="329" spans="7:8">
+      <c r="G329" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H329" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="330" spans="7:8">
+      <c r="G330" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H330" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="331" spans="7:8">
+      <c r="G331" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H331" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="332" spans="7:8">
+      <c r="G332" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H332" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="333" spans="7:8">
+      <c r="G333" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H333" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="334" spans="7:8">
+      <c r="G334" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H334" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="335" spans="7:8">
+      <c r="G335" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H335" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="336" spans="7:8">
+      <c r="G336" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H336" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="337" spans="7:8">
+      <c r="G337" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H337" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="338" spans="7:8">
+      <c r="G338" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H338" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="339" spans="7:8">
+      <c r="G339" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H339" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="340" spans="7:8">
+      <c r="G340" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H340" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="341" spans="7:8">
+      <c r="G341" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H341" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="342" spans="7:8">
+      <c r="G342" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H342" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="343" spans="7:8">
+      <c r="G343" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H343" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="344" spans="7:8">
+      <c r="G344" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H344" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="345" spans="7:8">
+      <c r="G345" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H345" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="346" spans="7:8">
+      <c r="G346" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H346" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="347" spans="7:8">
+      <c r="G347" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H347" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="348" spans="7:8">
+      <c r="G348" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H348" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="349" spans="7:8">
+      <c r="G349" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H349" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="350" spans="7:8">
+      <c r="G350" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H350" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="351" spans="7:8">
+      <c r="G351" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H351" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="352" spans="7:8">
+      <c r="G352" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H352" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="353" spans="7:8">
+      <c r="G353" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H353" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="354" spans="7:8">
+      <c r="G354" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H354" s="36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3835,4 +8268,1546 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="22"/>
+    <col min="2" max="3" width="10.83203125" style="26"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="3.5" customWidth="1"/>
+    <col min="15" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="20" width="4.5" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="10.5" customWidth="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1"/>
+    <col min="27" max="28" width="4.5" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="17.5" customWidth="1"/>
+    <col min="34" max="34" width="5.5" customWidth="1"/>
+    <col min="35" max="35" width="4.5" customWidth="1"/>
+    <col min="36" max="36" width="5.5" customWidth="1"/>
+    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.5" customWidth="1"/>
+    <col min="39" max="39" width="15.5" customWidth="1"/>
+    <col min="40" max="40" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="E3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="22">
+        <f>F5/E5</f>
+        <v>0.18007662835249041</v>
+      </c>
+      <c r="B5" s="26">
+        <f>G5/$D$6/L5</f>
+        <v>17.380352644836272</v>
+      </c>
+      <c r="C5" s="26">
+        <f>G5/E5*100/$D$6</f>
+        <v>13.218390804597702</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="E5" s="25">
+        <v>522</v>
+      </c>
+      <c r="F5" s="25">
+        <v>94</v>
+      </c>
+      <c r="G5" s="35">
+        <v>138</v>
+      </c>
+      <c r="H5" s="13">
+        <v>700</v>
+      </c>
+      <c r="I5" s="13">
+        <v>847</v>
+      </c>
+      <c r="J5" s="13">
+        <v>138</v>
+      </c>
+      <c r="K5" s="13">
+        <v>635</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="22">
+        <f t="shared" ref="A6:A14" si="0">F6/E6</f>
+        <v>0.18007662835249041</v>
+      </c>
+      <c r="B6" s="26">
+        <f t="shared" ref="B6:B14" si="1">G6/$D$6/L6</f>
+        <v>17.380352644836272</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" ref="C6:C14" si="2">G6/E6*100/$D$6</f>
+        <v>13.218390804597702</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>522</v>
+      </c>
+      <c r="F6" s="25">
+        <v>94</v>
+      </c>
+      <c r="G6" s="35">
+        <v>138</v>
+      </c>
+      <c r="H6" s="13">
+        <v>700</v>
+      </c>
+      <c r="I6" s="13">
+        <v>847</v>
+      </c>
+      <c r="J6" s="13">
+        <v>138</v>
+      </c>
+      <c r="K6" s="13">
+        <v>635</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1336206896551724</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.75566750629722923</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="2"/>
+        <v>1.2931034482758621</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="25">
+        <v>232</v>
+      </c>
+      <c r="F7" s="25">
+        <v>31</v>
+      </c>
+      <c r="G7" s="35">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13">
+        <v>200</v>
+      </c>
+      <c r="I7" s="13">
+        <v>207</v>
+      </c>
+      <c r="J7" s="13">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="B8" s="26">
+        <f t="shared" si="1"/>
+        <v>5.6603773584905666</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="2"/>
+        <v>9.6153846153846168</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="25">
+        <v>156</v>
+      </c>
+      <c r="F8" s="25">
+        <v>44</v>
+      </c>
+      <c r="G8" s="35">
+        <v>30</v>
+      </c>
+      <c r="H8" s="13">
+        <v>200</v>
+      </c>
+      <c r="I8" s="13">
+        <v>232</v>
+      </c>
+      <c r="J8" s="13">
+        <v>30</v>
+      </c>
+      <c r="K8" s="13">
+        <v>232</v>
+      </c>
+      <c r="L8" s="13">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1417910447761194</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="1"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="2"/>
+        <v>38.059701492537314</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="25">
+        <v>134</v>
+      </c>
+      <c r="F9" s="25">
+        <v>19</v>
+      </c>
+      <c r="G9" s="35">
+        <v>102</v>
+      </c>
+      <c r="H9" s="13">
+        <v>300</v>
+      </c>
+      <c r="I9" s="13">
+        <v>408</v>
+      </c>
+      <c r="J9" s="13">
+        <v>102</v>
+      </c>
+      <c r="K9" s="13">
+        <v>403</v>
+      </c>
+      <c r="L9" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="11">
+        <v>42934.955555555556</v>
+      </c>
+      <c r="E10" s="25">
+        <v>112</v>
+      </c>
+      <c r="F10" s="25">
+        <v>29</v>
+      </c>
+      <c r="G10" s="35">
+        <v>168</v>
+      </c>
+      <c r="H10" s="13">
+        <v>200</v>
+      </c>
+      <c r="I10" s="13">
+        <v>377</v>
+      </c>
+      <c r="J10" s="13">
+        <v>168</v>
+      </c>
+      <c r="K10" s="13">
+        <v>369</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="B11" s="26">
+        <f>G11/$D$6/L11</f>
+        <v>44.680851063829792</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>112</v>
+      </c>
+      <c r="F11" s="25">
+        <v>29</v>
+      </c>
+      <c r="G11" s="35">
+        <v>168</v>
+      </c>
+      <c r="H11" s="13">
+        <v>200</v>
+      </c>
+      <c r="I11" s="13">
+        <v>377</v>
+      </c>
+      <c r="J11" s="13">
+        <v>168</v>
+      </c>
+      <c r="K11" s="13">
+        <v>369</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="1"/>
+        <v>44.680851063829792</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="25">
+        <v>112</v>
+      </c>
+      <c r="F12" s="25">
+        <v>29</v>
+      </c>
+      <c r="G12" s="35">
+        <v>168</v>
+      </c>
+      <c r="H12" s="13">
+        <v>200</v>
+      </c>
+      <c r="I12" s="13">
+        <v>377</v>
+      </c>
+      <c r="J12" s="13">
+        <v>168</v>
+      </c>
+      <c r="K12" s="13">
+        <v>369</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.19400630914826497</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="1"/>
+        <v>38.539042821158688</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="2"/>
+        <v>24.13249211356467</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="25">
+        <v>634</v>
+      </c>
+      <c r="F13" s="25">
+        <v>123</v>
+      </c>
+      <c r="G13" s="35">
+        <v>306</v>
+      </c>
+      <c r="H13" s="13">
+        <v>900</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1224</v>
+      </c>
+      <c r="J13" s="13">
+        <v>306</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1004</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B14" s="26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="26" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="22" t="e">
+        <f t="shared" ref="A16:A20" si="3">F16/E16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B16" s="26" t="e">
+        <f t="shared" ref="B16:B20" si="4">G16/$D$6/L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="26" t="e">
+        <f>G16/E16*100/$D$15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B17" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="26" t="e">
+        <f t="shared" ref="C16:C20" si="5">G17/E17*100/$D$6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B18" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B19" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B20" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="6" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42934</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>102</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>587/A2</f>
+        <v>146.75</v>
+      </c>
+      <c r="G2" s="26">
+        <f>F2/C2</f>
+        <v>77.236842105263165</v>
+      </c>
+      <c r="H2" s="26">
+        <f>F2*100/D2</f>
+        <v>143.87254901960785</v>
+      </c>
+      <c r="I2" s="20">
+        <f>D2*E2</f>
+        <v>9.9960000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I66" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="I5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="I14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="I15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="20">
+        <f t="shared" ref="I67:I130" si="1">D67*E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9">
+      <c r="I130" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" s="20">
+        <f t="shared" ref="I131:I150" si="2">D131*E131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9">
+      <c r="I132" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9">
+      <c r="I133" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9">
+      <c r="I135" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9">
+      <c r="I136" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9">
+      <c r="I142" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9">
+      <c r="I144" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9">
+      <c r="I146" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9">
+      <c r="I147" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9">
+      <c r="I148" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9">
+      <c r="I149" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,14 @@
     <t>bb_net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>感觉1/2桌上,对激进玩家，中牌（顶对以上）后适当check，有时候比下注更有利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉1/2/4桌上,有位置中set且前位下注，适当跟注可能更有利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -373,8 +381,8 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -478,8 +486,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -721,11 +735,11 @@
     <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="201">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -823,6 +837,9 @@
     <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -920,9 +937,32 @@
     <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -951,26 +991,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1651,7 +1671,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="D3:L13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" showAll="0">
@@ -1797,7 +1817,7 @@
     <dataField name="最大值的duration" fld="15" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1807,13 +1827,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1823,7 +1843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1833,13 +1853,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2866,27 +2886,27 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="Q15" s="15">
-        <f>L15-J15</f>
+        <f t="shared" ref="Q15:Q22" si="2">L15-J15</f>
         <v>249</v>
       </c>
       <c r="R15" s="15">
-        <f>T15-S15</f>
+        <f t="shared" ref="R15:R22" si="3">T15-S15</f>
         <v>51</v>
       </c>
       <c r="S15" s="15">
-        <f>INT(J15*K15)</f>
+        <f t="shared" ref="S15:S22" si="4">INT(J15*K15)</f>
         <v>1177</v>
       </c>
       <c r="T15" s="15">
-        <f>INT(L15*M15)</f>
+        <f t="shared" ref="T15:T22" si="5">INT(L15*M15)</f>
         <v>1228</v>
       </c>
       <c r="U15" s="16">
-        <f>R15/Q15</f>
+        <f t="shared" ref="U15:U22" si="6">R15/Q15</f>
         <v>0.20481927710843373</v>
       </c>
       <c r="V15" s="17">
-        <f>H15/Q15/N15</f>
+        <f t="shared" ref="V15:V22" si="7">H15/Q15/N15</f>
         <v>-0.3493975903614458</v>
       </c>
       <c r="W15" s="17">
@@ -2950,31 +2970,31 @@
         <v>2.63</v>
       </c>
       <c r="Q16" s="15">
-        <f>L16-J16</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="R16" s="15">
-        <f>T16-S16</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="S16" s="15">
-        <f>INT(J16*K16)</f>
+        <f t="shared" si="4"/>
         <v>1349</v>
       </c>
       <c r="T16" s="15">
-        <f>INT(L16*M16)</f>
+        <f t="shared" si="5"/>
         <v>1379</v>
       </c>
       <c r="U16" s="16">
-        <f>R16/Q16</f>
+        <f t="shared" si="6"/>
         <v>0.18072289156626506</v>
       </c>
       <c r="V16" s="17">
-        <f>H16/Q16/N16</f>
+        <f t="shared" si="7"/>
         <v>0.92469879518072284</v>
       </c>
       <c r="W16" s="17">
-        <f t="shared" ref="W16:W17" si="2">G16/P16/N16</f>
+        <f t="shared" ref="W16:W17" si="8">G16/P16/N16</f>
         <v>58.555133079847913</v>
       </c>
       <c r="X16" s="3" t="s">
@@ -3034,31 +3054,31 @@
         <v>4.33</v>
       </c>
       <c r="Q17" s="15">
-        <f>L17-J17</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="R17" s="15">
-        <f>T17-S17</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="S17" s="15">
-        <f>INT(J17*K17)</f>
+        <f t="shared" si="4"/>
         <v>1071</v>
       </c>
       <c r="T17" s="15">
-        <f>INT(L17*M17)</f>
+        <f t="shared" si="5"/>
         <v>1121</v>
       </c>
       <c r="U17" s="16">
-        <f>R17/Q17</f>
+        <f t="shared" si="6"/>
         <v>0.20491803278688525</v>
       </c>
       <c r="V17" s="17">
-        <f>H17/Q17/N17</f>
+        <f t="shared" si="7"/>
         <v>0.12909836065573771</v>
       </c>
       <c r="W17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.7367205542725168</v>
       </c>
       <c r="X17" s="3" t="s">
@@ -3116,31 +3136,31 @@
         <v>32</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" ref="P18:P20" si="3">ROUND((I18-A18)*24,2)</f>
+        <f t="shared" ref="P18:P20" si="9">ROUND((I18-A18)*24,2)</f>
         <v>3.5</v>
       </c>
       <c r="Q18" s="15">
-        <f>L18-J18</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="R18" s="15">
-        <f>T18-S18</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="S18" s="15">
-        <f>INT(J18*K18)</f>
+        <f t="shared" si="4"/>
         <v>1442</v>
       </c>
       <c r="T18" s="15">
-        <f>INT(L18*M18)</f>
+        <f t="shared" si="5"/>
         <v>1461</v>
       </c>
       <c r="U18" s="16">
-        <f>R18/Q18</f>
+        <f t="shared" si="6"/>
         <v>0.1417910447761194</v>
       </c>
       <c r="V18" s="17">
-        <f>H18/Q18/N18</f>
+        <f t="shared" si="7"/>
         <v>0.38059701492537312</v>
       </c>
       <c r="W18" s="17">
@@ -3169,7 +3189,7 @@
         <v>207</v>
       </c>
       <c r="G19" s="29">
-        <f t="shared" ref="G18:G21" si="4">F19-D19</f>
+        <f t="shared" ref="G19:G21" si="10">F19-D19</f>
         <v>-200</v>
       </c>
       <c r="H19" s="28">
@@ -3198,35 +3218,35 @@
         <v>32</v>
       </c>
       <c r="P19" s="15">
+        <f t="shared" si="9"/>
+        <v>3.97</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="R19" s="15">
         <f t="shared" si="3"/>
-        <v>3.97</v>
-      </c>
-      <c r="Q19" s="15">
-        <f>L19-J19</f>
-        <v>232</v>
-      </c>
-      <c r="R19" s="15">
-        <f>T19-S19</f>
         <v>31</v>
       </c>
       <c r="S19" s="15">
-        <f>INT(J19*K19)</f>
+        <f t="shared" si="4"/>
         <v>1602</v>
       </c>
       <c r="T19" s="15">
-        <f>INT(L19*M19)</f>
+        <f t="shared" si="5"/>
         <v>1633</v>
       </c>
       <c r="U19" s="16">
-        <f>R19/Q19</f>
+        <f t="shared" si="6"/>
         <v>0.1336206896551724</v>
       </c>
       <c r="V19" s="17">
-        <f>H19/Q19/N19</f>
+        <f t="shared" si="7"/>
         <v>1.2931034482758621E-2</v>
       </c>
       <c r="W19" s="17">
-        <f t="shared" ref="W19:W20" si="5">G19/P19/N19</f>
+        <f t="shared" ref="W19:W20" si="11">G19/P19/N19</f>
         <v>-25.188916876574307</v>
       </c>
       <c r="X19" s="3" t="s">
@@ -3255,7 +3275,7 @@
         <v>988</v>
       </c>
       <c r="G20" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>588</v>
       </c>
       <c r="H20" s="28">
@@ -3284,35 +3304,35 @@
         <v>72</v>
       </c>
       <c r="P20" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="R20" s="15">
         <f t="shared" si="3"/>
-        <v>1.9</v>
-      </c>
-      <c r="Q20" s="15">
-        <f>L20-J20</f>
-        <v>102</v>
-      </c>
-      <c r="R20" s="15">
-        <f>T20-S20</f>
         <v>10</v>
       </c>
       <c r="S20" s="15">
-        <f>INT(J20*K20)</f>
+        <f t="shared" si="4"/>
         <v>1121</v>
       </c>
       <c r="T20" s="15">
-        <f>INT(L20*M20)</f>
+        <f t="shared" si="5"/>
         <v>1131</v>
       </c>
       <c r="U20" s="16">
-        <f>R20/Q20</f>
+        <f t="shared" si="6"/>
         <v>9.8039215686274508E-2</v>
       </c>
       <c r="V20" s="17">
-        <f>H20/Q20/N20</f>
+        <f t="shared" si="7"/>
         <v>1.4387254901960784</v>
       </c>
       <c r="W20" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>77.368421052631589</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -3340,7 +3360,7 @@
         <v>232</v>
       </c>
       <c r="G21" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="H21" s="28">
@@ -3369,31 +3389,31 @@
         <v>32</v>
       </c>
       <c r="P21" s="15">
-        <f t="shared" ref="P21:P22" si="6">ROUND((I21-A21)*24,2)</f>
+        <f t="shared" ref="P21:P22" si="12">ROUND((I21-A21)*24,2)</f>
         <v>2.65</v>
       </c>
       <c r="Q21" s="15">
-        <f>L21-J21</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="R21" s="15">
-        <f>T21-S21</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="S21" s="15">
-        <f>INT(J21*K21)</f>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="T21" s="15">
-        <f>INT(L21*M21)</f>
+        <f t="shared" si="5"/>
         <v>1098</v>
       </c>
       <c r="U21" s="16">
-        <f>R21/Q21</f>
+        <f t="shared" si="6"/>
         <v>0.28205128205128205</v>
       </c>
       <c r="V21" s="17">
-        <f>H21/Q21/N21</f>
+        <f t="shared" si="7"/>
         <v>9.6153846153846159E-2</v>
       </c>
       <c r="W21" s="17">
@@ -3425,11 +3445,11 @@
         <v>369</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22" si="7">F22-D22</f>
+        <f t="shared" ref="G22" si="13">F22-D22</f>
         <v>169</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" ref="H22" si="8">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
+        <f t="shared" ref="H22" si="14">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
         <v>168</v>
       </c>
       <c r="I22" s="4">
@@ -3454,35 +3474,35 @@
         <v>32</v>
       </c>
       <c r="P22" s="15">
+        <f t="shared" si="12"/>
+        <v>1.88</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S22" s="15">
+        <f t="shared" si="4"/>
+        <v>1131</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="5"/>
+        <v>1160</v>
+      </c>
+      <c r="U22" s="16">
         <f t="shared" si="6"/>
-        <v>1.88</v>
-      </c>
-      <c r="Q22" s="15">
-        <f>L22-J22</f>
-        <v>112</v>
-      </c>
-      <c r="R22" s="15">
-        <f>T22-S22</f>
-        <v>29</v>
-      </c>
-      <c r="S22" s="15">
-        <f>INT(J22*K22)</f>
-        <v>1131</v>
-      </c>
-      <c r="T22" s="15">
-        <f>INT(L22*M22)</f>
-        <v>1160</v>
-      </c>
-      <c r="U22" s="16">
-        <f>R22/Q22</f>
         <v>0.25892857142857145</v>
       </c>
       <c r="V22" s="17">
-        <f>H22/Q22/N22</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="W22" s="17">
-        <f t="shared" ref="W22" si="9">G22/P22/N22</f>
+        <f t="shared" ref="W22" si="15">G22/P22/N22</f>
         <v>44.946808510638299</v>
       </c>
       <c r="X22" s="3" t="s">
@@ -3503,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3596,6 +3616,22 @@
       </c>
       <c r="C8" s="7" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="30">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8767,7 +8803,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C17" s="26" t="e">
-        <f t="shared" ref="C16:C20" si="5">G17/E17*100/$D$6</f>
+        <f t="shared" ref="C17:C20" si="5">G17/E17*100/$D$6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17"/>
@@ -8841,7 +8877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="sum_tmplt" sheetId="7" r:id="rId5"/>
     <sheet name="sum_session_4" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -375,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -383,8 +383,9 @@
     <numFmt numFmtId="180" formatCode="0.0_ "/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,6 +457,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -689,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,8 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,8 +762,24 @@
     <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="201">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -840,107 +880,106 @@
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -995,6 +1034,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2221,1291 +2265,1294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="17.6640625" style="2"/>
+    <col min="1" max="1" width="13.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="17.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="O1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="52">
         <v>42891.833333333336</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28">
-        <f t="shared" ref="H2:H21" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
+      <c r="E2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <v>42892</v>
+      </c>
+      <c r="L2" s="46">
+        <v>2</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="44">
+        <f>IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-200</v>
       </c>
-      <c r="I2" s="8">
-        <v>42892</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="15">
-        <f t="shared" ref="P2:P17" si="1">ROUND((I2-A2)*24,2)</f>
+      <c r="P2" s="48">
+        <f>ROUND((G2-A2)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3" s="52">
         <v>42891.833333333336</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="41">
         <v>170</v>
       </c>
-      <c r="H3" s="28">
-        <f t="shared" si="0"/>
+      <c r="G3" s="45">
+        <v>42892</v>
+      </c>
+      <c r="L3" s="46">
+        <v>2</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="44">
+        <f>IF(E3&gt;D3,INT((E3-D3)*0.95),E3-D3)</f>
         <v>-30</v>
       </c>
-      <c r="I3" s="8">
-        <v>42892</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="15">
-        <f t="shared" si="1"/>
+      <c r="P3" s="48">
+        <f>ROUND((G3-A3)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="52">
         <v>42894.833333333336</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="41">
         <f>D4+90</f>
         <v>290</v>
       </c>
-      <c r="H4" s="28">
-        <f t="shared" si="0"/>
+      <c r="G4" s="45">
+        <v>42895</v>
+      </c>
+      <c r="L4" s="46">
+        <v>2</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="44">
+        <f>IF(E4&gt;D4,INT((E4-D4)*0.95),E4-D4)</f>
         <v>85</v>
       </c>
-      <c r="I4" s="8">
-        <v>42895</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="15">
-        <f t="shared" si="1"/>
+      <c r="P4" s="48">
+        <f>ROUND((G4-A4)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5" s="52">
         <v>42894.833333333336</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="41">
         <f>D5+22</f>
         <v>222</v>
       </c>
-      <c r="H5" s="28">
-        <f t="shared" si="0"/>
+      <c r="G5" s="45">
+        <v>42895</v>
+      </c>
+      <c r="L5" s="46">
+        <v>2</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="44">
+        <f>IF(E5&gt;D5,INT((E5-D5)*0.95),E5-D5)</f>
         <v>20</v>
       </c>
-      <c r="I5" s="8">
-        <v>42895</v>
-      </c>
-      <c r="N5" s="6">
-        <v>2</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="1"/>
+      <c r="P5" s="48">
+        <f>ROUND((G5-A5)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="52">
         <v>42894.833333333336</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="41">
         <f>D6+75</f>
         <v>275</v>
       </c>
-      <c r="H6" s="28">
-        <f t="shared" si="0"/>
+      <c r="G6" s="45">
+        <v>42895</v>
+      </c>
+      <c r="L6" s="46">
+        <v>2</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="44">
+        <f>IF(E6&gt;D6,INT((E6-D6)*0.95),E6-D6)</f>
         <v>71</v>
       </c>
-      <c r="I6" s="8">
-        <v>42895</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="1"/>
+      <c r="P6" s="48">
+        <f>ROUND((G6-A6)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7" s="52">
         <v>42899.833333333336</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="41">
         <f>D7-169</f>
         <v>31</v>
       </c>
-      <c r="H7" s="28">
-        <f t="shared" si="0"/>
+      <c r="G7" s="45">
+        <v>42900</v>
+      </c>
+      <c r="L7" s="46">
+        <v>2</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="44">
+        <f>IF(E7&gt;D7,INT((E7-D7)*0.95),E7-D7)</f>
         <v>-169</v>
       </c>
-      <c r="I7" s="8">
-        <v>42900</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="1"/>
+      <c r="P7" s="48">
+        <f>ROUND((G7-A7)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8" s="52">
         <v>42899.833333333336</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="41">
         <f>D8+17</f>
         <v>217</v>
       </c>
-      <c r="H8" s="28">
-        <f t="shared" si="0"/>
+      <c r="G8" s="45">
+        <v>42900</v>
+      </c>
+      <c r="L8" s="46">
+        <v>2</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="44">
+        <f>IF(E8&gt;D8,INT((E8-D8)*0.95),E8-D8)</f>
         <v>16</v>
       </c>
-      <c r="I8" s="8">
-        <v>42900</v>
-      </c>
-      <c r="N8" s="6">
-        <v>2</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="1"/>
+      <c r="P8" s="48">
+        <f>ROUND((G8-A8)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9" s="52">
         <v>42904.833333333336</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="41">
         <f>D9+201</f>
         <v>401</v>
       </c>
-      <c r="H9" s="28">
-        <f t="shared" si="0"/>
+      <c r="G9" s="45">
+        <v>42905</v>
+      </c>
+      <c r="L9" s="46">
+        <v>2</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="44">
+        <f>IF(E9&gt;D9,INT((E9-D9)*0.95),E9-D9)</f>
         <v>190</v>
       </c>
-      <c r="I9" s="8">
-        <v>42905</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="1"/>
+      <c r="P9" s="48">
+        <f>ROUND((G9-A9)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10" s="52">
         <v>42904.833333333336</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="41">
         <f>D10-6</f>
         <v>194</v>
       </c>
-      <c r="H10" s="28">
-        <f t="shared" si="0"/>
+      <c r="G10" s="45">
+        <v>42905</v>
+      </c>
+      <c r="L10" s="46">
+        <v>2</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="44">
+        <f>IF(E10&gt;D10,INT((E10-D10)*0.95),E10-D10)</f>
         <v>-6</v>
       </c>
-      <c r="I10" s="8">
-        <v>42905</v>
-      </c>
-      <c r="N10" s="6">
-        <v>2</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="1"/>
+      <c r="P10" s="48">
+        <f>ROUND((G10-A10)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11" s="52">
         <v>42904.833333333336</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="41">
         <f>D11+15</f>
         <v>215</v>
       </c>
-      <c r="H11" s="28">
-        <f t="shared" si="0"/>
+      <c r="G11" s="45">
+        <v>42905</v>
+      </c>
+      <c r="L11" s="46">
+        <v>2</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="44">
+        <f>IF(E11&gt;D11,INT((E11-D11)*0.95),E11-D11)</f>
         <v>14</v>
       </c>
-      <c r="I11" s="8">
-        <v>42905</v>
-      </c>
-      <c r="N11" s="6">
-        <v>2</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="1"/>
+      <c r="P11" s="48">
+        <f>ROUND((G11-A11)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12" s="52">
         <v>42905.883333333331</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="46">
         <f>200+200</f>
         <v>400</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="41">
         <f>D12+211</f>
         <v>611</v>
       </c>
-      <c r="H12" s="28">
-        <f t="shared" si="0"/>
+      <c r="G12" s="45">
+        <v>42906</v>
+      </c>
+      <c r="L12" s="46">
+        <v>2</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="44">
+        <f>IF(E12&gt;D12,INT((E12-D12)*0.95),E12-D12)</f>
         <v>200</v>
       </c>
-      <c r="I12" s="8">
-        <v>42906</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="1"/>
+      <c r="P12" s="48">
+        <f>ROUND((G12-A12)*24,2)</f>
         <v>2.8</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="52">
         <v>42905.883333333331</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="46">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="41">
         <f>D13+106</f>
         <v>406</v>
       </c>
-      <c r="H13" s="28">
-        <f t="shared" si="0"/>
+      <c r="G13" s="45">
+        <v>42906</v>
+      </c>
+      <c r="L13" s="46">
+        <v>2</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="44">
+        <f>IF(E13&gt;D13,INT((E13-D13)*0.95),E13-D13)</f>
         <v>100</v>
       </c>
-      <c r="I13" s="8">
-        <v>42906</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="15">
-        <f t="shared" si="1"/>
+      <c r="P13" s="48">
+        <f>ROUND((G13-A13)*24,2)</f>
         <v>2.8</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="52">
         <v>42905.883333333331</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="46">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="41">
         <f>D14-9</f>
         <v>191</v>
       </c>
-      <c r="H14" s="28">
-        <f t="shared" si="0"/>
+      <c r="G14" s="45">
+        <v>42906</v>
+      </c>
+      <c r="L14" s="46">
+        <v>2</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="44">
+        <f>IF(E14&gt;D14,INT((E14-D14)*0.95),E14-D14)</f>
         <v>-9</v>
       </c>
-      <c r="I14" s="8">
-        <v>42906</v>
-      </c>
-      <c r="N14" s="6">
-        <v>2</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="1"/>
+      <c r="P14" s="48">
+        <f>ROUND((G14-A14)*24,2)</f>
         <v>2.8</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="52">
         <v>42925.631249999999</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="46">
         <f>200+300</f>
         <v>500</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="41">
         <f>D15-174</f>
         <v>326</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="42">
         <v>326</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="45">
+        <v>42925.809027777781</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1732</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0.68</v>
+      </c>
+      <c r="J15" s="46">
+        <v>1981</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.62</v>
+      </c>
+      <c r="L15" s="46">
+        <v>2</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="43">
         <f>F15-D15</f>
         <v>-174</v>
       </c>
-      <c r="H15" s="28">
-        <f t="shared" si="0"/>
+      <c r="O15" s="44">
+        <f>IF(E15&gt;D15,INT((E15-D15)*0.95),E15-D15)</f>
         <v>-174</v>
       </c>
-      <c r="I15" s="8">
-        <v>42925.809027777781</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1732</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1981</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="P15" s="48">
+        <f>ROUND((G15-A15)*24,2)</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q15" s="48">
+        <f t="shared" ref="Q15:Q22" si="0">J15-H15</f>
+        <v>249</v>
+      </c>
+      <c r="R15" s="48">
+        <f t="shared" ref="R15:R22" si="1">T15-S15</f>
+        <v>51</v>
+      </c>
+      <c r="S15" s="48">
+        <f t="shared" ref="S15:S22" si="2">INT(H15*I15)</f>
+        <v>1177</v>
+      </c>
+      <c r="T15" s="48">
+        <f t="shared" ref="T15:T22" si="3">INT(J15*K15)</f>
+        <v>1228</v>
+      </c>
+      <c r="U15" s="49">
+        <f t="shared" ref="U15:U22" si="4">R15/Q15</f>
+        <v>0.20481927710843373</v>
+      </c>
+      <c r="V15" s="50">
+        <f>O15/Q15/L15</f>
+        <v>-0.3493975903614458</v>
+      </c>
+      <c r="W15" s="50">
+        <f>N15/P15/L15</f>
+        <v>-20.374707259953162</v>
+      </c>
+      <c r="X15" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="52">
+        <v>42925.631249999999</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="46">
+        <v>200</v>
+      </c>
+      <c r="E16" s="41">
+        <v>524</v>
+      </c>
+      <c r="F16" s="42">
+        <v>508</v>
+      </c>
+      <c r="G16" s="45">
+        <v>42925.740972222222</v>
+      </c>
+      <c r="H16" s="46">
+        <v>2213</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0.61</v>
+      </c>
+      <c r="J16" s="46">
+        <v>2379</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="46">
         <v>2</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="M16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="15">
-        <f t="shared" si="1"/>
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" ref="Q15:Q22" si="2">L15-J15</f>
-        <v>249</v>
-      </c>
-      <c r="R15" s="15">
-        <f t="shared" ref="R15:R22" si="3">T15-S15</f>
-        <v>51</v>
-      </c>
-      <c r="S15" s="15">
-        <f t="shared" ref="S15:S22" si="4">INT(J15*K15)</f>
-        <v>1177</v>
-      </c>
-      <c r="T15" s="15">
-        <f t="shared" ref="T15:T22" si="5">INT(L15*M15)</f>
-        <v>1228</v>
-      </c>
-      <c r="U15" s="16">
-        <f t="shared" ref="U15:U22" si="6">R15/Q15</f>
-        <v>0.20481927710843373</v>
-      </c>
-      <c r="V15" s="17">
-        <f t="shared" ref="V15:V22" si="7">H15/Q15/N15</f>
-        <v>-0.3493975903614458</v>
-      </c>
-      <c r="W15" s="17">
-        <f>G15/P15/N15</f>
-        <v>-20.374707259953162</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="4">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5">
-        <v>200</v>
-      </c>
-      <c r="E16" s="9">
-        <v>524</v>
-      </c>
-      <c r="F16" s="18">
-        <v>508</v>
-      </c>
-      <c r="G16" s="29">
+      <c r="N16" s="43">
         <f>F16-D16</f>
         <v>308</v>
       </c>
-      <c r="H16" s="28">
-        <f t="shared" si="0"/>
+      <c r="O16" s="44">
+        <f>IF(E16&gt;D16,INT((E16-D16)*0.95),E16-D16)</f>
         <v>307</v>
       </c>
-      <c r="I16" s="8">
-        <v>42925.740972222222</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2213</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2379</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="P16" s="48">
+        <f>ROUND((G16-A16)*24,2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="Q16" s="48">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="R16" s="48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S16" s="48">
+        <f t="shared" si="2"/>
+        <v>1349</v>
+      </c>
+      <c r="T16" s="48">
+        <f t="shared" si="3"/>
+        <v>1379</v>
+      </c>
+      <c r="U16" s="49">
+        <f t="shared" si="4"/>
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="V16" s="50">
+        <f>O16/Q16/L16</f>
+        <v>0.92469879518072284</v>
+      </c>
+      <c r="W16" s="50">
+        <f>N16/P16/L16</f>
+        <v>58.555133079847913</v>
+      </c>
+      <c r="X16" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="52">
+        <v>42925.631249999999</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="46">
+        <v>300</v>
+      </c>
+      <c r="E17" s="41">
+        <v>367</v>
+      </c>
+      <c r="F17" s="42">
+        <v>367</v>
+      </c>
+      <c r="G17" s="45">
+        <v>42925.811805555553</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1509</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="46">
+        <v>1753</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.64</v>
+      </c>
+      <c r="L17" s="46">
         <v>2</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="M17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="15">
-        <f t="shared" si="1"/>
-        <v>2.63</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="S16" s="15">
-        <f t="shared" si="4"/>
-        <v>1349</v>
-      </c>
-      <c r="T16" s="15">
-        <f t="shared" si="5"/>
-        <v>1379</v>
-      </c>
-      <c r="U16" s="16">
-        <f t="shared" si="6"/>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="V16" s="17">
-        <f t="shared" si="7"/>
-        <v>0.92469879518072284</v>
-      </c>
-      <c r="W16" s="17">
-        <f t="shared" ref="W16:W17" si="8">G16/P16/N16</f>
-        <v>58.555133079847913</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="4">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5">
-        <v>300</v>
-      </c>
-      <c r="E17" s="9">
-        <v>367</v>
-      </c>
-      <c r="F17" s="18">
-        <v>367</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="N17" s="43">
         <f>F17-D17</f>
         <v>67</v>
       </c>
-      <c r="H17" s="28">
-        <f t="shared" si="0"/>
+      <c r="O17" s="44">
+        <f>IF(E17&gt;D17,INT((E17-D17)*0.95),E17-D17)</f>
         <v>63</v>
       </c>
-      <c r="I17" s="8">
-        <v>42925.811805555553</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1509</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1753</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="1"/>
+      <c r="P17" s="48">
+        <f>ROUND((G17-A17)*24,2)</f>
         <v>4.33</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="48">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="R17" s="48">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S17" s="48">
         <f t="shared" si="2"/>
-        <v>244</v>
-      </c>
-      <c r="R17" s="15">
+        <v>1071</v>
+      </c>
+      <c r="T17" s="48">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="S17" s="15">
+        <v>1121</v>
+      </c>
+      <c r="U17" s="49">
         <f t="shared" si="4"/>
-        <v>1071</v>
-      </c>
-      <c r="T17" s="15">
-        <f t="shared" si="5"/>
-        <v>1121</v>
-      </c>
-      <c r="U17" s="16">
-        <f t="shared" si="6"/>
         <v>0.20491803278688525</v>
       </c>
-      <c r="V17" s="17">
-        <f t="shared" si="7"/>
+      <c r="V17" s="50">
+        <f>O17/Q17/L17</f>
         <v>0.12909836065573771</v>
       </c>
-      <c r="W17" s="17">
-        <f t="shared" si="8"/>
+      <c r="W17" s="50">
+        <f>N17/P17/L17</f>
         <v>7.7367205542725168</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18" s="52">
         <v>42934.876388888886</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="46">
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="41">
         <f>D18+108</f>
         <v>408</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="42">
         <v>403</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="45">
+        <v>42935.022222222222</v>
+      </c>
+      <c r="H18" s="46">
+        <v>2186</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0.66</v>
+      </c>
+      <c r="J18" s="46">
+        <v>2320</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0.63</v>
+      </c>
+      <c r="L18" s="46">
+        <v>2</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="43">
         <f>F18-D18</f>
         <v>103</v>
       </c>
-      <c r="H18" s="28">
+      <c r="O18" s="44">
         <f>IF(E18&gt;D18,INT((E18-D18)*0.95),E18-D18)</f>
         <v>102</v>
       </c>
-      <c r="I18" s="4">
-        <v>42935.022222222222</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2186</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="L18" s="6">
-        <v>2320</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" ref="P18:P20" si="9">ROUND((I18-A18)*24,2)</f>
+      <c r="P18" s="48">
+        <f>ROUND((G18-A18)*24,2)</f>
         <v>3.5</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="48">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="R18" s="48">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S18" s="48">
         <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="R18" s="15">
+        <v>1442</v>
+      </c>
+      <c r="T18" s="48">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="S18" s="15">
+        <v>1461</v>
+      </c>
+      <c r="U18" s="49">
         <f t="shared" si="4"/>
-        <v>1442</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="5"/>
-        <v>1461</v>
-      </c>
-      <c r="U18" s="16">
-        <f t="shared" si="6"/>
         <v>0.1417910447761194</v>
       </c>
-      <c r="V18" s="17">
-        <f t="shared" si="7"/>
+      <c r="V18" s="50">
+        <f>O18/Q18/L18</f>
         <v>0.38059701492537312</v>
       </c>
-      <c r="W18" s="17">
-        <f>G18/P18/N18</f>
+      <c r="W18" s="50">
+        <f>N18/P18/L18</f>
         <v>14.714285714285714</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19" s="52">
         <v>42934.876388888886</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="46">
         <v>200</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="41">
         <f>D19+7</f>
         <v>207</v>
       </c>
-      <c r="G19" s="29">
-        <f t="shared" ref="G19:G21" si="10">F19-D19</f>
-        <v>-200</v>
-      </c>
-      <c r="H19" s="28">
-        <f t="shared" si="0"/>
+      <c r="F19" s="42">
+        <v>207</v>
+      </c>
+      <c r="G19" s="45">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="H19" s="46">
+        <v>2584</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.62</v>
+      </c>
+      <c r="J19" s="46">
+        <v>2816</v>
+      </c>
+      <c r="K19" s="46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L19" s="46">
+        <v>2</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="43">
+        <f>F19-D19</f>
+        <v>7</v>
+      </c>
+      <c r="O19" s="44">
+        <f>IF(E19&gt;D19,INT((E19-D19)*0.95),E19-D19)</f>
         <v>6</v>
       </c>
-      <c r="I19" s="4">
-        <v>42935.041666666664</v>
-      </c>
-      <c r="J19" s="6">
-        <v>2584</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="L19" s="6">
-        <v>2816</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="9"/>
+      <c r="P19" s="48">
+        <f>ROUND((G19-A19)*24,2)</f>
         <v>3.97</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="48">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="R19" s="48">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="S19" s="48">
         <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-      <c r="R19" s="15">
+        <v>1602</v>
+      </c>
+      <c r="T19" s="48">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="S19" s="15">
+        <v>1633</v>
+      </c>
+      <c r="U19" s="49">
         <f t="shared" si="4"/>
-        <v>1602</v>
-      </c>
-      <c r="T19" s="15">
-        <f t="shared" si="5"/>
-        <v>1633</v>
-      </c>
-      <c r="U19" s="16">
-        <f t="shared" si="6"/>
         <v>0.1336206896551724</v>
       </c>
-      <c r="V19" s="17">
-        <f t="shared" si="7"/>
+      <c r="V19" s="50">
+        <f>O19/Q19/L19</f>
         <v>1.2931034482758621E-2</v>
       </c>
-      <c r="W19" s="17">
-        <f t="shared" ref="W19:W20" si="11">G19/P19/N19</f>
-        <v>-25.188916876574307</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="W19" s="50">
+        <f>N19/P19/L19</f>
+        <v>0.88161209068010071</v>
+      </c>
+      <c r="X19" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="52">
         <v>42934.876388888886</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="46">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="41">
         <f>D20+618</f>
         <v>1018</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="42">
         <v>988</v>
       </c>
-      <c r="G20" s="29">
-        <f t="shared" si="10"/>
+      <c r="G20" s="45">
+        <v>42934.955555555556</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1753</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0.64</v>
+      </c>
+      <c r="J20" s="46">
+        <v>1855</v>
+      </c>
+      <c r="K20" s="46">
+        <v>0.61</v>
+      </c>
+      <c r="L20" s="46">
+        <v>4</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="43">
+        <f>F20-D20</f>
         <v>588</v>
       </c>
-      <c r="H20" s="28">
-        <f t="shared" si="0"/>
+      <c r="O20" s="44">
+        <f>IF(E20&gt;D20,INT((E20-D20)*0.95),E20-D20)</f>
         <v>587</v>
       </c>
-      <c r="I20" s="4">
-        <v>42934.955555555556</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1753</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1855</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="N20" s="6">
-        <v>4</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" si="9"/>
+      <c r="P20" s="48">
+        <f>ROUND((G20-A20)*24,2)</f>
         <v>1.9</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="48">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="R20" s="48">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S20" s="48">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="R20" s="15">
+        <v>1121</v>
+      </c>
+      <c r="T20" s="48">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="S20" s="15">
+        <v>1131</v>
+      </c>
+      <c r="U20" s="49">
         <f t="shared" si="4"/>
-        <v>1121</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" si="5"/>
-        <v>1131</v>
-      </c>
-      <c r="U20" s="16">
-        <f t="shared" si="6"/>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="V20" s="17">
-        <f t="shared" si="7"/>
+      <c r="V20" s="50">
+        <f>O20/Q20/L20</f>
         <v>1.4387254901960784</v>
       </c>
-      <c r="W20" s="17">
-        <f t="shared" si="11"/>
+      <c r="W20" s="50">
+        <f>N20/P20/L20</f>
         <v>77.368421052631589</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="52">
         <v>42934.876388888886</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="46">
         <v>200</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="41">
         <f>D21+32</f>
         <v>232</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="42">
         <v>232</v>
       </c>
-      <c r="G21" s="29">
-        <f t="shared" si="10"/>
+      <c r="G21" s="45">
+        <v>42934.986805555556</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1674</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0.63</v>
+      </c>
+      <c r="J21" s="46">
+        <v>1830</v>
+      </c>
+      <c r="K21" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="46">
+        <v>2</v>
+      </c>
+      <c r="M21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="28">
-        <f t="shared" si="0"/>
+      <c r="N21" s="43">
+        <f>F21-D21</f>
+        <v>32</v>
+      </c>
+      <c r="O21" s="44">
+        <f>IF(E21&gt;D21,INT((E21-D21)*0.95),E21-D21)</f>
         <v>30</v>
       </c>
-      <c r="I21" s="4">
-        <v>42934.986805555556</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1674</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1830</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="N21" s="6">
-        <v>2</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" ref="P21:P22" si="12">ROUND((I21-A21)*24,2)</f>
+      <c r="P21" s="48">
+        <f>ROUND((G21-A21)*24,2)</f>
         <v>2.65</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="48">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="R21" s="48">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="S21" s="48">
         <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="R21" s="15">
+        <v>1054</v>
+      </c>
+      <c r="T21" s="48">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="S21" s="15">
+        <v>1098</v>
+      </c>
+      <c r="U21" s="49">
         <f t="shared" si="4"/>
-        <v>1054</v>
-      </c>
-      <c r="T21" s="15">
-        <f t="shared" si="5"/>
-        <v>1098</v>
-      </c>
-      <c r="U21" s="16">
-        <f t="shared" si="6"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="V21" s="17">
-        <f t="shared" si="7"/>
+      <c r="V21" s="50">
+        <f>O21/Q21/L21</f>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="W21" s="17">
-        <f>G21/P21/N21</f>
+      <c r="W21" s="50">
+        <f>N21/P21/L21</f>
         <v>6.0377358490566042</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22" s="52">
         <v>42934.955555555556</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="46">
         <v>200</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="41">
         <f>D22+177</f>
         <v>377</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="42">
         <v>369</v>
       </c>
-      <c r="G22" s="29">
-        <f t="shared" ref="G22" si="13">F22-D22</f>
+      <c r="G22" s="45">
+        <v>42935.03402777778</v>
+      </c>
+      <c r="H22" s="46">
+        <v>1855</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0.61</v>
+      </c>
+      <c r="J22" s="46">
+        <v>1967</v>
+      </c>
+      <c r="K22" s="46">
+        <v>0.59</v>
+      </c>
+      <c r="L22" s="46">
+        <v>2</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="43">
+        <f>F22-D22</f>
         <v>169</v>
       </c>
-      <c r="H22" s="28">
-        <f t="shared" ref="H22" si="14">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
+      <c r="O22" s="44">
+        <f>IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
         <v>168</v>
       </c>
-      <c r="I22" s="4">
-        <v>42935.03402777778</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1855</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1967</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="N22" s="6">
-        <v>2</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="12"/>
+      <c r="P22" s="48">
+        <f>ROUND((G22-A22)*24,2)</f>
         <v>1.88</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="48">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="R22" s="48">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="S22" s="48">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="R22" s="15">
+        <v>1131</v>
+      </c>
+      <c r="T22" s="48">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="S22" s="15">
+        <v>1160</v>
+      </c>
+      <c r="U22" s="49">
         <f t="shared" si="4"/>
-        <v>1131</v>
-      </c>
-      <c r="T22" s="15">
-        <f t="shared" si="5"/>
-        <v>1160</v>
-      </c>
-      <c r="U22" s="16">
-        <f t="shared" si="6"/>
         <v>0.25892857142857145</v>
       </c>
-      <c r="V22" s="17">
-        <f t="shared" si="7"/>
+      <c r="V22" s="50">
+        <f>O22/Q22/L22</f>
         <v>0.75</v>
       </c>
-      <c r="W22" s="17">
-        <f t="shared" ref="W22" si="15">G22/P22/N22</f>
+      <c r="W22" s="50">
+        <f>N22/P22/L22</f>
         <v>44.946808510638299</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="51" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3525,18 +3572,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3547,7 +3594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3558,7 +3605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3566,7 +3613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3577,7 +3624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3588,7 +3635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3599,16 +3646,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="30">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
         <v>42935.041666666664</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
         <v>42935.041666666664</v>
       </c>
       <c r="B8" t="s">
@@ -3618,16 +3665,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="30">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
         <v>42935.041666666664</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="30">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
         <v>42935.041666666664</v>
       </c>
       <c r="B10" t="s">
@@ -3654,30 +3701,30 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="6.5" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.5" style="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="20"/>
+    <col min="22" max="22" width="10.875" style="20"/>
     <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="14">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="14">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3831,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="14">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3911,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" ht="14">
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3989,7 +4036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -3997,7 +4044,7 @@
         <v>18606515723</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -4025,15 +4072,15 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" style="7"/>
-    <col min="7" max="8" width="10.83203125" style="20"/>
-    <col min="9" max="9" width="10.83203125" style="39"/>
-    <col min="11" max="16" width="10.83203125" style="32"/>
+    <col min="1" max="6" width="10.875" style="7"/>
+    <col min="7" max="8" width="10.875" style="20"/>
+    <col min="9" max="9" width="10.875" style="37"/>
+    <col min="11" max="16" width="10.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -4058,15 +4105,15 @@
       <c r="H1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="29">
         <v>42925</v>
       </c>
       <c r="C2" s="7">
@@ -4082,24 +4129,24 @@
         <f>201/A2</f>
         <v>100.5</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <f>F2/C2</f>
         <v>23.210161662817551</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <f>F2*100/D2</f>
         <v>15.250379362670714</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="37">
         <f>D2*E2</f>
         <v>131.14100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>42934</v>
       </c>
       <c r="C3" s="7">
@@ -4115,4181 +4162,4181 @@
         <f>306/A3</f>
         <v>153</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="34">
         <f>F3/C3</f>
         <v>38.539042821158688</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <f>F3*100/D3</f>
         <v>24.13249211356467</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="37">
         <f>D3*E3</f>
         <v>122.99600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="G4" s="36" t="e">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G4" s="34" t="e">
         <f t="shared" ref="G4:G67" si="0">F4/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="36" t="e">
+      <c r="H4" s="34" t="e">
         <f t="shared" ref="H4:H67" si="1">F4*100/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="37">
         <f t="shared" ref="I4:I67" si="2">D4*E4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="G5" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="39">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G5" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="30">
         <v>2</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <f>SUM(C2:C1150)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="30">
         <f>SUM(D2:D1150)</f>
         <v>1293</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="32">
         <f>SUM(I2:I1150)/SUM(D2:D1150)</f>
         <v>0.19654833720030937</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <f>SUM(F2:F1150)/SUM(C2:C1150)</f>
         <v>30.542168674698793</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="31">
         <f>SUM(F2:F1150)*100/SUM(D2:D1150)</f>
         <v>19.605568445475637</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="G6" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="39">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G6" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <v>4</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="35">
         <f>SUM(sum_session_4!C2:C2072)</f>
         <v>1.9</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="36">
         <f>SUM(sum_session_4!D2:D2072)</f>
         <v>102</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="32">
         <f>SUM(sum_session_4!I2:I2072)/SUM(sum_session_4!D2:D2072)</f>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <f>SUM(sum_session_4!F2:F2072)/SUM(sum_session_4!C2:C2072)</f>
         <v>77.236842105263165</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <f>SUM(sum_session_4!F2:F2072)*100/SUM(sum_session_4!D2:D2072)</f>
         <v>143.87254901960785</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="G7" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="39">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G7" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="G8" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="39">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G8" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="G9" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="39">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G9" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="G10" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="39">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G10" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="G11" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="39">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G11" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="G12" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="39">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G12" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="G13" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="39">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G13" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="G14" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="39">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G14" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="G15" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="39">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G15" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="G16" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="39">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G16" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
-      <c r="G17" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="39">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G17" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
-      <c r="G18" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="39">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G18" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
-      <c r="G19" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="39">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G19" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="39">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G20" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="39">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G21" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="39">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G22" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
-      <c r="G23" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="39">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G23" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
-      <c r="G24" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="39">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G24" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
-      <c r="G25" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="39">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G25" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
-      <c r="G26" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="39">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G26" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
-      <c r="G27" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="39">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G27" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
-      <c r="G28" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="39">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G28" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="G29" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="39">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G29" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
-      <c r="G30" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="39">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G30" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
-      <c r="G31" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="39">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G31" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
-      <c r="G32" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="39">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G32" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
-      <c r="G33" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="39">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G33" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9">
-      <c r="G34" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="39">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G34" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
-      <c r="G35" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="39">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G35" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="39">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G36" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="39">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G37" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="39">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G38" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
-      <c r="G39" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="39">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G39" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:9">
-      <c r="G40" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="39">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G40" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:9">
-      <c r="G41" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="39">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G41" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:9">
-      <c r="G42" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="39">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G42" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:9">
-      <c r="G43" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="39">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G43" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="39">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G44" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:9">
-      <c r="G45" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="39">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G45" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="39">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G46" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="39">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G47" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:9">
-      <c r="G48" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="39">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G48" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="39">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G49" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="39">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G50" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="39">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G51" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="39">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G52" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
-      <c r="G53" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="39">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G53" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:9">
-      <c r="G54" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="39">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G54" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="39">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G55" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:9">
-      <c r="G56" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="39">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G56" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:9">
-      <c r="G57" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="39">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G57" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:9">
-      <c r="G58" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="39">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G58" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:9">
-      <c r="G59" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="39">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G59" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="39">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G60" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:9">
-      <c r="G61" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="39">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G61" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:9">
-      <c r="G62" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="39">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G62" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:9">
-      <c r="G63" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="39">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G63" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:9">
-      <c r="G64" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="39">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G64" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:9">
-      <c r="G65" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="39">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:9">
-      <c r="G66" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="39">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G66" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:9">
-      <c r="G67" s="36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="39">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I67" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:9">
-      <c r="G68" s="36" t="e">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G68" s="34" t="e">
         <f t="shared" ref="G68:G131" si="3">F68/C68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="36" t="e">
+      <c r="H68" s="34" t="e">
         <f t="shared" ref="H68:H131" si="4">F68*100/D68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="39">
+      <c r="I68" s="37">
         <f t="shared" ref="I68:I131" si="5">D68*E68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:9">
-      <c r="G69" s="36" t="e">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="36" t="e">
+      <c r="H69" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:9">
-      <c r="G70" s="36" t="e">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="36" t="e">
+      <c r="H70" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="39">
+      <c r="I70" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:9">
-      <c r="G71" s="36" t="e">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G71" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="36" t="e">
+      <c r="H71" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I71" s="39">
+      <c r="I71" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:9">
-      <c r="G72" s="36" t="e">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G72" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="36" t="e">
+      <c r="H72" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I72" s="39">
+      <c r="I72" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:9">
-      <c r="G73" s="36" t="e">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G73" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="36" t="e">
+      <c r="H73" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:9">
-      <c r="G74" s="36" t="e">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G74" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="36" t="e">
+      <c r="H74" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:9">
-      <c r="G75" s="36" t="e">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G75" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="36" t="e">
+      <c r="H75" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" s="39">
+      <c r="I75" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:9">
-      <c r="G76" s="36" t="e">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G76" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="36" t="e">
+      <c r="H76" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:9">
-      <c r="G77" s="36" t="e">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G77" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="36" t="e">
+      <c r="H77" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:9">
-      <c r="G78" s="36" t="e">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G78" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="36" t="e">
+      <c r="H78" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I78" s="39">
+      <c r="I78" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:9">
-      <c r="G79" s="36" t="e">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G79" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="36" t="e">
+      <c r="H79" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I79" s="39">
+      <c r="I79" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:9">
-      <c r="G80" s="36" t="e">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G80" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="36" t="e">
+      <c r="H80" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" s="39">
+      <c r="I80" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9">
-      <c r="G81" s="36" t="e">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G81" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="36" t="e">
+      <c r="H81" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="39">
+      <c r="I81" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9">
-      <c r="G82" s="36" t="e">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G82" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="36" t="e">
+      <c r="H82" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I82" s="39">
+      <c r="I82" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:9">
-      <c r="G83" s="36" t="e">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G83" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="36" t="e">
+      <c r="H83" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="39">
+      <c r="I83" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:9">
-      <c r="G84" s="36" t="e">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G84" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="36" t="e">
+      <c r="H84" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I84" s="39">
+      <c r="I84" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:9">
-      <c r="G85" s="36" t="e">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G85" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="36" t="e">
+      <c r="H85" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I85" s="39">
+      <c r="I85" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:9">
-      <c r="G86" s="36" t="e">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G86" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="36" t="e">
+      <c r="H86" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I86" s="39">
+      <c r="I86" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:9">
-      <c r="G87" s="36" t="e">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G87" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="36" t="e">
+      <c r="H87" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I87" s="39">
+      <c r="I87" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:9">
-      <c r="G88" s="36" t="e">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G88" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="36" t="e">
+      <c r="H88" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I88" s="39">
+      <c r="I88" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:9">
-      <c r="G89" s="36" t="e">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G89" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="36" t="e">
+      <c r="H89" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I89" s="39">
+      <c r="I89" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:9">
-      <c r="G90" s="36" t="e">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G90" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="36" t="e">
+      <c r="H90" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:9">
-      <c r="G91" s="36" t="e">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G91" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="36" t="e">
+      <c r="H91" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I91" s="39">
+      <c r="I91" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:9">
-      <c r="G92" s="36" t="e">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G92" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="36" t="e">
+      <c r="H92" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I92" s="39">
+      <c r="I92" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:9">
-      <c r="G93" s="36" t="e">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G93" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="36" t="e">
+      <c r="H93" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:9">
-      <c r="G94" s="36" t="e">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G94" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="36" t="e">
+      <c r="H94" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:9">
-      <c r="G95" s="36" t="e">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G95" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="36" t="e">
+      <c r="H95" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I95" s="39">
+      <c r="I95" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:9">
-      <c r="G96" s="36" t="e">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G96" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="36" t="e">
+      <c r="H96" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I96" s="39">
+      <c r="I96" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:9">
-      <c r="G97" s="36" t="e">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G97" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="36" t="e">
+      <c r="H97" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:9">
-      <c r="G98" s="36" t="e">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G98" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="36" t="e">
+      <c r="H98" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:9">
-      <c r="G99" s="36" t="e">
+    <row r="99" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G99" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="36" t="e">
+      <c r="H99" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I99" s="39">
+      <c r="I99" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:9">
-      <c r="G100" s="36" t="e">
+    <row r="100" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G100" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="36" t="e">
+      <c r="H100" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I100" s="39">
+      <c r="I100" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:9">
-      <c r="G101" s="36" t="e">
+    <row r="101" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G101" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H101" s="36" t="e">
+      <c r="H101" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I101" s="39">
+      <c r="I101" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:9">
-      <c r="G102" s="36" t="e">
+    <row r="102" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G102" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H102" s="36" t="e">
+      <c r="H102" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I102" s="39">
+      <c r="I102" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:9">
-      <c r="G103" s="36" t="e">
+    <row r="103" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G103" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H103" s="36" t="e">
+      <c r="H103" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I103" s="39">
+      <c r="I103" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:9">
-      <c r="G104" s="36" t="e">
+    <row r="104" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G104" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H104" s="36" t="e">
+      <c r="H104" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I104" s="39">
+      <c r="I104" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:9">
-      <c r="G105" s="36" t="e">
+    <row r="105" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G105" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H105" s="36" t="e">
+      <c r="H105" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:9">
-      <c r="G106" s="36" t="e">
+    <row r="106" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G106" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H106" s="36" t="e">
+      <c r="H106" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I106" s="39">
+      <c r="I106" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:9">
-      <c r="G107" s="36" t="e">
+    <row r="107" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G107" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H107" s="36" t="e">
+      <c r="H107" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I107" s="39">
+      <c r="I107" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:9">
-      <c r="G108" s="36" t="e">
+    <row r="108" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G108" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H108" s="36" t="e">
+      <c r="H108" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I108" s="39">
+      <c r="I108" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:9">
-      <c r="G109" s="36" t="e">
+    <row r="109" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G109" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H109" s="36" t="e">
+      <c r="H109" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I109" s="39">
+      <c r="I109" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:9">
-      <c r="G110" s="36" t="e">
+    <row r="110" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G110" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="36" t="e">
+      <c r="H110" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I110" s="39">
+      <c r="I110" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:9">
-      <c r="G111" s="36" t="e">
+    <row r="111" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G111" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H111" s="36" t="e">
+      <c r="H111" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I111" s="39">
+      <c r="I111" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:9">
-      <c r="G112" s="36" t="e">
+    <row r="112" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G112" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H112" s="36" t="e">
+      <c r="H112" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I112" s="39">
+      <c r="I112" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:9">
-      <c r="G113" s="36" t="e">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G113" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H113" s="36" t="e">
+      <c r="H113" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I113" s="39">
+      <c r="I113" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:9">
-      <c r="G114" s="36" t="e">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G114" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H114" s="36" t="e">
+      <c r="H114" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I114" s="39">
+      <c r="I114" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:9">
-      <c r="G115" s="36" t="e">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G115" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H115" s="36" t="e">
+      <c r="H115" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I115" s="39">
+      <c r="I115" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:9">
-      <c r="G116" s="36" t="e">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G116" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H116" s="36" t="e">
+      <c r="H116" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I116" s="39">
+      <c r="I116" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:9">
-      <c r="G117" s="36" t="e">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G117" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H117" s="36" t="e">
+      <c r="H117" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I117" s="39">
+      <c r="I117" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:9">
-      <c r="G118" s="36" t="e">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G118" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H118" s="36" t="e">
+      <c r="H118" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I118" s="39">
+      <c r="I118" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:9">
-      <c r="G119" s="36" t="e">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G119" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H119" s="36" t="e">
+      <c r="H119" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I119" s="39">
+      <c r="I119" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:9">
-      <c r="G120" s="36" t="e">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G120" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H120" s="36" t="e">
+      <c r="H120" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I120" s="39">
+      <c r="I120" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:9">
-      <c r="G121" s="36" t="e">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G121" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H121" s="36" t="e">
+      <c r="H121" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I121" s="39">
+      <c r="I121" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:9">
-      <c r="G122" s="36" t="e">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G122" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H122" s="36" t="e">
+      <c r="H122" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I122" s="39">
+      <c r="I122" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:9">
-      <c r="G123" s="36" t="e">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G123" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H123" s="36" t="e">
+      <c r="H123" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I123" s="39">
+      <c r="I123" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:9">
-      <c r="G124" s="36" t="e">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G124" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H124" s="36" t="e">
+      <c r="H124" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I124" s="39">
+      <c r="I124" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:9">
-      <c r="G125" s="36" t="e">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G125" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H125" s="36" t="e">
+      <c r="H125" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I125" s="39">
+      <c r="I125" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:9">
-      <c r="G126" s="36" t="e">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G126" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H126" s="36" t="e">
+      <c r="H126" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I126" s="39">
+      <c r="I126" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:9">
-      <c r="G127" s="36" t="e">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G127" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H127" s="36" t="e">
+      <c r="H127" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I127" s="39">
+      <c r="I127" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:9">
-      <c r="G128" s="36" t="e">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G128" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H128" s="36" t="e">
+      <c r="H128" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I128" s="39">
+      <c r="I128" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:9">
-      <c r="G129" s="36" t="e">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G129" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H129" s="36" t="e">
+      <c r="H129" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I129" s="39">
+      <c r="I129" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:9">
-      <c r="G130" s="36" t="e">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G130" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H130" s="36" t="e">
+      <c r="H130" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I130" s="39">
+      <c r="I130" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:9">
-      <c r="G131" s="36" t="e">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G131" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H131" s="36" t="e">
+      <c r="H131" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I131" s="39">
+      <c r="I131" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:9">
-      <c r="G132" s="36" t="e">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G132" s="34" t="e">
         <f t="shared" ref="G132:G195" si="6">F132/C132</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H132" s="36" t="e">
+      <c r="H132" s="34" t="e">
         <f t="shared" ref="H132:H195" si="7">F132*100/D132</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I132" s="39">
+      <c r="I132" s="37">
         <f t="shared" ref="I132:I151" si="8">D132*E132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="7:9">
-      <c r="G133" s="36" t="e">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G133" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H133" s="36" t="e">
+      <c r="H133" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I133" s="39">
+      <c r="I133" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="7:9">
-      <c r="G134" s="36" t="e">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G134" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H134" s="36" t="e">
+      <c r="H134" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I134" s="39">
+      <c r="I134" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="7:9">
-      <c r="G135" s="36" t="e">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G135" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H135" s="36" t="e">
+      <c r="H135" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I135" s="39">
+      <c r="I135" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="7:9">
-      <c r="G136" s="36" t="e">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G136" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H136" s="36" t="e">
+      <c r="H136" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I136" s="39">
+      <c r="I136" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="7:9">
-      <c r="G137" s="36" t="e">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G137" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H137" s="36" t="e">
+      <c r="H137" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I137" s="39">
+      <c r="I137" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="7:9">
-      <c r="G138" s="36" t="e">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G138" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H138" s="36" t="e">
+      <c r="H138" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I138" s="39">
+      <c r="I138" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="7:9">
-      <c r="G139" s="36" t="e">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G139" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H139" s="36" t="e">
+      <c r="H139" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I139" s="39">
+      <c r="I139" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="7:9">
-      <c r="G140" s="36" t="e">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G140" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H140" s="36" t="e">
+      <c r="H140" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I140" s="39">
+      <c r="I140" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="7:9">
-      <c r="G141" s="36" t="e">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G141" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H141" s="36" t="e">
+      <c r="H141" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I141" s="39">
+      <c r="I141" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="7:9">
-      <c r="G142" s="36" t="e">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G142" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H142" s="36" t="e">
+      <c r="H142" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I142" s="39">
+      <c r="I142" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="7:9">
-      <c r="G143" s="36" t="e">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G143" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H143" s="36" t="e">
+      <c r="H143" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I143" s="39">
+      <c r="I143" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="7:9">
-      <c r="G144" s="36" t="e">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G144" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H144" s="36" t="e">
+      <c r="H144" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I144" s="39">
+      <c r="I144" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:9">
-      <c r="G145" s="36" t="e">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G145" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H145" s="36" t="e">
+      <c r="H145" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I145" s="39">
+      <c r="I145" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:9">
-      <c r="G146" s="36" t="e">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G146" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H146" s="36" t="e">
+      <c r="H146" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I146" s="39">
+      <c r="I146" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:9">
-      <c r="G147" s="36" t="e">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G147" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H147" s="36" t="e">
+      <c r="H147" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I147" s="39">
+      <c r="I147" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="7:9">
-      <c r="G148" s="36" t="e">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G148" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H148" s="36" t="e">
+      <c r="H148" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I148" s="39">
+      <c r="I148" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="7:9">
-      <c r="G149" s="36" t="e">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G149" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H149" s="36" t="e">
+      <c r="H149" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I149" s="39">
+      <c r="I149" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:9">
-      <c r="G150" s="36" t="e">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G150" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H150" s="36" t="e">
+      <c r="H150" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I150" s="39">
+      <c r="I150" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:9">
-      <c r="G151" s="36" t="e">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G151" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H151" s="36" t="e">
+      <c r="H151" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I151" s="39">
+      <c r="I151" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:9">
-      <c r="G152" s="36" t="e">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G152" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H152" s="36" t="e">
+      <c r="H152" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="7:9">
-      <c r="G153" s="36" t="e">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G153" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H153" s="36" t="e">
+      <c r="H153" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="7:9">
-      <c r="G154" s="36" t="e">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G154" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H154" s="36" t="e">
+      <c r="H154" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="7:9">
-      <c r="G155" s="36" t="e">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G155" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H155" s="36" t="e">
+      <c r="H155" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="7:9">
-      <c r="G156" s="36" t="e">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G156" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H156" s="36" t="e">
+      <c r="H156" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="7:9">
-      <c r="G157" s="36" t="e">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G157" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H157" s="36" t="e">
+      <c r="H157" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="7:9">
-      <c r="G158" s="36" t="e">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G158" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H158" s="36" t="e">
+      <c r="H158" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="7:9">
-      <c r="G159" s="36" t="e">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G159" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H159" s="36" t="e">
+      <c r="H159" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="7:9">
-      <c r="G160" s="36" t="e">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G160" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H160" s="36" t="e">
+      <c r="H160" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="7:8">
-      <c r="G161" s="36" t="e">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G161" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H161" s="36" t="e">
+      <c r="H161" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="7:8">
-      <c r="G162" s="36" t="e">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G162" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H162" s="36" t="e">
+      <c r="H162" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="7:8">
-      <c r="G163" s="36" t="e">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G163" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H163" s="36" t="e">
+      <c r="H163" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="7:8">
-      <c r="G164" s="36" t="e">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G164" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H164" s="36" t="e">
+      <c r="H164" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="7:8">
-      <c r="G165" s="36" t="e">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G165" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H165" s="36" t="e">
+      <c r="H165" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="7:8">
-      <c r="G166" s="36" t="e">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G166" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H166" s="36" t="e">
+      <c r="H166" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="7:8">
-      <c r="G167" s="36" t="e">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G167" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H167" s="36" t="e">
+      <c r="H167" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="7:8">
-      <c r="G168" s="36" t="e">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G168" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H168" s="36" t="e">
+      <c r="H168" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="7:8">
-      <c r="G169" s="36" t="e">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G169" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H169" s="36" t="e">
+      <c r="H169" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="7:8">
-      <c r="G170" s="36" t="e">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G170" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H170" s="36" t="e">
+      <c r="H170" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="7:8">
-      <c r="G171" s="36" t="e">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G171" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H171" s="36" t="e">
+      <c r="H171" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="7:8">
-      <c r="G172" s="36" t="e">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G172" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H172" s="36" t="e">
+      <c r="H172" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="7:8">
-      <c r="G173" s="36" t="e">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G173" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H173" s="36" t="e">
+      <c r="H173" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="7:8">
-      <c r="G174" s="36" t="e">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G174" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H174" s="36" t="e">
+      <c r="H174" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="7:8">
-      <c r="G175" s="36" t="e">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G175" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H175" s="36" t="e">
+      <c r="H175" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="7:8">
-      <c r="G176" s="36" t="e">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G176" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H176" s="36" t="e">
+      <c r="H176" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="7:8">
-      <c r="G177" s="36" t="e">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G177" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H177" s="36" t="e">
+      <c r="H177" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="7:8">
-      <c r="G178" s="36" t="e">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G178" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H178" s="36" t="e">
+      <c r="H178" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="7:8">
-      <c r="G179" s="36" t="e">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G179" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H179" s="36" t="e">
+      <c r="H179" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="7:8">
-      <c r="G180" s="36" t="e">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G180" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H180" s="36" t="e">
+      <c r="H180" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="7:8">
-      <c r="G181" s="36" t="e">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G181" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H181" s="36" t="e">
+      <c r="H181" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="7:8">
-      <c r="G182" s="36" t="e">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G182" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H182" s="36" t="e">
+      <c r="H182" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" spans="7:8">
-      <c r="G183" s="36" t="e">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G183" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H183" s="36" t="e">
+      <c r="H183" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="7:8">
-      <c r="G184" s="36" t="e">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G184" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H184" s="36" t="e">
+      <c r="H184" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="7:8">
-      <c r="G185" s="36" t="e">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G185" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H185" s="36" t="e">
+      <c r="H185" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="7:8">
-      <c r="G186" s="36" t="e">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G186" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H186" s="36" t="e">
+      <c r="H186" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="7:8">
-      <c r="G187" s="36" t="e">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G187" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H187" s="36" t="e">
+      <c r="H187" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="188" spans="7:8">
-      <c r="G188" s="36" t="e">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G188" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H188" s="36" t="e">
+      <c r="H188" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="189" spans="7:8">
-      <c r="G189" s="36" t="e">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G189" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H189" s="36" t="e">
+      <c r="H189" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" spans="7:8">
-      <c r="G190" s="36" t="e">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G190" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H190" s="36" t="e">
+      <c r="H190" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="7:8">
-      <c r="G191" s="36" t="e">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G191" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H191" s="36" t="e">
+      <c r="H191" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="7:8">
-      <c r="G192" s="36" t="e">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G192" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H192" s="36" t="e">
+      <c r="H192" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="7:8">
-      <c r="G193" s="36" t="e">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G193" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H193" s="36" t="e">
+      <c r="H193" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="7:8">
-      <c r="G194" s="36" t="e">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G194" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H194" s="36" t="e">
+      <c r="H194" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="7:8">
-      <c r="G195" s="36" t="e">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G195" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H195" s="36" t="e">
+      <c r="H195" s="34" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="7:8">
-      <c r="G196" s="36" t="e">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G196" s="34" t="e">
         <f t="shared" ref="G196:G259" si="9">F196/C196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H196" s="36" t="e">
+      <c r="H196" s="34" t="e">
         <f t="shared" ref="H196:H259" si="10">F196*100/D196</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="7:8">
-      <c r="G197" s="36" t="e">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G197" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H197" s="36" t="e">
+      <c r="H197" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="7:8">
-      <c r="G198" s="36" t="e">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G198" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H198" s="36" t="e">
+      <c r="H198" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="7:8">
-      <c r="G199" s="36" t="e">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G199" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H199" s="36" t="e">
+      <c r="H199" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="7:8">
-      <c r="G200" s="36" t="e">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G200" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H200" s="36" t="e">
+      <c r="H200" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="7:8">
-      <c r="G201" s="36" t="e">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G201" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H201" s="36" t="e">
+      <c r="H201" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="7:8">
-      <c r="G202" s="36" t="e">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G202" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H202" s="36" t="e">
+      <c r="H202" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="7:8">
-      <c r="G203" s="36" t="e">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G203" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H203" s="36" t="e">
+      <c r="H203" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="7:8">
-      <c r="G204" s="36" t="e">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G204" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H204" s="36" t="e">
+      <c r="H204" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="7:8">
-      <c r="G205" s="36" t="e">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G205" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H205" s="36" t="e">
+      <c r="H205" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="7:8">
-      <c r="G206" s="36" t="e">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G206" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H206" s="36" t="e">
+      <c r="H206" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="7:8">
-      <c r="G207" s="36" t="e">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G207" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H207" s="36" t="e">
+      <c r="H207" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" spans="7:8">
-      <c r="G208" s="36" t="e">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G208" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H208" s="36" t="e">
+      <c r="H208" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="209" spans="7:8">
-      <c r="G209" s="36" t="e">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G209" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H209" s="36" t="e">
+      <c r="H209" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="210" spans="7:8">
-      <c r="G210" s="36" t="e">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G210" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H210" s="36" t="e">
+      <c r="H210" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="211" spans="7:8">
-      <c r="G211" s="36" t="e">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G211" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H211" s="36" t="e">
+      <c r="H211" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="212" spans="7:8">
-      <c r="G212" s="36" t="e">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G212" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H212" s="36" t="e">
+      <c r="H212" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="7:8">
-      <c r="G213" s="36" t="e">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G213" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H213" s="36" t="e">
+      <c r="H213" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="7:8">
-      <c r="G214" s="36" t="e">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G214" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H214" s="36" t="e">
+      <c r="H214" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="7:8">
-      <c r="G215" s="36" t="e">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G215" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H215" s="36" t="e">
+      <c r="H215" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="7:8">
-      <c r="G216" s="36" t="e">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G216" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H216" s="36" t="e">
+      <c r="H216" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="217" spans="7:8">
-      <c r="G217" s="36" t="e">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G217" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H217" s="36" t="e">
+      <c r="H217" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="7:8">
-      <c r="G218" s="36" t="e">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G218" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H218" s="36" t="e">
+      <c r="H218" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="219" spans="7:8">
-      <c r="G219" s="36" t="e">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G219" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H219" s="36" t="e">
+      <c r="H219" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" spans="7:8">
-      <c r="G220" s="36" t="e">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G220" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H220" s="36" t="e">
+      <c r="H220" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="221" spans="7:8">
-      <c r="G221" s="36" t="e">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G221" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H221" s="36" t="e">
+      <c r="H221" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="222" spans="7:8">
-      <c r="G222" s="36" t="e">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G222" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H222" s="36" t="e">
+      <c r="H222" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="223" spans="7:8">
-      <c r="G223" s="36" t="e">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G223" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H223" s="36" t="e">
+      <c r="H223" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="224" spans="7:8">
-      <c r="G224" s="36" t="e">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G224" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H224" s="36" t="e">
+      <c r="H224" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="225" spans="7:8">
-      <c r="G225" s="36" t="e">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G225" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H225" s="36" t="e">
+      <c r="H225" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="7:8">
-      <c r="G226" s="36" t="e">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G226" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H226" s="36" t="e">
+      <c r="H226" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="227" spans="7:8">
-      <c r="G227" s="36" t="e">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G227" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H227" s="36" t="e">
+      <c r="H227" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="228" spans="7:8">
-      <c r="G228" s="36" t="e">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G228" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H228" s="36" t="e">
+      <c r="H228" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="229" spans="7:8">
-      <c r="G229" s="36" t="e">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G229" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H229" s="36" t="e">
+      <c r="H229" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="230" spans="7:8">
-      <c r="G230" s="36" t="e">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G230" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H230" s="36" t="e">
+      <c r="H230" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="231" spans="7:8">
-      <c r="G231" s="36" t="e">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G231" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H231" s="36" t="e">
+      <c r="H231" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" spans="7:8">
-      <c r="G232" s="36" t="e">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G232" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H232" s="36" t="e">
+      <c r="H232" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="7:8">
-      <c r="G233" s="36" t="e">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G233" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H233" s="36" t="e">
+      <c r="H233" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="7:8">
-      <c r="G234" s="36" t="e">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G234" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H234" s="36" t="e">
+      <c r="H234" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="7:8">
-      <c r="G235" s="36" t="e">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G235" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H235" s="36" t="e">
+      <c r="H235" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="236" spans="7:8">
-      <c r="G236" s="36" t="e">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G236" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H236" s="36" t="e">
+      <c r="H236" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="237" spans="7:8">
-      <c r="G237" s="36" t="e">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G237" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H237" s="36" t="e">
+      <c r="H237" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" spans="7:8">
-      <c r="G238" s="36" t="e">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G238" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H238" s="36" t="e">
+      <c r="H238" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="239" spans="7:8">
-      <c r="G239" s="36" t="e">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G239" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H239" s="36" t="e">
+      <c r="H239" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="240" spans="7:8">
-      <c r="G240" s="36" t="e">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G240" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H240" s="36" t="e">
+      <c r="H240" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="7:8">
-      <c r="G241" s="36" t="e">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G241" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H241" s="36" t="e">
+      <c r="H241" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="7:8">
-      <c r="G242" s="36" t="e">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G242" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H242" s="36" t="e">
+      <c r="H242" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="243" spans="7:8">
-      <c r="G243" s="36" t="e">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G243" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H243" s="36" t="e">
+      <c r="H243" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" spans="7:8">
-      <c r="G244" s="36" t="e">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G244" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H244" s="36" t="e">
+      <c r="H244" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="245" spans="7:8">
-      <c r="G245" s="36" t="e">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G245" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H245" s="36" t="e">
+      <c r="H245" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="246" spans="7:8">
-      <c r="G246" s="36" t="e">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G246" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H246" s="36" t="e">
+      <c r="H246" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="247" spans="7:8">
-      <c r="G247" s="36" t="e">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G247" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H247" s="36" t="e">
+      <c r="H247" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="248" spans="7:8">
-      <c r="G248" s="36" t="e">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G248" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H248" s="36" t="e">
+      <c r="H248" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="249" spans="7:8">
-      <c r="G249" s="36" t="e">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G249" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H249" s="36" t="e">
+      <c r="H249" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" spans="7:8">
-      <c r="G250" s="36" t="e">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G250" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H250" s="36" t="e">
+      <c r="H250" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="251" spans="7:8">
-      <c r="G251" s="36" t="e">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G251" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H251" s="36" t="e">
+      <c r="H251" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="252" spans="7:8">
-      <c r="G252" s="36" t="e">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G252" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H252" s="36" t="e">
+      <c r="H252" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="253" spans="7:8">
-      <c r="G253" s="36" t="e">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G253" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H253" s="36" t="e">
+      <c r="H253" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="254" spans="7:8">
-      <c r="G254" s="36" t="e">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G254" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H254" s="36" t="e">
+      <c r="H254" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="255" spans="7:8">
-      <c r="G255" s="36" t="e">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G255" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H255" s="36" t="e">
+      <c r="H255" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" spans="7:8">
-      <c r="G256" s="36" t="e">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G256" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H256" s="36" t="e">
+      <c r="H256" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="257" spans="7:8">
-      <c r="G257" s="36" t="e">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G257" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H257" s="36" t="e">
+      <c r="H257" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="7:8">
-      <c r="G258" s="36" t="e">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G258" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H258" s="36" t="e">
+      <c r="H258" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="7:8">
-      <c r="G259" s="36" t="e">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G259" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H259" s="36" t="e">
+      <c r="H259" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="260" spans="7:8">
-      <c r="G260" s="36" t="e">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G260" s="34" t="e">
         <f t="shared" ref="G260:G323" si="11">F260/C260</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H260" s="36" t="e">
+      <c r="H260" s="34" t="e">
         <f t="shared" ref="H260:H323" si="12">F260*100/D260</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="261" spans="7:8">
-      <c r="G261" s="36" t="e">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G261" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H261" s="36" t="e">
+      <c r="H261" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" spans="7:8">
-      <c r="G262" s="36" t="e">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G262" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H262" s="36" t="e">
+      <c r="H262" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="263" spans="7:8">
-      <c r="G263" s="36" t="e">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G263" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H263" s="36" t="e">
+      <c r="H263" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="264" spans="7:8">
-      <c r="G264" s="36" t="e">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G264" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H264" s="36" t="e">
+      <c r="H264" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="265" spans="7:8">
-      <c r="G265" s="36" t="e">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G265" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H265" s="36" t="e">
+      <c r="H265" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="266" spans="7:8">
-      <c r="G266" s="36" t="e">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G266" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H266" s="36" t="e">
+      <c r="H266" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="267" spans="7:8">
-      <c r="G267" s="36" t="e">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G267" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H267" s="36" t="e">
+      <c r="H267" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="7:8">
-      <c r="G268" s="36" t="e">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G268" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H268" s="36" t="e">
+      <c r="H268" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="269" spans="7:8">
-      <c r="G269" s="36" t="e">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G269" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H269" s="36" t="e">
+      <c r="H269" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="7:8">
-      <c r="G270" s="36" t="e">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G270" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H270" s="36" t="e">
+      <c r="H270" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="7:8">
-      <c r="G271" s="36" t="e">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G271" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H271" s="36" t="e">
+      <c r="H271" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="7:8">
-      <c r="G272" s="36" t="e">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G272" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H272" s="36" t="e">
+      <c r="H272" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="7:8">
-      <c r="G273" s="36" t="e">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G273" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H273" s="36" t="e">
+      <c r="H273" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="7:8">
-      <c r="G274" s="36" t="e">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G274" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H274" s="36" t="e">
+      <c r="H274" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="7:8">
-      <c r="G275" s="36" t="e">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G275" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H275" s="36" t="e">
+      <c r="H275" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="7:8">
-      <c r="G276" s="36" t="e">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G276" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H276" s="36" t="e">
+      <c r="H276" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="7:8">
-      <c r="G277" s="36" t="e">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G277" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H277" s="36" t="e">
+      <c r="H277" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="7:8">
-      <c r="G278" s="36" t="e">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G278" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H278" s="36" t="e">
+      <c r="H278" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="7:8">
-      <c r="G279" s="36" t="e">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G279" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H279" s="36" t="e">
+      <c r="H279" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="7:8">
-      <c r="G280" s="36" t="e">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G280" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H280" s="36" t="e">
+      <c r="H280" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="7:8">
-      <c r="G281" s="36" t="e">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G281" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H281" s="36" t="e">
+      <c r="H281" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="7:8">
-      <c r="G282" s="36" t="e">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G282" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H282" s="36" t="e">
+      <c r="H282" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="7:8">
-      <c r="G283" s="36" t="e">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G283" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H283" s="36" t="e">
+      <c r="H283" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="7:8">
-      <c r="G284" s="36" t="e">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G284" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H284" s="36" t="e">
+      <c r="H284" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="7:8">
-      <c r="G285" s="36" t="e">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G285" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H285" s="36" t="e">
+      <c r="H285" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="7:8">
-      <c r="G286" s="36" t="e">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G286" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H286" s="36" t="e">
+      <c r="H286" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="7:8">
-      <c r="G287" s="36" t="e">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G287" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H287" s="36" t="e">
+      <c r="H287" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="7:8">
-      <c r="G288" s="36" t="e">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G288" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H288" s="36" t="e">
+      <c r="H288" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="7:8">
-      <c r="G289" s="36" t="e">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G289" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H289" s="36" t="e">
+      <c r="H289" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="7:8">
-      <c r="G290" s="36" t="e">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G290" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H290" s="36" t="e">
+      <c r="H290" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="7:8">
-      <c r="G291" s="36" t="e">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G291" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H291" s="36" t="e">
+      <c r="H291" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="7:8">
-      <c r="G292" s="36" t="e">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G292" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H292" s="36" t="e">
+      <c r="H292" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="7:8">
-      <c r="G293" s="36" t="e">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G293" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H293" s="36" t="e">
+      <c r="H293" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="7:8">
-      <c r="G294" s="36" t="e">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G294" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H294" s="36" t="e">
+      <c r="H294" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="7:8">
-      <c r="G295" s="36" t="e">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G295" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H295" s="36" t="e">
+      <c r="H295" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="7:8">
-      <c r="G296" s="36" t="e">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G296" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H296" s="36" t="e">
+      <c r="H296" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="7:8">
-      <c r="G297" s="36" t="e">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G297" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H297" s="36" t="e">
+      <c r="H297" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="7:8">
-      <c r="G298" s="36" t="e">
+    <row r="298" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G298" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H298" s="36" t="e">
+      <c r="H298" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="7:8">
-      <c r="G299" s="36" t="e">
+    <row r="299" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G299" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H299" s="36" t="e">
+      <c r="H299" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="7:8">
-      <c r="G300" s="36" t="e">
+    <row r="300" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G300" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H300" s="36" t="e">
+      <c r="H300" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="301" spans="7:8">
-      <c r="G301" s="36" t="e">
+    <row r="301" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G301" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H301" s="36" t="e">
+      <c r="H301" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="7:8">
-      <c r="G302" s="36" t="e">
+    <row r="302" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G302" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H302" s="36" t="e">
+      <c r="H302" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="7:8">
-      <c r="G303" s="36" t="e">
+    <row r="303" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G303" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H303" s="36" t="e">
+      <c r="H303" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="7:8">
-      <c r="G304" s="36" t="e">
+    <row r="304" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G304" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H304" s="36" t="e">
+      <c r="H304" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="7:8">
-      <c r="G305" s="36" t="e">
+    <row r="305" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G305" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H305" s="36" t="e">
+      <c r="H305" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="7:8">
-      <c r="G306" s="36" t="e">
+    <row r="306" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G306" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H306" s="36" t="e">
+      <c r="H306" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="7:8">
-      <c r="G307" s="36" t="e">
+    <row r="307" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G307" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H307" s="36" t="e">
+      <c r="H307" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="7:8">
-      <c r="G308" s="36" t="e">
+    <row r="308" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G308" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H308" s="36" t="e">
+      <c r="H308" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="7:8">
-      <c r="G309" s="36" t="e">
+    <row r="309" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G309" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H309" s="36" t="e">
+      <c r="H309" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="7:8">
-      <c r="G310" s="36" t="e">
+    <row r="310" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G310" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H310" s="36" t="e">
+      <c r="H310" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="7:8">
-      <c r="G311" s="36" t="e">
+    <row r="311" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G311" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H311" s="36" t="e">
+      <c r="H311" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="7:8">
-      <c r="G312" s="36" t="e">
+    <row r="312" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G312" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H312" s="36" t="e">
+      <c r="H312" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="313" spans="7:8">
-      <c r="G313" s="36" t="e">
+    <row r="313" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G313" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H313" s="36" t="e">
+      <c r="H313" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="7:8">
-      <c r="G314" s="36" t="e">
+    <row r="314" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G314" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H314" s="36" t="e">
+      <c r="H314" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="7:8">
-      <c r="G315" s="36" t="e">
+    <row r="315" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G315" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H315" s="36" t="e">
+      <c r="H315" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="7:8">
-      <c r="G316" s="36" t="e">
+    <row r="316" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G316" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H316" s="36" t="e">
+      <c r="H316" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="7:8">
-      <c r="G317" s="36" t="e">
+    <row r="317" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G317" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H317" s="36" t="e">
+      <c r="H317" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="7:8">
-      <c r="G318" s="36" t="e">
+    <row r="318" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G318" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H318" s="36" t="e">
+      <c r="H318" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="7:8">
-      <c r="G319" s="36" t="e">
+    <row r="319" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G319" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H319" s="36" t="e">
+      <c r="H319" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="7:8">
-      <c r="G320" s="36" t="e">
+    <row r="320" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G320" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H320" s="36" t="e">
+      <c r="H320" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="321" spans="7:8">
-      <c r="G321" s="36" t="e">
+    <row r="321" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G321" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H321" s="36" t="e">
+      <c r="H321" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="7:8">
-      <c r="G322" s="36" t="e">
+    <row r="322" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G322" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H322" s="36" t="e">
+      <c r="H322" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="7:8">
-      <c r="G323" s="36" t="e">
+    <row r="323" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G323" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H323" s="36" t="e">
+      <c r="H323" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="7:8">
-      <c r="G324" s="36" t="e">
+    <row r="324" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G324" s="34" t="e">
         <f t="shared" ref="G324:G354" si="13">F324/C324</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H324" s="36" t="e">
+      <c r="H324" s="34" t="e">
         <f t="shared" ref="H324:H354" si="14">F324*100/D324</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="7:8">
-      <c r="G325" s="36" t="e">
+    <row r="325" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G325" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H325" s="36" t="e">
+      <c r="H325" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="7:8">
-      <c r="G326" s="36" t="e">
+    <row r="326" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G326" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H326" s="36" t="e">
+      <c r="H326" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="7:8">
-      <c r="G327" s="36" t="e">
+    <row r="327" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G327" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H327" s="36" t="e">
+      <c r="H327" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="7:8">
-      <c r="G328" s="36" t="e">
+    <row r="328" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G328" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H328" s="36" t="e">
+      <c r="H328" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="7:8">
-      <c r="G329" s="36" t="e">
+    <row r="329" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G329" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H329" s="36" t="e">
+      <c r="H329" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="7:8">
-      <c r="G330" s="36" t="e">
+    <row r="330" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G330" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H330" s="36" t="e">
+      <c r="H330" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="7:8">
-      <c r="G331" s="36" t="e">
+    <row r="331" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G331" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H331" s="36" t="e">
+      <c r="H331" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="7:8">
-      <c r="G332" s="36" t="e">
+    <row r="332" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G332" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H332" s="36" t="e">
+      <c r="H332" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="7:8">
-      <c r="G333" s="36" t="e">
+    <row r="333" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G333" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H333" s="36" t="e">
+      <c r="H333" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="7:8">
-      <c r="G334" s="36" t="e">
+    <row r="334" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G334" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H334" s="36" t="e">
+      <c r="H334" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="7:8">
-      <c r="G335" s="36" t="e">
+    <row r="335" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G335" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H335" s="36" t="e">
+      <c r="H335" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="7:8">
-      <c r="G336" s="36" t="e">
+    <row r="336" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G336" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H336" s="36" t="e">
+      <c r="H336" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="7:8">
-      <c r="G337" s="36" t="e">
+    <row r="337" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G337" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H337" s="36" t="e">
+      <c r="H337" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="7:8">
-      <c r="G338" s="36" t="e">
+    <row r="338" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G338" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H338" s="36" t="e">
+      <c r="H338" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="7:8">
-      <c r="G339" s="36" t="e">
+    <row r="339" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G339" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H339" s="36" t="e">
+      <c r="H339" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="7:8">
-      <c r="G340" s="36" t="e">
+    <row r="340" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G340" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H340" s="36" t="e">
+      <c r="H340" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="7:8">
-      <c r="G341" s="36" t="e">
+    <row r="341" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G341" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H341" s="36" t="e">
+      <c r="H341" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="7:8">
-      <c r="G342" s="36" t="e">
+    <row r="342" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G342" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H342" s="36" t="e">
+      <c r="H342" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="7:8">
-      <c r="G343" s="36" t="e">
+    <row r="343" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G343" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H343" s="36" t="e">
+      <c r="H343" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="7:8">
-      <c r="G344" s="36" t="e">
+    <row r="344" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G344" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H344" s="36" t="e">
+      <c r="H344" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="7:8">
-      <c r="G345" s="36" t="e">
+    <row r="345" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G345" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H345" s="36" t="e">
+      <c r="H345" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="7:8">
-      <c r="G346" s="36" t="e">
+    <row r="346" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G346" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H346" s="36" t="e">
+      <c r="H346" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="7:8">
-      <c r="G347" s="36" t="e">
+    <row r="347" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G347" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H347" s="36" t="e">
+      <c r="H347" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="7:8">
-      <c r="G348" s="36" t="e">
+    <row r="348" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G348" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H348" s="36" t="e">
+      <c r="H348" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="7:8">
-      <c r="G349" s="36" t="e">
+    <row r="349" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G349" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H349" s="36" t="e">
+      <c r="H349" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="350" spans="7:8">
-      <c r="G350" s="36" t="e">
+    <row r="350" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G350" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H350" s="36" t="e">
+      <c r="H350" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="7:8">
-      <c r="G351" s="36" t="e">
+    <row r="351" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G351" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H351" s="36" t="e">
+      <c r="H351" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="7:8">
-      <c r="G352" s="36" t="e">
+    <row r="352" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G352" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H352" s="36" t="e">
+      <c r="H352" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="7:8">
-      <c r="G353" s="36" t="e">
+    <row r="353" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G353" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H353" s="36" t="e">
+      <c r="H353" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="7:8">
-      <c r="G354" s="36" t="e">
+    <row r="354" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G354" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H354" s="36" t="e">
+      <c r="H354" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8314,11 +8361,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
-    <col min="2" max="3" width="10.83203125" style="26"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="22"/>
+    <col min="2" max="3" width="10.875" style="26"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.5" style="24" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
@@ -8351,7 +8398,7 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E3" s="23" t="s">
         <v>47</v>
       </c>
@@ -8361,7 +8408,7 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
@@ -8399,7 +8446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <f>F5/E5</f>
         <v>0.18007662835249041</v>
@@ -8421,7 +8468,7 @@
       <c r="F5" s="25">
         <v>94</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>138</v>
       </c>
       <c r="H5" s="13">
@@ -8440,7 +8487,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <f t="shared" ref="A6:A14" si="0">F6/E6</f>
         <v>0.18007662835249041</v>
@@ -8462,7 +8509,7 @@
       <c r="F6" s="25">
         <v>94</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>138</v>
       </c>
       <c r="H6" s="13">
@@ -8481,7 +8528,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>0.1336206896551724</v>
@@ -8503,7 +8550,7 @@
       <c r="F7" s="25">
         <v>31</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>6</v>
       </c>
       <c r="H7" s="13">
@@ -8520,7 +8567,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>0.28205128205128205</v>
@@ -8542,7 +8589,7 @@
       <c r="F8" s="25">
         <v>44</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>30</v>
       </c>
       <c r="H8" s="13">
@@ -8561,7 +8608,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>0.1417910447761194</v>
@@ -8583,7 +8630,7 @@
       <c r="F9" s="25">
         <v>19</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>102</v>
       </c>
       <c r="H9" s="13">
@@ -8602,7 +8649,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D10" s="11">
         <v>42934.955555555556</v>
       </c>
@@ -8612,7 +8659,7 @@
       <c r="F10" s="25">
         <v>29</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>168</v>
       </c>
       <c r="H10" s="13">
@@ -8631,7 +8678,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>0.25892857142857145</v>
@@ -8653,7 +8700,7 @@
       <c r="F11" s="25">
         <v>29</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>168</v>
       </c>
       <c r="H11" s="13">
@@ -8672,7 +8719,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>0.25892857142857145</v>
@@ -8694,7 +8741,7 @@
       <c r="F12" s="25">
         <v>29</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>168</v>
       </c>
       <c r="H12" s="13">
@@ -8713,7 +8760,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>0.19400630914826497</v>
@@ -8735,7 +8782,7 @@
       <c r="F13" s="25">
         <v>123</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>306</v>
       </c>
       <c r="H13" s="13">
@@ -8754,7 +8801,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8771,12 +8818,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="e">
         <f t="shared" ref="A16:A20" si="3">F16/E16</f>
         <v>#DIV/0!</v>
@@ -8793,7 +8840,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8810,7 +8857,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8827,7 +8874,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8844,7 +8891,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8881,13 +8928,13 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" style="7"/>
-    <col min="9" max="9" width="10.83203125" style="20"/>
+    <col min="1" max="6" width="10.875" style="7"/>
+    <col min="9" max="9" width="10.875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -8916,11 +8963,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>4</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="29">
         <v>42934</v>
       </c>
       <c r="C2" s="7">
@@ -8949,889 +8996,889 @@
         <v>9.9960000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I3" s="20">
         <f t="shared" ref="I3:I66" si="0">D3*E3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:9">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:9">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:9">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:9">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:9">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:9">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:9">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:9">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I67" s="20">
         <f t="shared" ref="I67:I130" si="1">D67*E67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:9">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I68" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:9">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I69" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:9">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I70" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I71" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:9">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I72" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I73" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:9">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I74" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I75" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:9">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I76" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:9">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I77" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="9:9">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I78" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:9">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I79" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:9">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I80" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:9">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I81" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I82" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I83" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I84" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="9:9">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I85" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:9">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I86" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="9:9">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I87" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:9">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I88" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="9:9">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I89" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:9">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I90" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I91" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="9:9">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I92" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:9">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I93" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:9">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I94" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="9:9">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I95" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I96" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:9">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I97" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:9">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I98" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:9">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I99" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:9">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I100" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:9">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I101" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="9:9">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I102" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I103" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="9:9">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I104" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:9">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I105" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:9">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I106" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:9">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I107" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="9:9">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I108" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="9:9">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I109" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="9:9">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I110" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="9:9">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I111" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="9:9">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I112" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I113" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I114" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I115" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I116" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I117" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I118" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I119" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I120" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I121" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I122" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I123" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I124" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I125" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I126" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I127" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I128" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I129" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I130" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I131" s="20">
         <f t="shared" ref="I131:I150" si="2">D131*E131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I132" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I133" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I134" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I135" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I136" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I137" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I138" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I139" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I140" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I141" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I142" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I143" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I144" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I145" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I146" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I147" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I148" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I149" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I150" s="20">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="10520" yWindow="740" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="sum_tmplt" sheetId="7" r:id="rId5"/>
     <sheet name="sum_session_4" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,14 @@
     <t>感觉1/2/4桌上,有位置中set且前位下注，适当跟注可能更有利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>虾米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5环／星际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -383,9 +391,9 @@
     <numFmt numFmtId="180" formatCode="0.0_ "/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,31 +465,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -512,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -714,8 +697,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -762,24 +759,12 @@
     <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="201">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="215">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -880,106 +865,121 @@
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2263,1296 +2263,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="50" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" style="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="17.625" style="39"/>
+    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="17" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="17.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="52">
+    <row r="2" spans="1:24">
+      <c r="A2" s="41">
         <v>42891.833333333336</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E2" s="41">
-        <v>0</v>
-      </c>
-      <c r="G2" s="45">
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
         <v>42892</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="6">
         <v>2</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="44">
-        <f>IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
+      <c r="O2" s="40">
+        <f t="shared" ref="O2:O22" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-200</v>
       </c>
-      <c r="P2" s="48">
-        <f>ROUND((G2-A2)*24,2)</f>
+      <c r="P2" s="15">
+        <f t="shared" ref="P2:P22" si="1">ROUND((G2-A2)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="52">
+    <row r="3" spans="1:24">
+      <c r="A3" s="41">
         <v>42891.833333333336</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="9">
         <v>170</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="38">
         <v>42892</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="44">
-        <f>IF(E3&gt;D3,INT((E3-D3)*0.95),E3-D3)</f>
+      <c r="O3" s="40">
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="P3" s="48">
-        <f>ROUND((G3-A3)*24,2)</f>
+      <c r="P3" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="52">
+    <row r="4" spans="1:24">
+      <c r="A4" s="41">
         <v>42894.833333333336</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="9">
         <f>D4+90</f>
         <v>290</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="38">
         <v>42895</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="6">
         <v>2</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="44">
-        <f>IF(E4&gt;D4,INT((E4-D4)*0.95),E4-D4)</f>
+      <c r="O4" s="40">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P4" s="48">
-        <f>ROUND((G4-A4)*24,2)</f>
+      <c r="P4" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="52">
+    <row r="5" spans="1:24">
+      <c r="A5" s="41">
         <v>42894.833333333336</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="9">
         <f>D5+22</f>
         <v>222</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="38">
         <v>42895</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="6">
         <v>2</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="44">
-        <f>IF(E5&gt;D5,INT((E5-D5)*0.95),E5-D5)</f>
+      <c r="O5" s="40">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P5" s="48">
-        <f>ROUND((G5-A5)*24,2)</f>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="52">
+    <row r="6" spans="1:24">
+      <c r="A6" s="41">
         <v>42894.833333333336</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="9">
         <f>D6+75</f>
         <v>275</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="38">
         <v>42895</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="44">
-        <f>IF(E6&gt;D6,INT((E6-D6)*0.95),E6-D6)</f>
+      <c r="O6" s="40">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="P6" s="48">
-        <f>ROUND((G6-A6)*24,2)</f>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X6" s="51" t="s">
+      <c r="X6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="52">
+    <row r="7" spans="1:24">
+      <c r="A7" s="41">
         <v>42899.833333333336</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="9">
         <f>D7-169</f>
         <v>31</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="38">
         <v>42900</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="6">
         <v>2</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="44">
-        <f>IF(E7&gt;D7,INT((E7-D7)*0.95),E7-D7)</f>
+      <c r="O7" s="40">
+        <f t="shared" si="0"/>
         <v>-169</v>
       </c>
-      <c r="P7" s="48">
-        <f>ROUND((G7-A7)*24,2)</f>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="52">
+    <row r="8" spans="1:24">
+      <c r="A8" s="41">
         <v>42899.833333333336</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="9">
         <f>D8+17</f>
         <v>217</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="38">
         <v>42900</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="6">
         <v>2</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="44">
-        <f>IF(E8&gt;D8,INT((E8-D8)*0.95),E8-D8)</f>
+      <c r="O8" s="40">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P8" s="48">
-        <f>ROUND((G8-A8)*24,2)</f>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+    <row r="9" spans="1:24">
+      <c r="A9" s="41">
         <v>42904.833333333336</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="9">
         <f>D9+201</f>
         <v>401</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="38">
         <v>42905</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="6">
         <v>2</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="44">
-        <f>IF(E9&gt;D9,INT((E9-D9)*0.95),E9-D9)</f>
+      <c r="O9" s="40">
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="P9" s="48">
-        <f>ROUND((G9-A9)*24,2)</f>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="52">
+    <row r="10" spans="1:24">
+      <c r="A10" s="41">
         <v>42904.833333333336</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="9">
         <f>D10-6</f>
         <v>194</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="38">
         <v>42905</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="44">
-        <f>IF(E10&gt;D10,INT((E10-D10)*0.95),E10-D10)</f>
+      <c r="O10" s="40">
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="P10" s="48">
-        <f>ROUND((G10-A10)*24,2)</f>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X10" s="51" t="s">
+      <c r="X10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
+    <row r="11" spans="1:24">
+      <c r="A11" s="41">
         <v>42904.833333333336</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="9">
         <f>D11+15</f>
         <v>215</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="38">
         <v>42905</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="44">
-        <f>IF(E11&gt;D11,INT((E11-D11)*0.95),E11-D11)</f>
+      <c r="O11" s="40">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P11" s="48">
-        <f>ROUND((G11-A11)*24,2)</f>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="52">
+    <row r="12" spans="1:24">
+      <c r="A12" s="41">
         <v>42905.883333333331</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="6">
         <f>200+200</f>
         <v>400</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="9">
         <f>D12+211</f>
         <v>611</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="38">
         <v>42906</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="6">
         <v>2</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="44">
-        <f>IF(E12&gt;D12,INT((E12-D12)*0.95),E12-D12)</f>
+      <c r="O12" s="40">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P12" s="48">
-        <f>ROUND((G12-A12)*24,2)</f>
+      <c r="P12" s="15">
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X12" s="51" t="s">
+      <c r="X12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="52">
+    <row r="13" spans="1:24">
+      <c r="A13" s="41">
         <v>42905.883333333331</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="6">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="9">
         <f>D13+106</f>
         <v>406</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="38">
         <v>42906</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="44">
-        <f>IF(E13&gt;D13,INT((E13-D13)*0.95),E13-D13)</f>
+      <c r="O13" s="40">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P13" s="48">
-        <f>ROUND((G13-A13)*24,2)</f>
+      <c r="P13" s="15">
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X13" s="51" t="s">
+      <c r="X13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+    <row r="14" spans="1:24">
+      <c r="A14" s="41">
         <v>42905.883333333331</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="6">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="9">
         <f>D14-9</f>
         <v>191</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="38">
         <v>42906</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="6">
         <v>2</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="44">
-        <f>IF(E14&gt;D14,INT((E14-D14)*0.95),E14-D14)</f>
+      <c r="O14" s="40">
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="P14" s="48">
-        <f>ROUND((G14-A14)*24,2)</f>
+      <c r="P14" s="15">
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X14" s="51" t="s">
+      <c r="X14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+    <row r="15" spans="1:24">
+      <c r="A15" s="41">
         <v>42925.631249999999</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="6">
         <f>200+300</f>
         <v>500</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="9">
         <f>D15-174</f>
         <v>326</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="18">
         <v>326</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="38">
         <v>42925.809027777781</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="6">
         <v>1732</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="6">
         <v>0.68</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="6">
         <v>1981</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="6">
         <v>0.62</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="6">
         <v>2</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="43">
-        <f>F15-D15</f>
+      <c r="N15" s="39">
+        <f t="shared" ref="N15:N24" si="2">F15-D15</f>
         <v>-174</v>
       </c>
-      <c r="O15" s="44">
-        <f>IF(E15&gt;D15,INT((E15-D15)*0.95),E15-D15)</f>
+      <c r="O15" s="40">
+        <f t="shared" si="0"/>
         <v>-174</v>
       </c>
-      <c r="P15" s="48">
-        <f>ROUND((G15-A15)*24,2)</f>
+      <c r="P15" s="15">
+        <f t="shared" si="1"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="Q15" s="48">
-        <f t="shared" ref="Q15:Q22" si="0">J15-H15</f>
+      <c r="Q15" s="15">
+        <f t="shared" ref="Q15:Q22" si="3">J15-H15</f>
         <v>249</v>
       </c>
-      <c r="R15" s="48">
-        <f t="shared" ref="R15:R22" si="1">T15-S15</f>
+      <c r="R15" s="15">
+        <f t="shared" ref="R15:R22" si="4">T15-S15</f>
         <v>51</v>
       </c>
-      <c r="S15" s="48">
-        <f t="shared" ref="S15:S22" si="2">INT(H15*I15)</f>
+      <c r="S15" s="15">
+        <f t="shared" ref="S15:S22" si="5">INT(H15*I15)</f>
         <v>1177</v>
       </c>
-      <c r="T15" s="48">
-        <f t="shared" ref="T15:T22" si="3">INT(J15*K15)</f>
+      <c r="T15" s="15">
+        <f t="shared" ref="T15:T22" si="6">INT(J15*K15)</f>
         <v>1228</v>
       </c>
-      <c r="U15" s="49">
-        <f t="shared" ref="U15:U22" si="4">R15/Q15</f>
+      <c r="U15" s="16">
+        <f t="shared" ref="U15:U22" si="7">R15/Q15</f>
         <v>0.20481927710843373</v>
       </c>
-      <c r="V15" s="50">
-        <f>O15/Q15/L15</f>
+      <c r="V15" s="17">
+        <f t="shared" ref="V15:V22" si="8">O15/Q15/L15</f>
         <v>-0.3493975903614458</v>
       </c>
-      <c r="W15" s="50">
-        <f>N15/P15/L15</f>
+      <c r="W15" s="17">
+        <f>O15/P15/L15</f>
         <v>-20.374707259953162</v>
       </c>
-      <c r="X15" s="51" t="s">
+      <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="52">
+    <row r="16" spans="1:24">
+      <c r="A16" s="41">
         <v>42925.631249999999</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="6">
         <v>200</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="9">
         <v>524</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="18">
         <v>508</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="38">
         <v>42925.740972222222</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="6">
         <v>2213</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="6">
         <v>0.61</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="6">
         <v>2379</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="6">
         <v>2</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="43">
-        <f>F16-D16</f>
+      <c r="N16" s="39">
+        <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="O16" s="44">
-        <f>IF(E16&gt;D16,INT((E16-D16)*0.95),E16-D16)</f>
+      <c r="O16" s="40">
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="P16" s="48">
-        <f>ROUND((G16-A16)*24,2)</f>
+      <c r="P16" s="15">
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
-      <c r="Q16" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="R16" s="48">
-        <f t="shared" si="1"/>
+      <c r="R16" s="15">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="S16" s="48">
+      <c r="S16" s="15">
+        <f t="shared" si="5"/>
+        <v>1349</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="6"/>
+        <v>1379</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="7"/>
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="8"/>
+        <v>0.92469879518072284</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" ref="W16:W24" si="9">O16/P16/L16</f>
+        <v>58.365019011406844</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="41">
+        <v>42925.631249999999</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>300</v>
+      </c>
+      <c r="E17" s="9">
+        <v>367</v>
+      </c>
+      <c r="F17" s="18">
+        <v>367</v>
+      </c>
+      <c r="G17" s="38">
+        <v>42925.811805555553</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1509</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1753</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="39">
         <f t="shared" si="2"/>
-        <v>1349</v>
-      </c>
-      <c r="T16" s="48">
+        <v>67</v>
+      </c>
+      <c r="O17" s="40">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="1"/>
+        <v>4.33</v>
+      </c>
+      <c r="Q17" s="15">
         <f t="shared" si="3"/>
-        <v>1379</v>
-      </c>
-      <c r="U16" s="49">
+        <v>244</v>
+      </c>
+      <c r="R17" s="15">
         <f t="shared" si="4"/>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="V16" s="50">
-        <f>O16/Q16/L16</f>
-        <v>0.92469879518072284</v>
-      </c>
-      <c r="W16" s="50">
-        <f>N16/P16/L16</f>
-        <v>58.555133079847913</v>
-      </c>
-      <c r="X16" s="51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="52">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="46">
-        <v>300</v>
-      </c>
-      <c r="E17" s="41">
-        <v>367</v>
-      </c>
-      <c r="F17" s="42">
-        <v>367</v>
-      </c>
-      <c r="G17" s="45">
-        <v>42925.811805555553</v>
-      </c>
-      <c r="H17" s="46">
-        <v>1509</v>
-      </c>
-      <c r="I17" s="46">
-        <v>0.71</v>
-      </c>
-      <c r="J17" s="46">
-        <v>1753</v>
-      </c>
-      <c r="K17" s="46">
-        <v>0.64</v>
-      </c>
-      <c r="L17" s="46">
-        <v>2</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="43">
-        <f>F17-D17</f>
-        <v>67</v>
-      </c>
-      <c r="O17" s="44">
-        <f>IF(E17&gt;D17,INT((E17-D17)*0.95),E17-D17)</f>
-        <v>63</v>
-      </c>
-      <c r="P17" s="48">
-        <f>ROUND((G17-A17)*24,2)</f>
-        <v>4.33</v>
-      </c>
-      <c r="Q17" s="48">
-        <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-      <c r="R17" s="48">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="S17" s="48">
-        <f t="shared" si="2"/>
+      <c r="S17" s="15">
+        <f t="shared" si="5"/>
         <v>1071</v>
       </c>
-      <c r="T17" s="48">
-        <f t="shared" si="3"/>
+      <c r="T17" s="15">
+        <f t="shared" si="6"/>
         <v>1121</v>
       </c>
-      <c r="U17" s="49">
-        <f t="shared" si="4"/>
+      <c r="U17" s="16">
+        <f t="shared" si="7"/>
         <v>0.20491803278688525</v>
       </c>
-      <c r="V17" s="50">
-        <f>O17/Q17/L17</f>
+      <c r="V17" s="17">
+        <f t="shared" si="8"/>
         <v>0.12909836065573771</v>
       </c>
-      <c r="W17" s="50">
-        <f>N17/P17/L17</f>
-        <v>7.7367205542725168</v>
-      </c>
-      <c r="X17" s="51" t="s">
+      <c r="W17" s="17">
+        <f t="shared" si="9"/>
+        <v>7.274826789838337</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="52">
+    <row r="18" spans="1:24">
+      <c r="A18" s="41">
         <v>42934.876388888886</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="6">
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="9">
         <f>D18+108</f>
         <v>408</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="18">
         <v>403</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="38">
         <v>42935.022222222222</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="6">
         <v>2186</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="6">
         <v>0.66</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="6">
         <v>2320</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="6">
         <v>0.63</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="6">
         <v>2</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="43">
-        <f>F18-D18</f>
+      <c r="N18" s="39">
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="O18" s="44">
-        <f>IF(E18&gt;D18,INT((E18-D18)*0.95),E18-D18)</f>
+      <c r="O18" s="40">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P18" s="48">
-        <f>ROUND((G18-A18)*24,2)</f>
+      <c r="P18" s="15">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="Q18" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="R18" s="48">
-        <f t="shared" si="1"/>
+      <c r="R18" s="15">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="S18" s="48">
-        <f t="shared" si="2"/>
+      <c r="S18" s="15">
+        <f t="shared" si="5"/>
         <v>1442</v>
       </c>
-      <c r="T18" s="48">
-        <f t="shared" si="3"/>
+      <c r="T18" s="15">
+        <f t="shared" si="6"/>
         <v>1461</v>
       </c>
-      <c r="U18" s="49">
-        <f t="shared" si="4"/>
+      <c r="U18" s="16">
+        <f t="shared" si="7"/>
         <v>0.1417910447761194</v>
       </c>
-      <c r="V18" s="50">
-        <f>O18/Q18/L18</f>
+      <c r="V18" s="17">
+        <f t="shared" si="8"/>
         <v>0.38059701492537312</v>
       </c>
-      <c r="W18" s="50">
-        <f>N18/P18/L18</f>
-        <v>14.714285714285714</v>
-      </c>
-      <c r="X18" s="51" t="s">
+      <c r="W18" s="17">
+        <f t="shared" si="9"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="52">
+    <row r="19" spans="1:24">
+      <c r="A19" s="41">
         <v>42934.876388888886</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="6">
         <v>200</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="9">
         <f>D19+7</f>
         <v>207</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="18">
         <v>207</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="38">
         <v>42935.041666666664</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="6">
         <v>2584</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="6">
         <v>0.62</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="6">
         <v>2816</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="6">
         <v>2</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="43">
-        <f>F19-D19</f>
+      <c r="N19" s="39">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O19" s="44">
-        <f>IF(E19&gt;D19,INT((E19-D19)*0.95),E19-D19)</f>
+      <c r="O19" s="40">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P19" s="48">
-        <f>ROUND((G19-A19)*24,2)</f>
+      <c r="P19" s="15">
+        <f t="shared" si="1"/>
         <v>3.97</v>
       </c>
-      <c r="Q19" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="R19" s="48">
-        <f t="shared" si="1"/>
+      <c r="R19" s="15">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="S19" s="48">
-        <f t="shared" si="2"/>
+      <c r="S19" s="15">
+        <f t="shared" si="5"/>
         <v>1602</v>
       </c>
-      <c r="T19" s="48">
-        <f t="shared" si="3"/>
+      <c r="T19" s="15">
+        <f t="shared" si="6"/>
         <v>1633</v>
       </c>
-      <c r="U19" s="49">
-        <f t="shared" si="4"/>
+      <c r="U19" s="16">
+        <f t="shared" si="7"/>
         <v>0.1336206896551724</v>
       </c>
-      <c r="V19" s="50">
-        <f>O19/Q19/L19</f>
+      <c r="V19" s="17">
+        <f t="shared" si="8"/>
         <v>1.2931034482758621E-2</v>
       </c>
-      <c r="W19" s="50">
-        <f>N19/P19/L19</f>
-        <v>0.88161209068010071</v>
-      </c>
-      <c r="X19" s="51" t="s">
+      <c r="W19" s="17">
+        <f t="shared" si="9"/>
+        <v>0.75566750629722923</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="52">
+    <row r="20" spans="1:24">
+      <c r="A20" s="41">
         <v>42934.876388888886</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="6">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="9">
         <f>D20+618</f>
         <v>1018</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="18">
         <v>988</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="38">
         <v>42934.955555555556</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="6">
         <v>1753</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="6">
         <v>0.64</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="6">
         <v>1855</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="6">
         <v>0.61</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="6">
         <v>4</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="43">
-        <f>F20-D20</f>
+      <c r="N20" s="39">
+        <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="O20" s="44">
-        <f>IF(E20&gt;D20,INT((E20-D20)*0.95),E20-D20)</f>
+      <c r="O20" s="40">
+        <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="P20" s="48">
-        <f>ROUND((G20-A20)*24,2)</f>
+      <c r="P20" s="15">
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="Q20" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="R20" s="48">
-        <f t="shared" si="1"/>
+      <c r="R20" s="15">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="S20" s="48">
-        <f t="shared" si="2"/>
+      <c r="S20" s="15">
+        <f t="shared" si="5"/>
         <v>1121</v>
       </c>
-      <c r="T20" s="48">
-        <f t="shared" si="3"/>
+      <c r="T20" s="15">
+        <f t="shared" si="6"/>
         <v>1131</v>
       </c>
-      <c r="U20" s="49">
-        <f t="shared" si="4"/>
+      <c r="U20" s="16">
+        <f t="shared" si="7"/>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="V20" s="50">
-        <f>O20/Q20/L20</f>
+      <c r="V20" s="17">
+        <f t="shared" si="8"/>
         <v>1.4387254901960784</v>
       </c>
-      <c r="W20" s="50">
-        <f>N20/P20/L20</f>
-        <v>77.368421052631589</v>
-      </c>
-      <c r="X20" s="51" t="s">
+      <c r="W20" s="17">
+        <f t="shared" si="9"/>
+        <v>77.236842105263165</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="52">
+    <row r="21" spans="1:24">
+      <c r="A21" s="41">
         <v>42934.876388888886</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="6">
         <v>200</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="9">
         <f>D21+32</f>
         <v>232</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="18">
         <v>232</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="38">
         <v>42934.986805555556</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="6">
         <v>1674</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="6">
         <v>0.63</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="6">
         <v>1830</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="6">
         <v>0.6</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="6">
         <v>2</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="43">
-        <f>F21-D21</f>
+      <c r="N21" s="39">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="O21" s="44">
-        <f>IF(E21&gt;D21,INT((E21-D21)*0.95),E21-D21)</f>
+      <c r="O21" s="40">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P21" s="48">
-        <f>ROUND((G21-A21)*24,2)</f>
+      <c r="P21" s="15">
+        <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="Q21" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="R21" s="48">
-        <f t="shared" si="1"/>
+      <c r="R21" s="15">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="S21" s="48">
-        <f t="shared" si="2"/>
+      <c r="S21" s="15">
+        <f t="shared" si="5"/>
         <v>1054</v>
       </c>
-      <c r="T21" s="48">
-        <f t="shared" si="3"/>
+      <c r="T21" s="15">
+        <f t="shared" si="6"/>
         <v>1098</v>
       </c>
-      <c r="U21" s="49">
-        <f t="shared" si="4"/>
+      <c r="U21" s="16">
+        <f t="shared" si="7"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="V21" s="50">
-        <f>O21/Q21/L21</f>
+      <c r="V21" s="17">
+        <f t="shared" si="8"/>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="W21" s="50">
-        <f>N21/P21/L21</f>
-        <v>6.0377358490566042</v>
-      </c>
-      <c r="X21" s="51" t="s">
+      <c r="W21" s="17">
+        <f t="shared" si="9"/>
+        <v>5.6603773584905666</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="52">
+    <row r="22" spans="1:24">
+      <c r="A22" s="41">
         <v>42934.955555555556</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="6">
         <v>200</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="9">
         <f>D22+177</f>
         <v>377</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="18">
         <v>369</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="38">
         <v>42935.03402777778</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="6">
         <v>1855</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="6">
         <v>0.61</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="6">
         <v>1967</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="6">
         <v>0.59</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="6">
         <v>2</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="43">
-        <f>F22-D22</f>
+      <c r="N22" s="39">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="O22" s="44">
-        <f>IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
+      <c r="O22" s="40">
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="P22" s="48">
-        <f>ROUND((G22-A22)*24,2)</f>
+      <c r="P22" s="15">
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
-      <c r="Q22" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="R22" s="48">
-        <f t="shared" si="1"/>
+      <c r="R22" s="15">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="S22" s="48">
+      <c r="S22" s="15">
+        <f t="shared" si="5"/>
+        <v>1131</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="6"/>
+        <v>1160</v>
+      </c>
+      <c r="U22" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="9"/>
+        <v>44.680851063829792</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="41">
+        <v>42936.855555555558</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="E23" s="9">
+        <f>D23+150</f>
+        <v>350</v>
+      </c>
+      <c r="G23" s="38">
+        <v>42936.959722222222</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2320</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2422</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="L23" s="6">
+        <v>2</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="39">
+        <f>F23-D23</f>
+        <v>-200</v>
+      </c>
+      <c r="O23" s="40">
+        <f t="shared" ref="O23:O24" si="10">IF(E23&gt;D23,INT((E23-D23)*0.95),E23-D23)</f>
+        <v>142</v>
+      </c>
+      <c r="P23" s="15">
+        <f>ROUND((G23-A23)*24,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" ref="Q23:Q24" si="11">J23-H23</f>
+        <v>102</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" ref="R23:R24" si="12">T23-S23</f>
+        <v>16</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" ref="S23:S24" si="13">INT(H23*I23)</f>
+        <v>1461</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" ref="T23:T24" si="14">INT(J23*K23)</f>
+        <v>1477</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" ref="U23:U24" si="15">R23/Q23</f>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="V23" s="17">
+        <f t="shared" ref="V23:V24" si="16">O23/Q23/L23</f>
+        <v>0.69607843137254899</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="9"/>
+        <v>28.4</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="41">
+        <v>42936.855555555558</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6">
+        <f>200+200</f>
+        <v>400</v>
+      </c>
+      <c r="E24" s="9">
+        <f>D24-132</f>
+        <v>268</v>
+      </c>
+      <c r="G24" s="38">
+        <v>42936.965277777781</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1967</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2117</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="39">
         <f t="shared" si="2"/>
-        <v>1131</v>
-      </c>
-      <c r="T22" s="48">
-        <f t="shared" si="3"/>
+        <v>-400</v>
+      </c>
+      <c r="O24" s="40">
+        <f t="shared" si="10"/>
+        <v>-132</v>
+      </c>
+      <c r="P24" s="15">
+        <f t="shared" ref="P24" si="17">ROUND((G24-A24)*24,2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="Q24" s="15">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="R24" s="15">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="S24" s="15">
+        <f t="shared" si="13"/>
         <v>1160</v>
       </c>
-      <c r="U22" s="49">
-        <f t="shared" si="4"/>
-        <v>0.25892857142857145</v>
-      </c>
-      <c r="V22" s="50">
-        <f>O22/Q22/L22</f>
-        <v>0.75</v>
-      </c>
-      <c r="W22" s="50">
-        <f>N22/P22/L22</f>
-        <v>44.946808510638299</v>
-      </c>
-      <c r="X22" s="51" t="s">
+      <c r="T24" s="15">
+        <f t="shared" si="14"/>
+        <v>1206</v>
+      </c>
+      <c r="U24" s="16">
+        <f>R24/Q24</f>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="V24" s="17">
+        <f t="shared" si="16"/>
+        <v>-0.44</v>
+      </c>
+      <c r="W24" s="17">
+        <f t="shared" si="9"/>
+        <v>-25.095057034220535</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3576,14 +3742,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3594,7 +3760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3605,7 +3771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3613,7 +3779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3624,7 +3790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3635,7 +3801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3646,7 +3812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="28">
         <v>42935.041666666664</v>
       </c>
@@ -3654,7 +3820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="28">
         <v>42935.041666666664</v>
       </c>
@@ -3665,7 +3831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="28">
         <v>42935.041666666664</v>
       </c>
@@ -3673,7 +3839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="28">
         <v>42935.041666666664</v>
       </c>
@@ -3695,36 +3861,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="6.5" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.5" style="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="20"/>
+    <col min="22" max="22" width="11" style="20"/>
     <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="14">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="14">
       <c r="A2" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3878,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="14">
       <c r="A3" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -3958,7 +4124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="14">
       <c r="A4" s="4">
         <v>42925.631249999999</v>
       </c>
@@ -4036,7 +4202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -4044,12 +4210,284 @@
         <v>18606515723</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="14">
+      <c r="A7" s="41">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" ref="N7:N10" si="0">F7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <f t="shared" ref="O7:O10" si="1">IF(E7&gt;D7,INT((E7-D7)*0.95),E7-D7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" ref="P7:P10" si="2">ROUND((G7-A7)*24,2)</f>
+        <v>-1030437.03</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" ref="Q7:Q10" si="3">J7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" ref="R7:R10" si="4">T7-S7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" ref="S7:S10" si="5">INT(H7*I7)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" ref="T7:T10" si="6">INT(J7*K7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="16" t="e">
+        <f t="shared" ref="U7:U10" si="7">R7/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="17" t="e">
+        <f t="shared" ref="V7:V10" si="8">O7/Q7/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="17">
+        <f t="shared" ref="W7:W10" si="9">N7/P7/L7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="14">
+      <c r="A8" s="41">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="2"/>
+        <v>-1030437.03</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="14">
+      <c r="A9" s="41">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <v>4</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="2"/>
+        <v>-1030437.03</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="14">
+      <c r="A10" s="41">
+        <v>42934.876388888886</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>2</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="2"/>
+        <v>-1030437.03</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4072,15 +4510,15 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="10.875" style="7"/>
-    <col min="7" max="8" width="10.875" style="20"/>
-    <col min="9" max="9" width="10.875" style="37"/>
-    <col min="11" max="16" width="10.875" style="30"/>
+    <col min="1" max="6" width="11" style="7"/>
+    <col min="7" max="8" width="11" style="20"/>
+    <col min="9" max="9" width="11" style="37"/>
+    <col min="11" max="16" width="11" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -4109,7 +4547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -4142,7 +4580,7 @@
         <v>131.14100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4175,7 +4613,7 @@
         <v>122.99600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="G4" s="34" t="e">
         <f t="shared" ref="G4:G67" si="0">F4/C4</f>
         <v>#DIV/0!</v>
@@ -4207,7 +4645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="G5" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4244,7 +4682,7 @@
         <v>19.605568445475637</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="G6" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4281,7 +4719,7 @@
         <v>143.87254901960785</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="G7" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4295,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="G8" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4309,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="G9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4323,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="G10" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4337,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="G11" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4351,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="G12" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4365,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="G13" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4379,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="G14" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4393,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="G15" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4407,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="G16" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4421,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:9">
       <c r="G17" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4435,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:9">
       <c r="G18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4449,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:9">
       <c r="G19" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4463,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:9">
       <c r="G20" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4477,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:9">
       <c r="G21" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4491,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:9">
       <c r="G22" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4505,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:9">
       <c r="G23" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4519,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:9">
       <c r="G24" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4533,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:9">
       <c r="G25" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4547,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:9">
       <c r="G26" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4561,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:9">
       <c r="G27" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4575,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:9">
       <c r="G28" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4589,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:9">
       <c r="G29" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4603,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:9">
       <c r="G30" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4617,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="7:9">
       <c r="G31" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4631,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="7:9">
       <c r="G32" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4645,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:9">
       <c r="G33" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4659,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:9">
       <c r="G34" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4673,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:9">
       <c r="G35" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4687,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="7:9">
       <c r="G36" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4701,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="7:9">
       <c r="G37" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4715,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:9">
       <c r="G38" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4729,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:9">
       <c r="G39" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4743,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:9">
       <c r="G40" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4757,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="7:9">
       <c r="G41" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4771,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="7:9">
       <c r="G42" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4785,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="7:9">
       <c r="G43" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4799,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="7:9">
       <c r="G44" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4813,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="7:9">
       <c r="G45" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4827,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="7:9">
       <c r="G46" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4841,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="7:9">
       <c r="G47" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4855,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="7:9">
       <c r="G48" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4869,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="7:9">
       <c r="G49" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4883,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="7:9">
       <c r="G50" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4897,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="7:9">
       <c r="G51" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4911,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="7:9">
       <c r="G52" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4925,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="7:9">
       <c r="G53" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4939,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="7:9">
       <c r="G54" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4953,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="7:9">
       <c r="G55" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4967,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="7:9">
       <c r="G56" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4981,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="7:9">
       <c r="G57" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4995,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="7:9">
       <c r="G58" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5009,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="7:9">
       <c r="G59" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5023,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="7:9">
       <c r="G60" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5037,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="7:9">
       <c r="G61" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5051,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="7:9">
       <c r="G62" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5065,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="7:9">
       <c r="G63" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5079,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="7:9">
       <c r="G64" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5093,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="7:9">
       <c r="G65" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5107,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="7:9">
       <c r="G66" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5121,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="7:9">
       <c r="G67" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5135,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="7:9">
       <c r="G68" s="34" t="e">
         <f t="shared" ref="G68:G131" si="3">F68/C68</f>
         <v>#DIV/0!</v>
@@ -5149,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="7:9">
       <c r="G69" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5163,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="7:9">
       <c r="G70" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5177,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="7:9">
       <c r="G71" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5191,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="7:9">
       <c r="G72" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5205,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="7:9">
       <c r="G73" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5219,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="7:9">
       <c r="G74" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5233,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="7:9">
       <c r="G75" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5247,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="7:9">
       <c r="G76" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5261,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="7:9">
       <c r="G77" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5275,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="7:9">
       <c r="G78" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5289,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="7:9">
       <c r="G79" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5303,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="7:9">
       <c r="G80" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5317,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="7:9">
       <c r="G81" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5331,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="7:9">
       <c r="G82" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5345,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="7:9">
       <c r="G83" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5359,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="7:9">
       <c r="G84" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5373,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="7:9">
       <c r="G85" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5387,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="7:9">
       <c r="G86" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5401,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="7:9">
       <c r="G87" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5415,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="7:9">
       <c r="G88" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5429,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="7:9">
       <c r="G89" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5443,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="7:9">
       <c r="G90" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5457,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="7:9">
       <c r="G91" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5471,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="7:9">
       <c r="G92" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5485,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="7:9">
       <c r="G93" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5499,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="7:9">
       <c r="G94" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5513,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="7:9">
       <c r="G95" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5527,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="7:9">
       <c r="G96" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5541,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="7:9">
       <c r="G97" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5555,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="7:9">
       <c r="G98" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5569,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="7:9">
       <c r="G99" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5583,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="7:9">
       <c r="G100" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5597,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="7:9">
       <c r="G101" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5611,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="7:9">
       <c r="G102" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5625,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="7:9">
       <c r="G103" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5639,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="7:9">
       <c r="G104" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5653,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="7:9">
       <c r="G105" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5667,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="7:9">
       <c r="G106" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5681,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="7:9">
       <c r="G107" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5695,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="7:9">
       <c r="G108" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5709,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="7:9">
       <c r="G109" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5723,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="7:9">
       <c r="G110" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5737,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="7:9">
       <c r="G111" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5751,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="7:9">
       <c r="G112" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5765,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="7:9">
       <c r="G113" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5779,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="7:9">
       <c r="G114" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5793,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="7:9">
       <c r="G115" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5807,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="7:9">
       <c r="G116" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5821,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="7:9">
       <c r="G117" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5835,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="7:9">
       <c r="G118" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5849,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="7:9">
       <c r="G119" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5863,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="7:9">
       <c r="G120" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5877,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="7:9">
       <c r="G121" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5891,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="7:9">
       <c r="G122" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5905,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="7:9">
       <c r="G123" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5919,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="7:9">
       <c r="G124" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5933,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="7:9">
       <c r="G125" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5947,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="7:9">
       <c r="G126" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5961,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="7:9">
       <c r="G127" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5975,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="7:9">
       <c r="G128" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5989,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="7:9">
       <c r="G129" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -6003,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="7:9">
       <c r="G130" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -6017,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="7:9">
       <c r="G131" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -6031,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="7:9">
       <c r="G132" s="34" t="e">
         <f t="shared" ref="G132:G195" si="6">F132/C132</f>
         <v>#DIV/0!</v>
@@ -6045,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="7:9">
       <c r="G133" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6059,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="7:9">
       <c r="G134" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6073,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="7:9">
       <c r="G135" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6087,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="7:9">
       <c r="G136" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6101,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="7:9">
       <c r="G137" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6115,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="7:9">
       <c r="G138" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6129,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="7:9">
       <c r="G139" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6143,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="7:9">
       <c r="G140" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6157,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="7:9">
       <c r="G141" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6171,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="7:9">
       <c r="G142" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6185,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="7:9">
       <c r="G143" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6199,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="7:9">
       <c r="G144" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6213,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="7:9">
       <c r="G145" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6227,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="7:9">
       <c r="G146" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6241,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="7:9">
       <c r="G147" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6255,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="7:9">
       <c r="G148" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6269,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="7:9">
       <c r="G149" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6283,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="7:9">
       <c r="G150" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6297,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="151" spans="7:9">
       <c r="G151" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6311,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="152" spans="7:9">
       <c r="G152" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6321,7 +6759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="153" spans="7:9">
       <c r="G153" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6331,7 +6769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="154" spans="7:9">
       <c r="G154" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6341,7 +6779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="7:9">
       <c r="G155" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6351,7 +6789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="7:9">
       <c r="G156" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6361,7 +6799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="7:9">
       <c r="G157" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6371,7 +6809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="158" spans="7:9">
       <c r="G158" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6381,7 +6819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="159" spans="7:9">
       <c r="G159" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6391,7 +6829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.15">
+    <row r="160" spans="7:9">
       <c r="G160" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6401,7 +6839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="7:8">
       <c r="G161" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6411,7 +6849,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="7:8">
       <c r="G162" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6421,7 +6859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="7:8">
       <c r="G163" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6431,7 +6869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="7:8">
       <c r="G164" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6441,7 +6879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="7:8">
       <c r="G165" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6451,7 +6889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="7:8">
       <c r="G166" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6461,7 +6899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="7:8">
       <c r="G167" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6471,7 +6909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="7:8">
       <c r="G168" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6481,7 +6919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="7:8">
       <c r="G169" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6491,7 +6929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="7:8">
       <c r="G170" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6501,7 +6939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="7:8">
       <c r="G171" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6511,7 +6949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="7:8">
       <c r="G172" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6521,7 +6959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="7:8">
       <c r="G173" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6531,7 +6969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="7:8">
       <c r="G174" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6541,7 +6979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="7:8">
       <c r="G175" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6551,7 +6989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="7:8">
       <c r="G176" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6561,7 +6999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="7:8">
       <c r="G177" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6571,7 +7009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="7:8">
       <c r="G178" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6581,7 +7019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="7:8">
       <c r="G179" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6591,7 +7029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="7:8">
       <c r="G180" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6601,7 +7039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="7:8">
       <c r="G181" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6611,7 +7049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="7:8">
       <c r="G182" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6621,7 +7059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="7:8">
       <c r="G183" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6631,7 +7069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="7:8">
       <c r="G184" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6641,7 +7079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="7:8">
       <c r="G185" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6651,7 +7089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="7:8">
       <c r="G186" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6661,7 +7099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="7:8">
       <c r="G187" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6671,7 +7109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="7:8">
       <c r="G188" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6681,7 +7119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="7:8">
       <c r="G189" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6691,7 +7129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="7:8">
       <c r="G190" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6701,7 +7139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="7:8">
       <c r="G191" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6711,7 +7149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="7:8">
       <c r="G192" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6721,7 +7159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="7:8">
       <c r="G193" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6731,7 +7169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="7:8">
       <c r="G194" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6741,7 +7179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="7:8">
       <c r="G195" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -6751,7 +7189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="7:8">
       <c r="G196" s="34" t="e">
         <f t="shared" ref="G196:G259" si="9">F196/C196</f>
         <v>#DIV/0!</v>
@@ -6761,7 +7199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="7:8">
       <c r="G197" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6771,7 +7209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="7:8">
       <c r="G198" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6781,7 +7219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="7:8">
       <c r="G199" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6791,7 +7229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="7:8">
       <c r="G200" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6801,7 +7239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="7:8">
       <c r="G201" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6811,7 +7249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="7:8">
       <c r="G202" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6821,7 +7259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="7:8">
       <c r="G203" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6831,7 +7269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="7:8">
       <c r="G204" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6841,7 +7279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="7:8">
       <c r="G205" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6851,7 +7289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="7:8">
       <c r="G206" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6861,7 +7299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="7:8">
       <c r="G207" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6871,7 +7309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="7:8">
       <c r="G208" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6881,7 +7319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="7:8">
       <c r="G209" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6891,7 +7329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="7:8">
       <c r="G210" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6901,7 +7339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="7:8">
       <c r="G211" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6911,7 +7349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="7:8">
       <c r="G212" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6921,7 +7359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="7:8">
       <c r="G213" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6931,7 +7369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="7:8">
       <c r="G214" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6941,7 +7379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="7:8">
       <c r="G215" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6951,7 +7389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="7:8">
       <c r="G216" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6961,7 +7399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="7:8">
       <c r="G217" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6971,7 +7409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="7:8">
       <c r="G218" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6981,7 +7419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="7:8">
       <c r="G219" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -6991,7 +7429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="7:8">
       <c r="G220" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7001,7 +7439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="7:8">
       <c r="G221" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7011,7 +7449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="7:8">
       <c r="G222" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7021,7 +7459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="7:8">
       <c r="G223" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7031,7 +7469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="7:8">
       <c r="G224" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7041,7 +7479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="7:8">
       <c r="G225" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7051,7 +7489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="7:8">
       <c r="G226" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7061,7 +7499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="7:8">
       <c r="G227" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7071,7 +7509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="7:8">
       <c r="G228" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7081,7 +7519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="7:8">
       <c r="G229" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7091,7 +7529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="7:8">
       <c r="G230" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7101,7 +7539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="7:8">
       <c r="G231" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7111,7 +7549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="7:8">
       <c r="G232" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7121,7 +7559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="7:8">
       <c r="G233" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7131,7 +7569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="7:8">
       <c r="G234" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7141,7 +7579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="7:8">
       <c r="G235" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7151,7 +7589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="7:8">
       <c r="G236" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7161,7 +7599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="7:8">
       <c r="G237" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7171,7 +7609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="7:8">
       <c r="G238" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7181,7 +7619,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="7:8">
       <c r="G239" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7191,7 +7629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="7:8">
       <c r="G240" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7201,7 +7639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="7:8">
       <c r="G241" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7211,7 +7649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="7:8">
       <c r="G242" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7221,7 +7659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="7:8">
       <c r="G243" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7231,7 +7669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="7:8">
       <c r="G244" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7241,7 +7679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="7:8">
       <c r="G245" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7251,7 +7689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="7:8">
       <c r="G246" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7261,7 +7699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="7:8">
       <c r="G247" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7271,7 +7709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="7:8">
       <c r="G248" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7281,7 +7719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="7:8">
       <c r="G249" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7291,7 +7729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="7:8">
       <c r="G250" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7301,7 +7739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="7:8">
       <c r="G251" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7311,7 +7749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="7:8">
       <c r="G252" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7321,7 +7759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="7:8">
       <c r="G253" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7331,7 +7769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="7:8">
       <c r="G254" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7341,7 +7779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="7:8">
       <c r="G255" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7351,7 +7789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="7:8">
       <c r="G256" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7361,7 +7799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="7:8">
       <c r="G257" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7371,7 +7809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="7:8">
       <c r="G258" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7381,7 +7819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="7:8">
       <c r="G259" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -7391,7 +7829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="7:8">
       <c r="G260" s="34" t="e">
         <f t="shared" ref="G260:G323" si="11">F260/C260</f>
         <v>#DIV/0!</v>
@@ -7401,7 +7839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="7:8">
       <c r="G261" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7411,7 +7849,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="7:8">
       <c r="G262" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7421,7 +7859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="7:8">
       <c r="G263" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7431,7 +7869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="7:8">
       <c r="G264" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7441,7 +7879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="7:8">
       <c r="G265" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7451,7 +7889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="7:8">
       <c r="G266" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7461,7 +7899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="7:8">
       <c r="G267" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7471,7 +7909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="7:8">
       <c r="G268" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7481,7 +7919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="7:8">
       <c r="G269" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7491,7 +7929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="7:8">
       <c r="G270" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7501,7 +7939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="7:8">
       <c r="G271" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7511,7 +7949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="7:8">
       <c r="G272" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7521,7 +7959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="7:8">
       <c r="G273" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7531,7 +7969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="7:8">
       <c r="G274" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7541,7 +7979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="7:8">
       <c r="G275" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7551,7 +7989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="7:8">
       <c r="G276" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7561,7 +7999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="7:8">
       <c r="G277" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7571,7 +8009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="7:8">
       <c r="G278" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7581,7 +8019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="7:8">
       <c r="G279" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7591,7 +8029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="7:8">
       <c r="G280" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7601,7 +8039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="7:8">
       <c r="G281" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7611,7 +8049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="7:8">
       <c r="G282" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7621,7 +8059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="7:8">
       <c r="G283" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7631,7 +8069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="7:8">
       <c r="G284" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7641,7 +8079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="7:8">
       <c r="G285" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7651,7 +8089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="7:8">
       <c r="G286" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7661,7 +8099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="7:8">
       <c r="G287" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7671,7 +8109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="7:8">
       <c r="G288" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7681,7 +8119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="7:8">
       <c r="G289" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7691,7 +8129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="7:8">
       <c r="G290" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7701,7 +8139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="7:8">
       <c r="G291" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7711,7 +8149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="7:8">
       <c r="G292" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7721,7 +8159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="7:8">
       <c r="G293" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7731,7 +8169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="7:8">
       <c r="G294" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7741,7 +8179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="7:8">
       <c r="G295" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7751,7 +8189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="7:8">
       <c r="G296" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7761,7 +8199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="7:8">
       <c r="G297" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7771,7 +8209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="7:8">
       <c r="G298" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7781,7 +8219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="7:8">
       <c r="G299" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7791,7 +8229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="7:8">
       <c r="G300" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7801,7 +8239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="301" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="7:8">
       <c r="G301" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7811,7 +8249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="7:8">
       <c r="G302" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7821,7 +8259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="7:8">
       <c r="G303" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7831,7 +8269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="304" spans="7:8">
       <c r="G304" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7841,7 +8279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="305" spans="7:8">
       <c r="G305" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7851,7 +8289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="306" spans="7:8">
       <c r="G306" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7861,7 +8299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="307" spans="7:8">
       <c r="G307" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7871,7 +8309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="308" spans="7:8">
       <c r="G308" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7881,7 +8319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="309" spans="7:8">
       <c r="G309" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7891,7 +8329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="310" spans="7:8">
       <c r="G310" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7901,7 +8339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="311" spans="7:8">
       <c r="G311" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7911,7 +8349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="312" spans="7:8">
       <c r="G312" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7921,7 +8359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="313" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="313" spans="7:8">
       <c r="G313" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7931,7 +8369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="314" spans="7:8">
       <c r="G314" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7941,7 +8379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="315" spans="7:8">
       <c r="G315" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7951,7 +8389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="316" spans="7:8">
       <c r="G316" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7961,7 +8399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="317" spans="7:8">
       <c r="G317" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7971,7 +8409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="318" spans="7:8">
       <c r="G318" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7981,7 +8419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="319" spans="7:8">
       <c r="G319" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -7991,7 +8429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="320" spans="7:8">
       <c r="G320" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -8001,7 +8439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="321" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="321" spans="7:8">
       <c r="G321" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -8011,7 +8449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="322" spans="7:8">
       <c r="G322" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -8021,7 +8459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="323" spans="7:8">
       <c r="G323" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
@@ -8031,7 +8469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="324" spans="7:8">
       <c r="G324" s="34" t="e">
         <f t="shared" ref="G324:G354" si="13">F324/C324</f>
         <v>#DIV/0!</v>
@@ -8041,7 +8479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="325" spans="7:8">
       <c r="G325" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8051,7 +8489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="326" spans="7:8">
       <c r="G326" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8061,7 +8499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="327" spans="7:8">
       <c r="G327" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8071,7 +8509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="328" spans="7:8">
       <c r="G328" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8081,7 +8519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="329" spans="7:8">
       <c r="G329" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8091,7 +8529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="330" spans="7:8">
       <c r="G330" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8101,7 +8539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="331" spans="7:8">
       <c r="G331" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8111,7 +8549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="332" spans="7:8">
       <c r="G332" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8121,7 +8559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="333" spans="7:8">
       <c r="G333" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8131,7 +8569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="334" spans="7:8">
       <c r="G334" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8141,7 +8579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="335" spans="7:8">
       <c r="G335" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8151,7 +8589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="336" spans="7:8">
       <c r="G336" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8161,7 +8599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="337" spans="7:8">
       <c r="G337" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8171,7 +8609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="338" spans="7:8">
       <c r="G338" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8181,7 +8619,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="339" spans="7:8">
       <c r="G339" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8191,7 +8629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="340" spans="7:8">
       <c r="G340" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8201,7 +8639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="341" spans="7:8">
       <c r="G341" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8211,7 +8649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="342" spans="7:8">
       <c r="G342" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8221,7 +8659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="343" spans="7:8">
       <c r="G343" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8231,7 +8669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="344" spans="7:8">
       <c r="G344" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8241,7 +8679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="345" spans="7:8">
       <c r="G345" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8251,7 +8689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="346" spans="7:8">
       <c r="G346" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8261,7 +8699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="347" spans="7:8">
       <c r="G347" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8271,7 +8709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="348" spans="7:8">
       <c r="G348" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8281,7 +8719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="349" spans="7:8">
       <c r="G349" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8291,7 +8729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="350" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="350" spans="7:8">
       <c r="G350" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8301,7 +8739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="351" spans="7:8">
       <c r="G351" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8311,7 +8749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="352" spans="7:8">
       <c r="G352" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8321,7 +8759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="353" spans="7:8">
       <c r="G353" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8331,7 +8769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="354" spans="7:8">
       <c r="G354" s="34" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -8361,11 +8799,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="22"/>
-    <col min="2" max="3" width="10.875" style="26"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="22"/>
+    <col min="2" max="3" width="11" style="26"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.5" style="24" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
@@ -8398,7 +8836,7 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="E3" s="23" t="s">
         <v>47</v>
       </c>
@@ -8408,7 +8846,7 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="22" t="s">
         <v>66</v>
       </c>
@@ -8446,7 +8884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="22">
         <f>F5/E5</f>
         <v>0.18007662835249041</v>
@@ -8487,7 +8925,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="22">
         <f t="shared" ref="A6:A14" si="0">F6/E6</f>
         <v>0.18007662835249041</v>
@@ -8528,7 +8966,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>0.1336206896551724</v>
@@ -8567,7 +9005,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>0.28205128205128205</v>
@@ -8608,7 +9046,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>0.1417910447761194</v>
@@ -8649,7 +9087,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="D10" s="11">
         <v>42934.955555555556</v>
       </c>
@@ -8678,7 +9116,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>0.25892857142857145</v>
@@ -8719,7 +9157,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>0.25892857142857145</v>
@@ -8760,7 +9198,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>0.19400630914826497</v>
@@ -8801,7 +9239,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8818,12 +9256,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="22" t="e">
         <f t="shared" ref="A16:A20" si="3">F16/E16</f>
         <v>#DIV/0!</v>
@@ -8840,7 +9278,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8857,7 +9295,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8874,7 +9312,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8891,7 +9329,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -8928,13 +9366,13 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="10.875" style="7"/>
-    <col min="9" max="9" width="10.875" style="20"/>
+    <col min="1" max="6" width="11" style="7"/>
+    <col min="9" max="9" width="11" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -8963,7 +9401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="7">
         <v>4</v>
       </c>
@@ -8996,889 +9434,889 @@
         <v>9.9960000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="I3" s="20">
         <f t="shared" ref="I3:I66" si="0">D3*E3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="I4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="I6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="I12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:9">
       <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:9">
       <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:9">
       <c r="I19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:9">
       <c r="I20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:9">
       <c r="I21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:9">
       <c r="I22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:9">
       <c r="I23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:9">
       <c r="I24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:9">
       <c r="I25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="9:9">
       <c r="I26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:9">
       <c r="I27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:9">
       <c r="I28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="9:9">
       <c r="I29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="9:9">
       <c r="I30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="9:9">
       <c r="I31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="9:9">
       <c r="I32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="9:9">
       <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="9:9">
       <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="9:9">
       <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="9:9">
       <c r="I36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:9">
       <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="9:9">
       <c r="I38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="9:9">
       <c r="I39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:9">
       <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:9">
       <c r="I41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:9">
       <c r="I42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:9">
       <c r="I43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:9">
       <c r="I44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:9">
       <c r="I45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:9">
       <c r="I46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:9">
       <c r="I47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="9:9">
       <c r="I48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:9">
       <c r="I49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:9">
       <c r="I50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:9">
       <c r="I51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="9:9">
       <c r="I52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="9:9">
       <c r="I53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:9">
       <c r="I54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:9">
       <c r="I55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:9">
       <c r="I56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:9">
       <c r="I57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:9">
       <c r="I58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:9">
       <c r="I59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:9">
       <c r="I60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:9">
       <c r="I61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="9:9">
       <c r="I62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:9">
       <c r="I63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:9">
       <c r="I64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="9:9">
       <c r="I65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="9:9">
       <c r="I66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="9:9">
       <c r="I67" s="20">
         <f t="shared" ref="I67:I130" si="1">D67*E67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="9:9">
       <c r="I68" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="9:9">
       <c r="I69" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="9:9">
       <c r="I70" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="9:9">
       <c r="I71" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="9:9">
       <c r="I72" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="9:9">
       <c r="I73" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="9:9">
       <c r="I74" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="9:9">
       <c r="I75" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="9:9">
       <c r="I76" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="9:9">
       <c r="I77" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="9:9">
       <c r="I78" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="9:9">
       <c r="I79" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="9:9">
       <c r="I80" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="9:9">
       <c r="I81" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="9:9">
       <c r="I82" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="9:9">
       <c r="I83" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="9:9">
       <c r="I84" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="9:9">
       <c r="I85" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="9:9">
       <c r="I86" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="9:9">
       <c r="I87" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="9:9">
       <c r="I88" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="9:9">
       <c r="I89" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="9:9">
       <c r="I90" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="9:9">
       <c r="I91" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="9:9">
       <c r="I92" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="9:9">
       <c r="I93" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="9:9">
       <c r="I94" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="9:9">
       <c r="I95" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="9:9">
       <c r="I96" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="9:9">
       <c r="I97" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="9:9">
       <c r="I98" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="9:9">
       <c r="I99" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="9:9">
       <c r="I100" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="9:9">
       <c r="I101" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="9:9">
       <c r="I102" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="9:9">
       <c r="I103" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="9:9">
       <c r="I104" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="9:9">
       <c r="I105" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="9:9">
       <c r="I106" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="9:9">
       <c r="I107" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="9:9">
       <c r="I108" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="9:9">
       <c r="I109" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="9:9">
       <c r="I110" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="9:9">
       <c r="I111" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="9:9">
       <c r="I112" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="9:9">
       <c r="I113" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="9:9">
       <c r="I114" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="9:9">
       <c r="I115" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="9:9">
       <c r="I116" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="9:9">
       <c r="I117" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="9:9">
       <c r="I118" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="9:9">
       <c r="I119" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="9:9">
       <c r="I120" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="9:9">
       <c r="I121" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="9:9">
       <c r="I122" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="9:9">
       <c r="I123" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="9:9">
       <c r="I124" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="9:9">
       <c r="I125" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="9:9">
       <c r="I126" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="9:9">
       <c r="I127" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="9:9">
       <c r="I128" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="9:9">
       <c r="I129" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="9:9">
       <c r="I130" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="9:9">
       <c r="I131" s="20">
         <f t="shared" ref="I131:I150" si="2">D131*E131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="9:9">
       <c r="I132" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="9:9">
       <c r="I133" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="9:9">
       <c r="I134" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="9:9">
       <c r="I135" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="9:9">
       <c r="I136" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="9:9">
       <c r="I137" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="9:9">
       <c r="I138" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="9:9">
       <c r="I139" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="9:9">
       <c r="I140" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="9:9">
       <c r="I141" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="9:9">
       <c r="I142" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="9:9">
       <c r="I143" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="9:9">
       <c r="I144" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="9:9">
       <c r="I145" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="9:9">
       <c r="I146" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="9:9">
       <c r="I147" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="9:9">
       <c r="I148" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="9:9">
       <c r="I149" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="9:9">
       <c r="I150" s="20">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="6780" yWindow="120" windowWidth="19480" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="234">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,380 @@
   </si>
   <si>
     <t>18606515723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呱呱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2,2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoyou819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以德会友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4,5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJLDPQ</t>
+  </si>
+  <si>
+    <t>wx:jinglinger88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4608684842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微信群:13520654301，
+有贴说盗图，说骗子
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4617152512</t>
+  </si>
+  <si>
+    <t>友谊德州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4610825341</t>
+  </si>
+  <si>
+    <t>qq:648254911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4610159625</t>
+  </si>
+  <si>
+    <t>hunanaloveyou~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4583502135</t>
+  </si>
+  <si>
+    <t>群号174818</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4597658508</t>
+  </si>
+  <si>
+    <t>zyxabcaeaa</t>
+  </si>
+  <si>
+    <t>liguiooo</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5247637127</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/97116088/</t>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪淘沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4866876957</t>
+  </si>
+  <si>
+    <t>ai985313720</t>
+  </si>
+  <si>
+    <t>木哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5020356852</t>
+  </si>
+  <si>
+    <t>myf675745943</t>
+  </si>
+  <si>
+    <t>xg15288323487</t>
+  </si>
+  <si>
+    <t>1/2,2/4,5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://weibo.com/2206411805/DC31FDjkR?type=comment#_rnd1501394713814</t>
+  </si>
+  <si>
+    <t>三五瓶三号房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4883848303</t>
+  </si>
+  <si>
+    <t>kakajd2017</t>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-139-1-1.html</t>
+  </si>
+  <si>
+    <t>lin18350381079</t>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-144-1-1.html</t>
+  </si>
+  <si>
+    <t>送金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4，2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-150-1-1.html</t>
+  </si>
+  <si>
+    <t>5/10/20,10/20/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-181-1-1.html</t>
+  </si>
+  <si>
+    <t>聚贤庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4,2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxzkf001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-187-1-1.html</t>
+  </si>
+  <si>
+    <t>2/4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-398-1-1.html</t>
+  </si>
+  <si>
+    <t>好运来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-396-1-1.html</t>
+  </si>
+  <si>
+    <t>kx111188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq:3380457704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dafapuke8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8,5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-397-1-1.html</t>
+  </si>
+  <si>
+    <t>八星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yx171815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-400-1-1.html</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-403-1-1.html</t>
+  </si>
+  <si>
+    <t>2/4,5/10,10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-460-1-1.html</t>
+  </si>
+  <si>
+    <t>都豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duhao248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junhao00888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidu88888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinlong248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joan，laughing缺1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monoray缺124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">庄Aqo,89h blind, Kxcu,flop QKhx,turnAh pot 100,utg bet 50 deal call blind all in 150,all call77 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄JQc,5，6家跟住，A7J,前位半尺9加注，弃牌，后卫A7两队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花似锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上漂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drtcaculate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +935,7 @@
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="183" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,6 +1015,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -683,7 +1071,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="283">
+  <cellStyleXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,10 +1355,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1015,12 +1452,17 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="283">
+  <cellStyles count="333">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1162,6 +1604,31 @@
     <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1303,6 +1770,31 @@
     <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1402,13 +1894,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Van" refreshedDate="42939.073418055559" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Van" refreshedDate="42946.959829629632" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Y1048576" sheet="rec"/>
   </cacheSource>
   <cacheFields count="25">
     <cacheField name="start" numFmtId="177">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T15:09:00" maxDate="2017-07-22T21:13:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T15:09:00" maxDate="2017-07-30T20:10:00"/>
     </cacheField>
     <cacheField name="user" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1423,19 +1915,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="189" maxValue="1018"/>
     </cacheField>
     <cacheField name="checkflag" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="207" maxValue="988"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="189" maxValue="988"/>
     </cacheField>
-    <cacheField name="end" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T17:47:00" maxDate="2017-07-23T00:00:01"/>
+    <cacheField name="end" numFmtId="183">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T17:47:00" maxDate="2017-07-30T22:42:00"/>
     </cacheField>
     <cacheField name="total1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1509" maxValue="2816"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1509" maxValue="3347"/>
     </cacheField>
     <cacheField name="vpip1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.56999999999999995" maxValue="0.71"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.55000000000000004" maxValue="0.71"/>
     </cacheField>
     <cacheField name="total2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1753" maxValue="2997"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1753" maxValue="3686"/>
     </cacheField>
     <cacheField name="vpip2" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.55000000000000004" maxValue="0.64"/>
@@ -1450,29 +1942,32 @@
     <cacheField name="remark" numFmtId="49">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="drtcaculate" numFmtId="178">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.74250000000000005" maxValue="1.4433333333333334"/>
+    </cacheField>
     <cacheField name="realnet" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-828" maxValue="588"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-828" maxValue="588"/>
     </cacheField>
     <cacheField name="net" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-828" maxValue="587"/>
     </cacheField>
     <cacheField name="duration" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.88" maxValue="4.33"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.62" maxValue="4.33"/>
     </cacheField>
     <cacheField name="hand" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="249"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="689"/>
     </cacheField>
     <cacheField name="flop" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="51"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="453"/>
     </cacheField>
     <cacheField name="flop1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1054" maxValue="1633"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1054" maxValue="2008"/>
     </cacheField>
     <cacheField name="flop2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1098" maxValue="1648"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1098" maxValue="2101"/>
     </cacheField>
     <cacheField name="vpip" numFmtId="179">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.2872928176795577E-2" maxValue="0.30666666666666664"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.2872928176795577E-2" maxValue="0.65747460087082732"/>
     </cacheField>
     <cacheField name="BB/100hand" numFmtId="178">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1.3986486486486487" maxValue="1.4387254901960784"/>
@@ -1481,10 +1976,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-82.142857142857139" maxValue="77.236842105263165"/>
     </cacheField>
     <cacheField name="date" numFmtId="181">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T00:00:00" maxDate="2017-07-23T00:00:00"/>
-    </cacheField>
-    <cacheField name="drtcaculate" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.27222731439046749" maxValue="0.51267056530214428"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-07-09T00:00:00" maxDate="2017-07-31T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1496,7 +1988,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
   <r>
     <d v="2017-07-09T15:09:00"/>
     <s v="laughing"/>
@@ -1511,6 +2003,7 @@
     <n v="0.62"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="1.4433333333333334"/>
     <n v="-174"/>
     <n v="-174"/>
     <n v="4.2699999999999996"/>
@@ -1522,7 +2015,6 @@
     <n v="-0.3493975903614458"/>
     <n v="-20.374707259953162"/>
     <d v="2017-07-09T00:00:00"/>
-    <n v="0.38557435440783616"/>
   </r>
   <r>
     <d v="2017-07-09T15:09:00"/>
@@ -1538,6 +2030,7 @@
     <n v="0.57999999999999996"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="1.4433333333333334"/>
     <n v="308"/>
     <n v="307"/>
     <n v="2.63"/>
@@ -1549,7 +2042,6 @@
     <n v="0.92469879518072284"/>
     <n v="58.365019011406844"/>
     <d v="2017-07-09T00:00:00"/>
-    <n v="0.38557435440783616"/>
   </r>
   <r>
     <d v="2017-07-09T15:09:00"/>
@@ -1565,6 +2057,7 @@
     <n v="0.64"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="1.4433333333333334"/>
     <n v="67"/>
     <n v="63"/>
     <n v="4.33"/>
@@ -1576,7 +2069,6 @@
     <n v="0.12909836065573771"/>
     <n v="7.274826789838337"/>
     <d v="2017-07-09T00:00:00"/>
-    <n v="0.38557435440783616"/>
   </r>
   <r>
     <d v="2017-07-18T21:02:00"/>
@@ -1592,7 +2084,8 @@
     <n v="0.63"/>
     <x v="0"/>
     <s v="1/2"/>
-    <n v="103"/>
+    <n v="0.79400000000000004"/>
+    <n v="0.79400000000000004"/>
     <n v="102"/>
     <n v="3.5"/>
     <n v="134"/>
@@ -1603,7 +2096,6 @@
     <n v="0.38059701492537312"/>
     <n v="14.571428571428571"/>
     <d v="2017-07-18T00:00:00"/>
-    <n v="0.28561151079136687"/>
   </r>
   <r>
     <d v="2017-07-18T21:02:00"/>
@@ -1619,7 +2111,8 @@
     <n v="0.57999999999999996"/>
     <x v="0"/>
     <s v="1/2"/>
-    <n v="7"/>
+    <n v="0.79400000000000004"/>
+    <n v="0.79400000000000004"/>
     <n v="6"/>
     <n v="3.97"/>
     <n v="232"/>
@@ -1630,7 +2123,6 @@
     <n v="1.2931034482758621E-2"/>
     <n v="0.75566750629722923"/>
     <d v="2017-07-18T00:00:00"/>
-    <n v="0.28561151079136687"/>
   </r>
   <r>
     <d v="2017-07-18T21:02:00"/>
@@ -1646,6 +2138,7 @@
     <n v="0.61"/>
     <x v="1"/>
     <s v="1/2/4"/>
+    <n v="0.79400000000000004"/>
     <n v="588"/>
     <n v="587"/>
     <n v="1.9"/>
@@ -1657,7 +2150,6 @@
     <n v="1.4387254901960784"/>
     <n v="77.236842105263165"/>
     <d v="2017-07-18T00:00:00"/>
-    <n v="0.28561151079136687"/>
   </r>
   <r>
     <d v="2017-07-18T21:02:00"/>
@@ -1673,6 +2165,7 @@
     <n v="0.6"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="0.79400000000000004"/>
     <n v="32"/>
     <n v="30"/>
     <n v="2.65"/>
@@ -1684,7 +2177,6 @@
     <n v="9.6153846153846159E-2"/>
     <n v="5.6603773584905666"/>
     <d v="2017-07-18T00:00:00"/>
-    <n v="0.28561151079136687"/>
   </r>
   <r>
     <d v="2017-07-18T22:56:00"/>
@@ -1700,6 +2192,7 @@
     <n v="0.59"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="0.79400000000000004"/>
     <n v="169"/>
     <n v="168"/>
     <n v="1.88"/>
@@ -1711,7 +2204,6 @@
     <n v="0.75"/>
     <n v="44.680851063829792"/>
     <d v="2017-07-18T00:00:00"/>
-    <n v="0.28561151079136687"/>
   </r>
   <r>
     <d v="2017-07-20T20:32:00"/>
@@ -1727,6 +2219,7 @@
     <n v="0.61"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="1.3149999999999999"/>
     <n v="142"/>
     <n v="142"/>
     <n v="2.5"/>
@@ -1738,7 +2231,6 @@
     <n v="0.69607843137254899"/>
     <n v="28.4"/>
     <d v="2017-07-20T00:00:00"/>
-    <n v="0.51267056530214428"/>
   </r>
   <r>
     <d v="2017-07-20T20:32:00"/>
@@ -1754,6 +2246,7 @@
     <n v="0.56999999999999995"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="1.3149999999999999"/>
     <n v="-132"/>
     <n v="-132"/>
     <n v="2.63"/>
@@ -1765,7 +2258,6 @@
     <n v="-0.44"/>
     <n v="-25.095057034220535"/>
     <d v="2017-07-20T00:00:00"/>
-    <n v="0.51267056530214428"/>
   </r>
   <r>
     <d v="2017-07-22T21:05:00"/>
@@ -1773,7 +2265,7 @@
     <s v="钓鱼"/>
     <n v="200"/>
     <n v="189"/>
-    <m/>
+    <n v="189"/>
     <d v="2017-07-23T00:00:01"/>
     <n v="2816"/>
     <n v="0.57999999999999996"/>
@@ -1781,7 +2273,8 @@
     <n v="0.55000000000000004"/>
     <x v="0"/>
     <s v="1/2"/>
-    <n v="-200"/>
+    <n v="0.74250000000000005"/>
+    <n v="-11"/>
     <n v="-11"/>
     <n v="2.92"/>
     <n v="181"/>
@@ -1792,7 +2285,6 @@
     <n v="-3.0386740331491711E-2"/>
     <n v="-1.8835616438356164"/>
     <d v="2017-07-22T00:00:00"/>
-    <n v="0.27222731439046749"/>
   </r>
   <r>
     <d v="2017-07-22T21:05:00"/>
@@ -1808,6 +2300,7 @@
     <n v="0.56000000000000005"/>
     <x v="1"/>
     <s v="1/2/4"/>
+    <n v="0.74250000000000005"/>
     <n v="265"/>
     <n v="260"/>
     <n v="2.5"/>
@@ -1819,7 +2312,6 @@
     <n v="0.39634146341463417"/>
     <n v="26"/>
     <d v="2017-07-22T00:00:00"/>
-    <n v="0.27222731439046749"/>
   </r>
   <r>
     <d v="2017-07-22T21:13:00"/>
@@ -1835,6 +2327,7 @@
     <n v="0.55000000000000004"/>
     <x v="1"/>
     <s v="1/2/4"/>
+    <n v="0.74250000000000005"/>
     <n v="-828"/>
     <n v="-828"/>
     <n v="2.52"/>
@@ -1846,7 +2339,6 @@
     <n v="-1.3986486486486487"/>
     <n v="-82.142857142857139"/>
     <d v="2017-07-22T00:00:00"/>
-    <n v="0.27222731439046749"/>
   </r>
   <r>
     <d v="2017-07-22T21:02:00"/>
@@ -1862,6 +2354,7 @@
     <n v="0.59"/>
     <x v="0"/>
     <s v="1/2"/>
+    <n v="0.74250000000000005"/>
     <n v="15"/>
     <n v="14"/>
     <n v="2.97"/>
@@ -1873,7 +2366,168 @@
     <n v="5.185185185185185E-2"/>
     <n v="2.3569023569023568"/>
     <d v="2017-07-22T00:00:00"/>
-    <n v="0.27222731439046749"/>
+  </r>
+  <r>
+    <d v="2017-07-30T15:00:00"/>
+    <s v="m4n"/>
+    <s v="天府"/>
+    <n v="900"/>
+    <n v="582"/>
+    <n v="582"/>
+    <d v="2017-07-30T17:31:00"/>
+    <n v="3347"/>
+    <n v="0.6"/>
+    <n v="3507"/>
+    <n v="0.57999999999999996"/>
+    <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="0.84"/>
+    <n v="-318"/>
+    <n v="-318"/>
+    <n v="2.52"/>
+    <n v="160"/>
+    <n v="26"/>
+    <n v="2008"/>
+    <n v="2034"/>
+    <n v="0.16250000000000001"/>
+    <n v="-0.49687500000000001"/>
+    <n v="-31.547619047619047"/>
+    <d v="2017-07-30T00:00:00"/>
+  </r>
+  <r>
+    <d v="2017-07-30T15:15:00"/>
+    <s v="joan"/>
+    <s v="全聚德"/>
+    <n v="700"/>
+    <n v="292"/>
+    <n v="300"/>
+    <d v="2017-07-30T17:38:00"/>
+    <n v="2200"/>
+    <n v="0.6"/>
+    <n v="2353"/>
+    <n v="0.57999999999999996"/>
+    <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="0.84"/>
+    <n v="-400"/>
+    <n v="-408"/>
+    <n v="2.38"/>
+    <n v="153"/>
+    <n v="44"/>
+    <n v="1320"/>
+    <n v="1364"/>
+    <n v="0.28758169934640521"/>
+    <n v="-0.66666666666666663"/>
+    <n v="-42.857142857142861"/>
+    <d v="2017-07-30T00:00:00"/>
+  </r>
+  <r>
+    <d v="2017-07-30T16:16:00"/>
+    <s v="laughing"/>
+    <s v="繁花似锦"/>
+    <n v="400"/>
+    <n v="519"/>
+    <n v="519"/>
+    <d v="2017-07-30T17:53:00"/>
+    <n v="2763"/>
+    <n v="0.62"/>
+    <n v="2869"/>
+    <n v="0.61"/>
+    <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="0.84"/>
+    <n v="119"/>
+    <n v="113"/>
+    <n v="1.62"/>
+    <n v="106"/>
+    <n v="37"/>
+    <n v="1713"/>
+    <n v="1750"/>
+    <n v="0.34905660377358488"/>
+    <n v="0.26650943396226418"/>
+    <n v="17.438271604938272"/>
+    <d v="2017-07-30T00:00:00"/>
+  </r>
+  <r>
+    <d v="2017-07-30T19:45:00"/>
+    <s v="m4n"/>
+    <s v="天府"/>
+    <n v="400"/>
+    <n v="511"/>
+    <n v="508"/>
+    <d v="2017-07-30T22:16:00"/>
+    <n v="2997"/>
+    <n v="0.55000000000000004"/>
+    <n v="3686"/>
+    <n v="0.56999999999999995"/>
+    <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="0.86"/>
+    <n v="108"/>
+    <n v="105"/>
+    <n v="2.52"/>
+    <n v="689"/>
+    <n v="453"/>
+    <n v="1648"/>
+    <n v="2101"/>
+    <n v="0.65747460087082732"/>
+    <n v="3.8098693759071114E-2"/>
+    <n v="10.416666666666666"/>
+    <d v="2017-07-30T00:00:00"/>
+  </r>
+  <r>
+    <d v="2017-07-30T20:10:00"/>
+    <s v="joan"/>
+    <s v="全聚德"/>
+    <n v="800"/>
+    <n v="544"/>
+    <m/>
+    <d v="2017-07-30T22:42:00"/>
+    <n v="1994"/>
+    <n v="0.56000000000000005"/>
+    <n v="2497"/>
+    <n v="0.56000000000000005"/>
+    <x v="1"/>
+    <s v="1/2/4"/>
+    <n v="0.86"/>
+    <n v="-800"/>
+    <n v="-256"/>
+    <n v="2.5299999999999998"/>
+    <n v="503"/>
+    <n v="282"/>
+    <n v="1116"/>
+    <n v="1398"/>
+    <n v="0.56063618290258455"/>
+    <n v="-0.1272365805168986"/>
+    <n v="-25.296442687747039"/>
+    <d v="2017-07-30T00:00:00"/>
+  </r>
+  <r>
+    <d v="2017-07-30T19:10:00"/>
+    <s v="laughing"/>
+    <s v="水上漂"/>
+    <n v="400"/>
+    <n v="899"/>
+    <m/>
+    <d v="2017-07-30T21:45:00"/>
+    <n v="2557"/>
+    <n v="0.59"/>
+    <n v="3015"/>
+    <n v="0.59"/>
+    <x v="1"/>
+    <s v="2/4"/>
+    <n v="0.86"/>
+    <n v="-400"/>
+    <n v="474"/>
+    <n v="2.58"/>
+    <n v="458"/>
+    <n v="270"/>
+    <n v="1508"/>
+    <n v="1778"/>
+    <n v="0.58951965065502188"/>
+    <n v="0.25873362445414849"/>
+    <n v="45.930232558139537"/>
+    <d v="2017-07-30T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -1906,7 +2560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="D3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -1929,6 +2583,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -1940,7 +2595,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="11"/>
@@ -1983,13 +2637,13 @@
     </i>
   </colItems>
   <dataFields count="7">
-    <dataField name="hands" fld="16" baseField="0" baseItem="0"/>
-    <dataField name="flops" fld="17" baseField="0" baseItem="0"/>
-    <dataField name="nets" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="hands" fld="17" baseField="0" baseItem="0"/>
+    <dataField name="flops" fld="18" baseField="0" baseItem="0"/>
+    <dataField name="nets" fld="15" baseField="0" baseItem="0"/>
     <dataField name="buyins" fld="3" baseField="0" baseItem="0"/>
     <dataField name="checkouts" fld="4" baseField="0" baseItem="0"/>
     <dataField name="realnets" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="duirations" fld="24" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="duirations" fld="13" baseField="0" baseItem="0" numFmtId="178"/>
   </dataFields>
   <formats count="15">
     <format dxfId="14">
@@ -2431,1723 +3085,1990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="44" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="12" customWidth="1"/>
-    <col min="20" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.5" style="14" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="29" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.5" style="13" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="31" customFormat="1">
-      <c r="A2" s="30">
+    <row r="2" spans="1:26" s="30" customFormat="1">
+      <c r="A2" s="29">
         <v>42925.631249999999</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <f>200+300</f>
         <v>500</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <f>D2-174</f>
         <v>326</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>326</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>42925.809027777781</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>1732</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>0.68</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <v>1981</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <v>0.62</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="31">
         <v>2</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="45">
-        <f>MAX($Q$2:$Q$4)/SUBTOTAL(109,$Q$2:$Q$4)</f>
-        <v>0.38557435440783616</v>
-      </c>
-      <c r="O2" s="33">
-        <f t="shared" ref="O2:O15" si="0">F2-D2</f>
+      <c r="N2" s="49">
+        <f>MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+        <v>1.4433333333333334</v>
+      </c>
+      <c r="O2" s="22">
+        <f>F2-D2</f>
         <v>-174</v>
       </c>
-      <c r="P2" s="32">
-        <f t="shared" ref="P2:P15" si="1">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
+      <c r="P2" s="23">
+        <f>IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-174</v>
       </c>
-      <c r="Q2" s="31">
-        <f t="shared" ref="Q2:Q15" si="2">ROUND((G2-A2)*24,2)</f>
+      <c r="Q2" s="11">
+        <f>ROUND((G2-A2)*24,2)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="R2" s="31">
-        <f t="shared" ref="R2:R15" si="3">J2-H2</f>
+      <c r="R2" s="11">
+        <f>J2-H2</f>
         <v>249</v>
       </c>
-      <c r="S2" s="31">
-        <f t="shared" ref="S2:S9" si="4">U2-T2</f>
+      <c r="S2" s="11">
+        <f t="shared" ref="S2:S9" si="0">U2-T2</f>
         <v>51</v>
       </c>
-      <c r="T2" s="31">
-        <f t="shared" ref="T2:T15" si="5">INT(H2*I2)</f>
+      <c r="T2" s="11">
+        <f>INT(H2*I2)</f>
         <v>1177</v>
       </c>
-      <c r="U2" s="31">
-        <f t="shared" ref="U2:U15" si="6">INT(J2*K2)</f>
+      <c r="U2" s="11">
+        <f>INT(J2*K2)</f>
         <v>1228</v>
       </c>
-      <c r="V2" s="36">
-        <f t="shared" ref="V2:V9" si="7">S2/R2</f>
+      <c r="V2" s="12">
+        <f t="shared" ref="V2:V9" si="1">S2/R2</f>
         <v>0.20481927710843373</v>
       </c>
-      <c r="W2" s="37">
-        <f t="shared" ref="W2:W15" si="8">P2/R2/L2</f>
+      <c r="W2" s="13">
+        <f>P2/R2/L2</f>
         <v>-0.3493975903614458</v>
       </c>
-      <c r="X2" s="37">
-        <f t="shared" ref="X2:X15" si="9">P2/Q2/L2</f>
+      <c r="X2" s="13">
+        <f>P2/Q2/L2</f>
         <v>-20.374707259953162</v>
       </c>
-      <c r="Y2" s="38">
-        <f t="shared" ref="Y2:Y15" si="10">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+      <c r="Y2" s="37">
+        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>42925</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="31" customFormat="1">
-      <c r="A3" s="30">
+    <row r="3" spans="1:26" s="30" customFormat="1">
+      <c r="A3" s="29">
         <v>42925.631249999999</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>200</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>524</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>508</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>42925.740972222222</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <v>2213</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>0.61</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <v>2379</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="31">
         <v>2</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="45">
-        <f>MAX($Q$2:$Q$4)/SUBTOTAL(109,$Q$2:$Q$4)</f>
-        <v>0.38557435440783616</v>
-      </c>
-      <c r="O3" s="33">
+      <c r="N3" s="49">
+        <f t="shared" ref="N3:N4" si="2">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+        <v>1.4433333333333334</v>
+      </c>
+      <c r="O3" s="22">
+        <f>F3-D3</f>
+        <v>308</v>
+      </c>
+      <c r="P3" s="23">
+        <f>IF(E3&gt;D3,INT((E3-D3)*0.95),E3-D3)</f>
+        <v>307</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>ROUND((G3-A3)*24,2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="R3" s="11">
+        <f>J3-H3</f>
+        <v>166</v>
+      </c>
+      <c r="S3" s="11">
         <f t="shared" si="0"/>
-        <v>308</v>
-      </c>
-      <c r="P3" s="32">
+        <v>30</v>
+      </c>
+      <c r="T3" s="11">
+        <f>INT(H3*I3)</f>
+        <v>1349</v>
+      </c>
+      <c r="U3" s="11">
+        <f>INT(J3*K3)</f>
+        <v>1379</v>
+      </c>
+      <c r="V3" s="12">
         <f t="shared" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="Q3" s="31">
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="W3" s="13">
+        <f>P3/R3/L3</f>
+        <v>0.92469879518072284</v>
+      </c>
+      <c r="X3" s="13">
+        <f>P3/Q3/L3</f>
+        <v>58.365019011406844</v>
+      </c>
+      <c r="Y3" s="37">
+        <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
+        <v>42925</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="30" customFormat="1">
+      <c r="A4" s="29">
+        <v>42925.631249999999</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="31">
+        <v>300</v>
+      </c>
+      <c r="E4" s="32">
+        <v>367</v>
+      </c>
+      <c r="F4" s="32">
+        <v>367</v>
+      </c>
+      <c r="G4" s="42">
+        <v>42925.811805555553</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1509</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0.71</v>
+      </c>
+      <c r="J4" s="31">
+        <v>1753</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="31">
+        <v>2</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="49">
         <f t="shared" si="2"/>
-        <v>2.63</v>
-      </c>
-      <c r="R3" s="31">
-        <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-      <c r="S3" s="31">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="T3" s="31">
-        <f t="shared" si="5"/>
-        <v>1349</v>
-      </c>
-      <c r="U3" s="31">
-        <f t="shared" si="6"/>
-        <v>1379</v>
-      </c>
-      <c r="V3" s="36">
-        <f t="shared" si="7"/>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="W3" s="37">
-        <f t="shared" si="8"/>
-        <v>0.92469879518072284</v>
-      </c>
-      <c r="X3" s="37">
-        <f t="shared" si="9"/>
-        <v>58.365019011406844</v>
-      </c>
-      <c r="Y3" s="38">
-        <f t="shared" si="10"/>
+        <v>1.4433333333333334</v>
+      </c>
+      <c r="O4" s="22">
+        <f>F4-D4</f>
+        <v>67</v>
+      </c>
+      <c r="P4" s="23">
+        <f>IF(E4&gt;D4,INT((E4-D4)*0.95),E4-D4)</f>
+        <v>63</v>
+      </c>
+      <c r="Q4" s="11">
+        <f>ROUND((G4-A4)*24,2)</f>
+        <v>4.33</v>
+      </c>
+      <c r="R4" s="11">
+        <f>J4-H4</f>
+        <v>244</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T4" s="11">
+        <f>INT(H4*I4)</f>
+        <v>1071</v>
+      </c>
+      <c r="U4" s="11">
+        <f>INT(J4*K4)</f>
+        <v>1121</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.20491803278688525</v>
+      </c>
+      <c r="W4" s="13">
+        <f>P4/R4/L4</f>
+        <v>0.12909836065573771</v>
+      </c>
+      <c r="X4" s="13">
+        <f>P4/Q4/L4</f>
+        <v>7.274826789838337</v>
+      </c>
+      <c r="Y4" s="37">
+        <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
         <v>42925</v>
       </c>
-      <c r="Z3" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="31" customFormat="1">
-      <c r="A4" s="30">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="32">
-        <v>300</v>
-      </c>
-      <c r="E4" s="33">
-        <v>367</v>
-      </c>
-      <c r="F4" s="33">
-        <v>367</v>
-      </c>
-      <c r="G4" s="43">
-        <v>42925.811805555553</v>
-      </c>
-      <c r="H4" s="32">
-        <v>1509</v>
-      </c>
-      <c r="I4" s="32">
-        <v>0.71</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1753</v>
-      </c>
-      <c r="K4" s="32">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="32">
-        <v>2</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="45">
-        <f>MAX($Q$2:$Q$4)/SUBTOTAL(109,$Q$2:$Q$4)</f>
-        <v>0.38557435440783616</v>
-      </c>
-      <c r="O4" s="33">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="P4" s="32">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="Q4" s="31">
-        <f t="shared" si="2"/>
-        <v>4.33</v>
-      </c>
-      <c r="R4" s="31">
-        <f t="shared" si="3"/>
-        <v>244</v>
-      </c>
-      <c r="S4" s="31">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="T4" s="31">
-        <f t="shared" si="5"/>
-        <v>1071</v>
-      </c>
-      <c r="U4" s="31">
-        <f t="shared" si="6"/>
-        <v>1121</v>
-      </c>
-      <c r="V4" s="36">
-        <f t="shared" si="7"/>
-        <v>0.20491803278688525</v>
-      </c>
-      <c r="W4" s="37">
-        <f t="shared" si="8"/>
-        <v>0.12909836065573771</v>
-      </c>
-      <c r="X4" s="37">
-        <f t="shared" si="9"/>
-        <v>7.274826789838337</v>
-      </c>
-      <c r="Y4" s="38">
-        <f t="shared" si="10"/>
-        <v>42925</v>
-      </c>
-      <c r="Z4" s="39" t="s">
+      <c r="Z4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>D5+108</f>
         <v>408</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>403</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>42935.022222222222</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2186</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.66</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2320</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.63</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="45">
-        <f t="array" ref="N5:N9">MAX($Q$5:$Q$9)/SUBTOTAL(109,$Q$5:$Q$9)</f>
-        <v>0.28561151079136687</v>
-      </c>
-      <c r="O5" s="23">
+      <c r="N5" s="48">
+        <f>MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O5" s="22">
+        <f>MAX($Q$5:$Q$9)/5</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="P5" s="23">
+        <f>IF(E5&gt;D5,INT((E5-D5)*0.95),E5-D5)</f>
+        <v>102</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>ROUND((G5-A5)*24,2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R5" s="11">
+        <f>J5-H5</f>
+        <v>134</v>
+      </c>
+      <c r="S5" s="11">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="P5" s="24">
+        <v>19</v>
+      </c>
+      <c r="T5" s="11">
+        <f>INT(H5*I5)</f>
+        <v>1442</v>
+      </c>
+      <c r="U5" s="11">
+        <f>INT(J5*K5)</f>
+        <v>1461</v>
+      </c>
+      <c r="V5" s="12">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="S5" s="12">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="T5" s="12">
-        <f t="shared" si="5"/>
-        <v>1442</v>
-      </c>
-      <c r="U5" s="12">
-        <f t="shared" si="6"/>
-        <v>1461</v>
-      </c>
-      <c r="V5" s="13">
-        <f t="shared" si="7"/>
         <v>0.1417910447761194</v>
       </c>
-      <c r="W5" s="14">
-        <f t="shared" si="8"/>
+      <c r="W5" s="13">
+        <f>P5/R5/L5</f>
         <v>0.38059701492537312</v>
       </c>
-      <c r="X5" s="14">
-        <f t="shared" si="9"/>
+      <c r="X5" s="13">
+        <f>P5/Q5/L5</f>
         <v>14.571428571428571</v>
       </c>
-      <c r="Y5" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y5" s="28">
+        <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
         <v>42934</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>200</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>D6+7</f>
         <v>207</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>207</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>42935.041666666664</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>2584</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.62</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>2816</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="45">
-        <v>0.28561151079136687</v>
-      </c>
-      <c r="O6" s="23">
+      <c r="N6" s="48">
+        <f t="shared" ref="N6:N9" si="3">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O6" s="22">
+        <f>MAX($Q$5:$Q$9)/5</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="P6" s="23">
+        <f>IF(E6&gt;D6,INT((E6-D6)*0.95),E6-D6)</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>ROUND((G6-A6)*24,2)</f>
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="11">
+        <f>J6-H6</f>
+        <v>232</v>
+      </c>
+      <c r="S6" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P6" s="24">
+        <v>31</v>
+      </c>
+      <c r="T6" s="11">
+        <f>INT(H6*I6)</f>
+        <v>1602</v>
+      </c>
+      <c r="U6" s="11">
+        <f>INT(J6*K6)</f>
+        <v>1633</v>
+      </c>
+      <c r="V6" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="2"/>
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="T6" s="12">
-        <f t="shared" si="5"/>
-        <v>1602</v>
-      </c>
-      <c r="U6" s="12">
-        <f t="shared" si="6"/>
-        <v>1633</v>
-      </c>
-      <c r="V6" s="13">
-        <f t="shared" si="7"/>
         <v>0.1336206896551724</v>
       </c>
-      <c r="W6" s="14">
-        <f t="shared" si="8"/>
+      <c r="W6" s="13">
+        <f>P6/R6/L6</f>
         <v>1.2931034482758621E-2</v>
       </c>
-      <c r="X6" s="14">
-        <f t="shared" si="9"/>
+      <c r="X6" s="13">
+        <f>P6/Q6/L6</f>
         <v>0.75566750629722923</v>
       </c>
-      <c r="Y6" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y6" s="28">
+        <f>DATE(YEAR(A6),MONTH(A6),DAY(A6))</f>
         <v>42934</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>D7+618</f>
         <v>1018</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>988</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>42934.955555555556</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>1753</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.64</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>1855</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0.61</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>4</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="45">
-        <v>0.28561151079136687</v>
-      </c>
-      <c r="O7" s="23">
+      <c r="N7" s="48">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O7" s="22">
+        <f>F7-D7</f>
+        <v>588</v>
+      </c>
+      <c r="P7" s="23">
+        <f>IF(E7&gt;D7,INT((E7-D7)*0.95),E7-D7)</f>
+        <v>587</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>ROUND((G7-A7)*24,2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="R7" s="11">
+        <f>J7-H7</f>
+        <v>102</v>
+      </c>
+      <c r="S7" s="11">
         <f t="shared" si="0"/>
-        <v>588</v>
-      </c>
-      <c r="P7" s="24">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11">
+        <f>INT(H7*I7)</f>
+        <v>1121</v>
+      </c>
+      <c r="U7" s="11">
+        <f>INT(J7*K7)</f>
+        <v>1131</v>
+      </c>
+      <c r="V7" s="12">
         <f t="shared" si="1"/>
-        <v>587</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="S7" s="12">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="T7" s="12">
-        <f t="shared" si="5"/>
-        <v>1121</v>
-      </c>
-      <c r="U7" s="12">
-        <f t="shared" si="6"/>
-        <v>1131</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="7"/>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="W7" s="14">
-        <f t="shared" si="8"/>
+      <c r="W7" s="13">
+        <f>P7/R7/L7</f>
         <v>1.4387254901960784</v>
       </c>
-      <c r="X7" s="14">
-        <f t="shared" si="9"/>
+      <c r="X7" s="13">
+        <f>P7/Q7/L7</f>
         <v>77.236842105263165</v>
       </c>
-      <c r="Y7" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y7" s="28">
+        <f>DATE(YEAR(A7),MONTH(A7),DAY(A7))</f>
         <v>42934</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>200</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f>D8+32</f>
         <v>232</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>232</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>42934.986805555556</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1674</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.63</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>1830</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.6</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>2</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="45">
-        <v>0.28561151079136687</v>
-      </c>
-      <c r="O8" s="23">
+      <c r="N8" s="48">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O8" s="22">
+        <f>F8-D8</f>
+        <v>32</v>
+      </c>
+      <c r="P8" s="23">
+        <f>IF(E8&gt;D8,INT((E8-D8)*0.95),E8-D8)</f>
+        <v>30</v>
+      </c>
+      <c r="Q8" s="11">
+        <f>ROUND((G8-A8)*24,2)</f>
+        <v>2.65</v>
+      </c>
+      <c r="R8" s="11">
+        <f>J8-H8</f>
+        <v>156</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="P8" s="24">
+        <v>44</v>
+      </c>
+      <c r="T8" s="11">
+        <f>INT(H8*I8)</f>
+        <v>1054</v>
+      </c>
+      <c r="U8" s="11">
+        <f>INT(J8*K8)</f>
+        <v>1098</v>
+      </c>
+      <c r="V8" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q8" s="12">
-        <f t="shared" si="2"/>
-        <v>2.65</v>
-      </c>
-      <c r="R8" s="12">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="S8" s="12">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="T8" s="12">
-        <f t="shared" si="5"/>
-        <v>1054</v>
-      </c>
-      <c r="U8" s="12">
-        <f t="shared" si="6"/>
-        <v>1098</v>
-      </c>
-      <c r="V8" s="13">
-        <f t="shared" si="7"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="W8" s="14">
-        <f t="shared" si="8"/>
+      <c r="W8" s="13">
+        <f>P8/R8/L8</f>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="X8" s="14">
-        <f t="shared" si="9"/>
+      <c r="X8" s="13">
+        <f>P8/Q8/L8</f>
         <v>5.6603773584905666</v>
       </c>
-      <c r="Y8" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y8" s="28">
+        <f>DATE(YEAR(A8),MONTH(A8),DAY(A8))</f>
         <v>42934</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>42934.955555555556</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>200</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>D9+177</f>
         <v>377</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>369</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>42935.03402777778</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1855</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.61</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1967</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.59</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="45">
-        <v>0.28561151079136687</v>
-      </c>
-      <c r="O9" s="23">
+      <c r="N9" s="48">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O9" s="22">
+        <f>F9-D9</f>
+        <v>169</v>
+      </c>
+      <c r="P9" s="23">
+        <f>IF(E9&gt;D9,INT((E9-D9)*0.95),E9-D9)</f>
+        <v>168</v>
+      </c>
+      <c r="Q9" s="11">
+        <f>ROUND((G9-A9)*24,2)</f>
+        <v>1.88</v>
+      </c>
+      <c r="R9" s="11">
+        <f>J9-H9</f>
+        <v>112</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="P9" s="24">
+        <v>29</v>
+      </c>
+      <c r="T9" s="11">
+        <f>INT(H9*I9)</f>
+        <v>1131</v>
+      </c>
+      <c r="U9" s="11">
+        <f>INT(J9*K9)</f>
+        <v>1160</v>
+      </c>
+      <c r="V9" s="12">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="Q9" s="12">
-        <f t="shared" si="2"/>
-        <v>1.88</v>
-      </c>
-      <c r="R9" s="12">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="S9" s="12">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="T9" s="12">
-        <f t="shared" si="5"/>
-        <v>1131</v>
-      </c>
-      <c r="U9" s="12">
-        <f t="shared" si="6"/>
-        <v>1160</v>
-      </c>
-      <c r="V9" s="13">
-        <f t="shared" si="7"/>
         <v>0.25892857142857145</v>
       </c>
-      <c r="W9" s="14">
-        <f t="shared" si="8"/>
+      <c r="W9" s="13">
+        <f>P9/R9/L9</f>
         <v>0.75</v>
       </c>
-      <c r="X9" s="14">
-        <f t="shared" si="9"/>
+      <c r="X9" s="13">
+        <f>P9/Q9/L9</f>
         <v>44.680851063829792</v>
       </c>
-      <c r="Y9" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y9" s="28">
+        <f>DATE(YEAR(A9),MONTH(A9),DAY(A9))</f>
         <v>42934</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="31" customFormat="1">
-      <c r="A10" s="30">
+    <row r="10" spans="1:26" s="30" customFormat="1">
+      <c r="A10" s="29">
         <v>42936.855555555558</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <f>D10+150</f>
         <v>350</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>342</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="42">
         <v>42936.959722222222</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>2320</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>0.63</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <v>2422</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>0.61</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <v>2</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="45">
-        <f>MAX($Q$10:$Q$11)/SUBTOTAL(109,$Q$10:$Q$11)</f>
-        <v>0.51267056530214428</v>
-      </c>
-      <c r="O10" s="33">
-        <f t="shared" si="0"/>
+      <c r="N10" s="49">
+        <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="O10" s="22">
+        <f>F10-D10</f>
         <v>142</v>
       </c>
-      <c r="P10" s="32">
-        <f t="shared" si="1"/>
+      <c r="P10" s="23">
+        <f>IF(E10&gt;D10,INT((E10-D10)*0.95),E10-D10)</f>
         <v>142</v>
       </c>
-      <c r="Q10" s="31">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="11">
+        <f>ROUND((G10-A10)*24,2)</f>
         <v>2.5</v>
       </c>
-      <c r="R10" s="31">
-        <f t="shared" si="3"/>
+      <c r="R10" s="11">
+        <f>J10-H10</f>
         <v>102</v>
       </c>
-      <c r="S10" s="31">
-        <f t="shared" ref="S10:S14" si="11">U10-T10</f>
+      <c r="S10" s="11">
+        <f t="shared" ref="S10:S14" si="4">U10-T10</f>
         <v>16</v>
       </c>
-      <c r="T10" s="31">
-        <f t="shared" si="5"/>
+      <c r="T10" s="11">
+        <f>INT(H10*I10)</f>
         <v>1461</v>
       </c>
-      <c r="U10" s="31">
-        <f t="shared" si="6"/>
+      <c r="U10" s="11">
+        <f>INT(J10*K10)</f>
         <v>1477</v>
       </c>
-      <c r="V10" s="36">
-        <f t="shared" ref="V10" si="12">S10/R10</f>
+      <c r="V10" s="12">
+        <f t="shared" ref="V10" si="5">S10/R10</f>
         <v>0.15686274509803921</v>
       </c>
-      <c r="W10" s="37">
-        <f t="shared" si="8"/>
+      <c r="W10" s="13">
+        <f>P10/R10/L10</f>
         <v>0.69607843137254899</v>
       </c>
-      <c r="X10" s="37">
-        <f t="shared" si="9"/>
+      <c r="X10" s="13">
+        <f>P10/Q10/L10</f>
         <v>28.4</v>
       </c>
-      <c r="Y10" s="38">
-        <f t="shared" si="10"/>
+      <c r="Y10" s="37">
+        <f>DATE(YEAR(A10),MONTH(A10),DAY(A10))</f>
         <v>42936</v>
       </c>
-      <c r="Z10" s="39" t="s">
+      <c r="Z10" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="31" customFormat="1">
-      <c r="A11" s="30">
+    <row r="11" spans="1:26" s="30" customFormat="1">
+      <c r="A11" s="29">
         <v>42936.855555555558</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <f>200+200</f>
         <v>400</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <f>D11-132</f>
         <v>268</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>268</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>42936.965277777781</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>1967</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>0.59</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>2117</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <v>2</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="45">
-        <f>MAX($Q$10:$Q$11)/SUBTOTAL(109,$Q$10:$Q$11)</f>
-        <v>0.51267056530214428</v>
-      </c>
-      <c r="O11" s="33">
-        <f t="shared" si="0"/>
+      <c r="N11" s="49">
+        <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="O11" s="22">
+        <f>F11-D11</f>
         <v>-132</v>
       </c>
-      <c r="P11" s="32">
-        <f t="shared" si="1"/>
+      <c r="P11" s="23">
+        <f>IF(E11&gt;D11,INT((E11-D11)*0.95),E11-D11)</f>
         <v>-132</v>
       </c>
-      <c r="Q11" s="31">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="11">
+        <f>ROUND((G11-A11)*24,2)</f>
         <v>2.63</v>
       </c>
-      <c r="R11" s="31">
-        <f t="shared" si="3"/>
+      <c r="R11" s="11">
+        <f>J11-H11</f>
         <v>150</v>
       </c>
-      <c r="S11" s="31">
-        <f t="shared" si="11"/>
+      <c r="S11" s="11">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="T11" s="31">
-        <f t="shared" si="5"/>
+      <c r="T11" s="11">
+        <f>INT(H11*I11)</f>
         <v>1160</v>
       </c>
-      <c r="U11" s="31">
-        <f t="shared" si="6"/>
+      <c r="U11" s="11">
+        <f>INT(J11*K11)</f>
         <v>1206</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="12">
         <f>S11/R11</f>
         <v>0.30666666666666664</v>
       </c>
-      <c r="W11" s="37">
-        <f t="shared" si="8"/>
+      <c r="W11" s="13">
+        <f>P11/R11/L11</f>
         <v>-0.44</v>
       </c>
-      <c r="X11" s="37">
-        <f t="shared" si="9"/>
+      <c r="X11" s="13">
+        <f>P11/Q11/L11</f>
         <v>-25.095057034220535</v>
       </c>
-      <c r="Y11" s="38">
-        <f t="shared" si="10"/>
+      <c r="Y11" s="37">
+        <f>DATE(YEAR(A11),MONTH(A11),DAY(A11))</f>
         <v>42936</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="Z11" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>189</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>189</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>42939.000011574077</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>2816</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>2997</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="45">
-        <f t="shared" ref="N12:N19" si="13">MAX($Q$12:$Q$15)/SUBTOTAL(109,$Q$12:$Q$15)</f>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="0"/>
+      <c r="N12" s="48">
+        <f>MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O12" s="22">
+        <f>F12-D12</f>
         <v>-11</v>
       </c>
-      <c r="P12" s="24">
-        <f t="shared" si="1"/>
+      <c r="P12" s="23">
+        <f>IF(E12&gt;D12,INT((E12-D12)*0.95),E12-D12)</f>
         <v>-11</v>
       </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="11">
+        <f>ROUND((G12-A12)*24,2)</f>
         <v>2.92</v>
       </c>
-      <c r="R12" s="12">
-        <f t="shared" si="3"/>
+      <c r="R12" s="11">
+        <f>J12-H12</f>
         <v>181</v>
       </c>
-      <c r="S12" s="12">
-        <f t="shared" si="11"/>
+      <c r="S12" s="11">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="T12" s="12">
-        <f t="shared" si="5"/>
+      <c r="T12" s="11">
+        <f>INT(H12*I12)</f>
         <v>1633</v>
       </c>
-      <c r="U12" s="12">
-        <f t="shared" si="6"/>
+      <c r="U12" s="11">
+        <f>INT(J12*K12)</f>
         <v>1648</v>
       </c>
-      <c r="V12" s="13">
-        <f t="shared" ref="V12:V15" si="14">S12/R12</f>
+      <c r="V12" s="12">
+        <f t="shared" ref="V12:V15" si="6">S12/R12</f>
         <v>8.2872928176795577E-2</v>
       </c>
-      <c r="W12" s="14">
-        <f t="shared" si="8"/>
+      <c r="W12" s="13">
+        <f>P12/R12/L12</f>
         <v>-3.0386740331491711E-2</v>
       </c>
-      <c r="X12" s="14">
-        <f t="shared" si="9"/>
+      <c r="X12" s="13">
+        <f>P12/Q12/L12</f>
         <v>-1.8835616438356164</v>
       </c>
-      <c r="Y12" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y12" s="28">
+        <f>DATE(YEAR(A12),MONTH(A12),DAY(A12))</f>
         <v>42938</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>D13+274</f>
         <v>674</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>665</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>42938.982638888891</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1830</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.6</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>1994</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>4</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="45">
-        <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O13" s="23">
-        <f t="shared" si="0"/>
+      <c r="N13" s="48">
+        <f t="shared" ref="N13:N15" si="7">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O13" s="22">
+        <f>F13-D13</f>
         <v>265</v>
       </c>
-      <c r="P13" s="24">
-        <f t="shared" si="1"/>
+      <c r="P13" s="23">
+        <f>IF(E13&gt;D13,INT((E13-D13)*0.95),E13-D13)</f>
         <v>260</v>
       </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="11">
+        <f>ROUND((G13-A13)*24,2)</f>
         <v>2.5</v>
       </c>
-      <c r="R13" s="12">
-        <f t="shared" si="3"/>
+      <c r="R13" s="11">
+        <f>J13-H13</f>
         <v>164</v>
       </c>
-      <c r="S13" s="12">
-        <f t="shared" si="11"/>
+      <c r="S13" s="11">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T13" s="12">
-        <f t="shared" si="5"/>
+      <c r="T13" s="11">
+        <f>INT(H13*I13)</f>
         <v>1098</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="11">
+        <f>INT(J13*K13)</f>
+        <v>1116</v>
+      </c>
+      <c r="V13" s="12">
         <f t="shared" si="6"/>
-        <v>1116</v>
-      </c>
-      <c r="V13" s="13">
-        <f t="shared" si="14"/>
         <v>0.10975609756097561</v>
       </c>
-      <c r="W13" s="14">
-        <f t="shared" si="8"/>
+      <c r="W13" s="13">
+        <f>P13/R13/L13</f>
         <v>0.39634146341463417</v>
       </c>
-      <c r="X13" s="14">
-        <f t="shared" si="9"/>
+      <c r="X13" s="13">
+        <f>P13/Q13/L13</f>
         <v>26</v>
       </c>
-      <c r="Y13" s="29">
-        <f t="shared" si="10"/>
+      <c r="Y13" s="28">
+        <f>DATE(YEAR(A13),MONTH(A13),DAY(A13))</f>
         <v>42938</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>42938.884027777778</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>400+400+1000</f>
         <v>1800</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>D14-828</f>
         <v>972</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>972</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>42938.988888888889</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>2117</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2265</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>4</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="48">
+        <f t="shared" si="7"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O14" s="22">
+        <f>F14-D14</f>
+        <v>-828</v>
+      </c>
+      <c r="P14" s="23">
+        <f>IF(E14&gt;D14,INT((E14-D14)*0.95),E14-D14)</f>
+        <v>-828</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>ROUND((G14-A14)*24,2)</f>
+        <v>2.52</v>
+      </c>
+      <c r="R14" s="11">
+        <f>J14-H14</f>
+        <v>148</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="T14" s="11">
+        <f>INT(H14*I14)</f>
+        <v>1206</v>
+      </c>
+      <c r="U14" s="11">
+        <f>INT(J14*K14)</f>
+        <v>1245</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="6"/>
+        <v>0.26351351351351349</v>
+      </c>
+      <c r="W14" s="13">
+        <f>P14/R14/L14</f>
+        <v>-1.3986486486486487</v>
+      </c>
+      <c r="X14" s="13">
+        <f>P14/Q14/L14</f>
+        <v>-82.142857142857139</v>
+      </c>
+      <c r="Y14" s="28">
+        <f>DATE(YEAR(A14),MONTH(A14),DAY(A14))</f>
+        <v>42938</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="24">
+        <v>42938.876388888886</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="5">
+        <v>200</v>
+      </c>
+      <c r="E15" s="7">
+        <v>215</v>
+      </c>
+      <c r="F15" s="14">
+        <v>215</v>
+      </c>
+      <c r="G15" s="41">
+        <v>42939.000011574077</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2422</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2557</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="48">
+        <f t="shared" si="7"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O15" s="22">
+        <f>F15-D15</f>
+        <v>15</v>
+      </c>
+      <c r="P15" s="23">
+        <f>IF(E15&gt;D15,INT((E15-D15)*0.95),E15-D15)</f>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="11">
+        <f>ROUND((G15-A15)*24,2)</f>
+        <v>2.97</v>
+      </c>
+      <c r="R15" s="11">
+        <f>J15-H15</f>
+        <v>135</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" ref="S15" si="8">U15-T15</f>
+        <v>31</v>
+      </c>
+      <c r="T15" s="11">
+        <f>INT(H15*I15)</f>
+        <v>1477</v>
+      </c>
+      <c r="U15" s="11">
+        <f>INT(J15*K15)</f>
+        <v>1508</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="6"/>
+        <v>0.22962962962962963</v>
+      </c>
+      <c r="W15" s="13">
+        <f>P15/R15/L15</f>
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="X15" s="13">
+        <f>P15/Q15/L15</f>
+        <v>2.3569023569023568</v>
+      </c>
+      <c r="Y15" s="28">
+        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15))</f>
+        <v>42938</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="30" customFormat="1">
+      <c r="A16" s="29">
+        <v>42946.625</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="31">
+        <f>400+300+200</f>
+        <v>900</v>
+      </c>
+      <c r="E16" s="32">
+        <f>D16-318</f>
+        <v>582</v>
+      </c>
+      <c r="F16" s="32">
+        <v>582</v>
+      </c>
+      <c r="G16" s="42">
+        <v>42946.729861111111</v>
+      </c>
+      <c r="H16" s="31">
+        <v>3347</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="31">
+        <v>3507</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="31">
+        <v>4</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="N16" s="49">
+        <f>MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <v>0.84</v>
+      </c>
+      <c r="O16" s="22">
+        <f>F16-D16</f>
+        <v>-318</v>
+      </c>
+      <c r="P16" s="23">
+        <f>IF(E16&gt;D16,INT((E16-D16)*0.95),E16-D16)</f>
+        <v>-318</v>
+      </c>
+      <c r="Q16" s="11">
+        <f>ROUND((G16-A16)*24,2)</f>
+        <v>2.52</v>
+      </c>
+      <c r="R16" s="11">
+        <f>J16-H16</f>
+        <v>160</v>
+      </c>
+      <c r="S16" s="11">
+        <f>U16-T16</f>
+        <v>26</v>
+      </c>
+      <c r="T16" s="11">
+        <f>INT(H16*I16)</f>
+        <v>2008</v>
+      </c>
+      <c r="U16" s="11">
+        <f>INT(J16*K16)</f>
+        <v>2034</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" ref="V16:V21" si="9">S16/R16</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="W16" s="13">
+        <f>P16/R16/L16</f>
+        <v>-0.49687500000000001</v>
+      </c>
+      <c r="X16" s="13">
+        <f>P16/Q16/L16</f>
+        <v>-31.547619047619047</v>
+      </c>
+      <c r="Y16" s="37">
+        <f>DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z16" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="30" customFormat="1">
+      <c r="A17" s="29">
+        <v>42946.635416666664</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="31">
+        <f>400+300</f>
+        <v>700</v>
+      </c>
+      <c r="E17" s="32">
+        <f>D17-408</f>
+        <v>292</v>
+      </c>
+      <c r="F17" s="32">
+        <v>300</v>
+      </c>
+      <c r="G17" s="42">
+        <v>42946.734722222223</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2200</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="31">
+        <v>2353</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L17" s="31">
+        <v>4</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="49">
+        <f t="shared" ref="N17:N18" si="10">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <v>0.84</v>
+      </c>
+      <c r="O17" s="22">
+        <f>F17-D17</f>
+        <v>-400</v>
+      </c>
+      <c r="P17" s="23">
+        <f>IF(E17&gt;D17,INT((E17-D17)*0.95),E17-D17)</f>
+        <v>-408</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>ROUND((G17-A17)*24,2)</f>
+        <v>2.38</v>
+      </c>
+      <c r="R17" s="11">
+        <f>J17-H17</f>
+        <v>153</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" ref="S17:S18" si="11">U17-T17</f>
+        <v>44</v>
+      </c>
+      <c r="T17" s="11">
+        <f>INT(H17*I17)</f>
+        <v>1320</v>
+      </c>
+      <c r="U17" s="11">
+        <f>INT(J17*K17)</f>
+        <v>1364</v>
+      </c>
+      <c r="V17" s="12">
+        <f t="shared" si="9"/>
+        <v>0.28758169934640521</v>
+      </c>
+      <c r="W17" s="13">
+        <f>P17/R17/L17</f>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="X17" s="13">
+        <f>P17/Q17/L17</f>
+        <v>-42.857142857142861</v>
+      </c>
+      <c r="Y17" s="37">
+        <f>DATE(YEAR(A17),MONTH(A17),DAY(A17))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="30" customFormat="1">
+      <c r="A18" s="29">
+        <v>42946.677777777775</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="31">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E18" s="32">
+        <v>519</v>
+      </c>
+      <c r="F18" s="32">
+        <v>519</v>
+      </c>
+      <c r="G18" s="42">
+        <v>42946.745138888888</v>
+      </c>
+      <c r="H18" s="31">
+        <v>2763</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0.62</v>
+      </c>
+      <c r="J18" s="31">
+        <v>2869</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0.61</v>
+      </c>
+      <c r="L18" s="31">
+        <v>4</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="N18" s="49">
+        <f t="shared" si="10"/>
+        <v>0.84</v>
+      </c>
+      <c r="O18" s="22">
+        <f>F18-D18</f>
+        <v>119</v>
+      </c>
+      <c r="P18" s="23">
+        <f>IF(E18&gt;D18,INT((E18-D18)*0.95),E18-D18)</f>
+        <v>113</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>ROUND((G18-A18)*24,2)</f>
+        <v>1.62</v>
+      </c>
+      <c r="R18" s="11">
+        <f>J18-H18</f>
+        <v>106</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="T18" s="11">
+        <f>INT(H18*I18)</f>
+        <v>1713</v>
+      </c>
+      <c r="U18" s="11">
+        <f>INT(J18*K18)</f>
+        <v>1750</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" si="9"/>
+        <v>0.34905660377358488</v>
+      </c>
+      <c r="W18" s="13">
+        <f>P18/R18/L18</f>
+        <v>0.26650943396226418</v>
+      </c>
+      <c r="X18" s="13">
+        <f>P18/Q18/L18</f>
+        <v>17.438271604938272</v>
+      </c>
+      <c r="Y18" s="37">
+        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="24">
+        <v>42946.822916666664</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="5">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E19" s="7">
+        <f>D19+111</f>
+        <v>511</v>
+      </c>
+      <c r="F19" s="14">
+        <v>508</v>
+      </c>
+      <c r="G19" s="41">
+        <v>42946.927777777775</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2997</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3686</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19" s="48">
+        <f>MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <v>0.86</v>
+      </c>
+      <c r="O19" s="22">
+        <f>F19-D19</f>
+        <v>108</v>
+      </c>
+      <c r="P19" s="23">
+        <f>IF(E19&gt;D19,INT((E19-D19)*0.95),E19-D19)</f>
+        <v>105</v>
+      </c>
+      <c r="Q19" s="11">
+        <f>ROUND((G19-A19)*24,2)</f>
+        <v>2.52</v>
+      </c>
+      <c r="R19" s="11">
+        <f>J19-H19</f>
+        <v>689</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" ref="S19:S21" si="12">U19-T19</f>
+        <v>453</v>
+      </c>
+      <c r="T19" s="11">
+        <f>INT(H19*I19)</f>
+        <v>1648</v>
+      </c>
+      <c r="U19" s="11">
+        <f>INT(J19*K19)</f>
+        <v>2101</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" ref="V19:V21" si="13">S19/R19</f>
+        <v>0.65747460087082732</v>
+      </c>
+      <c r="W19" s="13">
+        <f>P19/R19/L19</f>
+        <v>3.8098693759071114E-2</v>
+      </c>
+      <c r="X19" s="13">
+        <f>P19/Q19/L19</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="Y19" s="28">
+        <f>DATE(YEAR(A19),MONTH(A19),DAY(A19))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="24">
+        <v>42946.840277777781</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="5">
+        <f>400+400</f>
+        <v>800</v>
+      </c>
+      <c r="E20" s="7">
+        <f>D20-256</f>
+        <v>544</v>
+      </c>
+      <c r="F20" s="14">
+        <v>560</v>
+      </c>
+      <c r="G20" s="41">
+        <v>42946.945833333331</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2497</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="48">
+        <f t="shared" ref="N20:N21" si="14">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <v>0.86</v>
+      </c>
+      <c r="O20" s="22">
+        <f>F20-D20</f>
+        <v>-240</v>
+      </c>
+      <c r="P20" s="23">
+        <f>IF(E20&gt;D20,INT((E20-D20)*0.95),E20-D20)</f>
+        <v>-256</v>
+      </c>
+      <c r="Q20" s="11">
+        <f>ROUND((G20-A20)*24,2)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R20" s="11">
+        <f>J20-H20</f>
+        <v>503</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="12"/>
+        <v>282</v>
+      </c>
+      <c r="T20" s="11">
+        <f>INT(H20*I20)</f>
+        <v>1116</v>
+      </c>
+      <c r="U20" s="11">
+        <f>INT(J20*K20)</f>
+        <v>1398</v>
+      </c>
+      <c r="V20" s="12">
         <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="0"/>
-        <v>-828</v>
-      </c>
-      <c r="P14" s="24">
-        <f t="shared" si="1"/>
-        <v>-828</v>
-      </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="2"/>
-        <v>2.52</v>
-      </c>
-      <c r="R14" s="12">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="S14" s="12">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="T14" s="12">
-        <f t="shared" si="5"/>
-        <v>1206</v>
-      </c>
-      <c r="U14" s="12">
-        <f t="shared" si="6"/>
-        <v>1245</v>
-      </c>
-      <c r="V14" s="13">
+        <v>0.56063618290258455</v>
+      </c>
+      <c r="W20" s="13">
+        <f>P20/R20/L20</f>
+        <v>-0.1272365805168986</v>
+      </c>
+      <c r="X20" s="13">
+        <f>P20/Q20/L20</f>
+        <v>-25.296442687747039</v>
+      </c>
+      <c r="Y20" s="28">
+        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="24">
+        <v>42946.798611111109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="5">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E21" s="7">
+        <f>D21+499</f>
+        <v>899</v>
+      </c>
+      <c r="F21" s="14">
+        <v>884</v>
+      </c>
+      <c r="G21" s="41">
+        <v>42946.90625</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2557</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3015</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" s="48">
         <f t="shared" si="14"/>
-        <v>0.26351351351351349</v>
-      </c>
-      <c r="W14" s="14">
-        <f t="shared" si="8"/>
-        <v>-1.3986486486486487</v>
-      </c>
-      <c r="X14" s="14">
-        <f t="shared" si="9"/>
-        <v>-82.142857142857139</v>
-      </c>
-      <c r="Y14" s="29">
-        <f t="shared" si="10"/>
-        <v>42938</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="25">
-        <v>42938.876388888886</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="6">
-        <v>200</v>
-      </c>
-      <c r="E15" s="8">
-        <v>215</v>
-      </c>
-      <c r="F15" s="15">
-        <v>215</v>
-      </c>
-      <c r="G15" s="42">
-        <v>42939.000011574077</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2422</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2557</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="L15" s="6">
-        <v>2</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="45">
+        <v>0.86</v>
+      </c>
+      <c r="O21" s="22">
+        <f>F21-D21</f>
+        <v>484</v>
+      </c>
+      <c r="P21" s="23">
+        <f>IF(E21&gt;D21,INT((E21-D21)*0.95),E21-D21)</f>
+        <v>474</v>
+      </c>
+      <c r="Q21" s="11">
+        <f>ROUND((G21-A21)*24,2)</f>
+        <v>2.58</v>
+      </c>
+      <c r="R21" s="11">
+        <f>J21-H21</f>
+        <v>458</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="T21" s="11">
+        <f>INT(H21*I21)</f>
+        <v>1508</v>
+      </c>
+      <c r="U21" s="11">
+        <f>INT(J21*K21)</f>
+        <v>1778</v>
+      </c>
+      <c r="V21" s="12">
         <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O15" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P15" s="24">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Q15" s="12">
-        <f t="shared" si="2"/>
-        <v>2.97</v>
-      </c>
-      <c r="R15" s="12">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="S15" s="12">
-        <f t="shared" ref="S15:S18" si="15">U15-T15</f>
-        <v>31</v>
-      </c>
-      <c r="T15" s="12">
-        <f t="shared" si="5"/>
-        <v>1477</v>
-      </c>
-      <c r="U15" s="12">
-        <f t="shared" si="6"/>
-        <v>1508</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="14"/>
-        <v>0.22962962962962963</v>
-      </c>
-      <c r="W15" s="14">
-        <f t="shared" si="8"/>
-        <v>5.185185185185185E-2</v>
-      </c>
-      <c r="X15" s="14">
-        <f t="shared" si="9"/>
-        <v>2.3569023569023568</v>
-      </c>
-      <c r="Y15" s="29">
-        <f t="shared" si="10"/>
-        <v>42938</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="25">
-        <v>42943.893055555556</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="H16" s="6">
-        <v>3347</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="45">
-        <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O16" s="23">
-        <f t="shared" ref="O16:O19" si="16">F16-D16</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="24">
-        <f t="shared" ref="P16:P19" si="17">IF(E16&gt;D16,INT((E16-D16)*0.95),E16-D16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12">
-        <f t="shared" ref="Q16:Q19" si="18">ROUND((G16-A16)*24,2)</f>
-        <v>-1030653.43</v>
-      </c>
-      <c r="R16" s="12">
-        <f t="shared" ref="R16:R19" si="19">J16-H16</f>
-        <v>-3347</v>
-      </c>
-      <c r="S16" s="12">
-        <f t="shared" si="15"/>
-        <v>-2008</v>
-      </c>
-      <c r="T16" s="12">
-        <f t="shared" ref="T16:T19" si="20">INT(H16*I16)</f>
-        <v>2008</v>
-      </c>
-      <c r="U16" s="12">
-        <f t="shared" ref="U16:U19" si="21">INT(J16*K16)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" ref="V16:V19" si="22">S16/R16</f>
-        <v>0.59994024499551835</v>
-      </c>
-      <c r="W16" s="14">
-        <f t="shared" ref="W16:W19" si="23">P16/R16/L16</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <f t="shared" ref="X16:X19" si="24">P16/Q16/L16</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="29">
-        <f t="shared" ref="Y16:Y19" si="25">DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
-        <v>42943</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="25">
-        <v>42943.893055555556</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="H17" s="6">
-        <v>2200</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L17" s="6">
-        <v>4</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="45">
-        <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O17" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12">
-        <f t="shared" si="18"/>
-        <v>-1030653.43</v>
-      </c>
-      <c r="R17" s="12">
-        <f>J17-H18</f>
-        <v>-2615</v>
-      </c>
-      <c r="S17" s="12">
-        <f t="shared" si="15"/>
-        <v>-1569</v>
-      </c>
-      <c r="T17" s="12">
-        <f>INT(H18*I18)</f>
-        <v>1569</v>
-      </c>
-      <c r="U17" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <f t="shared" si="22"/>
-        <v>0.6</v>
-      </c>
-      <c r="W17" s="14">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="29">
-        <f t="shared" si="25"/>
-        <v>42943</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="25">
-        <v>42943.893055555556</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="H18" s="6">
-        <v>2615</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L18" s="6">
-        <v>4</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="45">
-        <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="12">
-        <f t="shared" si="18"/>
-        <v>-1030653.43</v>
-      </c>
-      <c r="R18" s="12" t="e">
-        <f>J18-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S18" s="12" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T18" s="12" t="e">
-        <f>INT(#REF!*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="13" t="e">
-        <f t="shared" si="22"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W18" s="14" t="e">
-        <f t="shared" si="23"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X18" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="29">
-        <f t="shared" si="25"/>
-        <v>42943</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="25">
-        <v>42943.893055555556</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="H19" s="6">
-        <v>2763</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="L19" s="6">
-        <v>2</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="45">
-        <f t="shared" si="13"/>
-        <v>0.27222731439046749</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12">
-        <f t="shared" si="18"/>
-        <v>-1030653.43</v>
-      </c>
-      <c r="R19" s="12">
-        <f t="shared" si="19"/>
-        <v>-2763</v>
-      </c>
-      <c r="S19" s="12">
-        <f t="shared" ref="S19" si="26">U19-T19</f>
-        <v>-1713</v>
-      </c>
-      <c r="T19" s="12">
-        <f t="shared" si="20"/>
-        <v>1713</v>
-      </c>
-      <c r="U19" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <f t="shared" si="22"/>
-        <v>0.61997828447339853</v>
-      </c>
-      <c r="W19" s="14">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="29">
-        <f t="shared" si="25"/>
-        <v>42943</v>
-      </c>
-      <c r="Z19" s="3" t="s">
+        <v>0.58951965065502188</v>
+      </c>
+      <c r="W21" s="13">
+        <f>P21/R21/L21</f>
+        <v>0.25873362445414849</v>
+      </c>
+      <c r="X21" s="13">
+        <f>P21/Q21/L21</f>
+        <v>45.930232558139537</v>
+      </c>
+      <c r="Y21" s="28">
+        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4196,13 +5117,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
@@ -4213,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
       <c r="B3" t="s">
@@ -4227,40 +5148,40 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
       <c r="B7" t="s">
@@ -4268,18 +5189,18 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
       <c r="B9" t="s">
@@ -4287,7 +5208,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
       <c r="B10" t="s">
@@ -4295,7 +5216,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B11" t="s">
@@ -4303,7 +5224,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B12" t="s">
@@ -4314,7 +5235,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B13" t="s">
@@ -4322,7 +5243,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B14" t="s">
@@ -4330,7 +5251,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B15" t="s">
@@ -4353,494 +5274,494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="22" customWidth="1"/>
-    <col min="8" max="13" width="5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2"/>
-    <col min="15" max="16" width="6.33203125" style="6" customWidth="1"/>
-    <col min="17" max="22" width="6.33203125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="8.5" style="12" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="21" customWidth="1"/>
+    <col min="8" max="13" width="5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1"/>
+    <col min="15" max="16" width="6.33203125" style="5" customWidth="1"/>
+    <col min="17" max="22" width="6.33203125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="8.5" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>189</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>189</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>42939.000011574077</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>2816</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>2997</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="39">
         <f>MAX($Q$2:$Q$5)/SUBTOTAL(109,$Q$2:$Q$5)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <f>F2-D2</f>
         <v>-11</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="23">
         <f>IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-11</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <f>ROUND((G2-A2)*24,2)</f>
         <v>2.92</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <f>J2-H2</f>
         <v>181</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="11">
         <f t="shared" ref="S2:S5" si="0">U2-T2</f>
         <v>15</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="11">
         <f>INT(H2*I2)</f>
         <v>1633</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="11">
         <f>INT(J2*K2)</f>
         <v>1648</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <f t="shared" ref="V2:V5" si="1">S2/R2</f>
         <v>8.2872928176795577E-2</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <f>P2/R2/L2</f>
         <v>-3.0386740331491711E-2</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <f>P2/Q2/L2</f>
         <v>-1.8835616438356164</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="28">
         <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>42938</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>D3+274</f>
         <v>674</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>665</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>42938.982638888891</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1830</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1994</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>4</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="39">
         <f t="shared" ref="N3:N5" si="2">MAX($Q$2:$Q$5)/SUBTOTAL(109,$Q$2:$Q$5)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <f>F3-D3</f>
         <v>265</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <f>IF(E3&gt;D3,INT((E3-D3)*0.95),E3-D3)</f>
         <v>260</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <f>ROUND((G3-A3)*24,2)</f>
         <v>2.5</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <f>J3-H3</f>
         <v>164</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="11">
         <f>INT(H3*I3)</f>
         <v>1098</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="11">
         <f>INT(J3*K3)</f>
         <v>1116</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="12">
         <f t="shared" si="1"/>
         <v>0.10975609756097561</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="13">
         <f>P3/R3/L3</f>
         <v>0.39634146341463417</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <f>P3/Q3/L3</f>
         <v>26</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="28">
         <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
         <v>42938</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="43" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>42938.884027777778</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>400+400+1000</f>
         <v>1800</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>D4-828</f>
         <v>972</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>972</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>42938.988888888889</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>2117</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2265</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>4</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="39">
         <f t="shared" si="2"/>
         <v>0.27222731439046749</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="22">
         <f>F4-D4</f>
         <v>-828</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="23">
         <f>IF(E4&gt;D4,INT((E4-D4)*0.95),E4-D4)</f>
         <v>-828</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <f>ROUND((G4-A4)*24,2)</f>
         <v>2.52</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <f>J4-H4</f>
         <v>148</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11">
         <f>INT(H4*I4)</f>
         <v>1206</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11">
         <f>INT(J4*K4)</f>
         <v>1245</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <f t="shared" si="1"/>
         <v>0.26351351351351349</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="13">
         <f>P4/R4/L4</f>
         <v>-1.3986486486486487</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <f>P4/Q4/L4</f>
         <v>-82.142857142857139</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="28">
         <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
         <v>42938</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>42938.876388888886</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>215</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>215</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>42939.000011574077</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2422</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.61</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2557</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.59</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <f t="shared" si="2"/>
         <v>0.27222731439046749</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="22">
         <f>F5-D5</f>
         <v>15</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <f>IF(E5&gt;D5,INT((E5-D5)*0.95),E5-D5)</f>
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f>ROUND((G5-A5)*24,2)</f>
         <v>2.97</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <f>J5-H5</f>
         <v>135</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <f>INT(H5*I5)</f>
         <v>1477</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <f>INT(J5*K5)</f>
         <v>1508</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <f t="shared" si="1"/>
         <v>0.22962962962962963</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <f>P5/R5/L5</f>
         <v>5.185185185185185E-2</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <f>P5/Q5/L5</f>
         <v>2.3569023569023568</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="28">
         <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
         <v>42938</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4861,20 +5782,20 @@
   <dimension ref="A2:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="18"/>
-    <col min="2" max="3" width="11" style="19"/>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="3" width="11" style="18"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="6" width="6.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="26" customWidth="1"/>
+    <col min="5" max="6" width="6.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="41" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="40" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="3.5" customWidth="1"/>
@@ -4903,39 +5824,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H4" t="s">
@@ -4952,310 +5873,310 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.19451907576571736</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f>G5/D5/K5</f>
-        <v>66.555269673784693</v>
-      </c>
-      <c r="C5" s="19">
+        <v>22.158161948197229</v>
+      </c>
+      <c r="C5" s="18">
         <f>G5/E5*100/$D$6</f>
         <v>6.9183234819989252</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>1861</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>362</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>515</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>2900</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>3463</v>
       </c>
-      <c r="J5" s="11">
-        <v>3237</v>
-      </c>
-      <c r="K5" s="41">
-        <v>3.8689648657741991</v>
+      <c r="J5" s="10">
+        <v>3426</v>
+      </c>
+      <c r="K5" s="40">
+        <v>11.621</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
-        <v>0.16183574879227053</v>
-      </c>
-      <c r="B6" s="19">
+        <v>0.47482883608538057</v>
+      </c>
+      <c r="B6" s="18">
         <f t="shared" ref="B6" si="1">G6/D6/K6</f>
-        <v>5.722435566938648</v>
-      </c>
-      <c r="C6" s="19">
+        <v>-9.1814609025613212</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" ref="C6" si="2">G6/E6*100/$D$6</f>
-        <v>1.1473429951690821</v>
-      </c>
-      <c r="D6" s="10">
+        <v>-2.7285541683447443</v>
+      </c>
+      <c r="D6" s="9">
         <v>4</v>
       </c>
-      <c r="E6" s="28">
-        <v>414</v>
-      </c>
-      <c r="F6" s="28">
-        <v>67</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="E6" s="27">
+        <v>2483</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1179</v>
+      </c>
+      <c r="G6" s="26">
+        <v>-271</v>
+      </c>
+      <c r="H6" s="10">
+        <v>6200</v>
+      </c>
+      <c r="I6" s="10">
+        <v>6011</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4534</v>
+      </c>
+      <c r="K6" s="40">
+        <v>7.3790000000000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35474217311233885</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="27">
+        <v>4344</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1541</v>
+      </c>
+      <c r="G7" s="26">
+        <v>244</v>
+      </c>
+      <c r="H7" s="10">
+        <v>9100</v>
+      </c>
+      <c r="I7" s="10">
+        <v>9474</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7960</v>
+      </c>
+      <c r="K7" s="40">
         <v>19</v>
       </c>
-      <c r="H6" s="11">
-        <v>2600</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2664</v>
-      </c>
-      <c r="J6" s="11">
-        <v>2625</v>
-      </c>
-      <c r="K6" s="41">
-        <v>0.83006613957230191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="18">
-        <f t="shared" si="0"/>
-        <v>0.18857142857142858</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="28">
-        <v>2275</v>
-      </c>
-      <c r="F7" s="28">
-        <v>429</v>
-      </c>
-      <c r="G7" s="27">
-        <v>534</v>
-      </c>
-      <c r="H7" s="11">
-        <v>5500</v>
-      </c>
-      <c r="I7" s="11">
-        <v>6127</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5862</v>
-      </c>
-      <c r="K7" s="41">
-        <v>4.6990310053465008</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="5:7" customFormat="1">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="5:7" customFormat="1">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="5:7" customFormat="1">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="5:7" customFormat="1">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="5:7" customFormat="1">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="5:7" customFormat="1">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="5:7" customFormat="1">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="5:7" customFormat="1">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="5:7" customFormat="1">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="5:7" customFormat="1">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="5:7" customFormat="1">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="5:7" customFormat="1">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="5:7" customFormat="1">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="5:7" customFormat="1">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="5:7" customFormat="1">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="5:7" customFormat="1">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="5:7" customFormat="1">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="5:7" customFormat="1">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="5:7" customFormat="1">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="5:7" customFormat="1">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="5:7" customFormat="1">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="5:7" customFormat="1">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="5:7" customFormat="1">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="5:7" customFormat="1">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="5:7" customFormat="1">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="5:7" customFormat="1">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="5:7" customFormat="1">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="5:7" customFormat="1">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="5:7" customFormat="1">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="5:7" customFormat="1">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="5:7" customFormat="1">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5271,215 +6192,733 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.83203125" style="2"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17">
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>173328</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17">
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>195918</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>155864</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="J6" t="s">
+    <row r="6" spans="1:17" ht="33" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13520654301</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1">
+        <v>115464</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+    <row r="7" spans="1:17">
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1">
+        <v>197640</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>177833</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="46">
+        <v>159385</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
+        <v>172402</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="46">
+        <v>180490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="46">
+        <v>172402</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="46">
+        <v>136118</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="46">
+        <v>141928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15827044123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="1">
+        <v>141677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="1">
+        <v>161152</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="1">
+        <v>117887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="47">
+        <v>13611340307</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2008103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="1">
+        <v>127896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="1">
+        <v>179289</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="1">
+        <v>160208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="1">
+        <v>158596</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="1">
+        <v>134035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="1">
+        <v>171815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="1">
+        <v>13527358427</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13088222796</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="1">
+        <v>107880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="1">
+        <v>166275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="1">
+        <v>121229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="1">
+        <v>155265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="1">
+        <v>136998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5504,1966 +6943,1966 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="24" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="12" customWidth="1"/>
-    <col min="19" max="20" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.5" style="14" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="29" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="29" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="28" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>42892</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="23">
         <f t="shared" ref="O2:O28" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-200</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <f t="shared" ref="P2:P28" si="1">ROUND((G2-A2)*24,2)</f>
         <v>4</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f t="shared" ref="X2:X28" si="2">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>42891</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>170</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>42892</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>D4+90</f>
         <v>290</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>42895</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>2</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="23">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="28">
         <f t="shared" si="2"/>
         <v>42894</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>D5+22</f>
         <v>222</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>42895</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="28">
         <f t="shared" si="2"/>
         <v>42894</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>D6+75</f>
         <v>275</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>42895</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="28">
         <f t="shared" si="2"/>
         <v>42894</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>D7-169</f>
         <v>31</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>42900</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <f t="shared" si="0"/>
         <v>-169</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="28">
         <f t="shared" si="2"/>
         <v>42899</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f>D8+17</f>
         <v>217</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>42900</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>2</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="28">
         <f t="shared" si="2"/>
         <v>42899</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>D9+201</f>
         <v>401</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>42905</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="28">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f>D10-6</f>
         <v>194</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>42905</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>2</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="28">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f>D11+15</f>
         <v>215</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>42905</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>2</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="28">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>200+200</f>
         <v>400</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>D12+211</f>
         <v>611</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>42906</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="28">
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>D13+106</f>
         <v>406</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>42906</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>2</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="28">
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>D14-9</f>
         <v>191</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>42906</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>2</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="28">
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="31" customFormat="1">
-      <c r="A15" s="30">
+    <row r="15" spans="1:26" s="30" customFormat="1">
+      <c r="A15" s="29">
         <v>42925.631249999999</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <f>200+300</f>
         <v>500</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f>D15-174</f>
         <v>326</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>326</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>42925.809027777781</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>1732</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>0.68</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <v>1981</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <v>0.62</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="31">
         <v>2</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <f t="shared" ref="N15:N28" si="3">F15-D15</f>
         <v>-174</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="31">
         <f t="shared" si="0"/>
         <v>-174</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <f t="shared" si="1"/>
         <v>4.2699999999999996</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q28" si="4">J15-H15</f>
         <v>249</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <f t="shared" ref="R15:R28" si="5">T15-S15</f>
         <v>51</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <f t="shared" ref="S15:S28" si="6">INT(H15*I15)</f>
         <v>1177</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <f t="shared" ref="T15:T28" si="7">INT(J15*K15)</f>
         <v>1228</v>
       </c>
-      <c r="U15" s="36">
+      <c r="U15" s="35">
         <f t="shared" ref="U15:U23" si="8">R15/Q15</f>
         <v>0.20481927710843373</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="36">
         <f t="shared" ref="V15:V28" si="9">O15/Q15/L15</f>
         <v>-0.3493975903614458</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="36">
         <f t="shared" ref="W15:W28" si="10">O15/P15/L15</f>
         <v>-20.374707259953162</v>
       </c>
-      <c r="X15" s="38">
+      <c r="X15" s="37">
         <f t="shared" si="2"/>
         <v>42925</v>
       </c>
-      <c r="Y15" s="40">
+      <c r="Y15" s="39">
         <f>MAX($P$15:$P$17)/SUBTOTAL(109,$P$15:$P$17)</f>
         <v>0.38557435440783616</v>
       </c>
-      <c r="Z15" s="39" t="s">
+      <c r="Z15" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="31" customFormat="1">
-      <c r="A16" s="30">
+    <row r="16" spans="1:26" s="30" customFormat="1">
+      <c r="A16" s="29">
         <v>42925.631249999999</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>200</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>524</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>508</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>42925.740972222222</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>2213</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <v>0.61</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="31">
         <v>2379</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="31">
         <v>2</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="31">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="30">
         <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="30">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="30">
         <f t="shared" si="6"/>
         <v>1349</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="30">
         <f t="shared" si="7"/>
         <v>1379</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="35">
         <f t="shared" si="8"/>
         <v>0.18072289156626506</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="36">
         <f t="shared" si="9"/>
         <v>0.92469879518072284</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="36">
         <f t="shared" si="10"/>
         <v>58.365019011406844</v>
       </c>
-      <c r="X16" s="38">
+      <c r="X16" s="37">
         <f t="shared" si="2"/>
         <v>42925</v>
       </c>
-      <c r="Y16" s="40">
+      <c r="Y16" s="39">
         <f>MAX($P$15:$P$17)/SUBTOTAL(109,$P$15:$P$17)</f>
         <v>0.38557435440783616</v>
       </c>
-      <c r="Z16" s="39" t="s">
+      <c r="Z16" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="31" customFormat="1">
-      <c r="A17" s="30">
+    <row r="17" spans="1:26" s="30" customFormat="1">
+      <c r="A17" s="29">
         <v>42925.631249999999</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>300</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>367</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>367</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>42925.811805555553</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>1509</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>0.71</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1753</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>0.64</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>2</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="32">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="31">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="30">
         <f t="shared" si="1"/>
         <v>4.33</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <f t="shared" si="6"/>
         <v>1071</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="30">
         <f t="shared" si="7"/>
         <v>1121</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="35">
         <f t="shared" si="8"/>
         <v>0.20491803278688525</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="36">
         <f t="shared" si="9"/>
         <v>0.12909836065573771</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="36">
         <f t="shared" si="10"/>
         <v>7.274826789838337</v>
       </c>
-      <c r="X17" s="38">
+      <c r="X17" s="37">
         <f t="shared" si="2"/>
         <v>42925</v>
       </c>
-      <c r="Y17" s="40">
+      <c r="Y17" s="39">
         <f>MAX($P$15:$P$17)/SUBTOTAL(109,$P$15:$P$17)</f>
         <v>0.38557435440783616</v>
       </c>
-      <c r="Z17" s="39" t="s">
+      <c r="Z17" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>D18+108</f>
         <v>408</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>403</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>42935.022222222222</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2186</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>0.66</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2320</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0.63</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>2</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="23">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="11">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="11">
         <f t="shared" si="6"/>
         <v>1442</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="11">
         <f t="shared" si="7"/>
         <v>1461</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="12">
         <f t="shared" si="8"/>
         <v>0.1417910447761194</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="13">
         <f t="shared" si="9"/>
         <v>0.38059701492537312</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="13">
         <f t="shared" si="10"/>
         <v>14.571428571428571</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="28">
         <f t="shared" si="2"/>
         <v>42934</v>
       </c>
-      <c r="Y18" s="40">
+      <c r="Y18" s="39">
         <f t="array" ref="Y18:Y22">MAX($P$18:$P$22)/SUBTOTAL(109,$P$18:$P$22)</f>
         <v>0.28561151079136687</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>200</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f>D19+7</f>
         <v>207</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>207</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>42935.041666666664</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2584</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>0.62</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>2816</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>2</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="11">
         <f t="shared" si="1"/>
         <v>3.97</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <f t="shared" si="4"/>
         <v>232</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="11">
         <f t="shared" si="6"/>
         <v>1602</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="11">
         <f t="shared" si="7"/>
         <v>1633</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="12">
         <f t="shared" si="8"/>
         <v>0.1336206896551724</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="13">
         <f t="shared" si="9"/>
         <v>1.2931034482758621E-2</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="13">
         <f t="shared" si="10"/>
         <v>0.75566750629722923</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="28">
         <f t="shared" si="2"/>
         <v>42934</v>
       </c>
-      <c r="Y19" s="40">
+      <c r="Y19" s="39">
         <v>0.28561151079136687</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f>D20+618</f>
         <v>1018</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>988</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>42934.955555555556</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>1753</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>0.64</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>1855</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>0.61</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>4</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <f t="shared" si="3"/>
         <v>588</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="11">
         <f t="shared" si="6"/>
         <v>1121</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="11">
         <f t="shared" si="7"/>
         <v>1131</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <f t="shared" si="8"/>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="13">
         <f t="shared" si="9"/>
         <v>1.4387254901960784</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="13">
         <f t="shared" si="10"/>
         <v>77.236842105263165</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="28">
         <f t="shared" si="2"/>
         <v>42934</v>
       </c>
-      <c r="Y20" s="40">
+      <c r="Y20" s="39">
         <v>0.28561151079136687</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>200</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f>D21+32</f>
         <v>232</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>232</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>42934.986805555556</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>1674</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>0.63</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>1830</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>0.6</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>2</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <f t="shared" si="6"/>
         <v>1054</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <f t="shared" si="7"/>
         <v>1098</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <f t="shared" si="8"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="13">
         <f t="shared" si="9"/>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="13">
         <f t="shared" si="10"/>
         <v>5.6603773584905666</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="28">
         <f t="shared" si="2"/>
         <v>42934</v>
       </c>
-      <c r="Y21" s="40">
+      <c r="Y21" s="39">
         <v>0.28561151079136687</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>200</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f>D22+177</f>
         <v>377</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>369</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>42935.03402777778</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>1855</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>0.61</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>1967</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>0.59</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>2</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="22">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="23">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="11">
         <f t="shared" si="6"/>
         <v>1131</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="11">
         <f t="shared" si="7"/>
         <v>1160</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <f t="shared" si="8"/>
         <v>0.25892857142857145</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="13">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W22" s="13">
         <f t="shared" si="10"/>
         <v>44.680851063829792</v>
       </c>
-      <c r="X22" s="29">
+      <c r="X22" s="28">
         <f t="shared" si="2"/>
         <v>42934</v>
       </c>
-      <c r="Y22" s="40">
+      <c r="Y22" s="39">
         <v>0.28561151079136687</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="31" customFormat="1">
-      <c r="A23" s="30">
+    <row r="23" spans="1:26" s="30" customFormat="1">
+      <c r="A23" s="29">
         <v>42936.855555555558</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f>D23+150</f>
         <v>350</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <v>342</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>42936.959722222222</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <v>2320</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="31">
         <v>0.63</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="31">
         <v>2422</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="31">
         <v>0.61</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="31">
         <v>2</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="32">
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="31">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="30">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="30">
         <f t="shared" si="6"/>
         <v>1461</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="30">
         <f t="shared" si="7"/>
         <v>1477</v>
       </c>
-      <c r="U23" s="36">
+      <c r="U23" s="35">
         <f t="shared" si="8"/>
         <v>0.15686274509803921</v>
       </c>
-      <c r="V23" s="37">
+      <c r="V23" s="36">
         <f t="shared" si="9"/>
         <v>0.69607843137254899</v>
       </c>
-      <c r="W23" s="37">
+      <c r="W23" s="36">
         <f t="shared" si="10"/>
         <v>28.4</v>
       </c>
-      <c r="X23" s="38">
+      <c r="X23" s="37">
         <f t="shared" si="2"/>
         <v>42936</v>
       </c>
-      <c r="Y23" s="40">
+      <c r="Y23" s="39">
         <f>MAX($P$23:$P$24)/SUBTOTAL(109,$P$23:$P$24)</f>
         <v>0.51267056530214428</v>
       </c>
-      <c r="Z23" s="39" t="s">
+      <c r="Z23" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="31" customFormat="1">
-      <c r="A24" s="30">
+    <row r="24" spans="1:26" s="30" customFormat="1">
+      <c r="A24" s="29">
         <v>42936.855555555558</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <f>200+200</f>
         <v>400</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <f>D24-132</f>
         <v>268</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>268</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>42936.965277777781</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <v>1967</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="31">
         <v>0.59</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="31">
         <v>2117</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="31">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="31">
         <v>2</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="32">
         <f t="shared" si="3"/>
         <v>-132</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="31">
         <f t="shared" si="0"/>
         <v>-132</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="30">
         <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="30">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="R24" s="31">
+      <c r="R24" s="30">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="S24" s="31">
+      <c r="S24" s="30">
         <f t="shared" si="6"/>
         <v>1160</v>
       </c>
-      <c r="T24" s="31">
+      <c r="T24" s="30">
         <f t="shared" si="7"/>
         <v>1206</v>
       </c>
-      <c r="U24" s="36">
+      <c r="U24" s="35">
         <f>R24/Q24</f>
         <v>0.30666666666666664</v>
       </c>
-      <c r="V24" s="37">
+      <c r="V24" s="36">
         <f t="shared" si="9"/>
         <v>-0.44</v>
       </c>
-      <c r="W24" s="37">
+      <c r="W24" s="36">
         <f t="shared" si="10"/>
         <v>-25.095057034220535</v>
       </c>
-      <c r="X24" s="38">
+      <c r="X24" s="37">
         <f t="shared" si="2"/>
         <v>42936</v>
       </c>
-      <c r="Y24" s="40">
+      <c r="Y24" s="39">
         <f>MAX($P$23:$P$24)/SUBTOTAL(109,$P$23:$P$24)</f>
         <v>0.51267056530214428</v>
       </c>
-      <c r="Z24" s="39" t="s">
+      <c r="Z24" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>189</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>42939.000011574077</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2816</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>2997</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>2</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="22">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="23">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="11">
         <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="11">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="11">
         <f t="shared" si="7"/>
         <v>1648</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="12">
         <f t="shared" ref="U25:U28" si="11">R25/Q25</f>
         <v>8.2872928176795577E-2</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="13">
         <f t="shared" si="9"/>
         <v>-3.0386740331491711E-2</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="13">
         <f t="shared" si="10"/>
         <v>-1.8835616438356164</v>
       </c>
-      <c r="X25" s="29">
+      <c r="X25" s="28">
         <f t="shared" si="2"/>
         <v>42938</v>
       </c>
-      <c r="Y25" s="40">
+      <c r="Y25" s="39">
         <f>MAX($P$25:$P$28)/SUBTOTAL(109,$P$25:$P$28)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="Z25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f>D26+274</f>
         <v>674</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>665</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <v>42938.982638888891</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>1830</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>0.6</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>1994</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>4</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="22">
         <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="23">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="11">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="11">
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="11">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="11">
         <f t="shared" si="6"/>
         <v>1098</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="11">
         <f t="shared" si="7"/>
         <v>1116</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="12">
         <f t="shared" si="11"/>
         <v>0.10975609756097561</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="13">
         <f t="shared" si="9"/>
         <v>0.39634146341463417</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W26" s="13">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="X26" s="29">
+      <c r="X26" s="28">
         <f t="shared" si="2"/>
         <v>42938</v>
       </c>
-      <c r="Y26" s="40">
+      <c r="Y26" s="39">
         <f>MAX($P$25:$P$28)/SUBTOTAL(109,$P$25:$P$28)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="Z26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>400+400+1000</f>
         <v>1800</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f>D27-828</f>
         <v>972</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>972</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>42938.988888888889</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>2117</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>2265</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>4</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="22">
         <f t="shared" si="3"/>
         <v>-828</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="23">
         <f t="shared" si="0"/>
         <v>-828</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="11">
         <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="11">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="11">
         <f t="shared" si="6"/>
         <v>1206</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="11">
         <f t="shared" si="7"/>
         <v>1245</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="12">
         <f t="shared" si="11"/>
         <v>0.26351351351351349</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="13">
         <f t="shared" si="9"/>
         <v>-1.3986486486486487</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="13">
         <f t="shared" si="10"/>
         <v>-82.142857142857139</v>
       </c>
-      <c r="X27" s="29">
+      <c r="X27" s="28">
         <f t="shared" si="2"/>
         <v>42938</v>
       </c>
-      <c r="Y27" s="40">
+      <c r="Y27" s="39">
         <f>MAX($P$25:$P$28)/SUBTOTAL(109,$P$25:$P$28)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>200</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>215</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>215</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>42939.000011574077</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>2422</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>0.61</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>2557</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>0.59</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>2</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="11">
         <f t="shared" si="1"/>
         <v>2.97</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="11">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="11">
         <f t="shared" si="6"/>
         <v>1477</v>
       </c>
-      <c r="T28" s="12">
+      <c r="T28" s="11">
         <f t="shared" si="7"/>
         <v>1508</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="12">
         <f t="shared" si="11"/>
         <v>0.22962962962962963</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="13">
         <f t="shared" si="9"/>
         <v>5.185185185185185E-2</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="13">
         <f t="shared" si="10"/>
         <v>2.3569023569023568</v>
       </c>
-      <c r="X28" s="29">
+      <c r="X28" s="28">
         <f t="shared" si="2"/>
         <v>42938</v>
       </c>
-      <c r="Y28" s="40">
+      <c r="Y28" s="39">
         <f>MAX($P$25:$P$28)/SUBTOTAL(109,$P$25:$P$28)</f>
         <v>0.27222731439046749</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="Z28" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="19480" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="6780" yWindow="120" windowWidth="19485" windowHeight="13740" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId5"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="272">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,256 +669,449 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ai985313720</t>
+  </si>
+  <si>
+    <t>木哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5020356852</t>
+  </si>
+  <si>
+    <t>myf675745943</t>
+  </si>
+  <si>
+    <t>xg15288323487</t>
+  </si>
+  <si>
+    <t>1/2,2/4,5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://weibo.com/2206411805/DC31FDjkR?type=comment#_rnd1501394713814</t>
+  </si>
+  <si>
+    <t>三五瓶三号房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4883848303</t>
+  </si>
+  <si>
+    <t>kakajd2017</t>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-139-1-1.html</t>
+  </si>
+  <si>
+    <t>lin18350381079</t>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-144-1-1.html</t>
+  </si>
+  <si>
+    <t>送金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4，2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-150-1-1.html</t>
+  </si>
+  <si>
+    <t>5/10/20,10/20/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-181-1-1.html</t>
+  </si>
+  <si>
+    <t>聚贤庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4,2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jxzkf001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-187-1-1.html</t>
+  </si>
+  <si>
+    <t>2/4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-398-1-1.html</t>
+  </si>
+  <si>
+    <t>好运来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-396-1-1.html</t>
+  </si>
+  <si>
+    <t>kx111188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq:3380457704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dafapuke8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8,5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-397-1-1.html</t>
+  </si>
+  <si>
+    <t>八星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yx171815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-400-1-1.html</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-403-1-1.html</t>
+  </si>
+  <si>
+    <t>2/4,5/10,10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.riji1.com/thread-460-1-1.html</t>
+  </si>
+  <si>
+    <t>都豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duhao248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junhao00888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidu88888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinlong248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joan，laughing缺1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monoray缺124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">庄Aqo,89h blind, Kxcu,flop QKhx,turnAh pot 100,utg bet 50 deal call blind all in 150,all call77 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄JQc,5，6家跟住，A7J,前位半尺9加注，弃牌，后卫A7两队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花似锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上漂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drtcaculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baijia124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆玖</t>
+  </si>
+  <si>
+    <t>1/2/4</t>
+  </si>
+  <si>
+    <t>微信已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信验证中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niye996</t>
+  </si>
+  <si>
+    <t>gmc</t>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信确认中</t>
+  </si>
+  <si>
+    <t>微信确认中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depuqipai</t>
+  </si>
+  <si>
+    <t>皇朝</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>是否抢抓</t>
+  </si>
+  <si>
+    <t>海口德州</t>
+  </si>
+  <si>
+    <t>1/2-5/10</t>
+  </si>
+  <si>
     <t>https://tieba.baidu.com/p/4866876957</t>
-  </si>
-  <si>
-    <t>ai985313720</t>
-  </si>
-  <si>
-    <t>木哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tieba.baidu.com/p/5020356852</t>
-  </si>
-  <si>
-    <t>myf675745943</t>
-  </si>
-  <si>
-    <t>xg15288323487</t>
-  </si>
-  <si>
-    <t>1/2,2/4,5/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://weibo.com/2206411805/DC31FDjkR?type=comment#_rnd1501394713814</t>
-  </si>
-  <si>
-    <t>三五瓶三号房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tieba.baidu.com/p/4883848303</t>
-  </si>
-  <si>
-    <t>kakajd2017</t>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-139-1-1.html</t>
-  </si>
-  <si>
-    <t>lin18350381079</t>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-144-1-1.html</t>
-  </si>
-  <si>
-    <t>送金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/4，2/4/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-150-1-1.html</t>
-  </si>
-  <si>
-    <t>5/10/20,10/20/40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币战争</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-181-1-1.html</t>
-  </si>
-  <si>
-    <t>聚贤庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/4,2/4/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jxzkf001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-187-1-1.html</t>
-  </si>
-  <si>
-    <t>2/4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-398-1-1.html</t>
-  </si>
-  <si>
-    <t>好运来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-396-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsdj001</t>
+  </si>
+  <si>
+    <t>鼎盛</t>
+  </si>
+  <si>
+    <t>是否抢抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思思德友圈</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/4/8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss-815</t>
   </si>
   <si>
     <t>kx111188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵小鱼</t>
   </si>
   <si>
     <t>qq:3380457704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dafapuke8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/4/8,5/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-397-1-1.html</t>
-  </si>
-  <si>
-    <t>八星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yx171815</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-400-1-1.html</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-403-1-1.html</t>
-  </si>
-  <si>
-    <t>2/4,5/10,10/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.riji1.com/thread-460-1-1.html</t>
-  </si>
-  <si>
-    <t>都豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/4/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duhao248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>junhao00888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guidu88888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinlong248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joan，laughing缺1/2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monoray缺124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">庄Aqo,89h blind, Kxcu,flop QKhx,turnAh pot 100,utg bet 50 deal call blind all in 150,all call77 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全聚德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄JQc,5，6家跟住，A7J,前位半尺9加注，弃牌，后卫A7两队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁花似锦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水上漂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全聚德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drtcaculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzw197544</t>
+  </si>
+  <si>
+    <t>海贼王</t>
+  </si>
+  <si>
+    <r>
+      <t>1/2/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2/4/8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x:haizeiwang197544,xiaoyu520158158</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onoray</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果</t>
+  </si>
+  <si>
+    <t>微信已加</t>
+  </si>
+  <si>
+    <t>微信已添加</t>
+  </si>
+  <si>
+    <t>liuxiang884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>5/10/20</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1128,7 @@
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="183" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1029,6 +1222,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1406,7 +1607,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1461,8 +1662,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="333">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1629,173 +1833,172 @@
     <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2560,7 +2763,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="D3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -3087,43 +3290,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="23" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="11" customWidth="1"/>
-    <col min="20" max="21" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.375" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="1"/>
+    <col min="25" max="25" width="9.625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3164,7 +3367,7 @@
         <v>29</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>41</v>
@@ -3203,7 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="30" customFormat="1">
+    <row r="2" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -3254,50 +3457,50 @@
         <v>-174</v>
       </c>
       <c r="P2" s="23">
-        <f>IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
+        <f t="shared" ref="P2:P21" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
         <v>-174</v>
       </c>
       <c r="Q2" s="11">
-        <f>ROUND((G2-A2)*24,2)</f>
+        <f t="shared" ref="Q2:Q21" si="1">ROUND((G2-A2)*24,2)</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="R2" s="11">
-        <f>J2-H2</f>
+        <f t="shared" ref="R2:R21" si="2">J2-H2</f>
         <v>249</v>
       </c>
       <c r="S2" s="11">
-        <f t="shared" ref="S2:S9" si="0">U2-T2</f>
+        <f t="shared" ref="S2:S9" si="3">U2-T2</f>
         <v>51</v>
       </c>
       <c r="T2" s="11">
-        <f>INT(H2*I2)</f>
+        <f t="shared" ref="T2:T21" si="4">INT(H2*I2)</f>
         <v>1177</v>
       </c>
       <c r="U2" s="11">
-        <f>INT(J2*K2)</f>
+        <f t="shared" ref="U2:U21" si="5">INT(J2*K2)</f>
         <v>1228</v>
       </c>
       <c r="V2" s="12">
-        <f t="shared" ref="V2:V9" si="1">S2/R2</f>
+        <f t="shared" ref="V2:V9" si="6">S2/R2</f>
         <v>0.20481927710843373</v>
       </c>
       <c r="W2" s="13">
-        <f>P2/R2/L2</f>
+        <f t="shared" ref="W2:W21" si="7">P2/R2/L2</f>
         <v>-0.3493975903614458</v>
       </c>
       <c r="X2" s="13">
-        <f>P2/Q2/L2</f>
+        <f t="shared" ref="X2:X21" si="8">P2/Q2/L2</f>
         <v>-20.374707259953162</v>
       </c>
       <c r="Y2" s="37">
-        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+        <f t="shared" ref="Y2:Y21" si="9">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>42925</v>
       </c>
       <c r="Z2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="30" customFormat="1">
+    <row r="3" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -3338,7 +3541,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="49">
-        <f t="shared" ref="N3:N4" si="2">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+        <f t="shared" ref="N3:N4" si="10">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
         <v>1.4433333333333334</v>
       </c>
       <c r="O3" s="22">
@@ -3346,50 +3549,50 @@
         <v>308</v>
       </c>
       <c r="P3" s="23">
-        <f>IF(E3&gt;D3,INT((E3-D3)*0.95),E3-D3)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="Q3" s="11">
-        <f>ROUND((G3-A3)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
       <c r="R3" s="11">
-        <f>J3-H3</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="S3" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="T3" s="11">
-        <f>INT(H3*I3)</f>
+        <f t="shared" si="4"/>
         <v>1349</v>
       </c>
       <c r="U3" s="11">
-        <f>INT(J3*K3)</f>
+        <f t="shared" si="5"/>
         <v>1379</v>
       </c>
       <c r="V3" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.18072289156626506</v>
       </c>
       <c r="W3" s="13">
-        <f>P3/R3/L3</f>
+        <f t="shared" si="7"/>
         <v>0.92469879518072284</v>
       </c>
       <c r="X3" s="13">
-        <f>P3/Q3/L3</f>
+        <f t="shared" si="8"/>
         <v>58.365019011406844</v>
       </c>
       <c r="Y3" s="37">
-        <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
+        <f t="shared" si="9"/>
         <v>42925</v>
       </c>
       <c r="Z3" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="30" customFormat="1">
+    <row r="4" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -3430,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="O4" s="22">
@@ -3438,50 +3641,50 @@
         <v>67</v>
       </c>
       <c r="P4" s="23">
-        <f>IF(E4&gt;D4,INT((E4-D4)*0.95),E4-D4)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="Q4" s="11">
-        <f>ROUND((G4-A4)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>4.33</v>
       </c>
       <c r="R4" s="11">
-        <f>J4-H4</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="S4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="T4" s="11">
-        <f>INT(H4*I4)</f>
+        <f t="shared" si="4"/>
         <v>1071</v>
       </c>
       <c r="U4" s="11">
-        <f>INT(J4*K4)</f>
+        <f t="shared" si="5"/>
         <v>1121</v>
       </c>
       <c r="V4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.20491803278688525</v>
       </c>
       <c r="W4" s="13">
-        <f>P4/R4/L4</f>
+        <f t="shared" si="7"/>
         <v>0.12909836065573771</v>
       </c>
       <c r="X4" s="13">
-        <f>P4/Q4/L4</f>
+        <f t="shared" si="8"/>
         <v>7.274826789838337</v>
       </c>
       <c r="Y4" s="37">
-        <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
+        <f t="shared" si="9"/>
         <v>42925</v>
       </c>
       <c r="Z4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -3532,50 +3735,50 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="P5" s="23">
-        <f>IF(E5&gt;D5,INT((E5-D5)*0.95),E5-D5)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="Q5" s="11">
-        <f>ROUND((G5-A5)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="R5" s="11">
-        <f>J5-H5</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T5" s="11">
-        <f>INT(H5*I5)</f>
+        <f t="shared" si="4"/>
         <v>1442</v>
       </c>
       <c r="U5" s="11">
-        <f>INT(J5*K5)</f>
+        <f t="shared" si="5"/>
         <v>1461</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.1417910447761194</v>
       </c>
       <c r="W5" s="13">
-        <f>P5/R5/L5</f>
+        <f t="shared" si="7"/>
         <v>0.38059701492537312</v>
       </c>
       <c r="X5" s="13">
-        <f>P5/Q5/L5</f>
+        <f t="shared" si="8"/>
         <v>14.571428571428571</v>
       </c>
       <c r="Y5" s="28">
-        <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -3617,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="48">
-        <f t="shared" ref="N6:N9" si="3">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <f t="shared" ref="N6:N9" si="11">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
         <v>0.79400000000000004</v>
       </c>
       <c r="O6" s="22">
@@ -3625,50 +3828,50 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="P6" s="23">
-        <f>IF(E6&gt;D6,INT((E6-D6)*0.95),E6-D6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q6" s="11">
-        <f>ROUND((G6-A6)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>3.97</v>
       </c>
       <c r="R6" s="11">
-        <f>J6-H6</f>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="T6" s="11">
-        <f>INT(H6*I6)</f>
+        <f t="shared" si="4"/>
         <v>1602</v>
       </c>
       <c r="U6" s="11">
-        <f>INT(J6*K6)</f>
+        <f t="shared" si="5"/>
         <v>1633</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.1336206896551724</v>
       </c>
       <c r="W6" s="13">
-        <f>P6/R6/L6</f>
+        <f t="shared" si="7"/>
         <v>1.2931034482758621E-2</v>
       </c>
       <c r="X6" s="13">
-        <f>P6/Q6/L6</f>
+        <f t="shared" si="8"/>
         <v>0.75566750629722923</v>
       </c>
       <c r="Y6" s="28">
-        <f>DATE(YEAR(A6),MONTH(A6),DAY(A6))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -3711,58 +3914,58 @@
         <v>60</v>
       </c>
       <c r="N7" s="48">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O7" s="22">
+        <f t="shared" ref="O7:O21" si="12">F7-D7</f>
+        <v>588</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="S7" s="11">
         <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O7" s="22">
-        <f>F7-D7</f>
-        <v>588</v>
-      </c>
-      <c r="P7" s="23">
-        <f>IF(E7&gt;D7,INT((E7-D7)*0.95),E7-D7)</f>
-        <v>587</v>
-      </c>
-      <c r="Q7" s="11">
-        <f>ROUND((G7-A7)*24,2)</f>
-        <v>1.9</v>
-      </c>
-      <c r="R7" s="11">
-        <f>J7-H7</f>
-        <v>102</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T7" s="11">
-        <f>INT(H7*I7)</f>
+        <f t="shared" si="4"/>
         <v>1121</v>
       </c>
       <c r="U7" s="11">
-        <f>INT(J7*K7)</f>
+        <f t="shared" si="5"/>
         <v>1131</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.8039215686274508E-2</v>
       </c>
       <c r="W7" s="13">
-        <f>P7/R7/L7</f>
+        <f t="shared" si="7"/>
         <v>1.4387254901960784</v>
       </c>
       <c r="X7" s="13">
-        <f>P7/Q7/L7</f>
+        <f t="shared" si="8"/>
         <v>77.236842105263165</v>
       </c>
       <c r="Y7" s="28">
-        <f>DATE(YEAR(A7),MONTH(A7),DAY(A7))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -3804,58 +4007,58 @@
         <v>30</v>
       </c>
       <c r="N8" s="48">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.65</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O8" s="22">
-        <f>F8-D8</f>
-        <v>32</v>
-      </c>
-      <c r="P8" s="23">
-        <f>IF(E8&gt;D8,INT((E8-D8)*0.95),E8-D8)</f>
-        <v>30</v>
-      </c>
-      <c r="Q8" s="11">
-        <f>ROUND((G8-A8)*24,2)</f>
-        <v>2.65</v>
-      </c>
-      <c r="R8" s="11">
-        <f>J8-H8</f>
-        <v>156</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="T8" s="11">
-        <f>INT(H8*I8)</f>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="U8" s="11">
-        <f>INT(J8*K8)</f>
+        <f t="shared" si="5"/>
         <v>1098</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.28205128205128205</v>
       </c>
       <c r="W8" s="13">
-        <f>P8/R8/L8</f>
+        <f t="shared" si="7"/>
         <v>9.6153846153846159E-2</v>
       </c>
       <c r="X8" s="13">
-        <f>P8/Q8/L8</f>
+        <f t="shared" si="8"/>
         <v>5.6603773584905666</v>
       </c>
       <c r="Y8" s="28">
-        <f>DATE(YEAR(A8),MONTH(A8),DAY(A8))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -3897,58 +4100,58 @@
         <v>30</v>
       </c>
       <c r="N9" s="48">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>1.88</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O9" s="22">
-        <f>F9-D9</f>
-        <v>169</v>
-      </c>
-      <c r="P9" s="23">
-        <f>IF(E9&gt;D9,INT((E9-D9)*0.95),E9-D9)</f>
-        <v>168</v>
-      </c>
-      <c r="Q9" s="11">
-        <f>ROUND((G9-A9)*24,2)</f>
-        <v>1.88</v>
-      </c>
-      <c r="R9" s="11">
-        <f>J9-H9</f>
-        <v>112</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="T9" s="11">
-        <f>INT(H9*I9)</f>
+        <f t="shared" si="4"/>
         <v>1131</v>
       </c>
       <c r="U9" s="11">
-        <f>INT(J9*K9)</f>
+        <f t="shared" si="5"/>
         <v>1160</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.25892857142857145</v>
       </c>
       <c r="W9" s="13">
-        <f>P9/R9/L9</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="X9" s="13">
-        <f>P9/Q9/L9</f>
+        <f t="shared" si="8"/>
         <v>44.680851063829792</v>
       </c>
       <c r="Y9" s="28">
-        <f>DATE(YEAR(A9),MONTH(A9),DAY(A9))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="30" customFormat="1">
+    <row r="10" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -3995,54 +4198,54 @@
         <v>1.3149999999999999</v>
       </c>
       <c r="O10" s="22">
-        <f>F10-D10</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="P10" s="23">
-        <f>IF(E10&gt;D10,INT((E10-D10)*0.95),E10-D10)</f>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="Q10" s="11">
-        <f>ROUND((G10-A10)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="R10" s="11">
-        <f>J10-H10</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="S10" s="11">
-        <f t="shared" ref="S10:S14" si="4">U10-T10</f>
+        <f t="shared" ref="S10:S14" si="13">U10-T10</f>
         <v>16</v>
       </c>
       <c r="T10" s="11">
-        <f>INT(H10*I10)</f>
+        <f t="shared" si="4"/>
         <v>1461</v>
       </c>
       <c r="U10" s="11">
-        <f>INT(J10*K10)</f>
+        <f t="shared" si="5"/>
         <v>1477</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" ref="V10" si="5">S10/R10</f>
+        <f t="shared" ref="V10" si="14">S10/R10</f>
         <v>0.15686274509803921</v>
       </c>
       <c r="W10" s="13">
-        <f>P10/R10/L10</f>
+        <f t="shared" si="7"/>
         <v>0.69607843137254899</v>
       </c>
       <c r="X10" s="13">
-        <f>P10/Q10/L10</f>
+        <f t="shared" si="8"/>
         <v>28.4</v>
       </c>
       <c r="Y10" s="37">
-        <f>DATE(YEAR(A10),MONTH(A10),DAY(A10))</f>
+        <f t="shared" si="9"/>
         <v>42936</v>
       </c>
       <c r="Z10" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1">
+    <row r="11" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -4089,31 +4292,31 @@
         <v>1.3149999999999999</v>
       </c>
       <c r="O11" s="22">
-        <f>F11-D11</f>
+        <f t="shared" si="12"/>
         <v>-132</v>
       </c>
       <c r="P11" s="23">
-        <f>IF(E11&gt;D11,INT((E11-D11)*0.95),E11-D11)</f>
+        <f t="shared" si="0"/>
         <v>-132</v>
       </c>
       <c r="Q11" s="11">
-        <f>ROUND((G11-A11)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
       <c r="R11" s="11">
-        <f>J11-H11</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="S11" s="11">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="T11" s="11">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="T11" s="11">
-        <f>INT(H11*I11)</f>
         <v>1160</v>
       </c>
       <c r="U11" s="11">
-        <f>INT(J11*K11)</f>
+        <f t="shared" si="5"/>
         <v>1206</v>
       </c>
       <c r="V11" s="12">
@@ -4121,22 +4324,22 @@
         <v>0.30666666666666664</v>
       </c>
       <c r="W11" s="13">
-        <f>P11/R11/L11</f>
+        <f t="shared" si="7"/>
         <v>-0.44</v>
       </c>
       <c r="X11" s="13">
-        <f>P11/Q11/L11</f>
+        <f t="shared" si="8"/>
         <v>-25.095057034220535</v>
       </c>
       <c r="Y11" s="37">
-        <f>DATE(YEAR(A11),MONTH(A11),DAY(A11))</f>
+        <f t="shared" si="9"/>
         <v>42936</v>
       </c>
       <c r="Z11" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -4182,54 +4385,54 @@
         <v>0.74250000000000005</v>
       </c>
       <c r="O12" s="22">
-        <f>F12-D12</f>
+        <f t="shared" si="12"/>
         <v>-11</v>
       </c>
       <c r="P12" s="23">
-        <f>IF(E12&gt;D12,INT((E12-D12)*0.95),E12-D12)</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="Q12" s="11">
-        <f>ROUND((G12-A12)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
       <c r="R12" s="11">
-        <f>J12-H12</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="S12" s="11">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="T12" s="11">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="T12" s="11">
-        <f>INT(H12*I12)</f>
         <v>1633</v>
       </c>
       <c r="U12" s="11">
-        <f>INT(J12*K12)</f>
+        <f t="shared" si="5"/>
         <v>1648</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" ref="V12:V15" si="6">S12/R12</f>
+        <f t="shared" ref="V12:V15" si="15">S12/R12</f>
         <v>8.2872928176795577E-2</v>
       </c>
       <c r="W12" s="13">
-        <f>P12/R12/L12</f>
+        <f t="shared" si="7"/>
         <v>-3.0386740331491711E-2</v>
       </c>
       <c r="X12" s="13">
-        <f>P12/Q12/L12</f>
+        <f t="shared" si="8"/>
         <v>-1.8835616438356164</v>
       </c>
       <c r="Y12" s="28">
-        <f>DATE(YEAR(A12),MONTH(A12),DAY(A12))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -4272,58 +4475,58 @@
         <v>104</v>
       </c>
       <c r="N13" s="48">
-        <f t="shared" ref="N13:N15" si="7">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
+        <f t="shared" ref="N13:N15" si="16">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
         <v>0.74250000000000005</v>
       </c>
       <c r="O13" s="22">
-        <f>F13-D13</f>
+        <f t="shared" si="12"/>
         <v>265</v>
       </c>
       <c r="P13" s="23">
-        <f>IF(E13&gt;D13,INT((E13-D13)*0.95),E13-D13)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="Q13" s="11">
-        <f>ROUND((G13-A13)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="R13" s="11">
-        <f>J13-H13</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="S13" s="11">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="T13" s="11">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="T13" s="11">
-        <f>INT(H13*I13)</f>
         <v>1098</v>
       </c>
       <c r="U13" s="11">
-        <f>INT(J13*K13)</f>
+        <f t="shared" si="5"/>
         <v>1116</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.10975609756097561</v>
       </c>
       <c r="W13" s="13">
-        <f>P13/R13/L13</f>
+        <f t="shared" si="7"/>
         <v>0.39634146341463417</v>
       </c>
       <c r="X13" s="13">
-        <f>P13/Q13/L13</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="Y13" s="28">
-        <f>DATE(YEAR(A13),MONTH(A13),DAY(A13))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -4366,58 +4569,58 @@
         <v>104</v>
       </c>
       <c r="N14" s="48">
+        <f t="shared" si="16"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="12"/>
+        <v>-828</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="0"/>
+        <v>-828</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="4"/>
+        <v>1206</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="5"/>
+        <v>1245</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="15"/>
+        <v>0.26351351351351349</v>
+      </c>
+      <c r="W14" s="13">
         <f t="shared" si="7"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="O14" s="22">
-        <f>F14-D14</f>
-        <v>-828</v>
-      </c>
-      <c r="P14" s="23">
-        <f>IF(E14&gt;D14,INT((E14-D14)*0.95),E14-D14)</f>
-        <v>-828</v>
-      </c>
-      <c r="Q14" s="11">
-        <f>ROUND((G14-A14)*24,2)</f>
-        <v>2.52</v>
-      </c>
-      <c r="R14" s="11">
-        <f>J14-H14</f>
-        <v>148</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="T14" s="11">
-        <f>INT(H14*I14)</f>
-        <v>1206</v>
-      </c>
-      <c r="U14" s="11">
-        <f>INT(J14*K14)</f>
-        <v>1245</v>
-      </c>
-      <c r="V14" s="12">
-        <f t="shared" si="6"/>
-        <v>0.26351351351351349</v>
-      </c>
-      <c r="W14" s="13">
-        <f>P14/R14/L14</f>
         <v>-1.3986486486486487</v>
       </c>
       <c r="X14" s="13">
-        <f>P14/Q14/L14</f>
+        <f t="shared" si="8"/>
         <v>-82.142857142857139</v>
       </c>
       <c r="Y14" s="28">
-        <f>DATE(YEAR(A14),MONTH(A14),DAY(A14))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>42938.876388888886</v>
       </c>
@@ -4458,58 +4661,58 @@
         <v>30</v>
       </c>
       <c r="N15" s="48">
+        <f t="shared" si="16"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>2.97</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" ref="S15" si="17">U15-T15</f>
+        <v>31</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="4"/>
+        <v>1477</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="5"/>
+        <v>1508</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="15"/>
+        <v>0.22962962962962963</v>
+      </c>
+      <c r="W15" s="13">
         <f t="shared" si="7"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="O15" s="22">
-        <f>F15-D15</f>
-        <v>15</v>
-      </c>
-      <c r="P15" s="23">
-        <f>IF(E15&gt;D15,INT((E15-D15)*0.95),E15-D15)</f>
-        <v>14</v>
-      </c>
-      <c r="Q15" s="11">
-        <f>ROUND((G15-A15)*24,2)</f>
-        <v>2.97</v>
-      </c>
-      <c r="R15" s="11">
-        <f>J15-H15</f>
-        <v>135</v>
-      </c>
-      <c r="S15" s="11">
-        <f t="shared" ref="S15" si="8">U15-T15</f>
-        <v>31</v>
-      </c>
-      <c r="T15" s="11">
-        <f>INT(H15*I15)</f>
-        <v>1477</v>
-      </c>
-      <c r="U15" s="11">
-        <f>INT(J15*K15)</f>
-        <v>1508</v>
-      </c>
-      <c r="V15" s="12">
-        <f t="shared" si="6"/>
-        <v>0.22962962962962963</v>
-      </c>
-      <c r="W15" s="13">
-        <f>P15/R15/L15</f>
         <v>5.185185185185185E-2</v>
       </c>
       <c r="X15" s="13">
-        <f>P15/Q15/L15</f>
+        <f t="shared" si="8"/>
         <v>2.3569023569023568</v>
       </c>
       <c r="Y15" s="28">
-        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1">
+    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>42946.625</v>
       </c>
@@ -4517,7 +4720,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="31">
         <f>400+300+200</f>
@@ -4549,26 +4752,26 @@
         <v>4</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N16" s="49">
         <f>MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
         <v>0.84</v>
       </c>
       <c r="O16" s="22">
-        <f>F16-D16</f>
+        <f t="shared" si="12"/>
         <v>-318</v>
       </c>
       <c r="P16" s="23">
-        <f>IF(E16&gt;D16,INT((E16-D16)*0.95),E16-D16)</f>
+        <f t="shared" si="0"/>
         <v>-318</v>
       </c>
       <c r="Q16" s="11">
-        <f>ROUND((G16-A16)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="R16" s="11">
-        <f>J16-H16</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="S16" s="11">
@@ -4576,34 +4779,34 @@
         <v>26</v>
       </c>
       <c r="T16" s="11">
-        <f>INT(H16*I16)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="U16" s="11">
-        <f>INT(J16*K16)</f>
+        <f t="shared" si="5"/>
         <v>2034</v>
       </c>
       <c r="V16" s="12">
-        <f t="shared" ref="V16:V21" si="9">S16/R16</f>
+        <f t="shared" ref="V16:V18" si="18">S16/R16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="W16" s="13">
-        <f>P16/R16/L16</f>
+        <f t="shared" si="7"/>
         <v>-0.49687500000000001</v>
       </c>
       <c r="X16" s="13">
-        <f>P16/Q16/L16</f>
+        <f t="shared" si="8"/>
         <v>-31.547619047619047</v>
       </c>
       <c r="Y16" s="37">
-        <f>DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z16" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
+    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>42946.635416666664</v>
       </c>
@@ -4611,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" s="31">
         <f>400+300</f>
@@ -4646,58 +4849,58 @@
         <v>60</v>
       </c>
       <c r="N17" s="49">
-        <f t="shared" ref="N17:N18" si="10">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <f t="shared" ref="N17:N18" si="19">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
         <v>0.84</v>
       </c>
       <c r="O17" s="22">
-        <f>F17-D17</f>
+        <f t="shared" si="12"/>
         <v>-400</v>
       </c>
       <c r="P17" s="23">
-        <f>IF(E17&gt;D17,INT((E17-D17)*0.95),E17-D17)</f>
+        <f t="shared" si="0"/>
         <v>-408</v>
       </c>
       <c r="Q17" s="11">
-        <f>ROUND((G17-A17)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
       <c r="R17" s="11">
-        <f>J17-H17</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="S17" s="11">
-        <f t="shared" ref="S17:S18" si="11">U17-T17</f>
+        <f t="shared" ref="S17:S18" si="20">U17-T17</f>
         <v>44</v>
       </c>
       <c r="T17" s="11">
-        <f>INT(H17*I17)</f>
+        <f t="shared" si="4"/>
         <v>1320</v>
       </c>
       <c r="U17" s="11">
-        <f>INT(J17*K17)</f>
+        <f t="shared" si="5"/>
         <v>1364</v>
       </c>
       <c r="V17" s="12">
+        <f t="shared" si="18"/>
+        <v>0.28758169934640521</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="8"/>
+        <v>-42.857142857142861</v>
+      </c>
+      <c r="Y17" s="37">
         <f t="shared" si="9"/>
-        <v>0.28758169934640521</v>
-      </c>
-      <c r="W17" s="13">
-        <f>P17/R17/L17</f>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="X17" s="13">
-        <f>P17/Q17/L17</f>
-        <v>-42.857142857142861</v>
-      </c>
-      <c r="Y17" s="37">
-        <f>DATE(YEAR(A17),MONTH(A17),DAY(A17))</f>
         <v>42946</v>
       </c>
       <c r="Z17" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="30" customFormat="1">
+    <row r="18" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>42946.677777777775</v>
       </c>
@@ -4705,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="31">
         <f>400</f>
@@ -4736,61 +4939,61 @@
         <v>4</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N18" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.84</v>
       </c>
       <c r="O18" s="22">
-        <f>F18-D18</f>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="P18" s="23">
-        <f>IF(E18&gt;D18,INT((E18-D18)*0.95),E18-D18)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="Q18" s="11">
-        <f>ROUND((G18-A18)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
       <c r="R18" s="11">
-        <f>J18-H18</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="T18" s="11">
-        <f>INT(H18*I18)</f>
+        <f t="shared" si="4"/>
         <v>1713</v>
       </c>
       <c r="U18" s="11">
-        <f>INT(J18*K18)</f>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="V18" s="12">
+        <f t="shared" si="18"/>
+        <v>0.34905660377358488</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="7"/>
+        <v>0.26650943396226418</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="8"/>
+        <v>17.438271604938272</v>
+      </c>
+      <c r="Y18" s="37">
         <f t="shared" si="9"/>
-        <v>0.34905660377358488</v>
-      </c>
-      <c r="W18" s="13">
-        <f>P18/R18/L18</f>
-        <v>0.26650943396226418</v>
-      </c>
-      <c r="X18" s="13">
-        <f>P18/Q18/L18</f>
-        <v>17.438271604938272</v>
-      </c>
-      <c r="Y18" s="37">
-        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18))</f>
         <v>42946</v>
       </c>
       <c r="Z18" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42946.822916666664</v>
       </c>
@@ -4798,7 +5001,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="5">
         <f>400</f>
@@ -4830,61 +5033,61 @@
         <v>4</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N19" s="48">
         <f>MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
         <v>0.86</v>
       </c>
       <c r="O19" s="22">
-        <f>F19-D19</f>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="P19" s="23">
-        <f>IF(E19&gt;D19,INT((E19-D19)*0.95),E19-D19)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="Q19" s="11">
-        <f>ROUND((G19-A19)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="R19" s="11">
-        <f>J19-H19</f>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" ref="S19:S21" si="12">U19-T19</f>
+        <f t="shared" ref="S19:S21" si="21">U19-T19</f>
         <v>453</v>
       </c>
       <c r="T19" s="11">
-        <f>INT(H19*I19)</f>
+        <f t="shared" si="4"/>
         <v>1648</v>
       </c>
       <c r="U19" s="11">
-        <f>INT(J19*K19)</f>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" ref="V19:V21" si="13">S19/R19</f>
+        <f t="shared" ref="V19:V21" si="22">S19/R19</f>
         <v>0.65747460087082732</v>
       </c>
       <c r="W19" s="13">
-        <f>P19/R19/L19</f>
+        <f t="shared" si="7"/>
         <v>3.8098693759071114E-2</v>
       </c>
       <c r="X19" s="13">
-        <f>P19/Q19/L19</f>
+        <f t="shared" si="8"/>
         <v>10.416666666666666</v>
       </c>
       <c r="Y19" s="28">
-        <f>DATE(YEAR(A19),MONTH(A19),DAY(A19))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42946.840277777781</v>
       </c>
@@ -4892,7 +5095,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="5">
         <f>400+400</f>
@@ -4927,58 +5130,58 @@
         <v>104</v>
       </c>
       <c r="N20" s="48">
-        <f t="shared" ref="N20:N21" si="14">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <f t="shared" ref="N20:N21" si="23">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
         <v>0.86</v>
       </c>
       <c r="O20" s="22">
-        <f>F20-D20</f>
+        <f t="shared" si="12"/>
         <v>-240</v>
       </c>
       <c r="P20" s="23">
-        <f>IF(E20&gt;D20,INT((E20-D20)*0.95),E20-D20)</f>
+        <f t="shared" si="0"/>
         <v>-256</v>
       </c>
       <c r="Q20" s="11">
-        <f>ROUND((G20-A20)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="R20" s="11">
-        <f>J20-H20</f>
+        <f t="shared" si="2"/>
         <v>503</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>282</v>
       </c>
       <c r="T20" s="11">
-        <f>INT(H20*I20)</f>
+        <f t="shared" si="4"/>
         <v>1116</v>
       </c>
       <c r="U20" s="11">
-        <f>INT(J20*K20)</f>
+        <f t="shared" si="5"/>
         <v>1398</v>
       </c>
       <c r="V20" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.56063618290258455</v>
       </c>
       <c r="W20" s="13">
-        <f>P20/R20/L20</f>
+        <f t="shared" si="7"/>
         <v>-0.1272365805168986</v>
       </c>
       <c r="X20" s="13">
-        <f>P20/Q20/L20</f>
+        <f t="shared" si="8"/>
         <v>-25.296442687747039</v>
       </c>
       <c r="Y20" s="28">
-        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42946.798611111109</v>
       </c>
@@ -4986,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="5">
         <f>400</f>
@@ -5018,54 +5221,54 @@
         <v>4</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N21" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0.86</v>
       </c>
       <c r="O21" s="22">
-        <f>F21-D21</f>
+        <f t="shared" si="12"/>
         <v>484</v>
       </c>
       <c r="P21" s="23">
-        <f>IF(E21&gt;D21,INT((E21-D21)*0.95),E21-D21)</f>
+        <f t="shared" si="0"/>
         <v>474</v>
       </c>
       <c r="Q21" s="11">
-        <f>ROUND((G21-A21)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.58</v>
       </c>
       <c r="R21" s="11">
-        <f>J21-H21</f>
+        <f t="shared" si="2"/>
         <v>458</v>
       </c>
       <c r="S21" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>270</v>
       </c>
       <c r="T21" s="11">
-        <f>INT(H21*I21)</f>
+        <f t="shared" si="4"/>
         <v>1508</v>
       </c>
       <c r="U21" s="11">
-        <f>INT(J21*K21)</f>
+        <f t="shared" si="5"/>
         <v>1778</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.58951965065502188</v>
       </c>
       <c r="W21" s="13">
-        <f>P21/R21/L21</f>
+        <f t="shared" si="7"/>
         <v>0.25873362445414849</v>
       </c>
       <c r="X21" s="13">
-        <f>P21/Q21/L21</f>
+        <f t="shared" si="8"/>
         <v>45.930232558139537</v>
       </c>
       <c r="Y21" s="28">
-        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z21" s="2" t="s">
@@ -5092,14 +5295,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -5116,7 +5319,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5133,7 +5336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5147,7 +5350,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5158,7 +5361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5169,7 +5372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5180,7 +5383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5188,7 +5391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5199,7 +5402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5207,7 +5410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5215,7 +5418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5223,7 +5426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5234,7 +5437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5242,7 +5445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5250,7 +5453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5278,25 +5481,25 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="5" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="21" customWidth="1"/>
     <col min="8" max="13" width="5" style="5" customWidth="1"/>
     <col min="14" max="14" width="11" style="1"/>
-    <col min="15" max="16" width="6.33203125" style="5" customWidth="1"/>
-    <col min="17" max="22" width="6.33203125" style="11" customWidth="1"/>
+    <col min="15" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="22" width="6.375" style="11" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="11" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5376,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -5469,7 +5672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -5563,7 +5766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -5657,7 +5860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42938.876388888886</v>
       </c>
@@ -5749,7 +5952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5757,7 +5960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -5785,11 +5988,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
@@ -5823,12 +6026,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E3" s="25" t="s">
         <v>121</v>
       </c>
@@ -5837,7 +6040,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -5872,7 +6075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.19451907576571736</v>
@@ -5910,7 +6113,7 @@
         <v>11.621</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.47482883608538057</v>
@@ -5948,7 +6151,7 @@
         <v>7.3790000000000013</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.35474217311233885</v>
@@ -5978,202 +6181,202 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1">
+    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1">
+    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1">
+    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1">
+    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1">
+    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1">
+    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1">
+    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1">
+    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1">
+    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1">
+    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1">
+    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1">
+    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1">
+    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1">
+    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1">
+    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1">
+    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1">
+    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1">
+    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1">
+    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1">
+    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1">
+    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1">
+    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1">
+    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1">
+    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1">
+    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1">
+    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1">
+    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1">
+    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1">
+    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1">
+    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1">
+    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -6192,733 +6395,948 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="10.875" style="2"/>
+    <col min="9" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="10.875" style="1"/>
+    <col min="18" max="18" width="10.875" style="2"/>
+    <col min="19" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>173328</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>195918</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>155864</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>13520654301</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>115464</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="K6" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>197640</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C8" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>177833</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="46">
+      <c r="F9" s="46">
         <v>159385</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>172402</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="46">
+      <c r="F12" s="46">
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C13" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="46">
+      <c r="F13" s="46">
         <v>172402</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="G14" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="46">
+      <c r="F15" s="46">
         <v>136118</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C16" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="C17" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="46">
+      <c r="F18" s="46">
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>15827044123</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>141677</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B20" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="D20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="1">
+        <v>161152</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="1">
-        <v>161152</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="F21" s="1">
+        <v>117887</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="1">
-        <v>117887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="47">
+        <v>13611340307</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2008103</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="47">
-        <v>13611340307</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2008103</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
-        <v>190</v>
-      </c>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="1">
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="1">
+        <v>179289</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="1">
-        <v>179289</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1">
+        <v>160208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="1">
-        <v>160208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="1">
+        <v>158596</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="1">
-        <v>158596</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1" t="s">
-        <v>204</v>
-      </c>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="1">
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13527358427</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13088222796</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="1">
-        <v>13527358427</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="F34" s="1">
+        <v>107880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="1">
-        <v>13088222796</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" s="1">
-        <v>107880</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="1" t="s">
+      <c r="F35" s="1">
+        <v>166275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="F36" s="1">
+        <v>121229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="1">
+        <v>155265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="1">
-        <v>166275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="1">
-        <v>121229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="1">
-        <v>155265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1">
+        <v>136998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C39" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="1">
+        <v>167457</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100009</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C42" s="1">
+        <v>95532199</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="1">
+        <v>138178</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="1">
+        <v>158596</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="1">
+        <v>197544</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C47" s="1">
+        <v>13611340307</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C49" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C50" s="1">
+        <v>133311993</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="1">
+        <v>124152</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="1">
-        <v>136998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
-        <v>226</v>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6941,36 +7359,36 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7050,7 +7468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -7092,7 +7510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -7134,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7177,7 +7595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7220,7 +7638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7263,7 +7681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -7306,7 +7724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -7349,7 +7767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7392,7 +7810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7435,7 +7853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7478,7 +7896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -7521,7 +7939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -7564,7 +7982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -7607,7 +8025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
+    <row r="15" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -7701,7 +8119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1">
+    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -7793,7 +8211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
+    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -7885,7 +8303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -7979,7 +8397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8071,7 +8489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8164,7 +8582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8256,7 +8674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -8348,7 +8766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="30" customFormat="1">
+    <row r="23" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -8442,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="30" customFormat="1">
+    <row r="24" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -8536,7 +8954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -8626,7 +9044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -8720,7 +9138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -8814,7 +9232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="281">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,6 +1112,42 @@
   </si>
   <si>
     <t>5/10/20</t>
+  </si>
+  <si>
+    <t>helei8426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8,5/10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥马哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600带入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUTScaiwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengshi248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6398,7 +6434,7 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7317,6 +7353,51 @@
       </c>
       <c r="F50" s="1">
         <v>124152</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100034</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="1">
+        <v>123356</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="1">
+        <v>108520</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.15">

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="19485" windowHeight="13740" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="19600" yWindow="540" windowWidth="10540" windowHeight="16000" tabRatio="755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId5"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="307">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,7 +1000,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1035,7 +1034,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1050,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1069,7 +1066,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1082,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,6 +1142,110 @@
   </si>
   <si>
     <t>shengshi248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deyou10xing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wa1329867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin123allin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qjd124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx:mianswmiansmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydhy1818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yidehuiyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duhao248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4,2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpa171072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mugexinren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4/8_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muge128128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/10zhuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aniu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nigthwx:gjcc4567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancw666888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>langdu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>langdu6868</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1407,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="333">
+  <cellStyleXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1642,8 +1741,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1700,9 +1807,9 @@
     <xf numFmtId="178" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="333">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="341">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1869,172 +1976,181 @@
     <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3324,46 +3440,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="41" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="22" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="2" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="15" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="11" customWidth="1"/>
-    <col min="20" max="21" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="25" max="25" width="9.6640625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3442,8 +3557,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+    <row r="2" spans="1:26" s="30" customFormat="1">
+      <c r="A2" s="42">
         <v>42925.631249999999</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -3536,8 +3651,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+    <row r="3" spans="1:26" s="30" customFormat="1">
+      <c r="A3" s="42">
         <v>42925.631249999999</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -3628,8 +3743,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
+    <row r="4" spans="1:26" s="30" customFormat="1">
+      <c r="A4" s="42">
         <v>42925.631249999999</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -3720,8 +3835,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
+    <row r="5" spans="1:26">
+      <c r="A5" s="41">
         <v>42934.876388888886</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3814,8 +3929,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
+    <row r="6" spans="1:26">
+      <c r="A6" s="41">
         <v>42934.876388888886</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3907,8 +4022,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="24">
+    <row r="7" spans="1:26">
+      <c r="A7" s="41">
         <v>42934.876388888886</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4001,8 +4116,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="24">
+    <row r="8" spans="1:26">
+      <c r="A8" s="41">
         <v>42934.876388888886</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4094,8 +4209,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
+    <row r="9" spans="1:26">
+      <c r="A9" s="41">
         <v>42934.955555555556</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4187,8 +4302,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+    <row r="10" spans="1:26" s="30" customFormat="1">
+      <c r="A10" s="42">
         <v>42936.855555555558</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -4281,8 +4396,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+    <row r="11" spans="1:26" s="30" customFormat="1">
+      <c r="A11" s="42">
         <v>42936.855555555558</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -4375,8 +4490,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
+    <row r="12" spans="1:26">
+      <c r="A12" s="41">
         <v>42938.878472222219</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4468,8 +4583,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
+    <row r="13" spans="1:26">
+      <c r="A13" s="41">
         <v>42938.878472222219</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4562,8 +4677,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A14" s="24">
+    <row r="14" spans="1:26">
+      <c r="A14" s="41">
         <v>42938.884027777778</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4656,8 +4771,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A15" s="24">
+    <row r="15" spans="1:26">
+      <c r="A15" s="41">
         <v>42938.876388888886</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4748,8 +4863,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+    <row r="16" spans="1:26" s="30" customFormat="1">
+      <c r="A16" s="42">
         <v>42946.625</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -4842,8 +4957,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+    <row r="17" spans="1:26" s="30" customFormat="1">
+      <c r="A17" s="42">
         <v>42946.635416666664</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -4936,8 +5051,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+    <row r="18" spans="1:26" s="30" customFormat="1">
+      <c r="A18" s="42">
         <v>42946.677777777775</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -5029,8 +5144,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="24">
+    <row r="19" spans="1:26">
+      <c r="A19" s="41">
         <v>42946.822916666664</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5092,7 +5207,7 @@
         <v>689</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" ref="S19:S21" si="21">U19-T19</f>
+        <f t="shared" ref="S19:S22" si="21">U19-T19</f>
         <v>453</v>
       </c>
       <c r="T19" s="11">
@@ -5104,7 +5219,7 @@
         <v>2101</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" ref="V19:V21" si="22">S19/R19</f>
+        <f t="shared" ref="V19:V22" si="22">S19/R19</f>
         <v>0.65747460087082732</v>
       </c>
       <c r="W19" s="13">
@@ -5123,8 +5238,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="24">
+    <row r="20" spans="1:26">
+      <c r="A20" s="41">
         <v>42946.840277777781</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5217,8 +5332,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="24">
+    <row r="21" spans="1:26">
+      <c r="A21" s="41">
         <v>42946.798611111109</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5308,6 +5423,270 @@
         <v>42946</v>
       </c>
       <c r="Z21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="41">
+        <v>42951</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="H22" s="5">
+        <v>2865</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="N22" s="48">
+        <f>MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+        <v>-257706</v>
+      </c>
+      <c r="O22" s="22">
+        <f t="shared" ref="O22:O25" si="24">F22-D22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" ref="P22:P25" si="25">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" ref="Q22:Q25" si="26">ROUND((G22-A22)*24,2)</f>
+        <v>-1030824</v>
+      </c>
+      <c r="R22" s="11">
+        <f t="shared" ref="R22:R25" si="27">J22-H22</f>
+        <v>-2865</v>
+      </c>
+      <c r="S22" s="11">
+        <f t="shared" si="21"/>
+        <v>-1833</v>
+      </c>
+      <c r="T22" s="11">
+        <f t="shared" ref="T22:T25" si="28">INT(H22*I22)</f>
+        <v>1833</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" ref="U22:U25" si="29">INT(J22*K22)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" si="22"/>
+        <v>0.63979057591623034</v>
+      </c>
+      <c r="W22" s="13" t="e">
+        <f t="shared" ref="W22:W25" si="30">P22/R22/L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="13" t="e">
+        <f t="shared" ref="X22:X25" si="31">P22/Q22/L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y22" s="28">
+        <f t="shared" ref="Y22:Y25" si="32">DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
+        <v>42951</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="41">
+        <v>42951</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="H23" s="5">
+        <v>3986</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N23" s="48">
+        <f t="shared" ref="N23:N25" si="33">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+        <v>-257706</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="26"/>
+        <v>-1030824</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="27"/>
+        <v>-3986</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" ref="S23:S25" si="34">U23-T23</f>
+        <v>-2391</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" si="28"/>
+        <v>2391</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" ref="V23:V25" si="35">S23/R23</f>
+        <v>0.5998494731560462</v>
+      </c>
+      <c r="W23" s="13" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="13" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="32"/>
+        <v>42951</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="41">
+        <v>42951</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="H24" s="5">
+        <v>3012</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="N24" s="48">
+        <f t="shared" si="33"/>
+        <v>-257706</v>
+      </c>
+      <c r="O24" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="26"/>
+        <v>-1030824</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="27"/>
+        <v>-3012</v>
+      </c>
+      <c r="S24" s="11">
+        <f t="shared" si="34"/>
+        <v>-1897</v>
+      </c>
+      <c r="T24" s="11">
+        <f t="shared" si="28"/>
+        <v>1897</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" si="35"/>
+        <v>0.6298140770252324</v>
+      </c>
+      <c r="W24" s="13" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="13" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="28">
+        <f t="shared" si="32"/>
+        <v>42951</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="41">
+        <v>42951</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="H25" s="5">
+        <v>3480</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="N25" s="48">
+        <f t="shared" si="33"/>
+        <v>-257706</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="26"/>
+        <v>-1030824</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="27"/>
+        <v>-3480</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" si="34"/>
+        <v>-2227</v>
+      </c>
+      <c r="T25" s="11">
+        <f t="shared" si="28"/>
+        <v>2227</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="35"/>
+        <v>0.63994252873563218</v>
+      </c>
+      <c r="W25" s="13" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="13" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="28">
+        <f t="shared" si="32"/>
+        <v>42951</v>
+      </c>
+      <c r="Z25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5331,14 +5710,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -5355,7 +5734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5372,7 +5751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5386,7 +5765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5397,7 +5776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5408,7 +5787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5419,7 +5798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5427,7 +5806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5438,7 +5817,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5446,7 +5825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5454,7 +5833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5462,7 +5841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5473,7 +5852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5481,7 +5860,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5489,7 +5868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5517,25 +5896,25 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="5" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="21" customWidth="1"/>
     <col min="8" max="13" width="5" style="5" customWidth="1"/>
     <col min="14" max="14" width="11" style="1"/>
-    <col min="15" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="22" width="6.375" style="11" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="5" customWidth="1"/>
+    <col min="17" max="22" width="6.33203125" style="11" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="11" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5615,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -5708,7 +6087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -5802,7 +6181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -5896,7 +6275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42938.876388888886</v>
       </c>
@@ -5988,7 +6367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5996,7 +6375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -6024,11 +6403,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
@@ -6062,12 +6441,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="E3" s="25" t="s">
         <v>121</v>
       </c>
@@ -6076,7 +6455,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6111,7 +6490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.19451907576571736</v>
@@ -6149,7 +6528,7 @@
         <v>11.621</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.47482883608538057</v>
@@ -6187,7 +6566,7 @@
         <v>7.3790000000000013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.35474217311233885</v>
@@ -6217,202 +6596,202 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:7" customFormat="1">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:7" customFormat="1">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:7" customFormat="1">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:7" customFormat="1">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:7" customFormat="1">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:7" customFormat="1">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:7" customFormat="1">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:7" customFormat="1">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:7" customFormat="1">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:7" customFormat="1">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:7" customFormat="1">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:7" customFormat="1">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:7" customFormat="1">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:7" customFormat="1">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:7" customFormat="1">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:7" customFormat="1">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:7" customFormat="1">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:7" customFormat="1">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:7" customFormat="1">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:7" customFormat="1">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:7" customFormat="1">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:7" customFormat="1">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:7" customFormat="1">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:7" customFormat="1">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:7" customFormat="1">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:7" customFormat="1">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:7" customFormat="1">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:7" customFormat="1">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:7" customFormat="1">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:7" customFormat="1">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:7" customFormat="1">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -6433,25 +6812,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2"/>
-    <col min="5" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="10.875" style="2"/>
-    <col min="9" max="10" width="10.875" style="1"/>
-    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.875" style="1"/>
-    <col min="18" max="18" width="10.875" style="2"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="50" t="s">
         <v>264</v>
       </c>
@@ -6492,7 +6874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
@@ -6518,7 +6900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
@@ -6547,7 +6929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
@@ -6576,7 +6958,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
@@ -6605,7 +6987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
@@ -6637,7 +7019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
@@ -6663,7 +7045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="46" t="s">
         <v>143</v>
       </c>
@@ -6692,7 +7074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
@@ -6718,7 +7100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -6747,7 +7129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -6773,7 +7155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
@@ -6781,7 +7163,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="46" t="s">
         <v>154</v>
       </c>
@@ -6795,7 +7177,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" s="1" t="s">
         <v>155</v>
       </c>
@@ -6809,7 +7191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="B15" s="1" t="s">
         <v>157</v>
       </c>
@@ -6823,7 +7205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="C16" s="46" t="s">
         <v>158</v>
       </c>
@@ -6831,7 +7213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -6845,7 +7227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
@@ -6853,7 +7235,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>162</v>
       </c>
@@ -6873,7 +7255,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="50" t="s">
         <v>250</v>
       </c>
@@ -6896,7 +7278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
@@ -6916,7 +7298,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
@@ -6930,7 +7312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>175</v>
       </c>
@@ -6941,7 +7323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -6955,7 +7337,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>179</v>
       </c>
@@ -6966,7 +7348,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>182</v>
       </c>
@@ -6977,7 +7359,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>185</v>
       </c>
@@ -6994,7 +7376,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
@@ -7011,7 +7393,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
@@ -7028,7 +7410,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>193</v>
       </c>
@@ -7048,7 +7430,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -7065,7 +7447,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>203</v>
       </c>
@@ -7079,7 +7461,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
         <v>206</v>
       </c>
@@ -7093,7 +7475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>208</v>
       </c>
@@ -7107,7 +7489,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="C35" s="1" t="s">
         <v>211</v>
       </c>
@@ -7121,7 +7503,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="C36" s="1" t="s">
         <v>213</v>
       </c>
@@ -7135,7 +7517,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="C37" s="1" t="s">
         <v>214</v>
       </c>
@@ -7149,7 +7531,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" s="1" t="s">
         <v>217</v>
       </c>
@@ -7163,7 +7545,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="C39" s="50" t="s">
         <v>233</v>
       </c>
@@ -7180,7 +7562,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="C40" s="1" t="s">
         <v>239</v>
       </c>
@@ -7194,7 +7576,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" s="1" t="s">
         <v>244</v>
       </c>
@@ -7214,7 +7596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="C42" s="1">
         <v>95532199</v>
       </c>
@@ -7231,7 +7613,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="C43" s="1" t="s">
         <v>251</v>
       </c>
@@ -7248,7 +7630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="C44" s="1" t="s">
         <v>256</v>
       </c>
@@ -7265,7 +7647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="C45" s="1" t="s">
         <v>257</v>
       </c>
@@ -7285,7 +7667,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="50" t="s">
         <v>265</v>
       </c>
@@ -7305,7 +7687,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="C47" s="1">
         <v>13611340307</v>
       </c>
@@ -7319,7 +7701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="C48" s="1" t="s">
         <v>170</v>
       </c>
@@ -7330,7 +7712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="C49" s="50" t="s">
         <v>269</v>
       </c>
@@ -7344,7 +7726,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="C50" s="1">
         <v>133311993</v>
       </c>
@@ -7355,7 +7737,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="C51" s="1" t="s">
         <v>272</v>
       </c>
@@ -7369,7 +7751,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="C52" s="1" t="s">
         <v>278</v>
       </c>
@@ -7386,7 +7768,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
+      <c r="B53" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>280</v>
       </c>
@@ -7400,22 +7785,170 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
+      <c r="C54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="1">
+        <v>118395</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="C55" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" s="1">
+        <v>157777</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="1">
+        <v>166275</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="1">
+        <v>171072</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="1">
+        <v>15727929927</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="1">
+        <v>146191</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F64" s="1">
+        <v>120666</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:3">
       <c r="C95" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3">
       <c r="C97" s="1" t="s">
         <v>225</v>
       </c>
@@ -7440,36 +7973,36 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7549,7 +8082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -7591,7 +8124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -7633,7 +8166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7676,7 +8209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7719,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -7762,7 +8295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -7805,7 +8338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -7848,7 +8381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7891,7 +8424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7934,7 +8467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -7977,7 +8510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8020,7 +8553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8063,7 +8596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8106,7 +8639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="30" customFormat="1">
       <c r="A15" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8200,7 +8733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="30" customFormat="1">
       <c r="A16" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8292,7 +8825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="30" customFormat="1">
       <c r="A17" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8384,7 +8917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8478,7 +9011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8570,7 +9103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8663,7 +9196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -8755,7 +9288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -8847,7 +9380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="30" customFormat="1">
       <c r="A23" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -8941,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="30" customFormat="1">
       <c r="A24" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -9035,7 +9568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -9125,7 +9658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -9219,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -9313,7 +9846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="540" windowWidth="10540" windowHeight="16000" tabRatio="755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="19605" yWindow="540" windowWidth="10545" windowHeight="13740" tabRatio="755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId5"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="360">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,6 +1246,336 @@
   </si>
   <si>
     <t>langdu6868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5260856131</t>
+  </si>
+  <si>
+    <t>鱼儿德州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lipay:13564468082</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ezhou52222</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2/4,2/4/8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhdpq001</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5258231609</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4924249506</t>
+  </si>
+  <si>
+    <t>wx:15821911740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junhaojunze01</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4812812979</t>
+  </si>
+  <si>
+    <t>猎豹娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k888club</t>
+  </si>
+  <si>
+    <t>主奥马哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4,2/4/8,5/10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modu-888888</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5257358475</t>
+  </si>
+  <si>
+    <t>德扑联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87670</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4947927427</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2,2/4,5/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypk666666</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5255319145</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以德会有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mantou80808</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5259595822</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2,2/4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxhr1992</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5257308249</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lipay:18810634456</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiaotiaoyu1668</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5257275360</t>
+  </si>
+  <si>
+    <t>深海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5256923761</t>
+  </si>
+  <si>
+    <t>2/4/8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h134668</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYAAAA520</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5216751706</t>
+  </si>
+  <si>
+    <t>龙海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKHJ888</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4890389999</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2/4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4612182506</t>
+  </si>
+  <si>
+    <t>海底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5261306604</t>
+  </si>
+  <si>
+    <t>ea7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1593,7 @@
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="183" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,6 +1695,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1750,7 +2089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1808,8 +2147,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="341">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1980,177 +2323,176 @@
     <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3449,35 +3791,35 @@
       <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="41" customWidth="1"/>
     <col min="8" max="8" width="5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="5.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" customWidth="1"/>
     <col min="12" max="12" width="2" style="5" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="23" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="11" customWidth="1"/>
-    <col min="20" max="21" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.375" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="1"/>
+    <col min="25" max="25" width="9.625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
@@ -3557,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="30" customFormat="1">
+    <row r="2" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -3651,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="30" customFormat="1">
+    <row r="3" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -3743,7 +4085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="30" customFormat="1">
+    <row r="4" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -3835,7 +4177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -3929,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4022,7 +4364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4116,7 +4458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4209,7 +4551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>42934.955555555556</v>
       </c>
@@ -4302,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="30" customFormat="1">
+    <row r="10" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42">
         <v>42936.855555555558</v>
       </c>
@@ -4396,7 +4738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1">
+    <row r="11" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42">
         <v>42936.855555555558</v>
       </c>
@@ -4490,7 +4832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="41">
         <v>42938.878472222219</v>
       </c>
@@ -4583,7 +4925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="41">
         <v>42938.878472222219</v>
       </c>
@@ -4677,7 +5019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>42938.884027777778</v>
       </c>
@@ -4771,7 +5113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="41">
         <v>42938.876388888886</v>
       </c>
@@ -4863,7 +5205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1">
+    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42">
         <v>42946.625</v>
       </c>
@@ -4957,7 +5299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
+    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42">
         <v>42946.635416666664</v>
       </c>
@@ -5051,7 +5393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="30" customFormat="1">
+    <row r="18" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42">
         <v>42946.677777777775</v>
       </c>
@@ -5144,7 +5486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="41">
         <v>42946.822916666664</v>
       </c>
@@ -5238,7 +5580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="41">
         <v>42946.840277777781</v>
       </c>
@@ -5332,7 +5674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="41">
         <v>42946.798611111109</v>
       </c>
@@ -5426,7 +5768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="41">
         <v>42951</v>
       </c>
@@ -5492,7 +5834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="41">
         <v>42951</v>
       </c>
@@ -5558,7 +5900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="41">
         <v>42951</v>
       </c>
@@ -5624,7 +5966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="41">
         <v>42951</v>
       </c>
@@ -5710,14 +6052,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -5734,7 +6076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5751,7 +6093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5765,7 +6107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5776,7 +6118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5787,7 +6129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -5798,7 +6140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5806,7 +6148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5817,7 +6159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5825,7 +6167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -5833,7 +6175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5841,7 +6183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5852,7 +6194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5860,7 +6202,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5868,7 +6210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -5896,25 +6238,25 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="5" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="21" customWidth="1"/>
     <col min="8" max="13" width="5" style="5" customWidth="1"/>
     <col min="14" max="14" width="11" style="1"/>
-    <col min="15" max="16" width="6.33203125" style="5" customWidth="1"/>
-    <col min="17" max="22" width="6.33203125" style="11" customWidth="1"/>
+    <col min="15" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="22" width="6.375" style="11" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="11" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5994,7 +6336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -6087,7 +6429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -6181,7 +6523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -6275,7 +6617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42938.876388888886</v>
       </c>
@@ -6367,7 +6709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -6375,7 +6717,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -6403,11 +6745,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
@@ -6441,12 +6783,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E3" s="25" t="s">
         <v>121</v>
       </c>
@@ -6455,7 +6797,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6490,7 +6832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.19451907576571736</v>
@@ -6528,7 +6870,7 @@
         <v>11.621</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.47482883608538057</v>
@@ -6566,7 +6908,7 @@
         <v>7.3790000000000013</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.35474217311233885</v>
@@ -6596,202 +6938,202 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1">
+    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1">
+    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1">
+    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1">
+    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1">
+    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1">
+    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1">
+    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1">
+    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1">
+    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1">
+    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1">
+    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1">
+    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1">
+    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1">
+    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1">
+    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1">
+    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1">
+    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1">
+    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1">
+    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1">
+    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1">
+    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1">
+    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1">
+    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1">
+    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1">
+    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1">
+    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1">
+    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1">
+    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1">
+    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1">
+    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1">
+    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -6816,24 +7158,24 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="10.875" style="2"/>
+    <col min="9" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="10.875" style="1"/>
+    <col min="18" max="18" width="10.875" style="2"/>
+    <col min="19" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>264</v>
       </c>
@@ -6874,7 +7216,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
@@ -6900,7 +7242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
@@ -6929,7 +7271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
@@ -6958,7 +7300,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
@@ -6987,7 +7329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
@@ -7019,7 +7361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
@@ -7045,7 +7387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C8" s="46" t="s">
         <v>143</v>
       </c>
@@ -7074,7 +7416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
@@ -7100,7 +7442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -7129,7 +7471,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -7155,7 +7497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
@@ -7163,7 +7505,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="46" t="s">
         <v>154</v>
       </c>
@@ -7177,7 +7519,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>155</v>
       </c>
@@ -7191,7 +7533,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>157</v>
       </c>
@@ -7205,7 +7547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C16" s="46" t="s">
         <v>158</v>
       </c>
@@ -7213,7 +7555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -7227,7 +7569,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
@@ -7235,7 +7577,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>162</v>
       </c>
@@ -7255,7 +7597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" s="50" t="s">
         <v>250</v>
       </c>
@@ -7278,7 +7620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
@@ -7298,7 +7640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
@@ -7312,7 +7654,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>175</v>
       </c>
@@ -7323,7 +7665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -7337,7 +7679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>179</v>
       </c>
@@ -7348,7 +7690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>182</v>
       </c>
@@ -7359,7 +7701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>185</v>
       </c>
@@ -7376,7 +7718,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
@@ -7393,7 +7735,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
@@ -7410,7 +7752,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>193</v>
       </c>
@@ -7430,7 +7772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -7447,7 +7789,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>203</v>
       </c>
@@ -7461,7 +7803,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>206</v>
       </c>
@@ -7475,7 +7817,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>208</v>
       </c>
@@ -7489,7 +7831,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>211</v>
       </c>
@@ -7503,7 +7845,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>213</v>
       </c>
@@ -7517,7 +7859,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
         <v>214</v>
       </c>
@@ -7531,7 +7873,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>217</v>
       </c>
@@ -7545,7 +7887,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="50" t="s">
         <v>233</v>
       </c>
@@ -7562,7 +7904,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>239</v>
       </c>
@@ -7576,7 +7918,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>244</v>
       </c>
@@ -7596,7 +7938,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="1">
         <v>95532199</v>
       </c>
@@ -7613,7 +7955,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>251</v>
       </c>
@@ -7630,7 +7972,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>256</v>
       </c>
@@ -7647,7 +7989,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
         <v>257</v>
       </c>
@@ -7667,7 +8009,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="50" t="s">
         <v>265</v>
       </c>
@@ -7687,7 +8029,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="1">
         <v>13611340307</v>
       </c>
@@ -7701,7 +8043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
         <v>170</v>
       </c>
@@ -7712,7 +8054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C49" s="50" t="s">
         <v>269</v>
       </c>
@@ -7726,7 +8068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C50" s="1">
         <v>133311993</v>
       </c>
@@ -7737,7 +8079,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C51" s="1" t="s">
         <v>272</v>
       </c>
@@ -7751,7 +8093,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
         <v>278</v>
       </c>
@@ -7768,7 +8110,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>291</v>
       </c>
@@ -7785,7 +8127,7 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
         <v>282</v>
       </c>
@@ -7799,12 +8141,12 @@
         <v>118395</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>291</v>
       </c>
@@ -7818,7 +8160,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>291</v>
       </c>
@@ -7826,7 +8168,7 @@
         <v>157777</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>291</v>
       </c>
@@ -7840,7 +8182,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>291</v>
       </c>
@@ -7854,7 +8196,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>291</v>
       </c>
@@ -7871,7 +8213,7 @@
         <v>171072</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>291</v>
       </c>
@@ -7885,7 +8227,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>301</v>
       </c>
@@ -7896,7 +8238,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>291</v>
       </c>
@@ -7916,7 +8258,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>301</v>
       </c>
@@ -7933,22 +8275,295 @@
         <v>120666</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="1">
+        <v>170574</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67">
+        <v>781327308</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="F67">
+        <v>133664</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68">
+        <v>170212</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69">
+        <v>123870</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70">
+        <v>1209333</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71">
+        <v>155775</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4733111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73">
+        <v>21381923</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="F74">
+        <v>101248</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>334</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="E75" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75">
+        <v>113354</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="F76">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F77">
+        <v>166704</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78" s="1">
+        <v>134668</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79">
+        <v>124685</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81">
+        <v>133311993</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81">
+        <v>124152</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82">
+        <v>13464341111</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F82">
+        <v>100727</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="1" t="s">
         <v>225</v>
       </c>
@@ -7973,36 +8588,36 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8082,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8124,7 +8739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8166,7 +8781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8209,7 +8824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8252,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8295,7 +8910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8338,7 +8953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8381,7 +8996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8424,7 +9039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8467,7 +9082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8510,7 +9125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8553,7 +9168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8596,7 +9211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -8639,7 +9254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
+    <row r="15" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8733,7 +9348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1">
+    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8825,7 +9440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
+    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -8917,7 +9532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9011,7 +9626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9103,7 +9718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9196,7 +9811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9288,7 +9903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -9380,7 +9995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="30" customFormat="1">
+    <row r="23" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -9474,7 +10089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="30" customFormat="1">
+    <row r="24" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -9568,7 +10183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -9658,7 +10273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -9752,7 +10367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -9846,7 +10461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19605" yWindow="540" windowWidth="10545" windowHeight="13740" tabRatio="755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId5"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="388">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,7 +1264,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1281,7 +1280,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,7 +1296,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1339,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1376,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1400,7 +1395,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1423,7 +1417,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1450,7 +1443,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1477,7 +1469,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1506,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1538,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1576,6 +1565,111 @@
   </si>
   <si>
     <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5209331547</t>
+  </si>
+  <si>
+    <t>飞鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10,10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly126029</t>
+  </si>
+  <si>
+    <t>bjxh135888</t>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/4662784312</t>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mldyq888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10,10/20,20/40,25/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fycwu001</t>
+  </si>
+  <si>
+    <t>rolalala650</t>
+  </si>
+  <si>
+    <t>2/4,2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanvan668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5261590901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/p/5261642813</t>
+  </si>
+  <si>
+    <t>2/4/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信确认中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信异常无法添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没即时回被拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monoray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上漂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,8 +1840,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="341">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2151,8 +2265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="341">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="361">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2323,176 +2436,197 @@
     <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3257,7 +3391,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="z" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="D3:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -3784,42 +3918,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="41" customWidth="1"/>
     <col min="8" max="8" width="5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="5.125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" customWidth="1"/>
     <col min="12" max="12" width="2" style="5" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="22" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="11" customWidth="1"/>
-    <col min="20" max="21" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="11" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="25" max="25" width="9.6640625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
@@ -3899,7 +4033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="30" customFormat="1">
       <c r="A2" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -3993,7 +4127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="30" customFormat="1">
       <c r="A3" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -4085,7 +4219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="30" customFormat="1">
       <c r="A4" s="42">
         <v>42925.631249999999</v>
       </c>
@@ -4177,7 +4311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4271,7 +4405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4364,7 +4498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4458,7 +4592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="41">
         <v>42934.876388888886</v>
       </c>
@@ -4551,7 +4685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="41">
         <v>42934.955555555556</v>
       </c>
@@ -4644,7 +4778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" s="30" customFormat="1">
       <c r="A10" s="42">
         <v>42936.855555555558</v>
       </c>
@@ -4738,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="30" customFormat="1">
       <c r="A11" s="42">
         <v>42936.855555555558</v>
       </c>
@@ -4832,7 +4966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="41">
         <v>42938.878472222219</v>
       </c>
@@ -4925,7 +5059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="41">
         <v>42938.878472222219</v>
       </c>
@@ -5019,7 +5153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="41">
         <v>42938.884027777778</v>
       </c>
@@ -5113,7 +5247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="41">
         <v>42938.876388888886</v>
       </c>
@@ -5205,7 +5339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="30" customFormat="1">
       <c r="A16" s="42">
         <v>42946.625</v>
       </c>
@@ -5299,7 +5433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="30" customFormat="1">
       <c r="A17" s="42">
         <v>42946.635416666664</v>
       </c>
@@ -5393,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" s="30" customFormat="1">
       <c r="A18" s="42">
         <v>42946.677777777775</v>
       </c>
@@ -5486,7 +5620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="41">
         <v>42946.822916666664</v>
       </c>
@@ -5580,7 +5714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="41">
         <v>42946.840277777781</v>
       </c>
@@ -5674,7 +5808,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="41">
         <v>42946.798611111109</v>
       </c>
@@ -5768,265 +5902,367 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="41">
-        <v>42951</v>
+        <v>42954.911111111112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="5">
+        <v>400</v>
+      </c>
+      <c r="E22" s="7">
+        <f>D22-125</f>
+        <v>275</v>
+      </c>
+      <c r="G22" s="41">
+        <v>42954.978472222225</v>
+      </c>
       <c r="H22" s="5">
         <v>2865</v>
       </c>
       <c r="I22" s="5">
         <v>0.64</v>
       </c>
+      <c r="J22" s="5">
+        <v>2963</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>384</v>
+      </c>
       <c r="N22" s="48">
         <f>MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
-        <v>-257706</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" ref="O22:O25" si="24">F22-D22</f>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" ref="P22:P25" si="25">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" ref="Q22:Q25" si="26">ROUND((G22-A22)*24,2)</f>
-        <v>-1030824</v>
+        <f>ROUND((G22-A22)*24,2)</f>
+        <v>1.62</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" ref="R22:R25" si="27">J22-H22</f>
-        <v>-2865</v>
+        <f t="shared" ref="R22:R25" si="26">J22-H22</f>
+        <v>98</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="21"/>
-        <v>-1833</v>
+        <v>4</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" ref="T22:T25" si="28">INT(H22*I22)</f>
+        <f t="shared" ref="T22:T25" si="27">INT(H22*I22)</f>
         <v>1833</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" ref="U22:U25" si="29">INT(J22*K22)</f>
-        <v>0</v>
+        <f t="shared" ref="U22:U25" si="28">INT(J22*K22)</f>
+        <v>1837</v>
       </c>
       <c r="V22" s="12">
         <f t="shared" si="22"/>
-        <v>0.63979057591623034</v>
-      </c>
-      <c r="W22" s="13" t="e">
-        <f t="shared" ref="W22:W25" si="30">P22/R22/L22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="13" t="e">
-        <f t="shared" ref="X22:X25" si="31">P22/Q22/L22</f>
-        <v>#DIV/0!</v>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="W22" s="13">
+        <f t="shared" ref="W22:W25" si="29">P22/R22/L22</f>
+        <v>-0.31887755102040816</v>
+      </c>
+      <c r="X22" s="13">
+        <f t="shared" ref="X22:X25" si="30">P22/Q22/L22</f>
+        <v>-19.290123456790123</v>
       </c>
       <c r="Y22" s="28">
-        <f t="shared" ref="Y22:Y25" si="32">DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
-        <v>42951</v>
+        <f t="shared" ref="Y22:Y25" si="31">DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
+        <v>42954</v>
       </c>
       <c r="Z22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="41">
-        <v>42951</v>
+        <v>42954.915972222225</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200</v>
+      </c>
+      <c r="E23" s="7">
+        <f>D23-62</f>
+        <v>138</v>
+      </c>
+      <c r="F23" s="14">
+        <v>138</v>
+      </c>
+      <c r="G23" s="41">
+        <v>42954.978472222225</v>
+      </c>
       <c r="H23" s="5">
         <v>3986</v>
       </c>
       <c r="I23" s="5">
         <v>0.6</v>
       </c>
+      <c r="J23" s="5">
+        <v>4076</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>385</v>
+      </c>
       <c r="N23" s="48">
-        <f t="shared" ref="N23:N25" si="33">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
-        <v>-257706</v>
+        <f t="shared" ref="N23:N25" si="32">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="Q23" s="11">
+        <f t="shared" ref="Q23:Q25" si="33">ROUND((G23-A23)*24,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R23" s="11">
         <f t="shared" si="26"/>
-        <v>-1030824</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" si="27"/>
-        <v>-3986</v>
+        <v>90</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" ref="S23:S25" si="34">U23-T23</f>
-        <v>-2391</v>
+        <v>13</v>
       </c>
       <c r="T23" s="11">
+        <f t="shared" si="27"/>
+        <v>2391</v>
+      </c>
+      <c r="U23" s="11">
         <f t="shared" si="28"/>
-        <v>2391</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="V23" s="12">
         <f t="shared" ref="V23:V25" si="35">S23/R23</f>
-        <v>0.5998494731560462</v>
-      </c>
-      <c r="W23" s="13" t="e">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="W23" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.34444444444444444</v>
+      </c>
+      <c r="X23" s="13">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="13" t="e">
+        <v>-20.666666666666668</v>
+      </c>
+      <c r="Y23" s="28">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="28">
-        <f t="shared" si="32"/>
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="41">
-        <v>42951</v>
+        <v>42954.915972222225</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="5">
+        <v>400</v>
+      </c>
+      <c r="E24" s="7">
+        <f>D24+238</f>
+        <v>638</v>
+      </c>
+      <c r="G24" s="41">
+        <v>42954.978472222225</v>
+      </c>
       <c r="H24" s="5">
         <v>3012</v>
       </c>
       <c r="I24" s="5">
         <v>0.63</v>
       </c>
+      <c r="J24" s="5">
+        <v>3105</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>384</v>
+      </c>
       <c r="N24" s="48">
-        <f t="shared" si="33"/>
-        <v>-257706</v>
+        <f t="shared" si="32"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O24" s="22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P24" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Q24" s="11">
+        <f t="shared" si="33"/>
+        <v>1.5</v>
+      </c>
+      <c r="R24" s="11">
         <f t="shared" si="26"/>
-        <v>-1030824</v>
-      </c>
-      <c r="R24" s="11">
-        <f t="shared" si="27"/>
-        <v>-3012</v>
+        <v>93</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" si="34"/>
-        <v>-1897</v>
+        <v>28</v>
       </c>
       <c r="T24" s="11">
+        <f t="shared" si="27"/>
+        <v>1897</v>
+      </c>
+      <c r="U24" s="11">
         <f t="shared" si="28"/>
-        <v>1897</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="V24" s="12">
         <f t="shared" si="35"/>
-        <v>0.6298140770252324</v>
-      </c>
-      <c r="W24" s="13" t="e">
+        <v>0.30107526881720431</v>
+      </c>
+      <c r="W24" s="13">
+        <f t="shared" si="29"/>
+        <v>0.60752688172043012</v>
+      </c>
+      <c r="X24" s="13">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="13" t="e">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="Y24" s="28">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="28">
-        <f t="shared" si="32"/>
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="41">
-        <v>42951</v>
+        <v>42954.917361111111</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="7">
+        <f>D25+74</f>
+        <v>274</v>
+      </c>
+      <c r="F25" s="14">
+        <v>270</v>
+      </c>
+      <c r="G25" s="41">
+        <v>42954.978472222225</v>
+      </c>
       <c r="H25" s="5">
         <v>3480</v>
       </c>
       <c r="I25" s="5">
         <v>0.64</v>
       </c>
+      <c r="J25" s="5">
+        <v>3562</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>385</v>
+      </c>
       <c r="N25" s="48">
-        <f t="shared" si="33"/>
-        <v>-257706</v>
+        <f t="shared" si="32"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P25" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="11">
+        <f t="shared" si="33"/>
+        <v>1.47</v>
+      </c>
+      <c r="R25" s="11">
         <f t="shared" si="26"/>
-        <v>-1030824</v>
-      </c>
-      <c r="R25" s="11">
-        <f t="shared" si="27"/>
-        <v>-3480</v>
+        <v>82</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" si="34"/>
-        <v>-2227</v>
+        <v>17</v>
       </c>
       <c r="T25" s="11">
+        <f t="shared" si="27"/>
+        <v>2227</v>
+      </c>
+      <c r="U25" s="11">
         <f t="shared" si="28"/>
-        <v>2227</v>
-      </c>
-      <c r="U25" s="11">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2244</v>
       </c>
       <c r="V25" s="12">
         <f t="shared" si="35"/>
-        <v>0.63994252873563218</v>
-      </c>
-      <c r="W25" s="13" t="e">
+        <v>0.2073170731707317</v>
+      </c>
+      <c r="W25" s="13">
+        <f t="shared" si="29"/>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="X25" s="13">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="13" t="e">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="Y25" s="28">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="28">
-        <f t="shared" si="32"/>
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="Z25" s="2" t="s">
         <v>8</v>
@@ -6052,14 +6288,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -6076,7 +6312,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6093,7 +6329,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6107,7 +6343,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6118,7 +6354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6129,7 +6365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6140,7 +6376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6148,7 +6384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6159,7 +6395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6167,7 +6403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6175,7 +6411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6183,7 +6419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6194,7 +6430,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6202,7 +6438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6210,7 +6446,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6238,25 +6474,25 @@
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="5" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="21" customWidth="1"/>
     <col min="8" max="13" width="5" style="5" customWidth="1"/>
     <col min="14" max="14" width="11" style="1"/>
-    <col min="15" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="22" width="6.375" style="11" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="5" customWidth="1"/>
+    <col min="17" max="22" width="6.33203125" style="11" customWidth="1"/>
     <col min="23" max="23" width="8.5" style="11" customWidth="1"/>
     <col min="24" max="24" width="8.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6336,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -6429,7 +6665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -6523,7 +6759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -6617,7 +6853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42938.876388888886</v>
       </c>
@@ -6709,7 +6945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
@@ -6717,7 +6953,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -6745,11 +6981,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
@@ -6783,12 +7019,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="E3" s="25" t="s">
         <v>121</v>
       </c>
@@ -6797,7 +7033,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6832,7 +7068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.19451907576571736</v>
@@ -6870,7 +7106,7 @@
         <v>11.621</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.47482883608538057</v>
@@ -6908,7 +7144,7 @@
         <v>7.3790000000000013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.35474217311233885</v>
@@ -6938,202 +7174,202 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:7" customFormat="1">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:7" customFormat="1">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:7" customFormat="1">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:7" customFormat="1">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:7" customFormat="1">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:7" customFormat="1">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:7" customFormat="1">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:7" customFormat="1">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:7" customFormat="1">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:7" customFormat="1">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:7" customFormat="1">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:7" customFormat="1">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:7" customFormat="1">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:7" customFormat="1">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:7" customFormat="1">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:7" customFormat="1">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:7" customFormat="1">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:7" customFormat="1">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:7" customFormat="1">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:7" customFormat="1">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:7" customFormat="1">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:7" customFormat="1">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:7" customFormat="1">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:7" customFormat="1">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:7" customFormat="1">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:7" customFormat="1">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:7" customFormat="1">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:7" customFormat="1">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:7" customFormat="1">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:7" customFormat="1">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:7" customFormat="1">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -7152,30 +7388,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2"/>
-    <col min="5" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="10.875" style="2"/>
-    <col min="9" max="10" width="10.875" style="1"/>
-    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.875" style="1"/>
-    <col min="18" max="18" width="10.875" style="2"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="50" t="s">
         <v>264</v>
       </c>
@@ -7216,7 +7452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
@@ -7242,7 +7478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
@@ -7271,7 +7507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
@@ -7300,7 +7536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
@@ -7329,7 +7565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
@@ -7361,7 +7597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
@@ -7387,7 +7623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="46" t="s">
         <v>143</v>
       </c>
@@ -7416,7 +7652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
@@ -7442,7 +7678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -7471,7 +7707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -7497,7 +7733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
@@ -7505,7 +7741,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="46" t="s">
         <v>154</v>
       </c>
@@ -7519,7 +7755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" s="1" t="s">
         <v>155</v>
       </c>
@@ -7533,7 +7769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="B15" s="1" t="s">
         <v>157</v>
       </c>
@@ -7547,7 +7783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="C16" s="46" t="s">
         <v>158</v>
       </c>
@@ -7555,7 +7791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>161</v>
       </c>
@@ -7569,7 +7805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
@@ -7577,7 +7813,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>162</v>
       </c>
@@ -7597,7 +7833,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="50" t="s">
         <v>250</v>
       </c>
@@ -7620,7 +7856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
@@ -7640,7 +7876,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
@@ -7654,7 +7890,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>175</v>
       </c>
@@ -7665,7 +7901,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
@@ -7679,7 +7915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>179</v>
       </c>
@@ -7690,7 +7926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>182</v>
       </c>
@@ -7701,7 +7937,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>185</v>
       </c>
@@ -7718,7 +7954,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>189</v>
       </c>
@@ -7735,7 +7971,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
@@ -7752,7 +7988,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>193</v>
       </c>
@@ -7772,7 +8008,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -7789,7 +8025,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>203</v>
       </c>
@@ -7803,7 +8039,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
         <v>206</v>
       </c>
@@ -7817,7 +8053,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>208</v>
       </c>
@@ -7831,7 +8067,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="C35" s="1" t="s">
         <v>211</v>
       </c>
@@ -7845,7 +8081,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="C36" s="1" t="s">
         <v>213</v>
       </c>
@@ -7859,7 +8095,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="C37" s="1" t="s">
         <v>214</v>
       </c>
@@ -7873,7 +8109,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" s="1" t="s">
         <v>217</v>
       </c>
@@ -7887,7 +8123,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="C39" s="50" t="s">
         <v>233</v>
       </c>
@@ -7904,7 +8140,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="C40" s="1" t="s">
         <v>239</v>
       </c>
@@ -7918,7 +8154,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" s="1" t="s">
         <v>244</v>
       </c>
@@ -7938,7 +8174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="C42" s="1">
         <v>95532199</v>
       </c>
@@ -7955,7 +8191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="C43" s="1" t="s">
         <v>251</v>
       </c>
@@ -7972,7 +8208,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="C44" s="1" t="s">
         <v>256</v>
       </c>
@@ -7989,7 +8225,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="C45" s="1" t="s">
         <v>257</v>
       </c>
@@ -8009,7 +8245,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="50" t="s">
         <v>265</v>
       </c>
@@ -8029,7 +8265,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="C47" s="1">
         <v>13611340307</v>
       </c>
@@ -8043,7 +8279,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="C48" s="1" t="s">
         <v>170</v>
       </c>
@@ -8054,7 +8290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="C49" s="50" t="s">
         <v>269</v>
       </c>
@@ -8068,7 +8304,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="C50" s="1">
         <v>133311993</v>
       </c>
@@ -8079,7 +8315,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="C51" s="1" t="s">
         <v>272</v>
       </c>
@@ -8093,7 +8329,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="C52" s="1" t="s">
         <v>278</v>
       </c>
@@ -8110,7 +8346,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
         <v>291</v>
       </c>
@@ -8127,7 +8363,7 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="C54" s="1" t="s">
         <v>282</v>
       </c>
@@ -8141,12 +8377,12 @@
         <v>118395</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="C55" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="1" t="s">
         <v>291</v>
       </c>
@@ -8160,7 +8396,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="1" t="s">
         <v>291</v>
       </c>
@@ -8168,7 +8404,7 @@
         <v>157777</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="1" t="s">
         <v>291</v>
       </c>
@@ -8182,7 +8418,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8">
       <c r="B59" s="1" t="s">
         <v>291</v>
       </c>
@@ -8196,7 +8432,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="1" t="s">
         <v>291</v>
       </c>
@@ -8213,7 +8449,7 @@
         <v>171072</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="1" t="s">
         <v>291</v>
       </c>
@@ -8227,7 +8463,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8">
       <c r="B62" s="1" t="s">
         <v>301</v>
       </c>
@@ -8238,7 +8474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8">
       <c r="B63" s="1" t="s">
         <v>291</v>
       </c>
@@ -8257,8 +8493,11 @@
       <c r="G63" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H63" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="1" t="s">
         <v>301</v>
       </c>
@@ -8275,7 +8514,7 @@
         <v>120666</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8">
       <c r="B65" s="1" t="s">
         <v>307</v>
       </c>
@@ -8294,8 +8533,11 @@
       <c r="G65" s="50" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H65" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="15">
       <c r="B66" s="1" t="s">
         <v>313</v>
       </c>
@@ -8306,7 +8548,7 @@
         <v>111111</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:8" ht="15">
       <c r="B67" s="1" t="s">
         <v>314</v>
       </c>
@@ -8323,7 +8565,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:8" ht="15">
       <c r="B68" s="1" t="s">
         <v>318</v>
       </c>
@@ -8339,8 +8581,11 @@
       <c r="F68">
         <v>170212</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H68" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="15">
       <c r="B69" s="1" t="s">
         <v>318</v>
       </c>
@@ -8351,7 +8596,7 @@
         <v>123870</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:8" ht="15">
       <c r="B70" s="1" t="s">
         <v>318</v>
       </c>
@@ -8359,7 +8604,7 @@
         <v>1209333</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:8" ht="15">
       <c r="B71" s="1" t="s">
         <v>325</v>
       </c>
@@ -8376,7 +8621,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:8">
       <c r="B72" s="1" t="s">
         <v>328</v>
       </c>
@@ -8392,8 +8637,11 @@
       <c r="F72" s="1">
         <v>4733111</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H72" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="15">
       <c r="B73" s="1" t="s">
         <v>328</v>
       </c>
@@ -8404,7 +8652,7 @@
         <v>21381923</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:8" ht="15">
       <c r="B74" s="1" t="s">
         <v>331</v>
       </c>
@@ -8421,7 +8669,7 @@
         <v>101248</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:8" ht="15">
       <c r="B75" s="1" t="s">
         <v>335</v>
       </c>
@@ -8440,8 +8688,11 @@
       <c r="G75" s="50" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H75" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15">
       <c r="B76" s="1" t="s">
         <v>339</v>
       </c>
@@ -8452,7 +8703,7 @@
         <v>136818</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:8" ht="15">
       <c r="B77" s="1" t="s">
         <v>343</v>
       </c>
@@ -8466,7 +8717,7 @@
         <v>166704</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:8">
       <c r="B78" s="1" t="s">
         <v>345</v>
       </c>
@@ -8483,7 +8734,7 @@
         <v>134668</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:8" ht="15">
       <c r="B79" s="1" t="s">
         <v>349</v>
       </c>
@@ -8500,7 +8751,7 @@
         <v>124685</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="18" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:8" ht="17">
       <c r="B80" s="1" t="s">
         <v>352</v>
       </c>
@@ -8513,8 +8764,11 @@
       <c r="E80" s="50" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H80" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="15">
       <c r="B81" s="1" t="s">
         <v>355</v>
       </c>
@@ -8530,8 +8784,11 @@
       <c r="F81">
         <v>124152</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H81" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="15">
       <c r="B82" s="1" t="s">
         <v>357</v>
       </c>
@@ -8547,24 +8804,119 @@
       <c r="F82">
         <v>100727</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H82" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15">
+      <c r="B83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C83" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F83" s="1">
+        <v>126995</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="15">
+      <c r="B84" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="15">
+      <c r="B86" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="15">
+      <c r="B87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F88" s="1">
+        <v>177980</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C89" s="1">
+        <v>13297936362</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" s="1">
+        <v>135635</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C95" s="1" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="1" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8588,36 +8940,36 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="28" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8697,7 +9049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8739,7 +9091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8781,7 +9133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8824,7 +9176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8867,7 +9219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8910,7 +9262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8953,7 +9305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8996,7 +9348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -9039,7 +9391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -9082,7 +9434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -9125,7 +9477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9168,7 +9520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9211,7 +9563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9254,7 +9606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="30" customFormat="1">
       <c r="A15" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -9348,7 +9700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="30" customFormat="1">
       <c r="A16" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -9440,7 +9792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="30" customFormat="1">
       <c r="A17" s="29">
         <v>42925.631249999999</v>
       </c>
@@ -9532,7 +9884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9626,7 +9978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9718,7 +10070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9811,7 +10163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9903,7 +10255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -9995,7 +10347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="30" customFormat="1">
       <c r="A23" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -10089,7 +10441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="30" customFormat="1">
       <c r="A24" s="29">
         <v>42936.855555555558</v>
       </c>
@@ -10183,7 +10535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -10273,7 +10625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -10367,7 +10719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -10461,7 +10813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId4"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="394">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1498,6 +1498,10 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk:13516815199,18606515723:HK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1679,8 +1683,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2120,8 +2126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="363">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2302,186 +2307,189 @@
     <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3899,43 +3907,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="48" customWidth="1"/>
     <col min="8" max="8" width="5" style="44" customWidth="1"/>
-    <col min="9" max="10" width="5.125" style="44" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" style="44" customWidth="1"/>
     <col min="11" max="11" width="5" style="44" customWidth="1"/>
     <col min="12" max="12" width="2" style="44" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="51" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="52" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="50" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="52" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="53" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="53" customWidth="1"/>
-    <col min="20" max="21" width="6.375" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.375" style="54" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="55" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="53" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="53" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="55" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="55" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="56" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="57" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="43"/>
+    <col min="25" max="25" width="9.6640625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="59" customFormat="1">
       <c r="A2" s="58">
         <v>42925.631249999999</v>
       </c>
@@ -4109,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="59" customFormat="1">
       <c r="A3" s="58">
         <v>42925.631249999999</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="59" customFormat="1">
       <c r="A4" s="58">
         <v>42925.631249999999</v>
       </c>
@@ -4293,7 +4301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="48">
         <v>42934.876388888886</v>
       </c>
@@ -4387,7 +4395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="48">
         <v>42934.876388888886</v>
       </c>
@@ -4480,7 +4488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="48">
         <v>42934.876388888886</v>
       </c>
@@ -4574,7 +4582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="48">
         <v>42934.876388888886</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="48">
         <v>42934.955555555556</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" s="59" customFormat="1">
       <c r="A10" s="58">
         <v>42936.855555555558</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="59" customFormat="1">
       <c r="A11" s="58">
         <v>42936.855555555558</v>
       </c>
@@ -4948,7 +4956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="48">
         <v>42938.878472222219</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="48">
         <v>42938.878472222219</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="48">
         <v>42938.884027777778</v>
       </c>
@@ -5229,7 +5237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="48">
         <v>42938.876388888886</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="59" customFormat="1">
       <c r="A16" s="58">
         <v>42946.625</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="59" customFormat="1">
       <c r="A17" s="58">
         <v>42946.635416666664</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" s="59" customFormat="1">
       <c r="A18" s="58">
         <v>42946.677777777775</v>
       </c>
@@ -5602,7 +5610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="48">
         <v>42946.822916666664</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="48">
         <v>42946.840277777781</v>
       </c>
@@ -5790,7 +5798,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="48">
         <v>42946.798611111109</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" s="59" customFormat="1">
       <c r="A22" s="58">
         <v>42954.911111111112</v>
       </c>
@@ -5977,7 +5985,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="59" customFormat="1">
       <c r="A23" s="58">
         <v>42954.915972222225</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="59" customFormat="1">
       <c r="A24" s="58">
         <v>42954.915972222225</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" s="59" customFormat="1">
       <c r="A25" s="58">
         <v>42954.917361111111</v>
       </c>
@@ -6270,20 +6278,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6331,7 +6339,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6342,7 +6350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6353,7 +6361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6372,7 +6380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6391,7 +6399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -6399,7 +6407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6407,7 +6415,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6418,7 +6426,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6426,7 +6434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -6434,12 +6442,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
       <c r="B15" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19">
+        <v>42939.026388888888</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6462,17 +6478,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="25" customWidth="1"/>
+    <col min="5" max="6" width="7.33203125" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="39" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="3.5" customWidth="1"/>
@@ -6500,12 +6516,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="D2" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="E3" s="41" t="s">
         <v>118</v>
       </c>
@@ -6516,7 +6532,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.1928184948352189</v>
@@ -6589,7 +6605,7 @@
         <v>12.430999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.45287958115183247</v>
@@ -6627,7 +6643,7 @@
         <v>8.1890000000000018</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.34055661780327173</v>
@@ -6657,202 +6673,202 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:7" customFormat="1">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:7" customFormat="1">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:7" customFormat="1">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:7" customFormat="1">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:7" customFormat="1">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:7" customFormat="1">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:7" customFormat="1">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:7" customFormat="1">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:7" customFormat="1">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:7" customFormat="1">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:7" customFormat="1">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:7" customFormat="1">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:7" customFormat="1">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:7" customFormat="1">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:7" customFormat="1">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:7" customFormat="1">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:7" customFormat="1">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:7" customFormat="1">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:7" customFormat="1">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:7" customFormat="1">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:7" customFormat="1">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:7" customFormat="1">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:7" customFormat="1">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:7" customFormat="1">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:7" customFormat="1">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:7" customFormat="1">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:7" customFormat="1">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:7" customFormat="1">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:7" customFormat="1">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:7" customFormat="1">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:7" customFormat="1">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -6880,21 +6896,21 @@
       <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="43"/>
-    <col min="3" max="3" width="18.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="57"/>
-    <col min="5" max="7" width="10.875" style="43"/>
-    <col min="8" max="8" width="10.875" style="57"/>
-    <col min="9" max="10" width="10.875" style="43"/>
-    <col min="11" max="11" width="25.625" style="43" customWidth="1"/>
-    <col min="12" max="17" width="10.875" style="43"/>
-    <col min="18" max="18" width="10.875" style="57"/>
-    <col min="19" max="16384" width="10.875" style="43"/>
+    <col min="1" max="2" width="10.83203125" style="43"/>
+    <col min="3" max="3" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="57"/>
+    <col min="5" max="7" width="10.83203125" style="43"/>
+    <col min="8" max="8" width="10.83203125" style="57"/>
+    <col min="9" max="10" width="10.83203125" style="43"/>
+    <col min="11" max="11" width="25.6640625" style="43" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="43"/>
+    <col min="18" max="18" width="10.83203125" style="57"/>
+    <col min="19" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="43" t="s">
         <v>377</v>
       </c>
@@ -6935,7 +6951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="C2" s="43" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +6977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="C3" s="43" t="s">
         <v>73</v>
       </c>
@@ -6990,7 +7006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="C4" s="43" t="s">
         <v>76</v>
       </c>
@@ -7019,7 +7035,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="43" t="s">
         <v>79</v>
       </c>
@@ -7048,7 +7064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="B6" s="43" t="s">
         <v>144</v>
       </c>
@@ -7080,7 +7096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="C7" s="43" t="s">
         <v>131</v>
       </c>
@@ -7106,7 +7122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="67" t="s">
         <v>138</v>
       </c>
@@ -7135,7 +7151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="B9" s="43" t="s">
         <v>142</v>
       </c>
@@ -7161,7 +7177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="B10" s="43" t="s">
         <v>146</v>
       </c>
@@ -7190,7 +7206,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="B11" s="43" t="s">
         <v>148</v>
       </c>
@@ -7216,7 +7232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="D12" s="57" t="s">
         <v>130</v>
       </c>
@@ -7224,7 +7240,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="67" t="s">
         <v>149</v>
       </c>
@@ -7238,7 +7254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" s="43" t="s">
         <v>150</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="B15" s="43" t="s">
         <v>152</v>
       </c>
@@ -7266,7 +7282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="C16" s="67" t="s">
         <v>153</v>
       </c>
@@ -7274,7 +7290,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="43" t="s">
         <v>156</v>
       </c>
@@ -7288,7 +7304,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="D18" s="57" t="s">
         <v>155</v>
       </c>
@@ -7296,7 +7312,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="43" t="s">
         <v>157</v>
       </c>
@@ -7316,7 +7332,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="43" t="s">
         <v>245</v>
       </c>
@@ -7339,7 +7355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="43" t="s">
         <v>163</v>
       </c>
@@ -7359,7 +7375,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
@@ -7373,7 +7389,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="43" t="s">
         <v>170</v>
       </c>
@@ -7384,7 +7400,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="43" t="s">
         <v>172</v>
       </c>
@@ -7398,7 +7414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="43" t="s">
         <v>174</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="43" t="s">
         <v>177</v>
       </c>
@@ -7420,7 +7436,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="43" t="s">
         <v>180</v>
       </c>
@@ -7437,7 +7453,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="43" t="s">
         <v>184</v>
       </c>
@@ -7454,7 +7470,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="43" t="s">
         <v>186</v>
       </c>
@@ -7471,7 +7487,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="43" t="s">
         <v>188</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="43" t="s">
         <v>195</v>
       </c>
@@ -7508,7 +7524,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="43" t="s">
         <v>198</v>
       </c>
@@ -7522,7 +7538,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="43" t="s">
         <v>201</v>
       </c>
@@ -7536,7 +7552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="43" t="s">
         <v>203</v>
       </c>
@@ -7550,7 +7566,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="C35" s="43" t="s">
         <v>206</v>
       </c>
@@ -7564,7 +7580,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="C36" s="43" t="s">
         <v>208</v>
       </c>
@@ -7578,7 +7594,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="C37" s="43" t="s">
         <v>209</v>
       </c>
@@ -7592,7 +7608,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" s="43" t="s">
         <v>212</v>
       </c>
@@ -7606,7 +7622,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="C39" s="43" t="s">
         <v>228</v>
       </c>
@@ -7623,7 +7639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="C40" s="43" t="s">
         <v>234</v>
       </c>
@@ -7637,7 +7653,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" s="43" t="s">
         <v>239</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="C42" s="43">
         <v>95532199</v>
       </c>
@@ -7674,7 +7690,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="C43" s="43" t="s">
         <v>246</v>
       </c>
@@ -7691,7 +7707,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="C44" s="43" t="s">
         <v>250</v>
       </c>
@@ -7708,7 +7724,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="C45" s="43" t="s">
         <v>251</v>
       </c>
@@ -7728,7 +7744,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="43" t="s">
         <v>379</v>
       </c>
@@ -7748,7 +7764,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="C47" s="43">
         <v>13611340307</v>
       </c>
@@ -7762,7 +7778,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="C48" s="43" t="s">
         <v>165</v>
       </c>
@@ -7773,7 +7789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="C49" s="43" t="s">
         <v>259</v>
       </c>
@@ -7787,7 +7803,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="C50" s="43">
         <v>133311993</v>
       </c>
@@ -7798,7 +7814,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="C51" s="43" t="s">
         <v>262</v>
       </c>
@@ -7812,7 +7828,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="C52" s="43" t="s">
         <v>268</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="43" t="s">
         <v>281</v>
       </c>
@@ -7846,7 +7862,7 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="C54" s="43" t="s">
         <v>272</v>
       </c>
@@ -7860,12 +7876,12 @@
         <v>118395</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="C55" s="43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="43" t="s">
         <v>281</v>
       </c>
@@ -7879,7 +7895,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="43" t="s">
         <v>281</v>
       </c>
@@ -7887,7 +7903,7 @@
         <v>157777</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="43" t="s">
         <v>281</v>
       </c>
@@ -7901,7 +7917,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8">
       <c r="B59" s="43" t="s">
         <v>281</v>
       </c>
@@ -7915,7 +7931,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="43" t="s">
         <v>281</v>
       </c>
@@ -7932,7 +7948,7 @@
         <v>171072</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="43" t="s">
         <v>281</v>
       </c>
@@ -7946,7 +7962,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8">
       <c r="B62" s="43" t="s">
         <v>291</v>
       </c>
@@ -7957,7 +7973,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8">
       <c r="B63" s="43" t="s">
         <v>281</v>
       </c>
@@ -7980,7 +7996,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8">
       <c r="B64" s="43" t="s">
         <v>291</v>
       </c>
@@ -7997,7 +8013,7 @@
         <v>120666</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9">
       <c r="B65" s="43" t="s">
         <v>297</v>
       </c>
@@ -8023,7 +8039,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9">
       <c r="B66" s="43" t="s">
         <v>300</v>
       </c>
@@ -8034,7 +8050,7 @@
         <v>111111</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9">
       <c r="B67" s="43" t="s">
         <v>301</v>
       </c>
@@ -8051,7 +8067,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9">
       <c r="B68" s="43" t="s">
         <v>305</v>
       </c>
@@ -8071,7 +8087,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9">
       <c r="B69" s="43" t="s">
         <v>305</v>
       </c>
@@ -8082,7 +8098,7 @@
         <v>123870</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="43" t="s">
         <v>305</v>
       </c>
@@ -8090,7 +8106,7 @@
         <v>1209333</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="43" t="s">
         <v>311</v>
       </c>
@@ -8107,7 +8123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="43" t="s">
         <v>313</v>
       </c>
@@ -8127,7 +8143,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="43" t="s">
         <v>313</v>
       </c>
@@ -8138,7 +8154,7 @@
         <v>21381923</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9">
       <c r="B74" s="43" t="s">
         <v>315</v>
       </c>
@@ -8155,7 +8171,7 @@
         <v>101248</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9">
       <c r="B75" s="43" t="s">
         <v>318</v>
       </c>
@@ -8178,7 +8194,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="43" t="s">
         <v>321</v>
       </c>
@@ -8189,7 +8205,7 @@
         <v>136818</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="43" t="s">
         <v>324</v>
       </c>
@@ -8203,7 +8219,7 @@
         <v>166704</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9">
       <c r="B78" s="43" t="s">
         <v>326</v>
       </c>
@@ -8220,7 +8236,7 @@
         <v>134668</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9">
       <c r="B79" s="43" t="s">
         <v>329</v>
       </c>
@@ -8237,7 +8253,7 @@
         <v>124685</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9">
       <c r="B80" s="43" t="s">
         <v>332</v>
       </c>
@@ -8254,7 +8270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8">
       <c r="B81" s="43" t="s">
         <v>334</v>
       </c>
@@ -8274,7 +8290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8">
       <c r="B82" s="43" t="s">
         <v>336</v>
       </c>
@@ -8294,7 +8310,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8">
       <c r="B83" s="43" t="s">
         <v>339</v>
       </c>
@@ -8311,7 +8327,7 @@
         <v>126995</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8">
       <c r="B84" s="43" t="s">
         <v>344</v>
       </c>
@@ -8325,7 +8341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8">
       <c r="B85" s="43" t="s">
         <v>344</v>
       </c>
@@ -8336,7 +8352,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8">
       <c r="B86" s="43" t="s">
         <v>344</v>
       </c>
@@ -8344,7 +8360,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8">
       <c r="B87" s="43" t="s">
         <v>344</v>
       </c>
@@ -8352,7 +8368,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:8">
       <c r="B88" s="43" t="s">
         <v>353</v>
       </c>
@@ -8369,7 +8385,7 @@
         <v>177980</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8">
       <c r="B89" s="43" t="s">
         <v>354</v>
       </c>
@@ -8386,22 +8402,22 @@
         <v>135635</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:2">
       <c r="B124" s="43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:2">
       <c r="B125" s="43" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:3">
       <c r="C130" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3">
       <c r="C132" s="43" t="s">
         <v>220</v>
       </c>
@@ -8426,36 +8442,36 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="27" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8535,7 +8551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8577,7 +8593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -8619,7 +8635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8662,7 +8678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8705,7 +8721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -8748,7 +8764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8791,7 +8807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -8834,7 +8850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -8963,7 +8979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9006,7 +9022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9049,7 +9065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -9092,7 +9108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="29" customFormat="1">
       <c r="A15" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="29" customFormat="1">
       <c r="A16" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -9278,7 +9294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="29" customFormat="1">
       <c r="A17" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -9370,7 +9386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9464,7 +9480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9556,7 +9572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9649,7 +9665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -9741,7 +9757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -9833,7 +9849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="29" customFormat="1">
       <c r="A23" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -9927,7 +9943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="29" customFormat="1">
       <c r="A24" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -10021,7 +10037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -10111,7 +10127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -10205,7 +10221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -10299,7 +10315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="755" activeTab="1"/>
+    <workbookView xWindow="11360" yWindow="220" windowWidth="25600" windowHeight="16000" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="402">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1502,6 +1502,38 @@
   </si>
   <si>
     <t>kk:13516815199,18606515723:HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13486124717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13735467894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上漂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,6 +1705,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1683,7 +1727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2047,8 +2091,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2098,10 +2150,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2125,8 +2174,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="371">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2308,6 +2361,10 @@
     <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2489,6 +2546,10 @@
     <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -3905,13 +3966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3920,26 +3981,26 @@
     <col min="2" max="2" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="5" style="44" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="5" style="44" customWidth="1"/>
-    <col min="12" max="12" width="2" style="44" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="49" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="51" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="52" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="53" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="53" customWidth="1"/>
-    <col min="20" max="21" width="6.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="55" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="55" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="56" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="68" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="5" style="68" customWidth="1"/>
+    <col min="9" max="9" width="2" style="68" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="69" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="70" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="48" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="50" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="50" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="52" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="52" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="53" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="17.6640625" style="43"/>
   </cols>
   <sheetData>
@@ -3956,353 +4017,353 @@
       <c r="D1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="M1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="59" customFormat="1">
-      <c r="A2" s="58">
+    <row r="2" spans="1:26" s="56" customFormat="1">
+      <c r="A2" s="55">
         <v>42925.631249999999</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="57">
         <f>200+300</f>
         <v>500</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="57">
+        <v>1732</v>
+      </c>
+      <c r="F2" s="57">
+        <v>0.68</v>
+      </c>
+      <c r="G2" s="57">
+        <v>1981</v>
+      </c>
+      <c r="H2" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="I2" s="57">
+        <v>2</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="60">
+        <f>MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+        <v>1.4433333333333334</v>
+      </c>
+      <c r="L2" s="58">
         <f>D2-174</f>
         <v>326</v>
       </c>
-      <c r="F2" s="47">
+      <c r="M2" s="58">
         <v>326</v>
       </c>
-      <c r="G2" s="58">
+      <c r="N2" s="55">
         <v>42925.809027777781</v>
       </c>
-      <c r="H2" s="60">
-        <v>1732</v>
-      </c>
-      <c r="I2" s="60">
-        <v>0.68</v>
-      </c>
-      <c r="J2" s="60">
-        <v>1981</v>
-      </c>
-      <c r="K2" s="60">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="60">
+      <c r="O2" s="48">
+        <f>M2-D2</f>
+        <v>-174</v>
+      </c>
+      <c r="P2" s="49">
+        <f>IF(L2&gt;D2,INT((L2-D2)*0.95),L2-D2)</f>
+        <v>-174</v>
+      </c>
+      <c r="Q2" s="50">
+        <f>ROUND((N2-A2)*24,2)</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="R2" s="50">
+        <f>G2-E2</f>
+        <v>249</v>
+      </c>
+      <c r="S2" s="50">
+        <f t="shared" ref="S2:S9" si="0">U2-T2</f>
+        <v>51</v>
+      </c>
+      <c r="T2" s="50">
+        <f>INT(E2*F2)</f>
+        <v>1177</v>
+      </c>
+      <c r="U2" s="50">
+        <f>INT(G2*H2)</f>
+        <v>1228</v>
+      </c>
+      <c r="V2" s="51">
+        <f t="shared" ref="V2:V9" si="1">S2/R2</f>
+        <v>0.20481927710843373</v>
+      </c>
+      <c r="W2" s="52">
+        <f>P2/R2*100/I2</f>
+        <v>-34.939759036144579</v>
+      </c>
+      <c r="X2" s="52">
+        <f>P2/Q2/I2</f>
+        <v>-20.374707259953162</v>
+      </c>
+      <c r="Y2" s="61">
+        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+        <v>42925</v>
+      </c>
+      <c r="Z2" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="56" customFormat="1">
+      <c r="A3" s="55">
+        <v>42925.631249999999</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="57">
+        <v>200</v>
+      </c>
+      <c r="E3" s="57">
+        <v>2213</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="G3" s="57">
+        <v>2379</v>
+      </c>
+      <c r="H3" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I3" s="57">
         <v>2</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="J3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="63">
-        <f>MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+      <c r="K3" s="60">
+        <f t="shared" ref="K3:K4" si="2">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
         <v>1.4433333333333334</v>
       </c>
-      <c r="O2" s="51">
-        <f>F2-D2</f>
-        <v>-174</v>
-      </c>
-      <c r="P2" s="52">
-        <f t="shared" ref="P2:P21" si="0">IF(E2&gt;D2,INT((E2-D2)*0.95),E2-D2)</f>
-        <v>-174</v>
-      </c>
-      <c r="Q2" s="53">
-        <f t="shared" ref="Q2:Q21" si="1">ROUND((G2-A2)*24,2)</f>
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="R2" s="53">
-        <f t="shared" ref="R2:R21" si="2">J2-H2</f>
-        <v>249</v>
-      </c>
-      <c r="S2" s="53">
-        <f t="shared" ref="S2:S9" si="3">U2-T2</f>
-        <v>51</v>
-      </c>
-      <c r="T2" s="53">
-        <f t="shared" ref="T2:T21" si="4">INT(H2*I2)</f>
-        <v>1177</v>
-      </c>
-      <c r="U2" s="53">
-        <f t="shared" ref="U2:U21" si="5">INT(J2*K2)</f>
-        <v>1228</v>
-      </c>
-      <c r="V2" s="54">
-        <f t="shared" ref="V2:V9" si="6">S2/R2</f>
-        <v>0.20481927710843373</v>
-      </c>
-      <c r="W2" s="55">
-        <f>P2/R2*100/L2</f>
-        <v>-34.939759036144579</v>
-      </c>
-      <c r="X2" s="55">
-        <f>P2/Q2/L2</f>
-        <v>-20.374707259953162</v>
-      </c>
-      <c r="Y2" s="64">
-        <f t="shared" ref="Y2:Y21" si="7">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+      <c r="L3" s="58">
+        <v>524</v>
+      </c>
+      <c r="M3" s="58">
+        <v>508</v>
+      </c>
+      <c r="N3" s="55">
+        <v>42925.740972222222</v>
+      </c>
+      <c r="O3" s="48">
+        <f>M3-D3</f>
+        <v>308</v>
+      </c>
+      <c r="P3" s="49">
+        <f>IF(L3&gt;D3,INT((L3-D3)*0.95),L3-D3)</f>
+        <v>307</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>ROUND((N3-A3)*24,2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="R3" s="50">
+        <f>G3-E3</f>
+        <v>166</v>
+      </c>
+      <c r="S3" s="50">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T3" s="50">
+        <f>INT(E3*F3)</f>
+        <v>1349</v>
+      </c>
+      <c r="U3" s="50">
+        <f>INT(G3*H3)</f>
+        <v>1379</v>
+      </c>
+      <c r="V3" s="51">
+        <f t="shared" si="1"/>
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="W3" s="52">
+        <f>P3/R3*100/I3</f>
+        <v>92.46987951807229</v>
+      </c>
+      <c r="X3" s="52">
+        <f>P3/Q3/I3</f>
+        <v>58.365019011406844</v>
+      </c>
+      <c r="Y3" s="61">
+        <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
         <v>42925</v>
       </c>
-      <c r="Z2" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="59" customFormat="1">
-      <c r="A3" s="58">
+      <c r="Z3" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="56" customFormat="1">
+      <c r="A4" s="55">
         <v>42925.631249999999</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="60">
-        <v>200</v>
-      </c>
-      <c r="E3" s="61">
-        <v>524</v>
-      </c>
-      <c r="F3" s="47">
-        <v>508</v>
-      </c>
-      <c r="G3" s="58">
-        <v>42925.740972222222</v>
-      </c>
-      <c r="H3" s="60">
-        <v>2213</v>
-      </c>
-      <c r="I3" s="60">
-        <v>0.61</v>
-      </c>
-      <c r="J3" s="60">
-        <v>2379</v>
-      </c>
-      <c r="K3" s="60">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L3" s="60">
+      <c r="B4" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="57">
+        <v>300</v>
+      </c>
+      <c r="E4" s="57">
+        <v>1509</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0.71</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1753</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="I4" s="57">
         <v>2</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="J4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="63">
-        <f t="shared" ref="N3:N4" si="8">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+      <c r="K4" s="60">
+        <f t="shared" si="2"/>
         <v>1.4433333333333334</v>
       </c>
-      <c r="O3" s="51">
-        <f>F3-D3</f>
-        <v>308</v>
-      </c>
-      <c r="P3" s="52">
+      <c r="L4" s="58">
+        <v>367</v>
+      </c>
+      <c r="M4" s="58">
+        <v>367</v>
+      </c>
+      <c r="N4" s="55">
+        <v>42925.811805555553</v>
+      </c>
+      <c r="O4" s="48">
+        <f>M4-D4</f>
+        <v>67</v>
+      </c>
+      <c r="P4" s="49">
+        <f>IF(L4&gt;D4,INT((L4-D4)*0.95),L4-D4)</f>
+        <v>63</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>ROUND((N4-A4)*24,2)</f>
+        <v>4.33</v>
+      </c>
+      <c r="R4" s="50">
+        <f>G4-E4</f>
+        <v>244</v>
+      </c>
+      <c r="S4" s="50">
         <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="Q3" s="53">
+        <v>50</v>
+      </c>
+      <c r="T4" s="50">
+        <f>INT(E4*F4)</f>
+        <v>1071</v>
+      </c>
+      <c r="U4" s="50">
+        <f>INT(G4*H4)</f>
+        <v>1121</v>
+      </c>
+      <c r="V4" s="51">
         <f t="shared" si="1"/>
-        <v>2.63</v>
-      </c>
-      <c r="R3" s="53">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="S3" s="53">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="T3" s="53">
-        <f t="shared" si="4"/>
-        <v>1349</v>
-      </c>
-      <c r="U3" s="53">
-        <f t="shared" si="5"/>
-        <v>1379</v>
-      </c>
-      <c r="V3" s="54">
-        <f t="shared" si="6"/>
-        <v>0.18072289156626506</v>
-      </c>
-      <c r="W3" s="55">
-        <f t="shared" ref="W3:W25" si="9">P3/R3*100/L3</f>
-        <v>92.46987951807229</v>
-      </c>
-      <c r="X3" s="55">
-        <f t="shared" ref="X3:X25" si="10">P3/Q3/L3</f>
-        <v>58.365019011406844</v>
-      </c>
-      <c r="Y3" s="64">
-        <f t="shared" si="7"/>
+        <v>0.20491803278688525</v>
+      </c>
+      <c r="W4" s="52">
+        <f>P4/R4*100/I4</f>
+        <v>12.909836065573771</v>
+      </c>
+      <c r="X4" s="52">
+        <f>P4/Q4/I4</f>
+        <v>7.274826789838337</v>
+      </c>
+      <c r="Y4" s="61">
+        <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
         <v>42925</v>
       </c>
-      <c r="Z3" s="65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="59" customFormat="1">
-      <c r="A4" s="58">
-        <v>42925.631249999999</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="60">
-        <v>300</v>
-      </c>
-      <c r="E4" s="61">
-        <v>367</v>
-      </c>
-      <c r="F4" s="47">
-        <v>367</v>
-      </c>
-      <c r="G4" s="58">
-        <v>42925.811805555553</v>
-      </c>
-      <c r="H4" s="60">
-        <v>1509</v>
-      </c>
-      <c r="I4" s="60">
-        <v>0.71</v>
-      </c>
-      <c r="J4" s="60">
-        <v>1753</v>
-      </c>
-      <c r="K4" s="60">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="60">
-        <v>2</v>
-      </c>
-      <c r="M4" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="63">
-        <f t="shared" si="8"/>
-        <v>1.4433333333333334</v>
-      </c>
-      <c r="O4" s="51">
-        <f>F4-D4</f>
-        <v>67</v>
-      </c>
-      <c r="P4" s="52">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="Q4" s="53">
-        <f t="shared" si="1"/>
-        <v>4.33</v>
-      </c>
-      <c r="R4" s="53">
-        <f t="shared" si="2"/>
-        <v>244</v>
-      </c>
-      <c r="S4" s="53">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="T4" s="53">
-        <f t="shared" si="4"/>
-        <v>1071</v>
-      </c>
-      <c r="U4" s="53">
-        <f t="shared" si="5"/>
-        <v>1121</v>
-      </c>
-      <c r="V4" s="54">
-        <f t="shared" si="6"/>
-        <v>0.20491803278688525</v>
-      </c>
-      <c r="W4" s="55">
-        <f t="shared" si="9"/>
-        <v>12.909836065573771</v>
-      </c>
-      <c r="X4" s="55">
-        <f t="shared" si="10"/>
-        <v>7.274826789838337</v>
-      </c>
-      <c r="Y4" s="64">
-        <f t="shared" si="7"/>
-        <v>42925</v>
-      </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="62" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="48">
+      <c r="A5" s="47">
         <v>42934.876388888886</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4315,88 +4376,88 @@
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="68">
+        <v>2186</v>
+      </c>
+      <c r="F5" s="68">
+        <v>0.66</v>
+      </c>
+      <c r="G5" s="68">
+        <v>2320</v>
+      </c>
+      <c r="H5" s="68">
+        <v>0.63</v>
+      </c>
+      <c r="I5" s="68">
+        <v>2</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="70">
+        <f>MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L5" s="46">
         <f>D5+108</f>
         <v>408</v>
       </c>
-      <c r="F5" s="47">
+      <c r="M5" s="67">
         <v>403</v>
       </c>
-      <c r="G5" s="48">
+      <c r="N5" s="47">
         <v>42935.022222222222</v>
       </c>
-      <c r="H5" s="44">
-        <v>2186</v>
-      </c>
-      <c r="I5" s="44">
-        <v>0.66</v>
-      </c>
-      <c r="J5" s="44">
-        <v>2320</v>
-      </c>
-      <c r="K5" s="44">
-        <v>0.63</v>
-      </c>
-      <c r="L5" s="44">
-        <v>2</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="50">
-        <f>MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O5" s="51">
+      <c r="O5" s="48">
         <f>MAX($Q$5:$Q$9)/5</f>
         <v>0.79400000000000004</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="49">
+        <f>IF(L5&gt;D5,INT((L5-D5)*0.95),L5-D5)</f>
+        <v>102</v>
+      </c>
+      <c r="Q5" s="50">
+        <f>ROUND((N5-A5)*24,2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R5" s="50">
+        <f>G5-E5</f>
+        <v>134</v>
+      </c>
+      <c r="S5" s="50">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="Q5" s="53">
+        <v>19</v>
+      </c>
+      <c r="T5" s="50">
+        <f>INT(E5*F5)</f>
+        <v>1442</v>
+      </c>
+      <c r="U5" s="50">
+        <f>INT(G5*H5)</f>
+        <v>1461</v>
+      </c>
+      <c r="V5" s="51">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="R5" s="53">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="S5" s="53">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="T5" s="53">
-        <f t="shared" si="4"/>
-        <v>1442</v>
-      </c>
-      <c r="U5" s="53">
-        <f t="shared" si="5"/>
-        <v>1461</v>
-      </c>
-      <c r="V5" s="54">
-        <f t="shared" si="6"/>
         <v>0.1417910447761194</v>
       </c>
-      <c r="W5" s="55">
-        <f t="shared" si="9"/>
+      <c r="W5" s="52">
+        <f>P5/R5*100/I5</f>
         <v>38.059701492537314</v>
       </c>
-      <c r="X5" s="55">
-        <f t="shared" si="10"/>
+      <c r="X5" s="52">
+        <f>P5/Q5/I5</f>
         <v>14.571428571428571</v>
       </c>
-      <c r="Y5" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y5" s="53">
+        <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
         <v>42934</v>
       </c>
-      <c r="Z5" s="57" t="s">
+      <c r="Z5" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>42934.876388888886</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -4408,88 +4469,88 @@
       <c r="D6" s="44">
         <v>200</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="68">
+        <v>2584</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.62</v>
+      </c>
+      <c r="G6" s="68">
+        <v>2816</v>
+      </c>
+      <c r="H6" s="68">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I6" s="68">
+        <v>2</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="70">
+        <f t="shared" ref="K6:K9" si="3">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L6" s="46">
         <f>D6+7</f>
         <v>207</v>
       </c>
-      <c r="F6" s="47">
+      <c r="M6" s="67">
         <v>207</v>
       </c>
-      <c r="G6" s="48">
+      <c r="N6" s="47">
         <v>42935.041666666664</v>
       </c>
-      <c r="H6" s="44">
-        <v>2584</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0.62</v>
-      </c>
-      <c r="J6" s="44">
-        <v>2816</v>
-      </c>
-      <c r="K6" s="44">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L6" s="44">
-        <v>2</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="50">
-        <f t="shared" ref="N6:N9" si="11">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O6" s="51">
+      <c r="O6" s="48">
         <f>MAX($Q$5:$Q$9)/5</f>
         <v>0.79400000000000004</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="49">
+        <f>IF(L6&gt;D6,INT((L6-D6)*0.95),L6-D6)</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="50">
+        <f>ROUND((N6-A6)*24,2)</f>
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="50">
+        <f>G6-E6</f>
+        <v>232</v>
+      </c>
+      <c r="S6" s="50">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q6" s="53">
+        <v>31</v>
+      </c>
+      <c r="T6" s="50">
+        <f>INT(E6*F6)</f>
+        <v>1602</v>
+      </c>
+      <c r="U6" s="50">
+        <f>INT(G6*H6)</f>
+        <v>1633</v>
+      </c>
+      <c r="V6" s="51">
         <f t="shared" si="1"/>
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="53">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-      <c r="S6" s="53">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="T6" s="53">
-        <f t="shared" si="4"/>
-        <v>1602</v>
-      </c>
-      <c r="U6" s="53">
-        <f t="shared" si="5"/>
-        <v>1633</v>
-      </c>
-      <c r="V6" s="54">
-        <f t="shared" si="6"/>
         <v>0.1336206896551724</v>
       </c>
-      <c r="W6" s="55">
-        <f t="shared" si="9"/>
+      <c r="W6" s="52">
+        <f>P6/R6*100/I6</f>
         <v>1.2931034482758621</v>
       </c>
-      <c r="X6" s="55">
-        <f t="shared" si="10"/>
+      <c r="X6" s="52">
+        <f>P6/Q6/I6</f>
         <v>0.75566750629722923</v>
       </c>
-      <c r="Y6" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y6" s="53">
+        <f>DATE(YEAR(A6),MONTH(A6),DAY(A6))</f>
         <v>42934</v>
       </c>
-      <c r="Z6" s="57" t="s">
+      <c r="Z6" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>42934.876388888886</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -4502,88 +4563,88 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="68">
+        <v>1753</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="68">
+        <v>1855</v>
+      </c>
+      <c r="H7" s="68">
+        <v>0.61</v>
+      </c>
+      <c r="I7" s="68">
+        <v>4</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="70">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L7" s="46">
         <f>D7+618</f>
         <v>1018</v>
       </c>
-      <c r="F7" s="47">
+      <c r="M7" s="67">
         <v>988</v>
       </c>
-      <c r="G7" s="48">
+      <c r="N7" s="47">
         <v>42934.955555555556</v>
       </c>
-      <c r="H7" s="44">
-        <v>1753</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0.64</v>
-      </c>
-      <c r="J7" s="44">
-        <v>1855</v>
-      </c>
-      <c r="K7" s="44">
-        <v>0.61</v>
-      </c>
-      <c r="L7" s="44">
-        <v>4</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="50">
-        <f t="shared" si="11"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O7" s="51">
-        <f t="shared" ref="O7:O21" si="12">F7-D7</f>
+      <c r="O7" s="48">
+        <f>M7-D7</f>
         <v>588</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="49">
+        <f>IF(L7&gt;D7,INT((L7-D7)*0.95),L7-D7)</f>
+        <v>587</v>
+      </c>
+      <c r="Q7" s="50">
+        <f>ROUND((N7-A7)*24,2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="R7" s="50">
+        <f>G7-E7</f>
+        <v>102</v>
+      </c>
+      <c r="S7" s="50">
         <f t="shared" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="Q7" s="53">
+        <v>10</v>
+      </c>
+      <c r="T7" s="50">
+        <f>INT(E7*F7)</f>
+        <v>1121</v>
+      </c>
+      <c r="U7" s="50">
+        <f>INT(G7*H7)</f>
+        <v>1131</v>
+      </c>
+      <c r="V7" s="51">
         <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="R7" s="53">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="S7" s="53">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="T7" s="53">
-        <f t="shared" si="4"/>
-        <v>1121</v>
-      </c>
-      <c r="U7" s="53">
-        <f t="shared" si="5"/>
-        <v>1131</v>
-      </c>
-      <c r="V7" s="54">
-        <f t="shared" si="6"/>
         <v>9.8039215686274508E-2</v>
       </c>
-      <c r="W7" s="55">
-        <f t="shared" si="9"/>
+      <c r="W7" s="52">
+        <f>P7/R7*100/I7</f>
         <v>143.87254901960785</v>
       </c>
-      <c r="X7" s="55">
-        <f t="shared" si="10"/>
+      <c r="X7" s="52">
+        <f>P7/Q7/I7</f>
         <v>77.236842105263165</v>
       </c>
-      <c r="Y7" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y7" s="53">
+        <f>DATE(YEAR(A7),MONTH(A7),DAY(A7))</f>
         <v>42934</v>
       </c>
-      <c r="Z7" s="57" t="s">
+      <c r="Z7" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>42934.876388888886</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -4595,88 +4656,88 @@
       <c r="D8" s="44">
         <v>200</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="68">
+        <v>1674</v>
+      </c>
+      <c r="F8" s="68">
+        <v>0.63</v>
+      </c>
+      <c r="G8" s="68">
+        <v>1830</v>
+      </c>
+      <c r="H8" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="68">
+        <v>2</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="70">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L8" s="46">
         <f>D8+32</f>
         <v>232</v>
       </c>
-      <c r="F8" s="47">
+      <c r="M8" s="67">
         <v>232</v>
       </c>
-      <c r="G8" s="48">
+      <c r="N8" s="47">
         <v>42934.986805555556</v>
       </c>
-      <c r="H8" s="44">
-        <v>1674</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0.63</v>
-      </c>
-      <c r="J8" s="44">
-        <v>1830</v>
-      </c>
-      <c r="K8" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="L8" s="44">
-        <v>2</v>
-      </c>
-      <c r="M8" s="49" t="s">
+      <c r="O8" s="48">
+        <f>M8-D8</f>
+        <v>32</v>
+      </c>
+      <c r="P8" s="49">
+        <f>IF(L8&gt;D8,INT((L8-D8)*0.95),L8-D8)</f>
         <v>30</v>
       </c>
-      <c r="N8" s="50">
-        <f t="shared" si="11"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O8" s="51">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="P8" s="52">
+      <c r="Q8" s="50">
+        <f>ROUND((N8-A8)*24,2)</f>
+        <v>2.65</v>
+      </c>
+      <c r="R8" s="50">
+        <f>G8-E8</f>
+        <v>156</v>
+      </c>
+      <c r="S8" s="50">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Q8" s="53">
+        <v>44</v>
+      </c>
+      <c r="T8" s="50">
+        <f>INT(E8*F8)</f>
+        <v>1054</v>
+      </c>
+      <c r="U8" s="50">
+        <f>INT(G8*H8)</f>
+        <v>1098</v>
+      </c>
+      <c r="V8" s="51">
         <f t="shared" si="1"/>
-        <v>2.65</v>
-      </c>
-      <c r="R8" s="53">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="S8" s="53">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="T8" s="53">
-        <f t="shared" si="4"/>
-        <v>1054</v>
-      </c>
-      <c r="U8" s="53">
-        <f t="shared" si="5"/>
-        <v>1098</v>
-      </c>
-      <c r="V8" s="54">
-        <f t="shared" si="6"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="W8" s="55">
-        <f t="shared" si="9"/>
+      <c r="W8" s="52">
+        <f>P8/R8*100/I8</f>
         <v>9.6153846153846168</v>
       </c>
-      <c r="X8" s="55">
-        <f t="shared" si="10"/>
+      <c r="X8" s="52">
+        <f>P8/Q8/I8</f>
         <v>5.6603773584905666</v>
       </c>
-      <c r="Y8" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y8" s="53">
+        <f>DATE(YEAR(A8),MONTH(A8),DAY(A8))</f>
         <v>42934</v>
       </c>
-      <c r="Z8" s="57" t="s">
+      <c r="Z8" s="54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>42934.955555555556</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -4688,276 +4749,276 @@
       <c r="D9" s="44">
         <v>200</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="68">
+        <v>1855</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0.61</v>
+      </c>
+      <c r="G9" s="68">
+        <v>1967</v>
+      </c>
+      <c r="H9" s="68">
+        <v>0.59</v>
+      </c>
+      <c r="I9" s="68">
+        <v>2</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="70">
+        <f t="shared" si="3"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L9" s="46">
         <f>D9+177</f>
         <v>377</v>
       </c>
-      <c r="F9" s="47">
+      <c r="M9" s="67">
         <v>369</v>
       </c>
-      <c r="G9" s="48">
+      <c r="N9" s="47">
         <v>42935.03402777778</v>
       </c>
-      <c r="H9" s="44">
-        <v>1855</v>
-      </c>
-      <c r="I9" s="44">
-        <v>0.61</v>
-      </c>
-      <c r="J9" s="44">
-        <v>1967</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0.59</v>
-      </c>
-      <c r="L9" s="44">
-        <v>2</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="50">
-        <f t="shared" si="11"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="O9" s="51">
-        <f t="shared" si="12"/>
+      <c r="O9" s="48">
+        <f>M9-D9</f>
         <v>169</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="49">
+        <f>IF(L9&gt;D9,INT((L9-D9)*0.95),L9-D9)</f>
+        <v>168</v>
+      </c>
+      <c r="Q9" s="50">
+        <f>ROUND((N9-A9)*24,2)</f>
+        <v>1.88</v>
+      </c>
+      <c r="R9" s="50">
+        <f>G9-E9</f>
+        <v>112</v>
+      </c>
+      <c r="S9" s="50">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="Q9" s="53">
+        <v>29</v>
+      </c>
+      <c r="T9" s="50">
+        <f>INT(E9*F9)</f>
+        <v>1131</v>
+      </c>
+      <c r="U9" s="50">
+        <f>INT(G9*H9)</f>
+        <v>1160</v>
+      </c>
+      <c r="V9" s="51">
         <f t="shared" si="1"/>
-        <v>1.88</v>
-      </c>
-      <c r="R9" s="53">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="S9" s="53">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="T9" s="53">
-        <f t="shared" si="4"/>
-        <v>1131</v>
-      </c>
-      <c r="U9" s="53">
-        <f t="shared" si="5"/>
-        <v>1160</v>
-      </c>
-      <c r="V9" s="54">
-        <f t="shared" si="6"/>
         <v>0.25892857142857145</v>
       </c>
-      <c r="W9" s="55">
-        <f t="shared" si="9"/>
+      <c r="W9" s="52">
+        <f>P9/R9*100/I9</f>
         <v>75</v>
       </c>
-      <c r="X9" s="55">
-        <f t="shared" si="10"/>
+      <c r="X9" s="52">
+        <f>P9/Q9/I9</f>
         <v>44.680851063829792</v>
       </c>
-      <c r="Y9" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y9" s="53">
+        <f>DATE(YEAR(A9),MONTH(A9),DAY(A9))</f>
         <v>42934</v>
       </c>
-      <c r="Z9" s="57" t="s">
+      <c r="Z9" s="54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="59" customFormat="1">
-      <c r="A10" s="58">
+    <row r="10" spans="1:26" s="56" customFormat="1">
+      <c r="A10" s="55">
         <v>42936.855555555558</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="57">
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="57">
+        <v>2320</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.63</v>
+      </c>
+      <c r="G10" s="57">
+        <v>2422</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="I10" s="57">
+        <v>2</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="60">
+        <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="L10" s="58">
         <f>D10+150</f>
         <v>350</v>
       </c>
-      <c r="F10" s="47">
+      <c r="M10" s="58">
         <v>342</v>
       </c>
-      <c r="G10" s="58">
+      <c r="N10" s="55">
         <v>42936.959722222222</v>
       </c>
-      <c r="H10" s="60">
-        <v>2320</v>
-      </c>
-      <c r="I10" s="60">
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="60">
-        <v>2422</v>
-      </c>
-      <c r="K10" s="60">
-        <v>0.61</v>
-      </c>
-      <c r="L10" s="60">
+      <c r="O10" s="48">
+        <f>M10-D10</f>
+        <v>142</v>
+      </c>
+      <c r="P10" s="49">
+        <f>IF(L10&gt;D10,INT((L10-D10)*0.95),L10-D10)</f>
+        <v>142</v>
+      </c>
+      <c r="Q10" s="50">
+        <f>ROUND((N10-A10)*24,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R10" s="50">
+        <f>G10-E10</f>
+        <v>102</v>
+      </c>
+      <c r="S10" s="50">
+        <f t="shared" ref="S10:S14" si="4">U10-T10</f>
+        <v>16</v>
+      </c>
+      <c r="T10" s="50">
+        <f>INT(E10*F10)</f>
+        <v>1461</v>
+      </c>
+      <c r="U10" s="50">
+        <f>INT(G10*H10)</f>
+        <v>1477</v>
+      </c>
+      <c r="V10" s="51">
+        <f t="shared" ref="V10" si="5">S10/R10</f>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="W10" s="52">
+        <f>P10/R10*100/I10</f>
+        <v>69.607843137254903</v>
+      </c>
+      <c r="X10" s="52">
+        <f>P10/Q10/I10</f>
+        <v>28.4</v>
+      </c>
+      <c r="Y10" s="61">
+        <f>DATE(YEAR(A10),MONTH(A10),DAY(A10))</f>
+        <v>42936</v>
+      </c>
+      <c r="Z10" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="56" customFormat="1">
+      <c r="A11" s="55">
+        <v>42936.855555555558</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="57">
+        <f>200+200</f>
+        <v>400</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1967</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="G11" s="57">
+        <v>2117</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I11" s="57">
         <v>2</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="J11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="63">
+      <c r="K11" s="60">
         <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
         <v>1.3149999999999999</v>
       </c>
-      <c r="O10" s="51">
-        <f t="shared" si="12"/>
-        <v>142</v>
-      </c>
-      <c r="P10" s="52">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="Q10" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="R10" s="53">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="S10" s="53">
-        <f t="shared" ref="S10:S14" si="13">U10-T10</f>
-        <v>16</v>
-      </c>
-      <c r="T10" s="53">
-        <f t="shared" si="4"/>
-        <v>1461</v>
-      </c>
-      <c r="U10" s="53">
-        <f t="shared" si="5"/>
-        <v>1477</v>
-      </c>
-      <c r="V10" s="54">
-        <f t="shared" ref="V10" si="14">S10/R10</f>
-        <v>0.15686274509803921</v>
-      </c>
-      <c r="W10" s="55">
-        <f t="shared" si="9"/>
-        <v>69.607843137254903</v>
-      </c>
-      <c r="X10" s="55">
-        <f t="shared" si="10"/>
-        <v>28.4</v>
-      </c>
-      <c r="Y10" s="64">
-        <f t="shared" si="7"/>
-        <v>42936</v>
-      </c>
-      <c r="Z10" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="59" customFormat="1">
-      <c r="A11" s="58">
-        <v>42936.855555555558</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="60">
-        <f>200+200</f>
-        <v>400</v>
-      </c>
-      <c r="E11" s="61">
+      <c r="L11" s="58">
         <f>D11-132</f>
         <v>268</v>
       </c>
-      <c r="F11" s="47">
+      <c r="M11" s="58">
         <v>268</v>
       </c>
-      <c r="G11" s="58">
+      <c r="N11" s="55">
         <v>42936.965277777781</v>
       </c>
-      <c r="H11" s="60">
-        <v>1967</v>
-      </c>
-      <c r="I11" s="60">
-        <v>0.59</v>
-      </c>
-      <c r="J11" s="60">
-        <v>2117</v>
-      </c>
-      <c r="K11" s="60">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L11" s="60">
-        <v>2</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="63">
-        <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="O11" s="51">
-        <f t="shared" si="12"/>
+      <c r="O11" s="48">
+        <f>M11-D11</f>
         <v>-132</v>
       </c>
-      <c r="P11" s="52">
-        <f t="shared" si="0"/>
+      <c r="P11" s="49">
+        <f>IF(L11&gt;D11,INT((L11-D11)*0.95),L11-D11)</f>
         <v>-132</v>
       </c>
-      <c r="Q11" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="50">
+        <f>ROUND((N11-A11)*24,2)</f>
         <v>2.63</v>
       </c>
-      <c r="R11" s="53">
-        <f t="shared" si="2"/>
+      <c r="R11" s="50">
+        <f>G11-E11</f>
         <v>150</v>
       </c>
-      <c r="S11" s="53">
-        <f t="shared" si="13"/>
+      <c r="S11" s="50">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="T11" s="53">
-        <f t="shared" si="4"/>
+      <c r="T11" s="50">
+        <f>INT(E11*F11)</f>
         <v>1160</v>
       </c>
-      <c r="U11" s="53">
-        <f t="shared" si="5"/>
+      <c r="U11" s="50">
+        <f>INT(G11*H11)</f>
         <v>1206</v>
       </c>
-      <c r="V11" s="54">
+      <c r="V11" s="51">
         <f>S11/R11</f>
         <v>0.30666666666666664</v>
       </c>
-      <c r="W11" s="55">
-        <f t="shared" si="9"/>
+      <c r="W11" s="52">
+        <f>P11/R11*100/I11</f>
         <v>-44</v>
       </c>
-      <c r="X11" s="55">
-        <f t="shared" si="10"/>
+      <c r="X11" s="52">
+        <f>P11/Q11/I11</f>
         <v>-25.095057034220535</v>
       </c>
-      <c r="Y11" s="64">
-        <f t="shared" si="7"/>
+      <c r="Y11" s="61">
+        <f>DATE(YEAR(A11),MONTH(A11),DAY(A11))</f>
         <v>42936</v>
       </c>
-      <c r="Z11" s="65" t="s">
+      <c r="Z11" s="62" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>42938.878472222219</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -4970,87 +5031,87 @@
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E12" s="46">
-        <v>189</v>
-      </c>
-      <c r="F12" s="47">
-        <v>189</v>
-      </c>
-      <c r="G12" s="48">
-        <v>42939.000011574077</v>
-      </c>
-      <c r="H12" s="44">
+      <c r="E12" s="68">
         <v>2816</v>
       </c>
-      <c r="I12" s="44">
+      <c r="F12" s="68">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J12" s="44">
+      <c r="G12" s="68">
         <v>2997</v>
       </c>
-      <c r="K12" s="44">
+      <c r="H12" s="68">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L12" s="44">
+      <c r="I12" s="68">
         <v>2</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="J12" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="50">
+      <c r="K12" s="70">
         <f>MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
         <v>0.74250000000000005</v>
       </c>
-      <c r="O12" s="51">
-        <f t="shared" si="12"/>
+      <c r="L12" s="46">
+        <v>189</v>
+      </c>
+      <c r="M12" s="67">
+        <v>189</v>
+      </c>
+      <c r="N12" s="47">
+        <v>42939.000011574077</v>
+      </c>
+      <c r="O12" s="48">
+        <f>M12-D12</f>
         <v>-11</v>
       </c>
-      <c r="P12" s="52">
-        <f t="shared" si="0"/>
+      <c r="P12" s="49">
+        <f>IF(L12&gt;D12,INT((L12-D12)*0.95),L12-D12)</f>
         <v>-11</v>
       </c>
-      <c r="Q12" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="50">
+        <f>ROUND((N12-A12)*24,2)</f>
         <v>2.92</v>
       </c>
-      <c r="R12" s="53">
-        <f t="shared" si="2"/>
+      <c r="R12" s="50">
+        <f>G12-E12</f>
         <v>181</v>
       </c>
-      <c r="S12" s="53">
-        <f t="shared" si="13"/>
+      <c r="S12" s="50">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="T12" s="53">
-        <f t="shared" si="4"/>
+      <c r="T12" s="50">
+        <f>INT(E12*F12)</f>
         <v>1633</v>
       </c>
-      <c r="U12" s="53">
-        <f t="shared" si="5"/>
+      <c r="U12" s="50">
+        <f>INT(G12*H12)</f>
         <v>1648</v>
       </c>
-      <c r="V12" s="54">
-        <f t="shared" ref="V12:V15" si="15">S12/R12</f>
+      <c r="V12" s="51">
+        <f t="shared" ref="V12:V15" si="6">S12/R12</f>
         <v>8.2872928176795577E-2</v>
       </c>
-      <c r="W12" s="55">
-        <f t="shared" si="9"/>
+      <c r="W12" s="52">
+        <f>P12/R12*100/I12</f>
         <v>-3.0386740331491713</v>
       </c>
-      <c r="X12" s="55">
-        <f t="shared" si="10"/>
+      <c r="X12" s="52">
+        <f>P12/Q12/I12</f>
         <v>-1.8835616438356164</v>
       </c>
-      <c r="Y12" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y12" s="53">
+        <f>DATE(YEAR(A12),MONTH(A12),DAY(A12))</f>
         <v>42938</v>
       </c>
-      <c r="Z12" s="57" t="s">
+      <c r="Z12" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>42938.878472222219</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -5063,88 +5124,88 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="68">
+        <v>1830</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="68">
+        <v>1994</v>
+      </c>
+      <c r="H13" s="68">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I13" s="68">
+        <v>4</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="70">
+        <f t="shared" ref="K13:K15" si="7">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="L13" s="46">
         <f>D13+274</f>
         <v>674</v>
       </c>
-      <c r="F13" s="47">
+      <c r="M13" s="67">
         <v>665</v>
       </c>
-      <c r="G13" s="48">
+      <c r="N13" s="47">
         <v>42938.982638888891</v>
       </c>
-      <c r="H13" s="44">
-        <v>1830</v>
-      </c>
-      <c r="I13" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="44">
-        <v>1994</v>
-      </c>
-      <c r="K13" s="44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L13" s="44">
-        <v>4</v>
-      </c>
-      <c r="M13" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="50">
-        <f t="shared" ref="N13:N15" si="16">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="O13" s="51">
-        <f t="shared" si="12"/>
+      <c r="O13" s="48">
+        <f>M13-D13</f>
         <v>265</v>
       </c>
-      <c r="P13" s="52">
-        <f t="shared" si="0"/>
+      <c r="P13" s="49">
+        <f>IF(L13&gt;D13,INT((L13-D13)*0.95),L13-D13)</f>
         <v>260</v>
       </c>
-      <c r="Q13" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="50">
+        <f>ROUND((N13-A13)*24,2)</f>
         <v>2.5</v>
       </c>
-      <c r="R13" s="53">
-        <f t="shared" si="2"/>
+      <c r="R13" s="50">
+        <f>G13-E13</f>
         <v>164</v>
       </c>
-      <c r="S13" s="53">
-        <f t="shared" si="13"/>
+      <c r="S13" s="50">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T13" s="53">
-        <f t="shared" si="4"/>
+      <c r="T13" s="50">
+        <f>INT(E13*F13)</f>
         <v>1098</v>
       </c>
-      <c r="U13" s="53">
-        <f t="shared" si="5"/>
+      <c r="U13" s="50">
+        <f>INT(G13*H13)</f>
         <v>1116</v>
       </c>
-      <c r="V13" s="54">
-        <f t="shared" si="15"/>
+      <c r="V13" s="51">
+        <f t="shared" si="6"/>
         <v>0.10975609756097561</v>
       </c>
-      <c r="W13" s="55">
-        <f t="shared" si="9"/>
+      <c r="W13" s="52">
+        <f>P13/R13*100/I13</f>
         <v>39.634146341463413</v>
       </c>
-      <c r="X13" s="55">
-        <f t="shared" si="10"/>
+      <c r="X13" s="52">
+        <f>P13/Q13/I13</f>
         <v>26</v>
       </c>
-      <c r="Y13" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y13" s="53">
+        <f>DATE(YEAR(A13),MONTH(A13),DAY(A13))</f>
         <v>42938</v>
       </c>
-      <c r="Z13" s="57" t="s">
+      <c r="Z13" s="54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>42938.884027777778</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -5157,88 +5218,88 @@
         <f>400+400+1000</f>
         <v>1800</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="68">
+        <v>2117</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G14" s="68">
+        <v>2265</v>
+      </c>
+      <c r="H14" s="68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I14" s="68">
+        <v>4</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="70">
+        <f t="shared" si="7"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="L14" s="46">
         <f>D14-828</f>
         <v>972</v>
       </c>
-      <c r="F14" s="47">
+      <c r="M14" s="67">
         <v>972</v>
       </c>
-      <c r="G14" s="48">
+      <c r="N14" s="47">
         <v>42938.988888888889</v>
       </c>
-      <c r="H14" s="44">
-        <v>2117</v>
-      </c>
-      <c r="I14" s="44">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J14" s="44">
-        <v>2265</v>
-      </c>
-      <c r="K14" s="44">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L14" s="44">
-        <v>4</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="50">
-        <f t="shared" si="16"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="O14" s="51">
-        <f t="shared" si="12"/>
+      <c r="O14" s="48">
+        <f>M14-D14</f>
         <v>-828</v>
       </c>
-      <c r="P14" s="52">
-        <f t="shared" si="0"/>
+      <c r="P14" s="49">
+        <f>IF(L14&gt;D14,INT((L14-D14)*0.95),L14-D14)</f>
         <v>-828</v>
       </c>
-      <c r="Q14" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="50">
+        <f>ROUND((N14-A14)*24,2)</f>
         <v>2.52</v>
       </c>
-      <c r="R14" s="53">
-        <f t="shared" si="2"/>
+      <c r="R14" s="50">
+        <f>G14-E14</f>
         <v>148</v>
       </c>
-      <c r="S14" s="53">
-        <f t="shared" si="13"/>
+      <c r="S14" s="50">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="T14" s="53">
-        <f t="shared" si="4"/>
+      <c r="T14" s="50">
+        <f>INT(E14*F14)</f>
         <v>1206</v>
       </c>
-      <c r="U14" s="53">
-        <f t="shared" si="5"/>
+      <c r="U14" s="50">
+        <f>INT(G14*H14)</f>
         <v>1245</v>
       </c>
-      <c r="V14" s="54">
-        <f t="shared" si="15"/>
+      <c r="V14" s="51">
+        <f t="shared" si="6"/>
         <v>0.26351351351351349</v>
       </c>
-      <c r="W14" s="55">
-        <f>P14/R14*100/L14</f>
+      <c r="W14" s="52">
+        <f>P14/R14*100/I14</f>
         <v>-139.86486486486487</v>
       </c>
-      <c r="X14" s="55">
-        <f t="shared" si="10"/>
+      <c r="X14" s="52">
+        <f>P14/Q14/I14</f>
         <v>-82.142857142857139</v>
       </c>
-      <c r="Y14" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y14" s="53">
+        <f>DATE(YEAR(A14),MONTH(A14),DAY(A14))</f>
         <v>42938</v>
       </c>
-      <c r="Z14" s="57" t="s">
+      <c r="Z14" s="54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>42938.876388888886</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -5250,368 +5311,368 @@
       <c r="D15" s="44">
         <v>200</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="68">
+        <v>2422</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0.61</v>
+      </c>
+      <c r="G15" s="68">
+        <v>2557</v>
+      </c>
+      <c r="H15" s="68">
+        <v>0.59</v>
+      </c>
+      <c r="I15" s="68">
+        <v>2</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="70">
+        <f t="shared" si="7"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="L15" s="46">
         <v>215</v>
       </c>
-      <c r="F15" s="47">
+      <c r="M15" s="67">
         <v>215</v>
       </c>
-      <c r="G15" s="48">
+      <c r="N15" s="47">
         <v>42939.000011574077</v>
       </c>
-      <c r="H15" s="44">
-        <v>2422</v>
-      </c>
-      <c r="I15" s="44">
-        <v>0.61</v>
-      </c>
-      <c r="J15" s="44">
-        <v>2557</v>
-      </c>
-      <c r="K15" s="44">
-        <v>0.59</v>
-      </c>
-      <c r="L15" s="44">
-        <v>2</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="50">
-        <f t="shared" si="16"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="O15" s="51">
-        <f t="shared" si="12"/>
+      <c r="O15" s="48">
+        <f>M15-D15</f>
         <v>15</v>
       </c>
-      <c r="P15" s="52">
-        <f t="shared" si="0"/>
+      <c r="P15" s="49">
+        <f>IF(L15&gt;D15,INT((L15-D15)*0.95),L15-D15)</f>
         <v>14</v>
       </c>
-      <c r="Q15" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="50">
+        <f>ROUND((N15-A15)*24,2)</f>
         <v>2.97</v>
       </c>
-      <c r="R15" s="53">
-        <f t="shared" si="2"/>
+      <c r="R15" s="50">
+        <f>G15-E15</f>
         <v>135</v>
       </c>
-      <c r="S15" s="53">
-        <f t="shared" ref="S15" si="17">U15-T15</f>
+      <c r="S15" s="50">
+        <f t="shared" ref="S15" si="8">U15-T15</f>
         <v>31</v>
       </c>
-      <c r="T15" s="53">
-        <f t="shared" si="4"/>
+      <c r="T15" s="50">
+        <f>INT(E15*F15)</f>
         <v>1477</v>
       </c>
-      <c r="U15" s="53">
-        <f t="shared" si="5"/>
+      <c r="U15" s="50">
+        <f>INT(G15*H15)</f>
         <v>1508</v>
       </c>
-      <c r="V15" s="54">
-        <f t="shared" si="15"/>
+      <c r="V15" s="51">
+        <f t="shared" si="6"/>
         <v>0.22962962962962963</v>
       </c>
-      <c r="W15" s="55">
-        <f t="shared" si="9"/>
+      <c r="W15" s="52">
+        <f>P15/R15*100/I15</f>
         <v>5.1851851851851851</v>
       </c>
-      <c r="X15" s="55">
-        <f t="shared" si="10"/>
+      <c r="X15" s="52">
+        <f>P15/Q15/I15</f>
         <v>2.3569023569023568</v>
       </c>
-      <c r="Y15" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y15" s="53">
+        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15))</f>
         <v>42938</v>
       </c>
-      <c r="Z15" s="57" t="s">
+      <c r="Z15" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="59" customFormat="1">
-      <c r="A16" s="58">
+    <row r="16" spans="1:26" s="56" customFormat="1">
+      <c r="A16" s="55">
         <v>42946.625</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="57">
         <f>400+300+200</f>
         <v>900</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="57">
+        <v>3347</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="57">
+        <v>3507</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I16" s="57">
+        <v>4</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="60">
+        <f>MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <v>0.84</v>
+      </c>
+      <c r="L16" s="58">
         <f>D16-318</f>
         <v>582</v>
       </c>
-      <c r="F16" s="47">
+      <c r="M16" s="58">
         <v>582</v>
       </c>
-      <c r="G16" s="58">
+      <c r="N16" s="55">
         <v>42946.729861111111</v>
       </c>
-      <c r="H16" s="60">
-        <v>3347</v>
-      </c>
-      <c r="I16" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="60">
-        <v>3507</v>
-      </c>
-      <c r="K16" s="60">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L16" s="60">
-        <v>4</v>
-      </c>
-      <c r="M16" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="N16" s="63">
-        <f>MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
-        <v>0.84</v>
-      </c>
-      <c r="O16" s="51">
-        <f t="shared" si="12"/>
+      <c r="O16" s="48">
+        <f>M16-D16</f>
         <v>-318</v>
       </c>
-      <c r="P16" s="52">
-        <f t="shared" si="0"/>
+      <c r="P16" s="49">
+        <f>IF(L16&gt;D16,INT((L16-D16)*0.95),L16-D16)</f>
         <v>-318</v>
       </c>
-      <c r="Q16" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="50">
+        <f>ROUND((N16-A16)*24,2)</f>
         <v>2.52</v>
       </c>
-      <c r="R16" s="53">
-        <f t="shared" si="2"/>
+      <c r="R16" s="50">
+        <f>G16-E16</f>
         <v>160</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="50">
         <f>U16-T16</f>
         <v>26</v>
       </c>
-      <c r="T16" s="53">
-        <f t="shared" si="4"/>
+      <c r="T16" s="50">
+        <f>INT(E16*F16)</f>
         <v>2008</v>
       </c>
-      <c r="U16" s="53">
-        <f t="shared" si="5"/>
+      <c r="U16" s="50">
+        <f>INT(G16*H16)</f>
         <v>2034</v>
       </c>
-      <c r="V16" s="54">
-        <f t="shared" ref="V16:V18" si="18">S16/R16</f>
+      <c r="V16" s="51">
+        <f t="shared" ref="V16:V18" si="9">S16/R16</f>
         <v>0.16250000000000001</v>
       </c>
-      <c r="W16" s="55">
-        <f t="shared" si="9"/>
+      <c r="W16" s="52">
+        <f>P16/R16*100/I16</f>
         <v>-49.6875</v>
       </c>
-      <c r="X16" s="55">
-        <f t="shared" si="10"/>
+      <c r="X16" s="52">
+        <f>P16/Q16/I16</f>
         <v>-31.547619047619047</v>
       </c>
-      <c r="Y16" s="64">
-        <f t="shared" si="7"/>
+      <c r="Y16" s="61">
+        <f>DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
         <v>42946</v>
       </c>
-      <c r="Z16" s="65" t="s">
+      <c r="Z16" s="62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="59" customFormat="1">
-      <c r="A17" s="58">
+    <row r="17" spans="1:26" s="56" customFormat="1">
+      <c r="A17" s="55">
         <v>42946.635416666664</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <f>400+300</f>
         <v>700</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="57">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="57">
+        <v>2353</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I17" s="57">
+        <v>4</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="60">
+        <f t="shared" ref="K17:K18" si="10">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <v>0.84</v>
+      </c>
+      <c r="L17" s="58">
         <f>D17-408</f>
         <v>292</v>
       </c>
-      <c r="F17" s="47">
+      <c r="M17" s="58">
         <v>300</v>
       </c>
-      <c r="G17" s="58">
+      <c r="N17" s="55">
         <v>42946.734722222223</v>
       </c>
-      <c r="H17" s="60">
-        <v>2200</v>
-      </c>
-      <c r="I17" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="60">
-        <v>2353</v>
-      </c>
-      <c r="K17" s="60">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L17" s="60">
-        <v>4</v>
-      </c>
-      <c r="M17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="63">
-        <f t="shared" ref="N17:N18" si="19">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
-        <v>0.84</v>
-      </c>
-      <c r="O17" s="51">
-        <f t="shared" si="12"/>
+      <c r="O17" s="48">
+        <f>M17-D17</f>
         <v>-400</v>
       </c>
-      <c r="P17" s="52">
-        <f t="shared" si="0"/>
+      <c r="P17" s="49">
+        <f>IF(L17&gt;D17,INT((L17-D17)*0.95),L17-D17)</f>
         <v>-408</v>
       </c>
-      <c r="Q17" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="50">
+        <f>ROUND((N17-A17)*24,2)</f>
         <v>2.38</v>
       </c>
-      <c r="R17" s="53">
-        <f t="shared" si="2"/>
+      <c r="R17" s="50">
+        <f>G17-E17</f>
         <v>153</v>
       </c>
-      <c r="S17" s="53">
-        <f t="shared" ref="S17:S18" si="20">U17-T17</f>
+      <c r="S17" s="50">
+        <f t="shared" ref="S17:S18" si="11">U17-T17</f>
         <v>44</v>
       </c>
-      <c r="T17" s="53">
-        <f t="shared" si="4"/>
+      <c r="T17" s="50">
+        <f>INT(E17*F17)</f>
         <v>1320</v>
       </c>
-      <c r="U17" s="53">
-        <f t="shared" si="5"/>
+      <c r="U17" s="50">
+        <f>INT(G17*H17)</f>
         <v>1364</v>
       </c>
-      <c r="V17" s="54">
-        <f t="shared" si="18"/>
+      <c r="V17" s="51">
+        <f t="shared" si="9"/>
         <v>0.28758169934640521</v>
       </c>
-      <c r="W17" s="55">
-        <f t="shared" si="9"/>
+      <c r="W17" s="52">
+        <f>P17/R17*100/I17</f>
         <v>-66.666666666666657</v>
       </c>
-      <c r="X17" s="55">
-        <f t="shared" si="10"/>
+      <c r="X17" s="52">
+        <f>P17/Q17/I17</f>
         <v>-42.857142857142861</v>
       </c>
-      <c r="Y17" s="64">
-        <f t="shared" si="7"/>
+      <c r="Y17" s="61">
+        <f>DATE(YEAR(A17),MONTH(A17),DAY(A17))</f>
         <v>42946</v>
       </c>
-      <c r="Z17" s="65" t="s">
+      <c r="Z17" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="59" customFormat="1">
-      <c r="A18" s="58">
+    <row r="18" spans="1:26" s="56" customFormat="1">
+      <c r="A18" s="55">
         <v>42946.677777777775</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="57">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="57">
+        <v>2763</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="G18" s="57">
+        <v>2869</v>
+      </c>
+      <c r="H18" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="I18" s="57">
+        <v>4</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="60">
+        <f t="shared" si="10"/>
+        <v>0.84</v>
+      </c>
+      <c r="L18" s="58">
         <v>519</v>
       </c>
-      <c r="F18" s="47">
+      <c r="M18" s="58">
         <v>519</v>
       </c>
-      <c r="G18" s="58">
+      <c r="N18" s="55">
         <v>42946.745138888888</v>
       </c>
-      <c r="H18" s="60">
-        <v>2763</v>
-      </c>
-      <c r="I18" s="60">
-        <v>0.62</v>
-      </c>
-      <c r="J18" s="60">
-        <v>2869</v>
-      </c>
-      <c r="K18" s="60">
-        <v>0.61</v>
-      </c>
-      <c r="L18" s="60">
-        <v>4</v>
-      </c>
-      <c r="M18" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="N18" s="63">
-        <f t="shared" si="19"/>
-        <v>0.84</v>
-      </c>
-      <c r="O18" s="51">
-        <f t="shared" si="12"/>
+      <c r="O18" s="48">
+        <f>M18-D18</f>
         <v>119</v>
       </c>
-      <c r="P18" s="52">
-        <f t="shared" si="0"/>
+      <c r="P18" s="49">
+        <f>IF(L18&gt;D18,INT((L18-D18)*0.95),L18-D18)</f>
         <v>113</v>
       </c>
-      <c r="Q18" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="50">
+        <f>ROUND((N18-A18)*24,2)</f>
         <v>1.62</v>
       </c>
-      <c r="R18" s="53">
-        <f t="shared" si="2"/>
+      <c r="R18" s="50">
+        <f>G18-E18</f>
         <v>106</v>
       </c>
-      <c r="S18" s="53">
-        <f t="shared" si="20"/>
+      <c r="S18" s="50">
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="T18" s="53">
-        <f t="shared" si="4"/>
+      <c r="T18" s="50">
+        <f>INT(E18*F18)</f>
         <v>1713</v>
       </c>
-      <c r="U18" s="53">
-        <f t="shared" si="5"/>
+      <c r="U18" s="50">
+        <f>INT(G18*H18)</f>
         <v>1750</v>
       </c>
-      <c r="V18" s="54">
-        <f t="shared" si="18"/>
+      <c r="V18" s="51">
+        <f t="shared" si="9"/>
         <v>0.34905660377358488</v>
       </c>
-      <c r="W18" s="55">
-        <f t="shared" si="9"/>
+      <c r="W18" s="52">
+        <f>P18/R18*100/I18</f>
         <v>26.650943396226417</v>
       </c>
-      <c r="X18" s="55">
-        <f t="shared" si="10"/>
+      <c r="X18" s="52">
+        <f>P18/Q18/I18</f>
         <v>17.438271604938272</v>
       </c>
-      <c r="Y18" s="64">
-        <f t="shared" si="7"/>
+      <c r="Y18" s="61">
+        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18))</f>
         <v>42946</v>
       </c>
-      <c r="Z18" s="65" t="s">
+      <c r="Z18" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>42946.822916666664</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -5624,88 +5685,88 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="68">
+        <v>2997</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G19" s="68">
+        <v>3686</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I19" s="68">
+        <v>4</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="70">
+        <f>MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <v>0.86</v>
+      </c>
+      <c r="L19" s="46">
         <f>D19+111</f>
         <v>511</v>
       </c>
-      <c r="F19" s="47">
+      <c r="M19" s="67">
         <v>508</v>
       </c>
-      <c r="G19" s="48">
+      <c r="N19" s="47">
         <v>42946.927777777775</v>
       </c>
-      <c r="H19" s="44">
-        <v>2997</v>
-      </c>
-      <c r="I19" s="44">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J19" s="44">
-        <v>3686</v>
-      </c>
-      <c r="K19" s="44">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L19" s="44">
-        <v>4</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="N19" s="50">
-        <f>MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
-        <v>0.86</v>
-      </c>
-      <c r="O19" s="51">
-        <f t="shared" si="12"/>
+      <c r="O19" s="48">
+        <f>M19-D19</f>
         <v>108</v>
       </c>
-      <c r="P19" s="52">
-        <f t="shared" si="0"/>
+      <c r="P19" s="49">
+        <f>IF(L19&gt;D19,INT((L19-D19)*0.95),L19-D19)</f>
         <v>105</v>
       </c>
-      <c r="Q19" s="53">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="50">
+        <f>ROUND((N19-A19)*24,2)</f>
         <v>2.52</v>
       </c>
-      <c r="R19" s="53">
-        <f t="shared" si="2"/>
+      <c r="R19" s="50">
+        <f>G19-E19</f>
         <v>689</v>
       </c>
-      <c r="S19" s="53">
-        <f t="shared" ref="S19:S22" si="21">U19-T19</f>
+      <c r="S19" s="50">
+        <f t="shared" ref="S19:S22" si="12">U19-T19</f>
         <v>453</v>
       </c>
-      <c r="T19" s="53">
-        <f t="shared" si="4"/>
+      <c r="T19" s="50">
+        <f>INT(E19*F19)</f>
         <v>1648</v>
       </c>
-      <c r="U19" s="53">
-        <f t="shared" si="5"/>
+      <c r="U19" s="50">
+        <f>INT(G19*H19)</f>
         <v>2101</v>
       </c>
-      <c r="V19" s="54">
-        <f t="shared" ref="V19:V22" si="22">S19/R19</f>
+      <c r="V19" s="51">
+        <f t="shared" ref="V19:V22" si="13">S19/R19</f>
         <v>0.65747460087082732</v>
       </c>
-      <c r="W19" s="55">
-        <f t="shared" si="9"/>
+      <c r="W19" s="52">
+        <f>P19/R19*100/I19</f>
         <v>3.8098693759071116</v>
       </c>
-      <c r="X19" s="55">
-        <f t="shared" si="10"/>
+      <c r="X19" s="52">
+        <f>P19/Q19/I19</f>
         <v>10.416666666666666</v>
       </c>
-      <c r="Y19" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y19" s="53">
+        <f>DATE(YEAR(A19),MONTH(A19),DAY(A19))</f>
         <v>42946</v>
       </c>
-      <c r="Z19" s="57" t="s">
+      <c r="Z19" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>42946.840277777781</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -5718,88 +5779,88 @@
         <f>400+400</f>
         <v>800</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="68">
+        <v>1994</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20" s="68">
+        <v>2497</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I20" s="68">
+        <v>4</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="70">
+        <f t="shared" ref="K20:K21" si="14">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <v>0.86</v>
+      </c>
+      <c r="L20" s="46">
         <f>D20-256</f>
         <v>544</v>
       </c>
-      <c r="F20" s="47">
+      <c r="M20" s="67">
         <v>560</v>
       </c>
-      <c r="G20" s="48">
+      <c r="N20" s="47">
         <v>42946.945833333331</v>
       </c>
-      <c r="H20" s="44">
-        <v>1994</v>
-      </c>
-      <c r="I20" s="44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J20" s="44">
-        <v>2497</v>
-      </c>
-      <c r="K20" s="44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L20" s="44">
-        <v>4</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" s="50">
-        <f t="shared" ref="N20:N21" si="23">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
-        <v>0.86</v>
-      </c>
-      <c r="O20" s="51">
+      <c r="O20" s="48">
+        <f>M20-D20</f>
+        <v>-240</v>
+      </c>
+      <c r="P20" s="49">
+        <f>IF(L20&gt;D20,INT((L20-D20)*0.95),L20-D20)</f>
+        <v>-256</v>
+      </c>
+      <c r="Q20" s="50">
+        <f>ROUND((N20-A20)*24,2)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R20" s="50">
+        <f>G20-E20</f>
+        <v>503</v>
+      </c>
+      <c r="S20" s="50">
         <f t="shared" si="12"/>
-        <v>-240</v>
-      </c>
-      <c r="P20" s="52">
-        <f t="shared" si="0"/>
-        <v>-256</v>
-      </c>
-      <c r="Q20" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="R20" s="53">
-        <f t="shared" si="2"/>
-        <v>503</v>
-      </c>
-      <c r="S20" s="53">
-        <f t="shared" si="21"/>
         <v>282</v>
       </c>
-      <c r="T20" s="53">
-        <f t="shared" si="4"/>
+      <c r="T20" s="50">
+        <f>INT(E20*F20)</f>
         <v>1116</v>
       </c>
-      <c r="U20" s="53">
-        <f t="shared" si="5"/>
+      <c r="U20" s="50">
+        <f>INT(G20*H20)</f>
         <v>1398</v>
       </c>
-      <c r="V20" s="54">
-        <f t="shared" si="22"/>
+      <c r="V20" s="51">
+        <f t="shared" si="13"/>
         <v>0.56063618290258455</v>
       </c>
-      <c r="W20" s="55">
-        <f t="shared" si="9"/>
+      <c r="W20" s="52">
+        <f>P20/R20*100/I20</f>
         <v>-12.72365805168986</v>
       </c>
-      <c r="X20" s="55">
-        <f t="shared" si="10"/>
+      <c r="X20" s="52">
+        <f>P20/Q20/I20</f>
         <v>-25.296442687747039</v>
       </c>
-      <c r="Y20" s="56">
-        <f t="shared" si="7"/>
+      <c r="Y20" s="53">
+        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20))</f>
         <v>42946</v>
       </c>
-      <c r="Z20" s="57" t="s">
+      <c r="Z20" s="54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>42946.798611111109</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -5812,456 +5873,820 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="68">
+        <v>2557</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0.59</v>
+      </c>
+      <c r="G21" s="68">
+        <v>3015</v>
+      </c>
+      <c r="H21" s="68">
+        <v>0.59</v>
+      </c>
+      <c r="I21" s="68">
+        <v>4</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="70">
+        <f t="shared" si="14"/>
+        <v>0.86</v>
+      </c>
+      <c r="L21" s="46">
         <f>D21+499</f>
         <v>899</v>
       </c>
-      <c r="F21" s="47">
+      <c r="M21" s="67">
         <v>884</v>
       </c>
-      <c r="G21" s="48">
+      <c r="N21" s="47">
         <v>42946.90625</v>
       </c>
-      <c r="H21" s="44">
-        <v>2557</v>
-      </c>
-      <c r="I21" s="44">
-        <v>0.59</v>
-      </c>
-      <c r="J21" s="44">
-        <v>3015</v>
-      </c>
-      <c r="K21" s="44">
-        <v>0.59</v>
-      </c>
-      <c r="L21" s="44">
+      <c r="O21" s="48">
+        <f>M21-D21</f>
+        <v>484</v>
+      </c>
+      <c r="P21" s="49">
+        <f>IF(L21&gt;D21,INT((L21-D21)*0.95),L21-D21)</f>
+        <v>474</v>
+      </c>
+      <c r="Q21" s="50">
+        <f>ROUND((N21-A21)*24,2)</f>
+        <v>2.58</v>
+      </c>
+      <c r="R21" s="50">
+        <f>G21-E21</f>
+        <v>458</v>
+      </c>
+      <c r="S21" s="50">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="T21" s="50">
+        <f>INT(E21*F21)</f>
+        <v>1508</v>
+      </c>
+      <c r="U21" s="50">
+        <f>INT(G21*H21)</f>
+        <v>1778</v>
+      </c>
+      <c r="V21" s="51">
+        <f t="shared" si="13"/>
+        <v>0.58951965065502188</v>
+      </c>
+      <c r="W21" s="52">
+        <f>P21/R21*100/I21</f>
+        <v>25.873362445414848</v>
+      </c>
+      <c r="X21" s="52">
+        <f>P21/Q21/I21</f>
+        <v>45.930232558139537</v>
+      </c>
+      <c r="Y21" s="53">
+        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21))</f>
+        <v>42946</v>
+      </c>
+      <c r="Z21" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="56" customFormat="1">
+      <c r="A22" s="55">
+        <v>42954.911111111112</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="57">
+        <v>400</v>
+      </c>
+      <c r="E22" s="57">
+        <v>2865</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="G22" s="57">
+        <v>2963</v>
+      </c>
+      <c r="H22" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="I22" s="57">
         <v>4</v>
       </c>
-      <c r="M21" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="50">
-        <f t="shared" si="23"/>
-        <v>0.86</v>
-      </c>
-      <c r="O21" s="51">
-        <f t="shared" si="12"/>
-        <v>484</v>
-      </c>
-      <c r="P21" s="52">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
-      <c r="Q21" s="53">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-      <c r="R21" s="53">
-        <f t="shared" si="2"/>
-        <v>458</v>
-      </c>
-      <c r="S21" s="53">
-        <f t="shared" si="21"/>
-        <v>270</v>
-      </c>
-      <c r="T21" s="53">
-        <f t="shared" si="4"/>
-        <v>1508</v>
-      </c>
-      <c r="U21" s="53">
-        <f t="shared" si="5"/>
-        <v>1778</v>
-      </c>
-      <c r="V21" s="54">
-        <f t="shared" si="22"/>
-        <v>0.58951965065502188</v>
-      </c>
-      <c r="W21" s="55">
-        <f t="shared" si="9"/>
-        <v>25.873362445414848</v>
-      </c>
-      <c r="X21" s="55">
-        <f t="shared" si="10"/>
-        <v>45.930232558139537</v>
-      </c>
-      <c r="Y21" s="56">
-        <f t="shared" si="7"/>
-        <v>42946</v>
-      </c>
-      <c r="Z21" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="59" customFormat="1">
-      <c r="A22" s="58">
-        <v>42954.911111111112</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="60">
-        <v>400</v>
-      </c>
-      <c r="E22" s="61">
+      <c r="J22" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="60">
+        <f>MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="L22" s="58">
         <f>D22-125</f>
         <v>275</v>
       </c>
-      <c r="F22" s="47">
+      <c r="M22" s="58">
         <v>275</v>
       </c>
-      <c r="G22" s="58">
+      <c r="N22" s="55">
         <v>42954.978472222225</v>
       </c>
-      <c r="H22" s="60">
-        <v>2865</v>
-      </c>
-      <c r="I22" s="60">
-        <v>0.64</v>
-      </c>
-      <c r="J22" s="60">
-        <v>2963</v>
-      </c>
-      <c r="K22" s="60">
-        <v>0.62</v>
-      </c>
-      <c r="L22" s="60">
+      <c r="O22" s="48">
+        <f>M22-D22</f>
+        <v>-125</v>
+      </c>
+      <c r="P22" s="49">
+        <f>IF(L22&gt;D22,INT((L22-D22)*0.95),L22-D22)</f>
+        <v>-125</v>
+      </c>
+      <c r="Q22" s="50">
+        <f>ROUND((N22-A22)*24,2)</f>
+        <v>1.62</v>
+      </c>
+      <c r="R22" s="50">
+        <f>G22-E22</f>
+        <v>98</v>
+      </c>
+      <c r="S22" s="50">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="M22" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="N22" s="63">
-        <f>MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+      <c r="T22" s="50">
+        <f>INT(E22*F22)</f>
+        <v>1833</v>
+      </c>
+      <c r="U22" s="50">
+        <f>INT(G22*H22)</f>
+        <v>1837</v>
+      </c>
+      <c r="V22" s="51">
+        <f t="shared" si="13"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="W22" s="52">
+        <f>P22/R22*100/I22</f>
+        <v>-31.887755102040817</v>
+      </c>
+      <c r="X22" s="52">
+        <f>P22/Q22/I22</f>
+        <v>-19.290123456790123</v>
+      </c>
+      <c r="Y22" s="61">
+        <f>DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
+        <v>42954</v>
+      </c>
+      <c r="Z22" s="62" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="56" customFormat="1">
+      <c r="A23" s="55">
+        <v>42954.915972222225</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" s="57">
+        <v>200</v>
+      </c>
+      <c r="E23" s="57">
+        <v>3986</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="57">
+        <v>4076</v>
+      </c>
+      <c r="H23" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="I23" s="57">
+        <v>2</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" s="60">
+        <f t="shared" ref="K23:K25" si="15">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="O22" s="51">
-        <f t="shared" ref="O22:O25" si="24">F22-D22</f>
-        <v>-125</v>
-      </c>
-      <c r="P22" s="52">
-        <f t="shared" ref="P22:P25" si="25">IF(E22&gt;D22,INT((E22-D22)*0.95),E22-D22)</f>
-        <v>-125</v>
-      </c>
-      <c r="Q22" s="53">
-        <f>ROUND((G22-A22)*24,2)</f>
-        <v>1.62</v>
-      </c>
-      <c r="R22" s="53">
-        <f t="shared" ref="R22:R25" si="26">J22-H22</f>
-        <v>98</v>
-      </c>
-      <c r="S22" s="53">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="T22" s="53">
-        <f t="shared" ref="T22:T25" si="27">INT(H22*I22)</f>
-        <v>1833</v>
-      </c>
-      <c r="U22" s="53">
-        <f t="shared" ref="U22:U25" si="28">INT(J22*K22)</f>
-        <v>1837</v>
-      </c>
-      <c r="V22" s="54">
-        <f t="shared" si="22"/>
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="W22" s="55">
-        <f t="shared" si="9"/>
-        <v>-31.887755102040817</v>
-      </c>
-      <c r="X22" s="55">
-        <f t="shared" si="10"/>
-        <v>-19.290123456790123</v>
-      </c>
-      <c r="Y22" s="64">
-        <f t="shared" ref="Y22:Y25" si="29">DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
-        <v>42954</v>
-      </c>
-      <c r="Z22" s="65" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" s="59" customFormat="1">
-      <c r="A23" s="58">
-        <v>42954.915972222225</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D23" s="60">
-        <v>200</v>
-      </c>
-      <c r="E23" s="61">
+      <c r="L23" s="58">
         <f>D23-62</f>
         <v>138</v>
       </c>
-      <c r="F23" s="47">
+      <c r="M23" s="58">
         <v>138</v>
       </c>
-      <c r="G23" s="58">
+      <c r="N23" s="55">
         <v>42954.978472222225</v>
       </c>
-      <c r="H23" s="60">
-        <v>3986</v>
-      </c>
-      <c r="I23" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="J23" s="60">
-        <v>4076</v>
-      </c>
-      <c r="K23" s="60">
-        <v>0.59</v>
-      </c>
-      <c r="L23" s="60">
-        <v>2</v>
-      </c>
-      <c r="M23" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="N23" s="63">
-        <f t="shared" ref="N23:N25" si="30">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+      <c r="O23" s="48">
+        <f>M23-D23</f>
+        <v>-62</v>
+      </c>
+      <c r="P23" s="49">
+        <f>IF(L23&gt;D23,INT((L23-D23)*0.95),L23-D23)</f>
+        <v>-62</v>
+      </c>
+      <c r="Q23" s="50">
+        <f>ROUND((N23-A23)*24,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R23" s="50">
+        <f>G23-E23</f>
+        <v>90</v>
+      </c>
+      <c r="S23" s="50">
+        <f t="shared" ref="S23:S25" si="16">U23-T23</f>
+        <v>13</v>
+      </c>
+      <c r="T23" s="50">
+        <f>INT(E23*F23)</f>
+        <v>2391</v>
+      </c>
+      <c r="U23" s="50">
+        <f>INT(G23*H23)</f>
+        <v>2404</v>
+      </c>
+      <c r="V23" s="51">
+        <f t="shared" ref="V23:V25" si="17">S23/R23</f>
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="W23" s="52">
+        <f>P23/R23*100/I23</f>
+        <v>-34.444444444444443</v>
+      </c>
+      <c r="X23" s="52">
+        <f>P23/Q23/I23</f>
+        <v>-20.666666666666668</v>
+      </c>
+      <c r="Y23" s="61">
+        <f>DATE(YEAR(A23),MONTH(A23),DAY(A23))</f>
+        <v>42954</v>
+      </c>
+      <c r="Z23" s="62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="56" customFormat="1">
+      <c r="A24" s="55">
+        <v>42954.915972222225</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="57">
+        <v>400</v>
+      </c>
+      <c r="E24" s="57">
+        <v>3012</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0.63</v>
+      </c>
+      <c r="G24" s="57">
+        <v>3105</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0.62</v>
+      </c>
+      <c r="I24" s="57">
+        <v>4</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" s="60">
+        <f t="shared" si="15"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="O23" s="51">
-        <f t="shared" si="24"/>
-        <v>-62</v>
-      </c>
-      <c r="P23" s="52">
-        <f t="shared" si="25"/>
-        <v>-62</v>
-      </c>
-      <c r="Q23" s="53">
-        <f t="shared" ref="Q23:Q25" si="31">ROUND((G23-A23)*24,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="R23" s="53">
-        <f t="shared" si="26"/>
-        <v>90</v>
-      </c>
-      <c r="S23" s="53">
-        <f t="shared" ref="S23:S25" si="32">U23-T23</f>
-        <v>13</v>
-      </c>
-      <c r="T23" s="53">
-        <f t="shared" si="27"/>
-        <v>2391</v>
-      </c>
-      <c r="U23" s="53">
-        <f t="shared" si="28"/>
-        <v>2404</v>
-      </c>
-      <c r="V23" s="54">
-        <f t="shared" ref="V23:V25" si="33">S23/R23</f>
-        <v>0.14444444444444443</v>
-      </c>
-      <c r="W23" s="55">
-        <f t="shared" si="9"/>
-        <v>-34.444444444444443</v>
-      </c>
-      <c r="X23" s="55">
-        <f t="shared" si="10"/>
-        <v>-20.666666666666668</v>
-      </c>
-      <c r="Y23" s="64">
-        <f t="shared" si="29"/>
-        <v>42954</v>
-      </c>
-      <c r="Z23" s="65" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" s="59" customFormat="1">
-      <c r="A24" s="58">
-        <v>42954.915972222225</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="60">
-        <v>400</v>
-      </c>
-      <c r="E24" s="61">
+      <c r="L24" s="58">
         <f>D24+238</f>
         <v>638</v>
       </c>
-      <c r="F24" s="47">
+      <c r="M24" s="58">
         <v>638</v>
       </c>
-      <c r="G24" s="58">
+      <c r="N24" s="55">
         <v>42954.978472222225</v>
       </c>
-      <c r="H24" s="60">
-        <v>3012</v>
-      </c>
-      <c r="I24" s="60">
+      <c r="O24" s="48">
+        <f>M24-D24</f>
+        <v>238</v>
+      </c>
+      <c r="P24" s="49">
+        <f>IF(L24&gt;D24,INT((L24-D24)*0.95),L24-D24)</f>
+        <v>226</v>
+      </c>
+      <c r="Q24" s="50">
+        <f>ROUND((N24-A24)*24,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R24" s="50">
+        <f>G24-E24</f>
+        <v>93</v>
+      </c>
+      <c r="S24" s="50">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="T24" s="50">
+        <f>INT(E24*F24)</f>
+        <v>1897</v>
+      </c>
+      <c r="U24" s="50">
+        <f>INT(G24*H24)</f>
+        <v>1925</v>
+      </c>
+      <c r="V24" s="51">
+        <f t="shared" si="17"/>
+        <v>0.30107526881720431</v>
+      </c>
+      <c r="W24" s="52">
+        <f>P24/R24*100/I24</f>
+        <v>60.752688172043015</v>
+      </c>
+      <c r="X24" s="52">
+        <f>P24/Q24/I24</f>
+        <v>37.666666666666664</v>
+      </c>
+      <c r="Y24" s="61">
+        <f>DATE(YEAR(A24),MONTH(A24),DAY(A24))</f>
+        <v>42954</v>
+      </c>
+      <c r="Z24" s="62" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="56" customFormat="1">
+      <c r="A25" s="55">
+        <v>42954.917361111111</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D25" s="57">
+        <v>200</v>
+      </c>
+      <c r="E25" s="57">
+        <v>3480</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="G25" s="57">
+        <v>3562</v>
+      </c>
+      <c r="H25" s="57">
         <v>0.63</v>
       </c>
-      <c r="J24" s="60">
-        <v>3105</v>
-      </c>
-      <c r="K24" s="60">
-        <v>0.62</v>
-      </c>
-      <c r="L24" s="60">
-        <v>4</v>
-      </c>
-      <c r="M24" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="N24" s="63">
-        <f t="shared" si="30"/>
+      <c r="I25" s="57">
+        <v>2</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="K25" s="60">
+        <f t="shared" si="15"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="O24" s="51">
-        <f t="shared" si="24"/>
-        <v>238</v>
-      </c>
-      <c r="P24" s="52">
-        <f t="shared" si="25"/>
-        <v>226</v>
-      </c>
-      <c r="Q24" s="53">
-        <f t="shared" si="31"/>
-        <v>1.5</v>
-      </c>
-      <c r="R24" s="53">
-        <f t="shared" si="26"/>
-        <v>93</v>
-      </c>
-      <c r="S24" s="53">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="T24" s="53">
-        <f t="shared" si="27"/>
-        <v>1897</v>
-      </c>
-      <c r="U24" s="53">
-        <f t="shared" si="28"/>
-        <v>1925</v>
-      </c>
-      <c r="V24" s="54">
-        <f t="shared" si="33"/>
-        <v>0.30107526881720431</v>
-      </c>
-      <c r="W24" s="55">
-        <f t="shared" si="9"/>
-        <v>60.752688172043015</v>
-      </c>
-      <c r="X24" s="55">
-        <f t="shared" si="10"/>
-        <v>37.666666666666664</v>
-      </c>
-      <c r="Y24" s="64">
-        <f t="shared" si="29"/>
-        <v>42954</v>
-      </c>
-      <c r="Z24" s="65" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="59" customFormat="1">
-      <c r="A25" s="58">
-        <v>42954.917361111111</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="D25" s="60">
-        <v>200</v>
-      </c>
-      <c r="E25" s="61">
+      <c r="L25" s="58">
         <f>D25+74</f>
         <v>274</v>
       </c>
-      <c r="F25" s="47">
+      <c r="M25" s="58">
         <v>270</v>
       </c>
-      <c r="G25" s="58">
+      <c r="N25" s="55">
         <v>42954.978472222225</v>
       </c>
-      <c r="H25" s="60">
-        <v>3480</v>
-      </c>
-      <c r="I25" s="60">
+      <c r="O25" s="48">
+        <f>M25-D25</f>
+        <v>70</v>
+      </c>
+      <c r="P25" s="49">
+        <f>IF(L25&gt;D25,INT((L25-D25)*0.95),L25-D25)</f>
+        <v>70</v>
+      </c>
+      <c r="Q25" s="50">
+        <f>ROUND((N25-A25)*24,2)</f>
+        <v>1.47</v>
+      </c>
+      <c r="R25" s="50">
+        <f>G25-E25</f>
+        <v>82</v>
+      </c>
+      <c r="S25" s="50">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="T25" s="50">
+        <f>INT(E25*F25)</f>
+        <v>2227</v>
+      </c>
+      <c r="U25" s="50">
+        <f>INT(G25*H25)</f>
+        <v>2244</v>
+      </c>
+      <c r="V25" s="51">
+        <f t="shared" si="17"/>
+        <v>0.2073170731707317</v>
+      </c>
+      <c r="W25" s="52">
+        <f>P25/R25*100/I25</f>
+        <v>42.68292682926829</v>
+      </c>
+      <c r="X25" s="52">
+        <f>P25/Q25/I25</f>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="Y25" s="61">
+        <f>DATE(YEAR(A25),MONTH(A25),DAY(A25))</f>
+        <v>42954</v>
+      </c>
+      <c r="Z25" s="62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="47">
+        <v>42957.952777777777</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="44">
+        <f>200+400</f>
+        <v>600</v>
+      </c>
+      <c r="E26" s="68">
+        <v>3177</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0.65</v>
+      </c>
+      <c r="G26" s="68">
+        <v>3294</v>
+      </c>
+      <c r="H26" s="68">
+        <v>0.63</v>
+      </c>
+      <c r="I26" s="68">
+        <v>4</v>
+      </c>
+      <c r="J26" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26" s="70">
+        <f>MAX($Q$26:$Q$29)/SUBTOTAL(102,$Q$26:$Q$29)</f>
+        <v>0.62</v>
+      </c>
+      <c r="L26" s="46">
+        <f>D26+322</f>
+        <v>922</v>
+      </c>
+      <c r="N26" s="47">
+        <v>42958.033333333333</v>
+      </c>
+      <c r="O26" s="48">
+        <f>M26-D26</f>
+        <v>-600</v>
+      </c>
+      <c r="P26" s="49">
+        <f>IF(L26&gt;D26,INT((L26-D26)*0.95),L26-D26)</f>
+        <v>305</v>
+      </c>
+      <c r="Q26" s="50">
+        <f>ROUND((N26-A26)*24,2)</f>
+        <v>1.93</v>
+      </c>
+      <c r="R26" s="50">
+        <f>G26-E26</f>
+        <v>117</v>
+      </c>
+      <c r="S26" s="50">
+        <f>U26-T26</f>
+        <v>10</v>
+      </c>
+      <c r="T26" s="50">
+        <f>INT(E26*F26)</f>
+        <v>2065</v>
+      </c>
+      <c r="U26" s="50">
+        <f>INT(G26*H26)</f>
+        <v>2075</v>
+      </c>
+      <c r="V26" s="51">
+        <f>S26/R26</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="W26" s="52">
+        <f>P26/R26*100/I26</f>
+        <v>65.17094017094017</v>
+      </c>
+      <c r="X26" s="52">
+        <f>P26/Q26/I26</f>
+        <v>39.50777202072539</v>
+      </c>
+      <c r="Y26" s="53">
+        <f>DATE(YEAR(A26),MONTH(A26),DAY(A26))</f>
+        <v>42957</v>
+      </c>
+      <c r="Z26" s="54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="47">
+        <v>42957.929861111108</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" s="44">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E27" s="68">
+        <v>4420</v>
+      </c>
+      <c r="F27" s="68">
+        <v>0.62</v>
+      </c>
+      <c r="G27" s="68">
+        <v>4580</v>
+      </c>
+      <c r="H27" s="68">
+        <v>0.61</v>
+      </c>
+      <c r="I27" s="68">
+        <v>4</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="K27" s="70">
+        <f t="shared" ref="K27:K29" si="18">MAX($Q$26:$Q$29)/SUBTOTAL(102,$Q$26:$Q$29)</f>
+        <v>0.62</v>
+      </c>
+      <c r="L27" s="46">
+        <f>D27+256</f>
+        <v>656</v>
+      </c>
+      <c r="N27" s="47">
+        <v>42958.033333333333</v>
+      </c>
+      <c r="O27" s="48">
+        <f>M27-D27</f>
+        <v>-400</v>
+      </c>
+      <c r="P27" s="49">
+        <f>IF(L27&gt;D27,INT((L27-D27)*0.95),L27-D27)</f>
+        <v>243</v>
+      </c>
+      <c r="Q27" s="50">
+        <f>ROUND((N27-A27)*24,2)</f>
+        <v>2.48</v>
+      </c>
+      <c r="R27" s="50">
+        <f>G27-E27</f>
+        <v>160</v>
+      </c>
+      <c r="S27" s="50">
+        <f t="shared" ref="S27:S29" si="19">U27-T27</f>
+        <v>53</v>
+      </c>
+      <c r="T27" s="50">
+        <f>INT(E27*F27)</f>
+        <v>2740</v>
+      </c>
+      <c r="U27" s="50">
+        <f>INT(G27*H27)</f>
+        <v>2793</v>
+      </c>
+      <c r="V27" s="51">
+        <f>S27/R27</f>
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="W27" s="52">
+        <f>P27/R27*100/I27</f>
+        <v>37.96875</v>
+      </c>
+      <c r="X27" s="52">
+        <f>P27/Q27/I27</f>
+        <v>24.495967741935484</v>
+      </c>
+      <c r="Y27" s="53">
+        <f>DATE(YEAR(A27),MONTH(A27),DAY(A27))</f>
+        <v>42957</v>
+      </c>
+      <c r="Z27" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="47">
+        <v>42957.977083333331</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="44">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="E28" s="68">
+        <v>3244</v>
+      </c>
+      <c r="F28" s="68">
         <v>0.64</v>
       </c>
-      <c r="J25" s="60">
+      <c r="G28" s="68">
+        <v>3341</v>
+      </c>
+      <c r="H28" s="68">
+        <v>0.624</v>
+      </c>
+      <c r="I28" s="68">
+        <v>4</v>
+      </c>
+      <c r="J28" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="K28" s="70">
+        <f t="shared" si="18"/>
+        <v>0.62</v>
+      </c>
+      <c r="L28" s="46">
+        <f>D28-19</f>
+        <v>381</v>
+      </c>
+      <c r="N28" s="47">
+        <v>42958.033333333333</v>
+      </c>
+      <c r="O28" s="48">
+        <f>M28-D28</f>
+        <v>-400</v>
+      </c>
+      <c r="P28" s="49">
+        <f>IF(L28&gt;D28,INT((L28-D28)*0.95),L28-D28)</f>
+        <v>-19</v>
+      </c>
+      <c r="Q28" s="50">
+        <f>ROUND((N28-A28)*24,2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="R28" s="50">
+        <f>G28-E28</f>
+        <v>97</v>
+      </c>
+      <c r="S28" s="50">
+        <f>U28-T28</f>
+        <v>8</v>
+      </c>
+      <c r="T28" s="50">
+        <f>INT(E28*F28)</f>
+        <v>2076</v>
+      </c>
+      <c r="U28" s="50">
+        <f>INT(G28*H28)</f>
+        <v>2084</v>
+      </c>
+      <c r="V28" s="51">
+        <f>S28/R28</f>
+        <v>8.247422680412371E-2</v>
+      </c>
+      <c r="W28" s="52">
+        <f>P28/R28*100/I28</f>
+        <v>-4.8969072164948457</v>
+      </c>
+      <c r="X28" s="52">
+        <f>P28/Q28/I28</f>
+        <v>-3.5185185185185182</v>
+      </c>
+      <c r="Y28" s="53">
+        <f>DATE(YEAR(A28),MONTH(A28),DAY(A28))</f>
+        <v>42957</v>
+      </c>
+      <c r="Z28" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="47">
+        <v>42957.932638888888</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="44">
+        <f>400+200</f>
+        <v>600</v>
+      </c>
+      <c r="E29" s="68">
         <v>3562</v>
       </c>
-      <c r="K25" s="60">
+      <c r="F29" s="68">
         <v>0.63</v>
       </c>
-      <c r="L25" s="60">
-        <v>2</v>
-      </c>
-      <c r="M25" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="N25" s="63">
-        <f t="shared" si="30"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O25" s="51">
-        <f t="shared" si="24"/>
-        <v>70</v>
-      </c>
-      <c r="P25" s="52">
-        <f t="shared" si="25"/>
-        <v>70</v>
-      </c>
-      <c r="Q25" s="53">
-        <f t="shared" si="31"/>
-        <v>1.47</v>
-      </c>
-      <c r="R25" s="53">
-        <f t="shared" si="26"/>
-        <v>82</v>
-      </c>
-      <c r="S25" s="53">
-        <f t="shared" si="32"/>
-        <v>17</v>
-      </c>
-      <c r="T25" s="53">
-        <f t="shared" si="27"/>
-        <v>2227</v>
-      </c>
-      <c r="U25" s="53">
-        <f t="shared" si="28"/>
+      <c r="G29" s="68">
+        <v>3726</v>
+      </c>
+      <c r="H29" s="68">
+        <v>0.61</v>
+      </c>
+      <c r="I29" s="68">
+        <v>4</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="K29" s="70">
+        <f t="shared" si="18"/>
+        <v>0.62</v>
+      </c>
+      <c r="L29" s="46">
+        <f>D29-208</f>
+        <v>392</v>
+      </c>
+      <c r="N29" s="47">
+        <v>42958.033333333333</v>
+      </c>
+      <c r="O29" s="48">
+        <f>M29-D29</f>
+        <v>-600</v>
+      </c>
+      <c r="P29" s="49">
+        <f>IF(L29&gt;D29,INT((L29-D29)*0.95),L29-D29)</f>
+        <v>-208</v>
+      </c>
+      <c r="Q29" s="50">
+        <f>ROUND((N29-A29)*24,2)</f>
+        <v>2.42</v>
+      </c>
+      <c r="R29" s="50">
+        <f>G29-E29</f>
+        <v>164</v>
+      </c>
+      <c r="S29" s="50">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="T29" s="50">
+        <f>INT(E29*F29)</f>
         <v>2244</v>
       </c>
-      <c r="V25" s="54">
-        <f t="shared" si="33"/>
-        <v>0.2073170731707317</v>
-      </c>
-      <c r="W25" s="55">
-        <f t="shared" si="9"/>
-        <v>42.68292682926829</v>
-      </c>
-      <c r="X25" s="55">
-        <f t="shared" si="10"/>
-        <v>23.80952380952381</v>
-      </c>
-      <c r="Y25" s="64">
-        <f t="shared" si="29"/>
-        <v>42954</v>
-      </c>
-      <c r="Z25" s="65" t="s">
-        <v>376</v>
+      <c r="U29" s="50">
+        <f>INT(G29*H29)</f>
+        <v>2272</v>
+      </c>
+      <c r="V29" s="51">
+        <f t="shared" ref="V27:V29" si="20">S29/R29</f>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="W29" s="52">
+        <f>P29/R29*100/I29</f>
+        <v>-31.707317073170731</v>
+      </c>
+      <c r="X29" s="52">
+        <f>P29/Q29/I29</f>
+        <v>-21.487603305785125</v>
+      </c>
+      <c r="Y29" s="53">
+        <f>DATE(YEAR(A29),MONTH(A29),DAY(A29))</f>
+        <v>42957</v>
+      </c>
+      <c r="Z29" s="54" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6280,7 +6705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6900,13 +7325,13 @@
   <cols>
     <col min="1" max="2" width="10.83203125" style="43"/>
     <col min="3" max="3" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="57"/>
+    <col min="4" max="4" width="10.83203125" style="54"/>
     <col min="5" max="7" width="10.83203125" style="43"/>
-    <col min="8" max="8" width="10.83203125" style="57"/>
+    <col min="8" max="8" width="10.83203125" style="54"/>
     <col min="9" max="10" width="10.83203125" style="43"/>
     <col min="11" max="11" width="25.6640625" style="43" customWidth="1"/>
     <col min="12" max="17" width="10.83203125" style="43"/>
-    <col min="18" max="18" width="10.83203125" style="57"/>
+    <col min="18" max="18" width="10.83203125" style="54"/>
     <col min="19" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
@@ -6920,7 +7345,7 @@
       <c r="C1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="43" t="s">
@@ -6932,7 +7357,7 @@
       <c r="G1" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>140</v>
       </c>
       <c r="I1" s="43" t="s">
@@ -6955,7 +7380,7 @@
       <c r="C2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="43" t="s">
@@ -6973,7 +7398,7 @@
       <c r="Q2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6981,7 +7406,7 @@
       <c r="C3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="43" t="s">
@@ -6990,7 +7415,7 @@
       <c r="F3" s="43">
         <v>173328</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="54" t="s">
         <v>232</v>
       </c>
       <c r="K3" s="43" t="s">
@@ -7002,7 +7427,7 @@
       <c r="Q3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="R3" s="54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7010,7 +7435,7 @@
       <c r="C4" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="54" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="43" t="s">
@@ -7019,7 +7444,7 @@
       <c r="F4" s="43">
         <v>195918</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="54" t="s">
         <v>232</v>
       </c>
       <c r="I4" s="43" t="s">
@@ -7031,7 +7456,7 @@
       <c r="Q4" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="54" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7039,7 +7464,7 @@
       <c r="C5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="54" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -7048,7 +7473,7 @@
       <c r="F5" s="43">
         <v>155864</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="54" t="s">
         <v>233</v>
       </c>
       <c r="I5" s="43" t="s">
@@ -7060,7 +7485,7 @@
       <c r="Q5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="54" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7071,7 +7496,7 @@
       <c r="C6" s="43">
         <v>13520654301</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="54" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="43" t="s">
@@ -7083,7 +7508,7 @@
       <c r="J6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="63" t="s">
         <v>143</v>
       </c>
       <c r="P6" s="43" t="s">
@@ -7092,7 +7517,7 @@
       <c r="Q6" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="54" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7100,7 +7525,7 @@
       <c r="C7" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="54" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="43" t="s">
@@ -7118,15 +7543,15 @@
       <c r="Q7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="R7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="54" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="43" t="s">
@@ -7147,7 +7572,7 @@
       <c r="Q8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="R8" s="54" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7155,10 +7580,10 @@
       <c r="B9" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="64">
         <v>159385</v>
       </c>
       <c r="G9" s="43" t="s">
@@ -7173,7 +7598,7 @@
       <c r="Q9" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="57" t="s">
+      <c r="R9" s="54" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7181,7 +7606,7 @@
       <c r="B10" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="54" t="s">
         <v>129</v>
       </c>
       <c r="E10" s="43" t="s">
@@ -7202,7 +7627,7 @@
       <c r="Q10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="54" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7213,7 +7638,7 @@
       <c r="C11" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="54" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="43" t="s">
@@ -7228,26 +7653,26 @@
       <c r="Q11" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="57" t="s">
+      <c r="R11" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="64">
         <v>180490</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="64">
         <v>172402</v>
       </c>
       <c r="G13" s="43" t="s">
@@ -7258,10 +7683,10 @@
       <c r="B14" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="64" t="s">
         <v>151</v>
       </c>
       <c r="J14" s="43" t="s">
@@ -7272,10 +7697,10 @@
       <c r="B15" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="64">
         <v>136118</v>
       </c>
       <c r="J15" s="43" t="s">
@@ -7283,10 +7708,10 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7294,10 +7719,10 @@
       <c r="B17" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="43" t="s">
@@ -7305,10 +7730,10 @@
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="64">
         <v>141928</v>
       </c>
     </row>
@@ -7319,7 +7744,7 @@
       <c r="C19" s="43">
         <v>15827044123</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="54" t="s">
         <v>158</v>
       </c>
       <c r="E19" s="43" t="s">
@@ -7328,7 +7753,7 @@
       <c r="F19" s="43">
         <v>141677</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7336,10 +7761,10 @@
       <c r="B20" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="54" t="s">
         <v>158</v>
       </c>
       <c r="E20" s="43" t="s">
@@ -7348,7 +7773,7 @@
       <c r="F20" s="43">
         <v>161152</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="54" t="s">
         <v>237</v>
       </c>
       <c r="P20" s="43" t="s">
@@ -7359,10 +7784,10 @@
       <c r="B21" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="54" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="43" t="s">
@@ -7371,7 +7796,7 @@
       <c r="F21" s="43">
         <v>117887</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7379,10 +7804,10 @@
       <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="54" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="43" t="s">
@@ -7393,7 +7818,7 @@
       <c r="B23" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="54" t="s">
         <v>199</v>
       </c>
       <c r="E23" s="43" t="s">
@@ -7404,10 +7829,10 @@
       <c r="B24" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="54" t="s">
         <v>200</v>
       </c>
       <c r="K24" s="43" t="s">
@@ -7418,10 +7843,10 @@
       <c r="B25" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="54" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7429,10 +7854,10 @@
       <c r="B26" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="65">
         <v>13611340307</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="54" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7443,7 +7868,7 @@
       <c r="C27" s="43">
         <v>2008103</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="54" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="43" t="s">
@@ -7460,7 +7885,7 @@
       <c r="C28" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="54" t="s">
         <v>182</v>
       </c>
       <c r="E28" s="43" t="s">
@@ -7477,7 +7902,7 @@
       <c r="C29" s="43">
         <v>179289</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="54" t="s">
         <v>185</v>
       </c>
       <c r="E29" s="43" t="s">
@@ -7494,7 +7919,7 @@
       <c r="C30" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="54" t="s">
         <v>155</v>
       </c>
       <c r="E30" s="43" t="s">
@@ -7514,7 +7939,7 @@
       <c r="C31" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="54" t="s">
         <v>194</v>
       </c>
       <c r="E31" s="43" t="s">
@@ -7545,7 +7970,7 @@
       <c r="C33" s="43">
         <v>13527358427</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="54" t="s">
         <v>129</v>
       </c>
       <c r="E33" s="43" t="s">
@@ -7559,7 +7984,7 @@
       <c r="C34" s="43">
         <v>13088222796</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="54" t="s">
         <v>202</v>
       </c>
       <c r="F34" s="43">
@@ -7570,7 +7995,7 @@
       <c r="C35" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="54" t="s">
         <v>205</v>
       </c>
       <c r="E35" s="43" t="s">
@@ -7584,7 +8009,7 @@
       <c r="C36" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="54" t="s">
         <v>205</v>
       </c>
       <c r="E36" s="43" t="s">
@@ -7598,7 +8023,7 @@
       <c r="C37" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="54" t="s">
         <v>210</v>
       </c>
       <c r="E37" s="43" t="s">
@@ -7612,7 +8037,7 @@
       <c r="C38" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="54" t="s">
         <v>205</v>
       </c>
       <c r="E38" s="43" t="s">
@@ -7626,7 +8051,7 @@
       <c r="C39" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="54" t="s">
         <v>230</v>
       </c>
       <c r="E39" s="43" t="s">
@@ -7635,7 +8060,7 @@
       <c r="F39" s="43">
         <v>167457</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="54" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7643,13 +8068,13 @@
       <c r="C40" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>236</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="54" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7657,7 +8082,7 @@
       <c r="C41" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="54" t="s">
         <v>241</v>
       </c>
       <c r="E41" s="43" t="s">
@@ -7669,7 +8094,7 @@
       <c r="G41" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7677,7 +8102,7 @@
       <c r="C42" s="43">
         <v>95532199</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="54" t="s">
         <v>244</v>
       </c>
       <c r="E42" s="43" t="s">
@@ -7686,7 +8111,7 @@
       <c r="F42" s="43">
         <v>138178</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7694,7 +8119,7 @@
       <c r="C43" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="54" t="s">
         <v>241</v>
       </c>
       <c r="E43" s="43" t="s">
@@ -7703,7 +8128,7 @@
       <c r="G43" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7711,7 +8136,7 @@
       <c r="C44" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="54" t="s">
         <v>241</v>
       </c>
       <c r="E44" s="43" t="s">
@@ -7720,7 +8145,7 @@
       <c r="G44" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="57" t="s">
+      <c r="H44" s="54" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7728,7 +8153,7 @@
       <c r="C45" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="54" t="s">
         <v>236</v>
       </c>
       <c r="E45" s="43" t="s">
@@ -7740,7 +8165,7 @@
       <c r="G45" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7751,7 +8176,7 @@
       <c r="C46" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="54" t="s">
         <v>380</v>
       </c>
       <c r="E46" s="43" t="s">
@@ -7768,13 +8193,13 @@
       <c r="C47" s="43">
         <v>13611340307</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="54" t="s">
         <v>380</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="H47" s="57" t="s">
+      <c r="H47" s="54" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7782,7 +8207,7 @@
       <c r="C48" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="54" t="s">
         <v>244</v>
       </c>
       <c r="H48" s="43" t="s">
@@ -7793,13 +8218,13 @@
       <c r="C49" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="54" t="s">
         <v>260</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="54" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7807,7 +8232,7 @@
       <c r="C50" s="43">
         <v>133311993</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="54" t="s">
         <v>261</v>
       </c>
       <c r="F50" s="43">
@@ -7818,7 +8243,7 @@
       <c r="C51" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E51" s="43" t="s">
@@ -7832,7 +8257,7 @@
       <c r="C52" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="54" t="s">
         <v>266</v>
       </c>
       <c r="E52" s="43" t="s">
@@ -7852,7 +8277,7 @@
       <c r="C53" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="54" t="s">
         <v>266</v>
       </c>
       <c r="E53" s="43" t="s">
@@ -7866,7 +8291,7 @@
       <c r="C54" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E54" s="43" t="s">
@@ -7888,7 +8313,7 @@
       <c r="C56" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="54" t="s">
         <v>275</v>
       </c>
       <c r="E56" s="43" t="s">
@@ -7910,7 +8335,7 @@
       <c r="C58" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="54" t="s">
         <v>278</v>
       </c>
       <c r="E58" s="43" t="s">
@@ -7924,7 +8349,7 @@
       <c r="C59" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="54" t="s">
         <v>282</v>
       </c>
       <c r="F59" s="43">
@@ -7938,7 +8363,7 @@
       <c r="C60" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="54" t="s">
         <v>285</v>
       </c>
       <c r="E60" s="43" t="s">
@@ -7955,7 +8380,7 @@
       <c r="C61" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="54" t="s">
         <v>288</v>
       </c>
       <c r="E61" s="43" t="s">
@@ -7980,7 +8405,7 @@
       <c r="C63" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E63" s="43" t="s">
@@ -7992,7 +8417,7 @@
       <c r="G63" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="54" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8003,7 +8428,7 @@
       <c r="C64" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="54" t="s">
         <v>282</v>
       </c>
       <c r="E64" s="43" t="s">
@@ -8020,7 +8445,7 @@
       <c r="C65" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="54" t="s">
         <v>380</v>
       </c>
       <c r="E65" s="43" t="s">
@@ -8032,7 +8457,7 @@
       <c r="G65" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="54" t="s">
         <v>360</v>
       </c>
       <c r="I65" s="43" t="s">
@@ -8074,7 +8499,7 @@
       <c r="C68" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="54" t="s">
         <v>384</v>
       </c>
       <c r="E68" s="43" t="s">
@@ -8083,7 +8508,7 @@
       <c r="F68" s="43">
         <v>170212</v>
       </c>
-      <c r="H68" s="57" t="s">
+      <c r="H68" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8113,7 +8538,7 @@
       <c r="C71" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="54" t="s">
         <v>309</v>
       </c>
       <c r="F71" s="43">
@@ -8130,7 +8555,7 @@
       <c r="C72" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="54" t="s">
         <v>386</v>
       </c>
       <c r="E72" s="43" t="s">
@@ -8139,7 +8564,7 @@
       <c r="F72" s="43">
         <v>4733111</v>
       </c>
-      <c r="H72" s="57" t="s">
+      <c r="H72" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8147,7 +8572,7 @@
       <c r="B73" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="54" t="s">
         <v>386</v>
       </c>
       <c r="F73" s="43">
@@ -8161,7 +8586,7 @@
       <c r="C74" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="54" t="s">
         <v>387</v>
       </c>
       <c r="E74" s="43" t="s">
@@ -8178,7 +8603,7 @@
       <c r="C75" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="D75" s="54" t="s">
         <v>388</v>
       </c>
       <c r="E75" s="43" t="s">
@@ -8190,7 +8615,7 @@
       <c r="G75" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="H75" s="57" t="s">
+      <c r="H75" s="54" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8226,7 +8651,7 @@
       <c r="C78" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="54" t="s">
         <v>327</v>
       </c>
       <c r="E78" s="43" t="s">
@@ -8243,7 +8668,7 @@
       <c r="C79" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E79" s="43" t="s">
@@ -8257,16 +8682,16 @@
       <c r="B80" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="54" t="s">
         <v>391</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="H80" s="57" t="s">
+      <c r="H80" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8277,7 +8702,7 @@
       <c r="C81" s="43">
         <v>133311993</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="54" t="s">
         <v>386</v>
       </c>
       <c r="E81" s="43" t="s">
@@ -8286,7 +8711,7 @@
       <c r="F81" s="43">
         <v>124152</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H81" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8297,7 +8722,7 @@
       <c r="C82" s="43">
         <v>13464341111</v>
       </c>
-      <c r="D82" s="57" t="s">
+      <c r="D82" s="54" t="s">
         <v>338</v>
       </c>
       <c r="E82" s="43" t="s">
@@ -8306,7 +8731,7 @@
       <c r="F82" s="43">
         <v>100727</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H82" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8317,7 +8742,7 @@
       <c r="C83" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="D83" s="57" t="s">
+      <c r="D83" s="54" t="s">
         <v>341</v>
       </c>
       <c r="E83" s="43" t="s">
@@ -8334,10 +8759,10 @@
       <c r="C84" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="57" t="s">
+      <c r="D84" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="H84" s="57" t="s">
+      <c r="H84" s="54" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8348,7 +8773,7 @@
       <c r="C85" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="54" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8375,7 +8800,7 @@
       <c r="C88" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D88" s="57" t="s">
+      <c r="D88" s="54" t="s">
         <v>350</v>
       </c>
       <c r="E88" s="43" t="s">
@@ -8392,7 +8817,7 @@
       <c r="C89" s="43">
         <v>13297936362</v>
       </c>
-      <c r="D89" s="57" t="s">
+      <c r="D89" s="54" t="s">
         <v>355</v>
       </c>
       <c r="E89" s="43" t="s">

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="220" windowWidth="25600" windowHeight="16000" tabRatio="755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="410">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1534,6 +1534,38 @@
   </si>
   <si>
     <t>虾米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全聚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1727,7 +1765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="371">
+  <cellStyleXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2099,8 +2137,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2163,7 +2225,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="181" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2177,9 +2238,9 @@
     <xf numFmtId="176" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="371">
+  <cellStyles count="395">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2365,6 +2426,18 @@
     <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2550,6 +2623,18 @@
     <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -3966,13 +4051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3981,15 +4066,15 @@
     <col min="2" max="2" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="5" style="68" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" style="68" customWidth="1"/>
-    <col min="8" max="8" width="5" style="68" customWidth="1"/>
-    <col min="9" max="9" width="2" style="68" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="69" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="70" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="46" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="67" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="5" style="67" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="2" style="67" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="68" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="69" customWidth="1"/>
     <col min="15" max="15" width="5.83203125" style="48" customWidth="1"/>
     <col min="16" max="16" width="4.83203125" style="49" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="50" bestFit="1" customWidth="1"/>
@@ -4017,35 +4102,35 @@
       <c r="D1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="69" t="s">
         <v>227</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="48" t="s">
         <v>38</v>
@@ -4116,65 +4201,65 @@
       <c r="J2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="58">
+        <f>D2-174</f>
+        <v>326</v>
+      </c>
+      <c r="L2" s="55">
+        <v>42925.809027777781</v>
+      </c>
+      <c r="M2" s="66">
+        <v>326</v>
+      </c>
+      <c r="N2" s="69">
         <f>MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
         <v>1.4433333333333334</v>
-      </c>
-      <c r="L2" s="58">
-        <f>D2-174</f>
-        <v>326</v>
-      </c>
-      <c r="M2" s="58">
-        <v>326</v>
-      </c>
-      <c r="N2" s="55">
-        <v>42925.809027777781</v>
       </c>
       <c r="O2" s="48">
         <f>M2-D2</f>
         <v>-174</v>
       </c>
       <c r="P2" s="49">
-        <f>IF(L2&gt;D2,INT((L2-D2)*0.95),L2-D2)</f>
+        <f t="shared" ref="P2:P33" si="0">IF(K2&gt;D2,INT((K2-D2)*0.95),K2-D2)</f>
         <v>-174</v>
       </c>
       <c r="Q2" s="50">
-        <f>ROUND((N2-A2)*24,2)</f>
+        <f t="shared" ref="Q2:Q33" si="1">ROUND((L2-A2)*24,2)</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="R2" s="50">
-        <f>G2-E2</f>
+        <f t="shared" ref="R2:R33" si="2">G2-E2</f>
         <v>249</v>
       </c>
       <c r="S2" s="50">
-        <f t="shared" ref="S2:S9" si="0">U2-T2</f>
+        <f t="shared" ref="S2:S9" si="3">U2-T2</f>
         <v>51</v>
       </c>
       <c r="T2" s="50">
-        <f>INT(E2*F2)</f>
+        <f t="shared" ref="T2:T33" si="4">INT(E2*F2)</f>
         <v>1177</v>
       </c>
       <c r="U2" s="50">
-        <f>INT(G2*H2)</f>
+        <f t="shared" ref="U2:U33" si="5">INT(G2*H2)</f>
         <v>1228</v>
       </c>
       <c r="V2" s="51">
-        <f t="shared" ref="V2:V9" si="1">S2/R2</f>
+        <f t="shared" ref="V2:V9" si="6">S2/R2</f>
         <v>0.20481927710843373</v>
       </c>
       <c r="W2" s="52">
-        <f>P2/R2*100/I2</f>
+        <f t="shared" ref="W2:W33" si="7">P2/R2*100/I2</f>
         <v>-34.939759036144579</v>
       </c>
       <c r="X2" s="52">
-        <f>P2/Q2/I2</f>
+        <f t="shared" ref="X2:X33" si="8">P2/Q2/I2</f>
         <v>-20.374707259953162</v>
       </c>
-      <c r="Y2" s="61">
-        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+      <c r="Y2" s="60">
+        <f t="shared" ref="Y2:Y33" si="9">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>42925</v>
       </c>
-      <c r="Z2" s="62" t="s">
+      <c r="Z2" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4209,64 +4294,64 @@
       <c r="J3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="60">
-        <f t="shared" ref="K3:K4" si="2">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
+      <c r="K3" s="58">
+        <v>524</v>
+      </c>
+      <c r="L3" s="55">
+        <v>42925.740972222222</v>
+      </c>
+      <c r="M3" s="66">
+        <v>508</v>
+      </c>
+      <c r="N3" s="69">
+        <f t="shared" ref="N3:N4" si="10">MAX($Q$2:$Q$4)/SUBTOTAL(102,$Q$2:$Q$4)</f>
         <v>1.4433333333333334</v>
-      </c>
-      <c r="L3" s="58">
-        <v>524</v>
-      </c>
-      <c r="M3" s="58">
-        <v>508</v>
-      </c>
-      <c r="N3" s="55">
-        <v>42925.740972222222</v>
       </c>
       <c r="O3" s="48">
         <f>M3-D3</f>
         <v>308</v>
       </c>
       <c r="P3" s="49">
-        <f>IF(L3&gt;D3,INT((L3-D3)*0.95),L3-D3)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="Q3" s="50">
-        <f>ROUND((N3-A3)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
       <c r="R3" s="50">
-        <f>G3-E3</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="S3" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="T3" s="50">
-        <f>INT(E3*F3)</f>
+        <f t="shared" si="4"/>
         <v>1349</v>
       </c>
       <c r="U3" s="50">
-        <f>INT(G3*H3)</f>
+        <f t="shared" si="5"/>
         <v>1379</v>
       </c>
       <c r="V3" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.18072289156626506</v>
       </c>
       <c r="W3" s="52">
-        <f>P3/R3*100/I3</f>
+        <f t="shared" si="7"/>
         <v>92.46987951807229</v>
       </c>
       <c r="X3" s="52">
-        <f>P3/Q3/I3</f>
+        <f t="shared" si="8"/>
         <v>58.365019011406844</v>
       </c>
-      <c r="Y3" s="61">
-        <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
+      <c r="Y3" s="60">
+        <f t="shared" si="9"/>
         <v>42925</v>
       </c>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="61" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4301,64 +4386,64 @@
       <c r="J4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="60">
-        <f t="shared" si="2"/>
+      <c r="K4" s="58">
+        <v>367</v>
+      </c>
+      <c r="L4" s="55">
+        <v>42925.811805555553</v>
+      </c>
+      <c r="M4" s="66">
+        <v>367</v>
+      </c>
+      <c r="N4" s="69">
+        <f t="shared" si="10"/>
         <v>1.4433333333333334</v>
-      </c>
-      <c r="L4" s="58">
-        <v>367</v>
-      </c>
-      <c r="M4" s="58">
-        <v>367</v>
-      </c>
-      <c r="N4" s="55">
-        <v>42925.811805555553</v>
       </c>
       <c r="O4" s="48">
         <f>M4-D4</f>
         <v>67</v>
       </c>
       <c r="P4" s="49">
-        <f>IF(L4&gt;D4,INT((L4-D4)*0.95),L4-D4)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="Q4" s="50">
-        <f>ROUND((N4-A4)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>4.33</v>
       </c>
       <c r="R4" s="50">
-        <f>G4-E4</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="S4" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="T4" s="50">
-        <f>INT(E4*F4)</f>
+        <f t="shared" si="4"/>
         <v>1071</v>
       </c>
       <c r="U4" s="50">
-        <f>INT(G4*H4)</f>
+        <f t="shared" si="5"/>
         <v>1121</v>
       </c>
       <c r="V4" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.20491803278688525</v>
       </c>
       <c r="W4" s="52">
-        <f>P4/R4*100/I4</f>
+        <f t="shared" si="7"/>
         <v>12.909836065573771</v>
       </c>
       <c r="X4" s="52">
-        <f>P4/Q4/I4</f>
+        <f t="shared" si="8"/>
         <v>7.274826789838337</v>
       </c>
-      <c r="Y4" s="61">
-        <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
+      <c r="Y4" s="60">
+        <f t="shared" si="9"/>
         <v>42925</v>
       </c>
-      <c r="Z4" s="62" t="s">
+      <c r="Z4" s="61" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4376,80 +4461,80 @@
         <f>200+100</f>
         <v>300</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="67">
         <v>2186</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="67">
         <v>0.66</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <v>2320</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="67">
         <v>0.63</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>2</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="46">
+        <f>D5+108</f>
+        <v>408</v>
+      </c>
+      <c r="L5" s="47">
+        <v>42935.022222222222</v>
+      </c>
+      <c r="M5" s="66">
+        <v>403</v>
+      </c>
+      <c r="N5" s="69">
         <f>MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
         <v>0.79400000000000004</v>
-      </c>
-      <c r="L5" s="46">
-        <f>D5+108</f>
-        <v>408</v>
-      </c>
-      <c r="M5" s="67">
-        <v>403</v>
-      </c>
-      <c r="N5" s="47">
-        <v>42935.022222222222</v>
       </c>
       <c r="O5" s="48">
         <f>MAX($Q$5:$Q$9)/5</f>
         <v>0.79400000000000004</v>
       </c>
       <c r="P5" s="49">
-        <f>IF(L5&gt;D5,INT((L5-D5)*0.95),L5-D5)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="Q5" s="50">
-        <f>ROUND((N5-A5)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="R5" s="50">
-        <f>G5-E5</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="S5" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T5" s="50">
-        <f>INT(E5*F5)</f>
+        <f t="shared" si="4"/>
         <v>1442</v>
       </c>
       <c r="U5" s="50">
-        <f>INT(G5*H5)</f>
+        <f t="shared" si="5"/>
         <v>1461</v>
       </c>
       <c r="V5" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.1417910447761194</v>
       </c>
       <c r="W5" s="52">
-        <f>P5/R5*100/I5</f>
+        <f t="shared" si="7"/>
         <v>38.059701492537314</v>
       </c>
       <c r="X5" s="52">
-        <f>P5/Q5/I5</f>
+        <f t="shared" si="8"/>
         <v>14.571428571428571</v>
       </c>
       <c r="Y5" s="53">
-        <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z5" s="54" t="s">
@@ -4469,80 +4554,80 @@
       <c r="D6" s="44">
         <v>200</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="67">
         <v>2584</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>0.62</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <v>2816</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="67">
         <v>2</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="70">
-        <f t="shared" ref="K6:K9" si="3">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="L6" s="46">
+      <c r="K6" s="46">
         <f>D6+7</f>
         <v>207</v>
       </c>
-      <c r="M6" s="67">
+      <c r="L6" s="47">
+        <v>42935.041666666664</v>
+      </c>
+      <c r="M6" s="66">
         <v>207</v>
       </c>
-      <c r="N6" s="47">
-        <v>42935.041666666664</v>
+      <c r="N6" s="69">
+        <f t="shared" ref="N6:N9" si="11">MAX($Q$5:$Q$9)/SUBTOTAL(102,$Q$5:$Q$9)</f>
+        <v>0.79400000000000004</v>
       </c>
       <c r="O6" s="48">
         <f>MAX($Q$5:$Q$9)/5</f>
         <v>0.79400000000000004</v>
       </c>
       <c r="P6" s="49">
-        <f>IF(L6&gt;D6,INT((L6-D6)*0.95),L6-D6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q6" s="50">
-        <f>ROUND((N6-A6)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>3.97</v>
       </c>
       <c r="R6" s="50">
-        <f>G6-E6</f>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="S6" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="T6" s="50">
-        <f>INT(E6*F6)</f>
+        <f t="shared" si="4"/>
         <v>1602</v>
       </c>
       <c r="U6" s="50">
-        <f>INT(G6*H6)</f>
+        <f t="shared" si="5"/>
         <v>1633</v>
       </c>
       <c r="V6" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.1336206896551724</v>
       </c>
       <c r="W6" s="52">
-        <f>P6/R6*100/I6</f>
+        <f t="shared" si="7"/>
         <v>1.2931034482758621</v>
       </c>
       <c r="X6" s="52">
-        <f>P6/Q6/I6</f>
+        <f t="shared" si="8"/>
         <v>0.75566750629722923</v>
       </c>
       <c r="Y6" s="53">
-        <f>DATE(YEAR(A6),MONTH(A6),DAY(A6))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z6" s="54" t="s">
@@ -4563,80 +4648,80 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="67">
         <v>1753</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="67">
         <v>0.64</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <v>1855</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <v>0.61</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <v>4</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="70">
-        <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="L7" s="46">
+      <c r="K7" s="46">
         <f>D7+618</f>
         <v>1018</v>
       </c>
-      <c r="M7" s="67">
+      <c r="L7" s="47">
+        <v>42934.955555555556</v>
+      </c>
+      <c r="M7" s="66">
         <v>988</v>
       </c>
-      <c r="N7" s="47">
-        <v>42934.955555555556</v>
+      <c r="N7" s="69">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
       </c>
       <c r="O7" s="48">
-        <f>M7-D7</f>
+        <f t="shared" ref="O7:O33" si="12">M7-D7</f>
         <v>588</v>
       </c>
       <c r="P7" s="49">
-        <f>IF(L7&gt;D7,INT((L7-D7)*0.95),L7-D7)</f>
+        <f t="shared" si="0"/>
         <v>587</v>
       </c>
       <c r="Q7" s="50">
-        <f>ROUND((N7-A7)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="R7" s="50">
-        <f>G7-E7</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="S7" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T7" s="50">
-        <f>INT(E7*F7)</f>
+        <f t="shared" si="4"/>
         <v>1121</v>
       </c>
       <c r="U7" s="50">
-        <f>INT(G7*H7)</f>
+        <f t="shared" si="5"/>
         <v>1131</v>
       </c>
       <c r="V7" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.8039215686274508E-2</v>
       </c>
       <c r="W7" s="52">
-        <f>P7/R7*100/I7</f>
+        <f t="shared" si="7"/>
         <v>143.87254901960785</v>
       </c>
       <c r="X7" s="52">
-        <f>P7/Q7/I7</f>
+        <f t="shared" si="8"/>
         <v>77.236842105263165</v>
       </c>
       <c r="Y7" s="53">
-        <f>DATE(YEAR(A7),MONTH(A7),DAY(A7))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z7" s="54" t="s">
@@ -4656,80 +4741,80 @@
       <c r="D8" s="44">
         <v>200</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>1674</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>0.63</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <v>1830</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <v>0.6</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <v>2</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="70">
-        <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="L8" s="46">
+      <c r="K8" s="46">
         <f>D8+32</f>
         <v>232</v>
       </c>
-      <c r="M8" s="67">
+      <c r="L8" s="47">
+        <v>42934.986805555556</v>
+      </c>
+      <c r="M8" s="66">
         <v>232</v>
       </c>
-      <c r="N8" s="47">
-        <v>42934.986805555556</v>
+      <c r="N8" s="69">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
       </c>
       <c r="O8" s="48">
-        <f>M8-D8</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="P8" s="49">
-        <f>IF(L8&gt;D8,INT((L8-D8)*0.95),L8-D8)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="Q8" s="50">
-        <f>ROUND((N8-A8)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
       <c r="R8" s="50">
-        <f>G8-E8</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="S8" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="T8" s="50">
-        <f>INT(E8*F8)</f>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="U8" s="50">
-        <f>INT(G8*H8)</f>
+        <f t="shared" si="5"/>
         <v>1098</v>
       </c>
       <c r="V8" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.28205128205128205</v>
       </c>
       <c r="W8" s="52">
-        <f>P8/R8*100/I8</f>
+        <f t="shared" si="7"/>
         <v>9.6153846153846168</v>
       </c>
       <c r="X8" s="52">
-        <f>P8/Q8/I8</f>
+        <f t="shared" si="8"/>
         <v>5.6603773584905666</v>
       </c>
       <c r="Y8" s="53">
-        <f>DATE(YEAR(A8),MONTH(A8),DAY(A8))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z8" s="54" t="s">
@@ -4749,80 +4834,80 @@
       <c r="D9" s="44">
         <v>200</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="67">
         <v>1855</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="67">
         <v>0.61</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <v>1967</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="67">
         <v>0.59</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <v>2</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="70">
-        <f t="shared" si="3"/>
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="L9" s="46">
+      <c r="K9" s="46">
         <f>D9+177</f>
         <v>377</v>
       </c>
-      <c r="M9" s="67">
+      <c r="L9" s="47">
+        <v>42935.03402777778</v>
+      </c>
+      <c r="M9" s="66">
         <v>369</v>
       </c>
-      <c r="N9" s="47">
-        <v>42935.03402777778</v>
+      <c r="N9" s="69">
+        <f t="shared" si="11"/>
+        <v>0.79400000000000004</v>
       </c>
       <c r="O9" s="48">
-        <f>M9-D9</f>
+        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="P9" s="49">
-        <f>IF(L9&gt;D9,INT((L9-D9)*0.95),L9-D9)</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="Q9" s="50">
-        <f>ROUND((N9-A9)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.88</v>
       </c>
       <c r="R9" s="50">
-        <f>G9-E9</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="S9" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="T9" s="50">
-        <f>INT(E9*F9)</f>
+        <f t="shared" si="4"/>
         <v>1131</v>
       </c>
       <c r="U9" s="50">
-        <f>INT(G9*H9)</f>
+        <f t="shared" si="5"/>
         <v>1160</v>
       </c>
       <c r="V9" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.25892857142857145</v>
       </c>
       <c r="W9" s="52">
-        <f>P9/R9*100/I9</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="X9" s="52">
-        <f>P9/Q9/I9</f>
+        <f t="shared" si="8"/>
         <v>44.680851063829792</v>
       </c>
       <c r="Y9" s="53">
-        <f>DATE(YEAR(A9),MONTH(A9),DAY(A9))</f>
+        <f t="shared" si="9"/>
         <v>42934</v>
       </c>
       <c r="Z9" s="54" t="s">
@@ -4861,65 +4946,65 @@
       <c r="J10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="58">
+        <f>D10+150</f>
+        <v>350</v>
+      </c>
+      <c r="L10" s="55">
+        <v>42936.959722222222</v>
+      </c>
+      <c r="M10" s="66">
+        <v>342</v>
+      </c>
+      <c r="N10" s="69">
         <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
         <v>1.3149999999999999</v>
       </c>
-      <c r="L10" s="58">
-        <f>D10+150</f>
-        <v>350</v>
-      </c>
-      <c r="M10" s="58">
-        <v>342</v>
-      </c>
-      <c r="N10" s="55">
-        <v>42936.959722222222</v>
-      </c>
       <c r="O10" s="48">
-        <f>M10-D10</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="P10" s="49">
-        <f>IF(L10&gt;D10,INT((L10-D10)*0.95),L10-D10)</f>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="Q10" s="50">
-        <f>ROUND((N10-A10)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="R10" s="50">
-        <f>G10-E10</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="S10" s="50">
-        <f t="shared" ref="S10:S14" si="4">U10-T10</f>
+        <f t="shared" ref="S10:S14" si="13">U10-T10</f>
         <v>16</v>
       </c>
       <c r="T10" s="50">
-        <f>INT(E10*F10)</f>
+        <f t="shared" si="4"/>
         <v>1461</v>
       </c>
       <c r="U10" s="50">
-        <f>INT(G10*H10)</f>
+        <f t="shared" si="5"/>
         <v>1477</v>
       </c>
       <c r="V10" s="51">
-        <f t="shared" ref="V10" si="5">S10/R10</f>
+        <f t="shared" ref="V10" si="14">S10/R10</f>
         <v>0.15686274509803921</v>
       </c>
       <c r="W10" s="52">
-        <f>P10/R10*100/I10</f>
+        <f t="shared" si="7"/>
         <v>69.607843137254903</v>
       </c>
       <c r="X10" s="52">
-        <f>P10/Q10/I10</f>
+        <f t="shared" si="8"/>
         <v>28.4</v>
       </c>
-      <c r="Y10" s="61">
-        <f>DATE(YEAR(A10),MONTH(A10),DAY(A10))</f>
+      <c r="Y10" s="60">
+        <f t="shared" si="9"/>
         <v>42936</v>
       </c>
-      <c r="Z10" s="62" t="s">
+      <c r="Z10" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4955,46 +5040,46 @@
       <c r="J11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="58">
+        <f>D11-132</f>
+        <v>268</v>
+      </c>
+      <c r="L11" s="55">
+        <v>42936.965277777781</v>
+      </c>
+      <c r="M11" s="66">
+        <v>268</v>
+      </c>
+      <c r="N11" s="69">
         <f>MAX($Q$10:$Q$11)/SUBTOTAL(102,$Q$10:$Q$11)</f>
         <v>1.3149999999999999</v>
       </c>
-      <c r="L11" s="58">
-        <f>D11-132</f>
-        <v>268</v>
-      </c>
-      <c r="M11" s="58">
-        <v>268</v>
-      </c>
-      <c r="N11" s="55">
-        <v>42936.965277777781</v>
-      </c>
       <c r="O11" s="48">
-        <f>M11-D11</f>
+        <f t="shared" si="12"/>
         <v>-132</v>
       </c>
       <c r="P11" s="49">
-        <f>IF(L11&gt;D11,INT((L11-D11)*0.95),L11-D11)</f>
+        <f t="shared" si="0"/>
         <v>-132</v>
       </c>
       <c r="Q11" s="50">
-        <f>ROUND((N11-A11)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
       <c r="R11" s="50">
-        <f>G11-E11</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="S11" s="50">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="T11" s="50">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="T11" s="50">
-        <f>INT(E11*F11)</f>
         <v>1160</v>
       </c>
       <c r="U11" s="50">
-        <f>INT(G11*H11)</f>
+        <f t="shared" si="5"/>
         <v>1206</v>
       </c>
       <c r="V11" s="51">
@@ -5002,18 +5087,18 @@
         <v>0.30666666666666664</v>
       </c>
       <c r="W11" s="52">
-        <f>P11/R11*100/I11</f>
+        <f t="shared" si="7"/>
         <v>-44</v>
       </c>
       <c r="X11" s="52">
-        <f>P11/Q11/I11</f>
+        <f t="shared" si="8"/>
         <v>-25.095057034220535</v>
       </c>
-      <c r="Y11" s="61">
-        <f>DATE(YEAR(A11),MONTH(A11),DAY(A11))</f>
+      <c r="Y11" s="60">
+        <f t="shared" si="9"/>
         <v>42936</v>
       </c>
-      <c r="Z11" s="62" t="s">
+      <c r="Z11" s="61" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5031,79 +5116,79 @@
         <f>200</f>
         <v>200</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>2816</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <v>2997</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="67">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="67">
         <v>2</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="46">
+        <v>189</v>
+      </c>
+      <c r="L12" s="47">
+        <v>42939.000011574077</v>
+      </c>
+      <c r="M12" s="66">
+        <v>189</v>
+      </c>
+      <c r="N12" s="69">
         <f>MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
         <v>0.74250000000000005</v>
       </c>
-      <c r="L12" s="46">
-        <v>189</v>
-      </c>
-      <c r="M12" s="67">
-        <v>189</v>
-      </c>
-      <c r="N12" s="47">
-        <v>42939.000011574077</v>
-      </c>
       <c r="O12" s="48">
-        <f>M12-D12</f>
+        <f t="shared" si="12"/>
         <v>-11</v>
       </c>
       <c r="P12" s="49">
-        <f>IF(L12&gt;D12,INT((L12-D12)*0.95),L12-D12)</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="Q12" s="50">
-        <f>ROUND((N12-A12)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
       <c r="R12" s="50">
-        <f>G12-E12</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="S12" s="50">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="T12" s="50">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="T12" s="50">
-        <f>INT(E12*F12)</f>
         <v>1633</v>
       </c>
       <c r="U12" s="50">
-        <f>INT(G12*H12)</f>
+        <f t="shared" si="5"/>
         <v>1648</v>
       </c>
       <c r="V12" s="51">
-        <f t="shared" ref="V12:V15" si="6">S12/R12</f>
+        <f t="shared" ref="V12:V15" si="15">S12/R12</f>
         <v>8.2872928176795577E-2</v>
       </c>
       <c r="W12" s="52">
-        <f>P12/R12*100/I12</f>
+        <f t="shared" si="7"/>
         <v>-3.0386740331491713</v>
       </c>
       <c r="X12" s="52">
-        <f>P12/Q12/I12</f>
+        <f t="shared" si="8"/>
         <v>-1.8835616438356164</v>
       </c>
       <c r="Y12" s="53">
-        <f>DATE(YEAR(A12),MONTH(A12),DAY(A12))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z12" s="54" t="s">
@@ -5124,80 +5209,80 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>1830</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <v>0.6</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <v>1994</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="67">
         <v>4</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="70">
-        <f t="shared" ref="K13:K15" si="7">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="L13" s="46">
+      <c r="K13" s="46">
         <f>D13+274</f>
         <v>674</v>
       </c>
-      <c r="M13" s="67">
+      <c r="L13" s="47">
+        <v>42938.982638888891</v>
+      </c>
+      <c r="M13" s="66">
         <v>665</v>
       </c>
-      <c r="N13" s="47">
-        <v>42938.982638888891</v>
+      <c r="N13" s="69">
+        <f t="shared" ref="N13:N15" si="16">MAX($Q$12:$Q$15)/SUBTOTAL(102,$Q$12:$Q$15)</f>
+        <v>0.74250000000000005</v>
       </c>
       <c r="O13" s="48">
-        <f>M13-D13</f>
+        <f t="shared" si="12"/>
         <v>265</v>
       </c>
       <c r="P13" s="49">
-        <f>IF(L13&gt;D13,INT((L13-D13)*0.95),L13-D13)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="Q13" s="50">
-        <f>ROUND((N13-A13)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="R13" s="50">
-        <f>G13-E13</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="S13" s="50">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="T13" s="50">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="T13" s="50">
-        <f>INT(E13*F13)</f>
         <v>1098</v>
       </c>
       <c r="U13" s="50">
-        <f>INT(G13*H13)</f>
+        <f t="shared" si="5"/>
         <v>1116</v>
       </c>
       <c r="V13" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.10975609756097561</v>
       </c>
       <c r="W13" s="52">
-        <f>P13/R13*100/I13</f>
+        <f t="shared" si="7"/>
         <v>39.634146341463413</v>
       </c>
       <c r="X13" s="52">
-        <f>P13/Q13/I13</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="Y13" s="53">
-        <f>DATE(YEAR(A13),MONTH(A13),DAY(A13))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z13" s="54" t="s">
@@ -5218,80 +5303,80 @@
         <f>400+400+1000</f>
         <v>1800</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>2117</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <v>2265</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="67">
         <v>4</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="70">
-        <f t="shared" si="7"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="L14" s="46">
+      <c r="K14" s="46">
         <f>D14-828</f>
         <v>972</v>
       </c>
-      <c r="M14" s="67">
+      <c r="L14" s="47">
+        <v>42938.988888888889</v>
+      </c>
+      <c r="M14" s="66">
         <v>972</v>
       </c>
-      <c r="N14" s="47">
-        <v>42938.988888888889</v>
+      <c r="N14" s="69">
+        <f t="shared" si="16"/>
+        <v>0.74250000000000005</v>
       </c>
       <c r="O14" s="48">
-        <f>M14-D14</f>
+        <f t="shared" si="12"/>
         <v>-828</v>
       </c>
       <c r="P14" s="49">
-        <f>IF(L14&gt;D14,INT((L14-D14)*0.95),L14-D14)</f>
+        <f t="shared" si="0"/>
         <v>-828</v>
       </c>
       <c r="Q14" s="50">
-        <f>ROUND((N14-A14)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="R14" s="50">
-        <f>G14-E14</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="S14" s="50">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="T14" s="50">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="T14" s="50">
-        <f>INT(E14*F14)</f>
         <v>1206</v>
       </c>
       <c r="U14" s="50">
-        <f>INT(G14*H14)</f>
+        <f t="shared" si="5"/>
         <v>1245</v>
       </c>
       <c r="V14" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.26351351351351349</v>
       </c>
       <c r="W14" s="52">
-        <f>P14/R14*100/I14</f>
+        <f t="shared" si="7"/>
         <v>-139.86486486486487</v>
       </c>
       <c r="X14" s="52">
-        <f>P14/Q14/I14</f>
+        <f t="shared" si="8"/>
         <v>-82.142857142857139</v>
       </c>
       <c r="Y14" s="53">
-        <f>DATE(YEAR(A14),MONTH(A14),DAY(A14))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z14" s="54" t="s">
@@ -5311,79 +5396,79 @@
       <c r="D15" s="44">
         <v>200</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <v>2422</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="67">
         <v>0.61</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <v>2557</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <v>0.59</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="67">
         <v>2</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="46">
+        <v>215</v>
+      </c>
+      <c r="L15" s="47">
+        <v>42939.000011574077</v>
+      </c>
+      <c r="M15" s="66">
+        <v>215</v>
+      </c>
+      <c r="N15" s="69">
+        <f t="shared" si="16"/>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O15" s="48">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="P15" s="49">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="50">
+        <f t="shared" si="1"/>
+        <v>2.97</v>
+      </c>
+      <c r="R15" s="50">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="S15" s="50">
+        <f t="shared" ref="S15" si="17">U15-T15</f>
+        <v>31</v>
+      </c>
+      <c r="T15" s="50">
+        <f t="shared" si="4"/>
+        <v>1477</v>
+      </c>
+      <c r="U15" s="50">
+        <f t="shared" si="5"/>
+        <v>1508</v>
+      </c>
+      <c r="V15" s="51">
+        <f t="shared" si="15"/>
+        <v>0.22962962962962963</v>
+      </c>
+      <c r="W15" s="52">
         <f t="shared" si="7"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="L15" s="46">
-        <v>215</v>
-      </c>
-      <c r="M15" s="67">
-        <v>215</v>
-      </c>
-      <c r="N15" s="47">
-        <v>42939.000011574077</v>
-      </c>
-      <c r="O15" s="48">
-        <f>M15-D15</f>
-        <v>15</v>
-      </c>
-      <c r="P15" s="49">
-        <f>IF(L15&gt;D15,INT((L15-D15)*0.95),L15-D15)</f>
-        <v>14</v>
-      </c>
-      <c r="Q15" s="50">
-        <f>ROUND((N15-A15)*24,2)</f>
-        <v>2.97</v>
-      </c>
-      <c r="R15" s="50">
-        <f>G15-E15</f>
-        <v>135</v>
-      </c>
-      <c r="S15" s="50">
-        <f t="shared" ref="S15" si="8">U15-T15</f>
-        <v>31</v>
-      </c>
-      <c r="T15" s="50">
-        <f>INT(E15*F15)</f>
-        <v>1477</v>
-      </c>
-      <c r="U15" s="50">
-        <f>INT(G15*H15)</f>
-        <v>1508</v>
-      </c>
-      <c r="V15" s="51">
-        <f t="shared" si="6"/>
-        <v>0.22962962962962963</v>
-      </c>
-      <c r="W15" s="52">
-        <f>P15/R15*100/I15</f>
         <v>5.1851851851851851</v>
       </c>
       <c r="X15" s="52">
-        <f>P15/Q15/I15</f>
+        <f t="shared" si="8"/>
         <v>2.3569023569023568</v>
       </c>
       <c r="Y15" s="53">
-        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15))</f>
+        <f t="shared" si="9"/>
         <v>42938</v>
       </c>
       <c r="Z15" s="54" t="s">
@@ -5422,34 +5507,34 @@
       <c r="J16" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="58">
+        <f>D16-318</f>
+        <v>582</v>
+      </c>
+      <c r="L16" s="55">
+        <v>42946.729861111111</v>
+      </c>
+      <c r="M16" s="66">
+        <v>582</v>
+      </c>
+      <c r="N16" s="69">
         <f>MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
         <v>0.84</v>
       </c>
-      <c r="L16" s="58">
-        <f>D16-318</f>
-        <v>582</v>
-      </c>
-      <c r="M16" s="58">
-        <v>582</v>
-      </c>
-      <c r="N16" s="55">
-        <v>42946.729861111111</v>
-      </c>
       <c r="O16" s="48">
-        <f>M16-D16</f>
+        <f t="shared" si="12"/>
         <v>-318</v>
       </c>
       <c r="P16" s="49">
-        <f>IF(L16&gt;D16,INT((L16-D16)*0.95),L16-D16)</f>
+        <f t="shared" si="0"/>
         <v>-318</v>
       </c>
       <c r="Q16" s="50">
-        <f>ROUND((N16-A16)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="R16" s="50">
-        <f>G16-E16</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="S16" s="50">
@@ -5457,30 +5542,30 @@
         <v>26</v>
       </c>
       <c r="T16" s="50">
-        <f>INT(E16*F16)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="U16" s="50">
-        <f>INT(G16*H16)</f>
+        <f t="shared" si="5"/>
         <v>2034</v>
       </c>
       <c r="V16" s="51">
-        <f t="shared" ref="V16:V18" si="9">S16/R16</f>
+        <f t="shared" ref="V16:V18" si="18">S16/R16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="W16" s="52">
-        <f>P16/R16*100/I16</f>
+        <f t="shared" si="7"/>
         <v>-49.6875</v>
       </c>
       <c r="X16" s="52">
-        <f>P16/Q16/I16</f>
+        <f t="shared" si="8"/>
         <v>-31.547619047619047</v>
       </c>
-      <c r="Y16" s="61">
-        <f>DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
+      <c r="Y16" s="60">
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
-      <c r="Z16" s="62" t="s">
+      <c r="Z16" s="61" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5516,65 +5601,65 @@
       <c r="J17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="60">
-        <f t="shared" ref="K17:K18" si="10">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
-        <v>0.84</v>
-      </c>
-      <c r="L17" s="58">
+      <c r="K17" s="58">
         <f>D17-408</f>
         <v>292</v>
       </c>
-      <c r="M17" s="58">
+      <c r="L17" s="55">
+        <v>42946.734722222223</v>
+      </c>
+      <c r="M17" s="66">
         <v>300</v>
       </c>
-      <c r="N17" s="55">
-        <v>42946.734722222223</v>
+      <c r="N17" s="69">
+        <f t="shared" ref="N17:N18" si="19">MAX($Q$16:$Q$18)/SUBTOTAL(102,$Q$16:$Q$18)</f>
+        <v>0.84</v>
       </c>
       <c r="O17" s="48">
-        <f>M17-D17</f>
+        <f t="shared" si="12"/>
         <v>-400</v>
       </c>
       <c r="P17" s="49">
-        <f>IF(L17&gt;D17,INT((L17-D17)*0.95),L17-D17)</f>
+        <f t="shared" si="0"/>
         <v>-408</v>
       </c>
       <c r="Q17" s="50">
-        <f>ROUND((N17-A17)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
       <c r="R17" s="50">
-        <f>G17-E17</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="S17" s="50">
-        <f t="shared" ref="S17:S18" si="11">U17-T17</f>
+        <f t="shared" ref="S17:S18" si="20">U17-T17</f>
         <v>44</v>
       </c>
       <c r="T17" s="50">
-        <f>INT(E17*F17)</f>
+        <f t="shared" si="4"/>
         <v>1320</v>
       </c>
       <c r="U17" s="50">
-        <f>INT(G17*H17)</f>
+        <f t="shared" si="5"/>
         <v>1364</v>
       </c>
       <c r="V17" s="51">
+        <f t="shared" si="18"/>
+        <v>0.28758169934640521</v>
+      </c>
+      <c r="W17" s="52">
+        <f t="shared" si="7"/>
+        <v>-66.666666666666657</v>
+      </c>
+      <c r="X17" s="52">
+        <f t="shared" si="8"/>
+        <v>-42.857142857142861</v>
+      </c>
+      <c r="Y17" s="60">
         <f t="shared" si="9"/>
-        <v>0.28758169934640521</v>
-      </c>
-      <c r="W17" s="52">
-        <f>P17/R17*100/I17</f>
-        <v>-66.666666666666657</v>
-      </c>
-      <c r="X17" s="52">
-        <f>P17/Q17/I17</f>
-        <v>-42.857142857142861</v>
-      </c>
-      <c r="Y17" s="61">
-        <f>DATE(YEAR(A17),MONTH(A17),DAY(A17))</f>
         <v>42946</v>
       </c>
-      <c r="Z17" s="62" t="s">
+      <c r="Z17" s="61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5610,64 +5695,64 @@
       <c r="J18" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="60">
-        <f t="shared" si="10"/>
+      <c r="K18" s="58">
+        <v>519</v>
+      </c>
+      <c r="L18" s="55">
+        <v>42946.745138888888</v>
+      </c>
+      <c r="M18" s="66">
+        <v>519</v>
+      </c>
+      <c r="N18" s="69">
+        <f t="shared" si="19"/>
         <v>0.84</v>
       </c>
-      <c r="L18" s="58">
-        <v>519</v>
-      </c>
-      <c r="M18" s="58">
-        <v>519</v>
-      </c>
-      <c r="N18" s="55">
-        <v>42946.745138888888</v>
-      </c>
       <c r="O18" s="48">
-        <f>M18-D18</f>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="P18" s="49">
-        <f>IF(L18&gt;D18,INT((L18-D18)*0.95),L18-D18)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="Q18" s="50">
-        <f>ROUND((N18-A18)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
       <c r="R18" s="50">
-        <f>G18-E18</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="S18" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="T18" s="50">
-        <f>INT(E18*F18)</f>
+        <f t="shared" si="4"/>
         <v>1713</v>
       </c>
       <c r="U18" s="50">
-        <f>INT(G18*H18)</f>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="V18" s="51">
+        <f t="shared" si="18"/>
+        <v>0.34905660377358488</v>
+      </c>
+      <c r="W18" s="52">
+        <f t="shared" si="7"/>
+        <v>26.650943396226417</v>
+      </c>
+      <c r="X18" s="52">
+        <f t="shared" si="8"/>
+        <v>17.438271604938272</v>
+      </c>
+      <c r="Y18" s="60">
         <f t="shared" si="9"/>
-        <v>0.34905660377358488</v>
-      </c>
-      <c r="W18" s="52">
-        <f>P18/R18*100/I18</f>
-        <v>26.650943396226417</v>
-      </c>
-      <c r="X18" s="52">
-        <f>P18/Q18/I18</f>
-        <v>17.438271604938272</v>
-      </c>
-      <c r="Y18" s="61">
-        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18))</f>
         <v>42946</v>
       </c>
-      <c r="Z18" s="62" t="s">
+      <c r="Z18" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5685,80 +5770,80 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="67">
         <v>2997</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="67">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <v>3686</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="67">
         <v>4</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="46">
+        <f>D19+111</f>
+        <v>511</v>
+      </c>
+      <c r="L19" s="47">
+        <v>42946.927777777775</v>
+      </c>
+      <c r="M19" s="66">
+        <v>508</v>
+      </c>
+      <c r="N19" s="69">
         <f>MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
         <v>0.86</v>
       </c>
-      <c r="L19" s="46">
-        <f>D19+111</f>
-        <v>511</v>
-      </c>
-      <c r="M19" s="67">
-        <v>508</v>
-      </c>
-      <c r="N19" s="47">
-        <v>42946.927777777775</v>
-      </c>
       <c r="O19" s="48">
-        <f>M19-D19</f>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="P19" s="49">
-        <f>IF(L19&gt;D19,INT((L19-D19)*0.95),L19-D19)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="Q19" s="50">
-        <f>ROUND((N19-A19)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
       <c r="R19" s="50">
-        <f>G19-E19</f>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="S19" s="50">
-        <f t="shared" ref="S19:S22" si="12">U19-T19</f>
+        <f t="shared" ref="S19:S22" si="21">U19-T19</f>
         <v>453</v>
       </c>
       <c r="T19" s="50">
-        <f>INT(E19*F19)</f>
+        <f t="shared" si="4"/>
         <v>1648</v>
       </c>
       <c r="U19" s="50">
-        <f>INT(G19*H19)</f>
+        <f t="shared" si="5"/>
         <v>2101</v>
       </c>
       <c r="V19" s="51">
-        <f t="shared" ref="V19:V22" si="13">S19/R19</f>
+        <f t="shared" ref="V19:V22" si="22">S19/R19</f>
         <v>0.65747460087082732</v>
       </c>
       <c r="W19" s="52">
-        <f>P19/R19*100/I19</f>
+        <f t="shared" si="7"/>
         <v>3.8098693759071116</v>
       </c>
       <c r="X19" s="52">
-        <f>P19/Q19/I19</f>
+        <f t="shared" si="8"/>
         <v>10.416666666666666</v>
       </c>
       <c r="Y19" s="53">
-        <f>DATE(YEAR(A19),MONTH(A19),DAY(A19))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z19" s="54" t="s">
@@ -5779,80 +5864,80 @@
         <f>400+400</f>
         <v>800</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="67">
         <v>1994</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="67">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="67">
         <v>2497</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="67">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="67">
         <v>4</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="70">
-        <f t="shared" ref="K20:K21" si="14">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
-        <v>0.86</v>
-      </c>
-      <c r="L20" s="46">
+      <c r="K20" s="46">
         <f>D20-256</f>
         <v>544</v>
       </c>
-      <c r="M20" s="67">
+      <c r="L20" s="47">
+        <v>42946.945833333331</v>
+      </c>
+      <c r="M20" s="66">
         <v>560</v>
       </c>
-      <c r="N20" s="47">
-        <v>42946.945833333331</v>
+      <c r="N20" s="69">
+        <f t="shared" ref="N20:N21" si="23">MAX($Q$19:$Q$21)/SUBTOTAL(102,$Q$19:$Q$21)</f>
+        <v>0.86</v>
       </c>
       <c r="O20" s="48">
-        <f>M20-D20</f>
+        <f t="shared" si="12"/>
         <v>-240</v>
       </c>
       <c r="P20" s="49">
-        <f>IF(L20&gt;D20,INT((L20-D20)*0.95),L20-D20)</f>
+        <f t="shared" si="0"/>
         <v>-256</v>
       </c>
       <c r="Q20" s="50">
-        <f>ROUND((N20-A20)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="R20" s="50">
-        <f>G20-E20</f>
+        <f t="shared" si="2"/>
         <v>503</v>
       </c>
       <c r="S20" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>282</v>
       </c>
       <c r="T20" s="50">
-        <f>INT(E20*F20)</f>
+        <f t="shared" si="4"/>
         <v>1116</v>
       </c>
       <c r="U20" s="50">
-        <f>INT(G20*H20)</f>
+        <f t="shared" si="5"/>
         <v>1398</v>
       </c>
       <c r="V20" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.56063618290258455</v>
       </c>
       <c r="W20" s="52">
-        <f>P20/R20*100/I20</f>
+        <f t="shared" si="7"/>
         <v>-12.72365805168986</v>
       </c>
       <c r="X20" s="52">
-        <f>P20/Q20/I20</f>
+        <f t="shared" si="8"/>
         <v>-25.296442687747039</v>
       </c>
       <c r="Y20" s="53">
-        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z20" s="54" t="s">
@@ -5873,80 +5958,80 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>2557</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="67">
         <v>0.59</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <v>3015</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="67">
         <v>0.59</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="67">
         <v>4</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="K21" s="70">
-        <f t="shared" si="14"/>
-        <v>0.86</v>
-      </c>
-      <c r="L21" s="46">
+      <c r="K21" s="46">
         <f>D21+499</f>
         <v>899</v>
       </c>
-      <c r="M21" s="67">
+      <c r="L21" s="47">
+        <v>42946.90625</v>
+      </c>
+      <c r="M21" s="66">
         <v>884</v>
       </c>
-      <c r="N21" s="47">
-        <v>42946.90625</v>
+      <c r="N21" s="69">
+        <f t="shared" si="23"/>
+        <v>0.86</v>
       </c>
       <c r="O21" s="48">
-        <f>M21-D21</f>
+        <f t="shared" si="12"/>
         <v>484</v>
       </c>
       <c r="P21" s="49">
-        <f>IF(L21&gt;D21,INT((L21-D21)*0.95),L21-D21)</f>
+        <f t="shared" si="0"/>
         <v>474</v>
       </c>
       <c r="Q21" s="50">
-        <f>ROUND((N21-A21)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.58</v>
       </c>
       <c r="R21" s="50">
-        <f>G21-E21</f>
+        <f t="shared" si="2"/>
         <v>458</v>
       </c>
       <c r="S21" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>270</v>
       </c>
       <c r="T21" s="50">
-        <f>INT(E21*F21)</f>
+        <f t="shared" si="4"/>
         <v>1508</v>
       </c>
       <c r="U21" s="50">
-        <f>INT(G21*H21)</f>
+        <f t="shared" si="5"/>
         <v>1778</v>
       </c>
       <c r="V21" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.58951965065502188</v>
       </c>
       <c r="W21" s="52">
-        <f>P21/R21*100/I21</f>
+        <f t="shared" si="7"/>
         <v>25.873362445414848</v>
       </c>
       <c r="X21" s="52">
-        <f>P21/Q21/I21</f>
+        <f t="shared" si="8"/>
         <v>45.930232558139537</v>
       </c>
       <c r="Y21" s="53">
-        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21))</f>
+        <f t="shared" si="9"/>
         <v>42946</v>
       </c>
       <c r="Z21" s="54" t="s">
@@ -5984,65 +6069,65 @@
       <c r="J22" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="58">
+        <f>D22-125</f>
+        <v>275</v>
+      </c>
+      <c r="L22" s="55">
+        <v>42954.978472222225</v>
+      </c>
+      <c r="M22" s="66">
+        <v>275</v>
+      </c>
+      <c r="N22" s="69">
         <f>MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="L22" s="58">
-        <f>D22-125</f>
-        <v>275</v>
-      </c>
-      <c r="M22" s="58">
-        <v>275</v>
-      </c>
-      <c r="N22" s="55">
-        <v>42954.978472222225</v>
-      </c>
       <c r="O22" s="48">
-        <f>M22-D22</f>
+        <f t="shared" si="12"/>
         <v>-125</v>
       </c>
       <c r="P22" s="49">
-        <f>IF(L22&gt;D22,INT((L22-D22)*0.95),L22-D22)</f>
+        <f t="shared" si="0"/>
         <v>-125</v>
       </c>
       <c r="Q22" s="50">
-        <f>ROUND((N22-A22)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
       <c r="R22" s="50">
-        <f>G22-E22</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="S22" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="T22" s="50">
-        <f>INT(E22*F22)</f>
+        <f t="shared" si="4"/>
         <v>1833</v>
       </c>
       <c r="U22" s="50">
-        <f>INT(G22*H22)</f>
+        <f t="shared" si="5"/>
         <v>1837</v>
       </c>
       <c r="V22" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4.0816326530612242E-2</v>
       </c>
       <c r="W22" s="52">
-        <f>P22/R22*100/I22</f>
+        <f t="shared" si="7"/>
         <v>-31.887755102040817</v>
       </c>
       <c r="X22" s="52">
-        <f>P22/Q22/I22</f>
+        <f t="shared" si="8"/>
         <v>-19.290123456790123</v>
       </c>
-      <c r="Y22" s="61">
-        <f>DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
+      <c r="Y22" s="60">
+        <f t="shared" si="9"/>
         <v>42954</v>
       </c>
-      <c r="Z22" s="62" t="s">
+      <c r="Z22" s="61" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6077,65 +6162,65 @@
       <c r="J23" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="K23" s="60">
-        <f t="shared" ref="K23:K25" si="15">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="L23" s="58">
+      <c r="K23" s="58">
         <f>D23-62</f>
         <v>138</v>
       </c>
-      <c r="M23" s="58">
+      <c r="L23" s="55">
+        <v>42954.978472222225</v>
+      </c>
+      <c r="M23" s="66">
         <v>138</v>
       </c>
-      <c r="N23" s="55">
-        <v>42954.978472222225</v>
+      <c r="N23" s="69">
+        <f t="shared" ref="N23:N25" si="24">MAX($Q$22:$Q$25)/SUBTOTAL(102,$Q$22:$Q$25)</f>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O23" s="48">
-        <f>M23-D23</f>
+        <f t="shared" si="12"/>
         <v>-62</v>
       </c>
       <c r="P23" s="49">
-        <f>IF(L23&gt;D23,INT((L23-D23)*0.95),L23-D23)</f>
+        <f t="shared" si="0"/>
         <v>-62</v>
       </c>
       <c r="Q23" s="50">
-        <f>ROUND((N23-A23)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="R23" s="50">
-        <f>G23-E23</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="S23" s="50">
-        <f t="shared" ref="S23:S25" si="16">U23-T23</f>
+        <f t="shared" ref="S23:S25" si="25">U23-T23</f>
         <v>13</v>
       </c>
       <c r="T23" s="50">
-        <f>INT(E23*F23)</f>
+        <f t="shared" si="4"/>
         <v>2391</v>
       </c>
       <c r="U23" s="50">
-        <f>INT(G23*H23)</f>
+        <f t="shared" si="5"/>
         <v>2404</v>
       </c>
       <c r="V23" s="51">
-        <f t="shared" ref="V23:V25" si="17">S23/R23</f>
+        <f t="shared" ref="V23:V25" si="26">S23/R23</f>
         <v>0.14444444444444443</v>
       </c>
       <c r="W23" s="52">
-        <f>P23/R23*100/I23</f>
+        <f t="shared" si="7"/>
         <v>-34.444444444444443</v>
       </c>
       <c r="X23" s="52">
-        <f>P23/Q23/I23</f>
+        <f t="shared" si="8"/>
         <v>-20.666666666666668</v>
       </c>
-      <c r="Y23" s="61">
-        <f>DATE(YEAR(A23),MONTH(A23),DAY(A23))</f>
+      <c r="Y23" s="60">
+        <f t="shared" si="9"/>
         <v>42954</v>
       </c>
-      <c r="Z23" s="62" t="s">
+      <c r="Z23" s="61" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6170,65 +6255,65 @@
       <c r="J24" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="K24" s="60">
-        <f t="shared" si="15"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="L24" s="58">
+      <c r="K24" s="58">
         <f>D24+238</f>
         <v>638</v>
       </c>
-      <c r="M24" s="58">
+      <c r="L24" s="55">
+        <v>42954.978472222225</v>
+      </c>
+      <c r="M24" s="66">
         <v>638</v>
       </c>
-      <c r="N24" s="55">
-        <v>42954.978472222225</v>
+      <c r="N24" s="69">
+        <f t="shared" si="24"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O24" s="48">
-        <f>M24-D24</f>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
       <c r="P24" s="49">
-        <f>IF(L24&gt;D24,INT((L24-D24)*0.95),L24-D24)</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="Q24" s="50">
-        <f>ROUND((N24-A24)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="R24" s="50">
-        <f>G24-E24</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="S24" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="T24" s="50">
-        <f>INT(E24*F24)</f>
+        <f t="shared" si="4"/>
         <v>1897</v>
       </c>
       <c r="U24" s="50">
-        <f>INT(G24*H24)</f>
+        <f t="shared" si="5"/>
         <v>1925</v>
       </c>
       <c r="V24" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.30107526881720431</v>
       </c>
       <c r="W24" s="52">
-        <f>P24/R24*100/I24</f>
+        <f t="shared" si="7"/>
         <v>60.752688172043015</v>
       </c>
       <c r="X24" s="52">
-        <f>P24/Q24/I24</f>
+        <f t="shared" si="8"/>
         <v>37.666666666666664</v>
       </c>
-      <c r="Y24" s="61">
-        <f>DATE(YEAR(A24),MONTH(A24),DAY(A24))</f>
+      <c r="Y24" s="60">
+        <f t="shared" si="9"/>
         <v>42954</v>
       </c>
-      <c r="Z24" s="62" t="s">
+      <c r="Z24" s="61" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6263,65 +6348,65 @@
       <c r="J25" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K25" s="60">
-        <f t="shared" si="15"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="L25" s="58">
+      <c r="K25" s="58">
         <f>D25+74</f>
         <v>274</v>
       </c>
-      <c r="M25" s="58">
+      <c r="L25" s="55">
+        <v>42954.978472222225</v>
+      </c>
+      <c r="M25" s="66">
         <v>270</v>
       </c>
-      <c r="N25" s="55">
-        <v>42954.978472222225</v>
+      <c r="N25" s="69">
+        <f t="shared" si="24"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O25" s="48">
-        <f>M25-D25</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P25" s="49">
-        <f>IF(L25&gt;D25,INT((L25-D25)*0.95),L25-D25)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="Q25" s="50">
-        <f>ROUND((N25-A25)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.47</v>
       </c>
       <c r="R25" s="50">
-        <f>G25-E25</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="S25" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="T25" s="50">
-        <f>INT(E25*F25)</f>
+        <f t="shared" si="4"/>
         <v>2227</v>
       </c>
       <c r="U25" s="50">
-        <f>INT(G25*H25)</f>
+        <f t="shared" si="5"/>
         <v>2244</v>
       </c>
       <c r="V25" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.2073170731707317</v>
       </c>
       <c r="W25" s="52">
-        <f>P25/R25*100/I25</f>
+        <f t="shared" si="7"/>
         <v>42.68292682926829</v>
       </c>
       <c r="X25" s="52">
-        <f>P25/Q25/I25</f>
+        <f t="shared" si="8"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="Y25" s="61">
-        <f>DATE(YEAR(A25),MONTH(A25),DAY(A25))</f>
+      <c r="Y25" s="60">
+        <f t="shared" si="9"/>
         <v>42954</v>
       </c>
-      <c r="Z25" s="62" t="s">
+      <c r="Z25" s="61" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6339,49 +6424,52 @@
         <f>200+400</f>
         <v>600</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <v>3177</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="67">
         <v>0.65</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="67">
         <v>3294</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="67">
         <v>0.63</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="67">
         <v>4</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="46">
+        <f>D26+322</f>
+        <v>922</v>
+      </c>
+      <c r="L26" s="47">
+        <v>42958.033333333333</v>
+      </c>
+      <c r="M26" s="66">
+        <v>905</v>
+      </c>
+      <c r="N26" s="69">
         <f>MAX($Q$26:$Q$29)/SUBTOTAL(102,$Q$26:$Q$29)</f>
         <v>0.62</v>
       </c>
-      <c r="L26" s="46">
-        <f>D26+322</f>
-        <v>922</v>
-      </c>
-      <c r="N26" s="47">
-        <v>42958.033333333333</v>
-      </c>
       <c r="O26" s="48">
-        <f>M26-D26</f>
-        <v>-600</v>
+        <f t="shared" si="12"/>
+        <v>305</v>
       </c>
       <c r="P26" s="49">
-        <f>IF(L26&gt;D26,INT((L26-D26)*0.95),L26-D26)</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="Q26" s="50">
-        <f>ROUND((N26-A26)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.93</v>
       </c>
       <c r="R26" s="50">
-        <f>G26-E26</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="S26" s="50">
@@ -6389,11 +6477,11 @@
         <v>10</v>
       </c>
       <c r="T26" s="50">
-        <f>INT(E26*F26)</f>
+        <f t="shared" si="4"/>
         <v>2065</v>
       </c>
       <c r="U26" s="50">
-        <f>INT(G26*H26)</f>
+        <f t="shared" si="5"/>
         <v>2075</v>
       </c>
       <c r="V26" s="51">
@@ -6401,15 +6489,15 @@
         <v>8.5470085470085472E-2</v>
       </c>
       <c r="W26" s="52">
-        <f>P26/R26*100/I26</f>
+        <f t="shared" si="7"/>
         <v>65.17094017094017</v>
       </c>
       <c r="X26" s="52">
-        <f>P26/Q26/I26</f>
+        <f t="shared" si="8"/>
         <v>39.50777202072539</v>
       </c>
       <c r="Y26" s="53">
-        <f>DATE(YEAR(A26),MONTH(A26),DAY(A26))</f>
+        <f t="shared" si="9"/>
         <v>42957</v>
       </c>
       <c r="Z26" s="54" t="s">
@@ -6430,61 +6518,64 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <v>4420</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="67">
         <v>0.62</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="67">
         <v>4580</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="67">
         <v>0.61</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="67">
         <v>4</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="K27" s="70">
-        <f t="shared" ref="K27:K29" si="18">MAX($Q$26:$Q$29)/SUBTOTAL(102,$Q$26:$Q$29)</f>
-        <v>0.62</v>
-      </c>
-      <c r="L27" s="46">
+      <c r="K27" s="46">
         <f>D27+256</f>
         <v>656</v>
       </c>
-      <c r="N27" s="47">
+      <c r="L27" s="47">
         <v>42958.033333333333</v>
       </c>
+      <c r="M27" s="66">
+        <v>648</v>
+      </c>
+      <c r="N27" s="69">
+        <f t="shared" ref="N27:N29" si="27">MAX($Q$26:$Q$29)/SUBTOTAL(102,$Q$26:$Q$29)</f>
+        <v>0.62</v>
+      </c>
       <c r="O27" s="48">
-        <f>M27-D27</f>
-        <v>-400</v>
+        <f t="shared" si="12"/>
+        <v>248</v>
       </c>
       <c r="P27" s="49">
-        <f>IF(L27&gt;D27,INT((L27-D27)*0.95),L27-D27)</f>
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="Q27" s="50">
-        <f>ROUND((N27-A27)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
       <c r="R27" s="50">
-        <f>G27-E27</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="S27" s="50">
-        <f t="shared" ref="S27:S29" si="19">U27-T27</f>
+        <f t="shared" ref="S27:S33" si="28">U27-T27</f>
         <v>53</v>
       </c>
       <c r="T27" s="50">
-        <f>INT(E27*F27)</f>
+        <f t="shared" si="4"/>
         <v>2740</v>
       </c>
       <c r="U27" s="50">
-        <f>INT(G27*H27)</f>
+        <f t="shared" si="5"/>
         <v>2793</v>
       </c>
       <c r="V27" s="51">
@@ -6492,15 +6583,15 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="W27" s="52">
-        <f>P27/R27*100/I27</f>
+        <f t="shared" si="7"/>
         <v>37.96875</v>
       </c>
       <c r="X27" s="52">
-        <f>P27/Q27/I27</f>
+        <f t="shared" si="8"/>
         <v>24.495967741935484</v>
       </c>
       <c r="Y27" s="53">
-        <f>DATE(YEAR(A27),MONTH(A27),DAY(A27))</f>
+        <f t="shared" si="9"/>
         <v>42957</v>
       </c>
       <c r="Z27" s="54" t="s">
@@ -6521,49 +6612,52 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="67">
         <v>3244</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <v>0.64</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="67">
         <v>3341</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="67">
         <v>0.624</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="67">
         <v>4</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="K28" s="70">
-        <f t="shared" si="18"/>
-        <v>0.62</v>
-      </c>
-      <c r="L28" s="46">
+      <c r="K28" s="46">
         <f>D28-19</f>
         <v>381</v>
       </c>
-      <c r="N28" s="47">
+      <c r="L28" s="47">
         <v>42958.033333333333</v>
       </c>
+      <c r="M28" s="66">
+        <v>381</v>
+      </c>
+      <c r="N28" s="69">
+        <f t="shared" si="27"/>
+        <v>0.62</v>
+      </c>
       <c r="O28" s="48">
-        <f>M28-D28</f>
-        <v>-400</v>
+        <f t="shared" si="12"/>
+        <v>-19</v>
       </c>
       <c r="P28" s="49">
-        <f>IF(L28&gt;D28,INT((L28-D28)*0.95),L28-D28)</f>
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
       <c r="Q28" s="50">
-        <f>ROUND((N28-A28)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
       <c r="R28" s="50">
-        <f>G28-E28</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="S28" s="50">
@@ -6571,11 +6665,11 @@
         <v>8</v>
       </c>
       <c r="T28" s="50">
-        <f>INT(E28*F28)</f>
+        <f t="shared" si="4"/>
         <v>2076</v>
       </c>
       <c r="U28" s="50">
-        <f>INT(G28*H28)</f>
+        <f t="shared" si="5"/>
         <v>2084</v>
       </c>
       <c r="V28" s="51">
@@ -6583,15 +6677,15 @@
         <v>8.247422680412371E-2</v>
       </c>
       <c r="W28" s="52">
-        <f>P28/R28*100/I28</f>
+        <f t="shared" si="7"/>
         <v>-4.8969072164948457</v>
       </c>
       <c r="X28" s="52">
-        <f>P28/Q28/I28</f>
+        <f t="shared" si="8"/>
         <v>-3.5185185185185182</v>
       </c>
       <c r="Y28" s="53">
-        <f>DATE(YEAR(A28),MONTH(A28),DAY(A28))</f>
+        <f t="shared" si="9"/>
         <v>42957</v>
       </c>
       <c r="Z28" s="54" t="s">
@@ -6612,81 +6706,707 @@
         <f>400+200</f>
         <v>600</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <v>3562</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="67">
         <v>0.63</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="67">
         <v>3726</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="67">
         <v>0.61</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="67">
         <v>4</v>
       </c>
-      <c r="J29" s="69" t="s">
+      <c r="J29" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="K29" s="70">
-        <f t="shared" si="18"/>
-        <v>0.62</v>
-      </c>
-      <c r="L29" s="46">
+      <c r="K29" s="46">
         <f>D29-208</f>
         <v>392</v>
       </c>
-      <c r="N29" s="47">
+      <c r="L29" s="47">
         <v>42958.033333333333</v>
       </c>
+      <c r="M29" s="66">
+        <v>392</v>
+      </c>
+      <c r="N29" s="69">
+        <f t="shared" si="27"/>
+        <v>0.62</v>
+      </c>
       <c r="O29" s="48">
-        <f>M29-D29</f>
-        <v>-600</v>
+        <f t="shared" si="12"/>
+        <v>-208</v>
       </c>
       <c r="P29" s="49">
-        <f>IF(L29&gt;D29,INT((L29-D29)*0.95),L29-D29)</f>
+        <f t="shared" si="0"/>
         <v>-208</v>
       </c>
       <c r="Q29" s="50">
-        <f>ROUND((N29-A29)*24,2)</f>
+        <f t="shared" si="1"/>
         <v>2.42</v>
       </c>
       <c r="R29" s="50">
-        <f>G29-E29</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="S29" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>28</v>
       </c>
       <c r="T29" s="50">
-        <f>INT(E29*F29)</f>
+        <f t="shared" si="4"/>
         <v>2244</v>
       </c>
       <c r="U29" s="50">
-        <f>INT(G29*H29)</f>
+        <f t="shared" si="5"/>
         <v>2272</v>
       </c>
       <c r="V29" s="51">
-        <f t="shared" ref="V27:V29" si="20">S29/R29</f>
+        <f t="shared" ref="V29:V33" si="29">S29/R29</f>
         <v>0.17073170731707318</v>
       </c>
       <c r="W29" s="52">
-        <f>P29/R29*100/I29</f>
+        <f t="shared" si="7"/>
         <v>-31.707317073170731</v>
       </c>
       <c r="X29" s="52">
-        <f>P29/Q29/I29</f>
+        <f t="shared" si="8"/>
         <v>-21.487603305785125</v>
       </c>
       <c r="Y29" s="53">
-        <f>DATE(YEAR(A29),MONTH(A29),DAY(A29))</f>
+        <f t="shared" si="9"/>
         <v>42957</v>
       </c>
       <c r="Z29" s="54" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="56" customFormat="1">
+      <c r="A30" s="55">
+        <v>42960.638194444444</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="57">
+        <f>400+200</f>
+        <v>600</v>
+      </c>
+      <c r="E30" s="57">
+        <v>3294</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.63</v>
+      </c>
+      <c r="G30" s="57">
+        <v>3442</v>
+      </c>
+      <c r="H30" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="I30" s="57">
+        <v>4</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K30" s="58">
+        <f>D30-238</f>
+        <v>362</v>
+      </c>
+      <c r="L30" s="55">
+        <v>42960.725694444445</v>
+      </c>
+      <c r="M30" s="66">
+        <v>362</v>
+      </c>
+      <c r="N30" s="69">
+        <f>MAX($Q$30:$Q$33)/SUBTOTAL(102,$Q$30:$Q$33)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O30" s="48">
+        <f t="shared" si="12"/>
+        <v>-238</v>
+      </c>
+      <c r="P30" s="49">
+        <f t="shared" si="0"/>
+        <v>-238</v>
+      </c>
+      <c r="Q30" s="50">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="R30" s="50">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="S30" s="50">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="T30" s="50">
+        <f t="shared" si="4"/>
+        <v>2075</v>
+      </c>
+      <c r="U30" s="50">
+        <f t="shared" si="5"/>
+        <v>2099</v>
+      </c>
+      <c r="V30" s="51">
+        <f t="shared" si="29"/>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="W30" s="52">
+        <f t="shared" si="7"/>
+        <v>-40.202702702702702</v>
+      </c>
+      <c r="X30" s="52">
+        <f t="shared" si="8"/>
+        <v>-28.333333333333332</v>
+      </c>
+      <c r="Y30" s="60">
+        <f t="shared" si="9"/>
+        <v>42960</v>
+      </c>
+      <c r="Z30" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="56" customFormat="1">
+      <c r="A31" s="55">
+        <v>42960.638194444444</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="57">
+        <v>400</v>
+      </c>
+      <c r="E31" s="57">
+        <v>4580</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="G31" s="57">
+        <v>4729</v>
+      </c>
+      <c r="H31" s="57">
+        <v>0.59</v>
+      </c>
+      <c r="I31" s="57">
+        <v>4</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K31" s="58">
+        <f>D31+407</f>
+        <v>807</v>
+      </c>
+      <c r="L31" s="55">
+        <v>42960.725694444445</v>
+      </c>
+      <c r="M31" s="66">
+        <v>795</v>
+      </c>
+      <c r="N31" s="69">
+        <f t="shared" ref="N31:N33" si="30">MAX($Q$30:$Q$33)/SUBTOTAL(102,$Q$30:$Q$33)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O31" s="48">
+        <f t="shared" si="12"/>
+        <v>395</v>
+      </c>
+      <c r="P31" s="49">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="Q31" s="50">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="R31" s="50">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="S31" s="50">
+        <f t="shared" si="28"/>
+        <v>-3</v>
+      </c>
+      <c r="T31" s="50">
+        <f t="shared" si="4"/>
+        <v>2793</v>
+      </c>
+      <c r="U31" s="50">
+        <f t="shared" si="5"/>
+        <v>2790</v>
+      </c>
+      <c r="V31" s="51">
+        <f t="shared" si="29"/>
+        <v>-2.0134228187919462E-2</v>
+      </c>
+      <c r="W31" s="52">
+        <f t="shared" si="7"/>
+        <v>64.765100671140942</v>
+      </c>
+      <c r="X31" s="52">
+        <f t="shared" si="8"/>
+        <v>45.952380952380949</v>
+      </c>
+      <c r="Y31" s="60">
+        <f t="shared" si="9"/>
+        <v>42960</v>
+      </c>
+      <c r="Z31" s="61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="56" customFormat="1">
+      <c r="A32" s="55">
+        <v>42960.640972222223</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="57">
+        <v>400</v>
+      </c>
+      <c r="E32" s="57">
+        <v>3341</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.624</v>
+      </c>
+      <c r="G32" s="57">
+        <v>3461</v>
+      </c>
+      <c r="H32" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="I32" s="57">
+        <v>4</v>
+      </c>
+      <c r="J32" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K32" s="58">
+        <f>D32+167</f>
+        <v>567</v>
+      </c>
+      <c r="L32" s="55">
+        <v>42960.725694444445</v>
+      </c>
+      <c r="M32" s="66">
+        <v>553</v>
+      </c>
+      <c r="N32" s="69">
+        <f t="shared" si="30"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O32" s="48">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="P32" s="49">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="Q32" s="50">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="R32" s="50">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="S32" s="50">
+        <f t="shared" si="28"/>
+        <v>27</v>
+      </c>
+      <c r="T32" s="50">
+        <f t="shared" si="4"/>
+        <v>2084</v>
+      </c>
+      <c r="U32" s="50">
+        <f t="shared" si="5"/>
+        <v>2111</v>
+      </c>
+      <c r="V32" s="51">
+        <f t="shared" si="29"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W32" s="52">
+        <f t="shared" si="7"/>
+        <v>32.916666666666664</v>
+      </c>
+      <c r="X32" s="52">
+        <f t="shared" si="8"/>
+        <v>19.458128078817737</v>
+      </c>
+      <c r="Y32" s="60">
+        <f t="shared" si="9"/>
+        <v>42960</v>
+      </c>
+      <c r="Z32" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" s="56" customFormat="1">
+      <c r="A33" s="55">
+        <v>42960.629166666666</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="57">
+        <v>200</v>
+      </c>
+      <c r="E33" s="57">
+        <v>3726</v>
+      </c>
+      <c r="F33" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="G33" s="57">
+        <v>3869</v>
+      </c>
+      <c r="H33" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="I33" s="57">
+        <v>2</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="K33" s="58">
+        <f>D33+172</f>
+        <v>372</v>
+      </c>
+      <c r="L33" s="55">
+        <v>42960.725694444445</v>
+      </c>
+      <c r="M33" s="66"/>
+      <c r="N33" s="69">
+        <f t="shared" si="30"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O33" s="48">
+        <f t="shared" si="12"/>
+        <v>-200</v>
+      </c>
+      <c r="P33" s="49">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="Q33" s="50">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R33" s="50">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="S33" s="50">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="T33" s="50">
+        <f t="shared" si="4"/>
+        <v>2272</v>
+      </c>
+      <c r="U33" s="50">
+        <f t="shared" si="5"/>
+        <v>2321</v>
+      </c>
+      <c r="V33" s="51">
+        <f t="shared" si="29"/>
+        <v>0.34265734265734266</v>
+      </c>
+      <c r="W33" s="52">
+        <f t="shared" si="7"/>
+        <v>56.993006993006986</v>
+      </c>
+      <c r="X33" s="52">
+        <f t="shared" si="8"/>
+        <v>35.129310344827587</v>
+      </c>
+      <c r="Y33" s="60">
+        <f t="shared" si="9"/>
+        <v>42960</v>
+      </c>
+      <c r="Z33" s="61" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="47">
+        <v>42960</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="L34" s="47">
+        <v>42962</v>
+      </c>
+      <c r="N34" s="69">
+        <f>MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
+        <v>12</v>
+      </c>
+      <c r="O34" s="48">
+        <f t="shared" ref="O34:O37" si="31">M34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="49">
+        <f t="shared" ref="P34:P37" si="32">IF(K34&gt;D34,INT((K34-D34)*0.95),K34-D34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="50">
+        <f t="shared" ref="Q34:Q37" si="33">ROUND((L34-A34)*24,2)</f>
+        <v>48</v>
+      </c>
+      <c r="R34" s="50">
+        <f t="shared" ref="R34:R37" si="34">G34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="50">
+        <f>U34-T34</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="50">
+        <f t="shared" ref="T34:T37" si="35">INT(E34*F34)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="50">
+        <f t="shared" ref="U34:U37" si="36">INT(G34*H34)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="51" t="e">
+        <f>S34/R34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="52" t="e">
+        <f t="shared" ref="W34:W37" si="37">P34/R34*100/I34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="52" t="e">
+        <f t="shared" ref="X34:X37" si="38">P34/Q34/I34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="53">
+        <f t="shared" ref="Y34:Y37" si="39">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
+        <v>42960</v>
+      </c>
+      <c r="Z34" s="54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="47">
+        <v>42960</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="L35" s="47">
+        <v>42962</v>
+      </c>
+      <c r="N35" s="69">
+        <f t="shared" ref="N35:N37" si="40">MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
+        <v>12</v>
+      </c>
+      <c r="O35" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R35" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="50">
+        <f t="shared" ref="S35" si="41">U35-T35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="51" t="e">
+        <f>S35/R35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="53">
+        <f t="shared" si="39"/>
+        <v>42960</v>
+      </c>
+      <c r="Z35" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="47">
+        <v>42960</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="L36" s="47">
+        <v>42962</v>
+      </c>
+      <c r="N36" s="69">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="O36" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R36" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="50">
+        <f>U36-T36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="51" t="e">
+        <f>S36/R36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y36" s="53">
+        <f t="shared" si="39"/>
+        <v>42960</v>
+      </c>
+      <c r="Z36" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="47">
+        <v>42960</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="L37" s="47">
+        <v>42962</v>
+      </c>
+      <c r="N37" s="69">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="O37" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R37" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="50">
+        <f t="shared" ref="S37" si="42">U37-T37</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="51" t="e">
+        <f t="shared" ref="V37" si="43">S37/R37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y37" s="53">
+        <f t="shared" si="39"/>
+        <v>42960</v>
+      </c>
+      <c r="Z37" s="54" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7315,10 +8035,10 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7508,7 +8228,7 @@
       <c r="J6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="62" t="s">
         <v>143</v>
       </c>
       <c r="P6" s="43" t="s">
@@ -7548,7 +8268,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="54" t="s">
@@ -7583,7 +8303,7 @@
       <c r="D9" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="63">
         <v>159385</v>
       </c>
       <c r="G9" s="43" t="s">
@@ -7661,18 +8381,18 @@
       <c r="D12" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>180490</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>149</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <v>172402</v>
       </c>
       <c r="G13" s="43" t="s">
@@ -7686,7 +8406,7 @@
       <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="63" t="s">
         <v>151</v>
       </c>
       <c r="J14" s="43" t="s">
@@ -7700,7 +8420,7 @@
       <c r="D15" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <v>136118</v>
       </c>
       <c r="J15" s="43" t="s">
@@ -7708,7 +8428,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>153</v>
       </c>
       <c r="D16" s="54" t="s">
@@ -7719,7 +8439,7 @@
       <c r="B17" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>154</v>
       </c>
       <c r="D17" s="54" t="s">
@@ -7733,7 +8453,7 @@
       <c r="D18" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <v>141928</v>
       </c>
     </row>
@@ -7761,7 +8481,7 @@
       <c r="B20" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>161</v>
       </c>
       <c r="D20" s="54" t="s">
@@ -7784,7 +8504,7 @@
       <c r="B21" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>164</v>
       </c>
       <c r="D21" s="54" t="s">
@@ -7804,7 +8524,7 @@
       <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>165</v>
       </c>
       <c r="D22" s="54" t="s">
@@ -7829,7 +8549,7 @@
       <c r="B24" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>171</v>
       </c>
       <c r="D24" s="54" t="s">
@@ -7843,7 +8563,7 @@
       <c r="B25" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>173</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -7854,7 +8574,7 @@
       <c r="B26" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>13611340307</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -8682,7 +9402,7 @@
       <c r="B80" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="C80" s="66" t="s">
+      <c r="C80" s="65" t="s">
         <v>331</v>
       </c>
       <c r="D80" s="54" t="s">
@@ -8825,6 +9545,17 @@
       </c>
       <c r="F89" s="43">
         <v>135635</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" s="43">
+        <v>15727929927</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="2:2">

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" tabRatio="755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId4"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -1621,6 +1621,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1637,6 +1638,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1644,6 +1646,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1652,6 +1655,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2241,6 +2245,7 @@
     <xf numFmtId="178" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="395">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2438,204 +2443,203 @@
     <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -4054,42 +4058,42 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="45" customWidth="1"/>
     <col min="5" max="5" width="5" style="67" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" style="67" customWidth="1"/>
+    <col min="6" max="7" width="5.125" style="67" customWidth="1"/>
     <col min="8" max="8" width="5" style="67" customWidth="1"/>
     <col min="9" max="9" width="2" style="67" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="68" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="66" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="69" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="48" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="48" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="49" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="50" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="50" customWidth="1"/>
-    <col min="20" max="21" width="6.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="52" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="50" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="50" customWidth="1"/>
+    <col min="20" max="21" width="6.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="52" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="52" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="53" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="43"/>
+    <col min="25" max="25" width="9.625" style="53" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="56" customFormat="1">
+    <row r="2" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="56" customFormat="1">
+    <row r="3" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="56" customFormat="1">
+    <row r="4" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
         <v>42934.955555555556</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="56" customFormat="1">
+    <row r="10" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="55">
         <v>42936.855555555558</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="56" customFormat="1">
+    <row r="11" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="55">
         <v>42936.855555555558</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>42938.878472222219</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>42938.878472222219</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>42938.884027777778</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>42938.876388888886</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="56" customFormat="1">
+    <row r="16" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="55">
         <v>42946.625</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="56" customFormat="1">
+    <row r="17" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="55">
         <v>42946.635416666664</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="56" customFormat="1">
+    <row r="18" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="55">
         <v>42946.677777777775</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>42946.822916666664</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>42946.840277777781</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <v>42946.798611111109</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="56" customFormat="1">
+    <row r="22" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="55">
         <v>42954.911111111112</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="56" customFormat="1">
+    <row r="23" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="55">
         <v>42954.915972222225</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="56" customFormat="1">
+    <row r="24" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="55">
         <v>42954.915972222225</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="56" customFormat="1">
+    <row r="25" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="55">
         <v>42954.917361111111</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <v>42957.952777777777</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="47">
         <v>42957.929861111108</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <v>42957.977083333331</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="47">
         <v>42957.932638888888</v>
       </c>
@@ -6786,7 +6790,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="56" customFormat="1">
+    <row r="30" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="55">
         <v>42960.638194444444</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="56" customFormat="1">
+    <row r="31" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="55">
         <v>42960.638194444444</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="56" customFormat="1">
+    <row r="32" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="55">
         <v>42960.640972222223</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>3341</v>
       </c>
       <c r="F32" s="57">
-        <v>0.624</v>
+        <v>0.62</v>
       </c>
       <c r="G32" s="57">
         <v>3461</v>
@@ -7036,11 +7040,11 @@
       </c>
       <c r="S32" s="50">
         <f t="shared" si="28"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T32" s="50">
         <f t="shared" si="4"/>
-        <v>2084</v>
+        <v>2071</v>
       </c>
       <c r="U32" s="50">
         <f t="shared" si="5"/>
@@ -7048,7 +7052,7 @@
       </c>
       <c r="V32" s="51">
         <f t="shared" si="29"/>
-        <v>0.22500000000000001</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W32" s="52">
         <f t="shared" si="7"/>
@@ -7066,7 +7070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="56" customFormat="1">
+    <row r="33" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="55">
         <v>42960.629166666666</v>
       </c>
@@ -7104,14 +7108,16 @@
       <c r="L33" s="55">
         <v>42960.725694444445</v>
       </c>
-      <c r="M33" s="66"/>
+      <c r="M33" s="66">
+        <v>372</v>
+      </c>
       <c r="N33" s="69">
         <f t="shared" si="30"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O33" s="48">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>172</v>
       </c>
       <c r="P33" s="49">
         <f t="shared" si="0"/>
@@ -7157,7 +7163,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="47">
         <v>42960</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="47">
         <v>42960</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="47">
         <v>42960</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="47">
         <v>42960</v>
       </c>
@@ -7429,14 +7435,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7484,7 +7490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7506,7 +7512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7623,17 +7629,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="25" customWidth="1"/>
+    <col min="5" max="6" width="7.375" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="39" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="3.5" customWidth="1"/>
@@ -7661,12 +7667,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D2" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E3" s="41" t="s">
         <v>118</v>
       </c>
@@ -7677,7 +7683,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.1928184948352189</v>
@@ -7750,7 +7756,7 @@
         <v>12.430999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.45287958115183247</v>
@@ -7788,7 +7794,7 @@
         <v>8.1890000000000018</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.34055661780327173</v>
@@ -7818,202 +7824,202 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1">
+    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1">
+    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1">
+    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1">
+    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1">
+    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1">
+    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1">
+    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1">
+    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1">
+    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1">
+    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1">
+    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1">
+    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1">
+    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1">
+    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1">
+    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1">
+    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1">
+    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1">
+    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1">
+    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1">
+    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1">
+    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1">
+    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1">
+    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1">
+    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1">
+    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1">
+    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1">
+    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1">
+    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1">
+    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1">
+    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1">
+    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -8041,21 +8047,21 @@
       <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="43"/>
-    <col min="3" max="3" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="54"/>
-    <col min="5" max="7" width="10.83203125" style="43"/>
-    <col min="8" max="8" width="10.83203125" style="54"/>
-    <col min="9" max="10" width="10.83203125" style="43"/>
-    <col min="11" max="11" width="25.6640625" style="43" customWidth="1"/>
-    <col min="12" max="17" width="10.83203125" style="43"/>
-    <col min="18" max="18" width="10.83203125" style="54"/>
-    <col min="19" max="16384" width="10.83203125" style="43"/>
+    <col min="1" max="2" width="10.875" style="43"/>
+    <col min="3" max="3" width="18.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="54"/>
+    <col min="5" max="7" width="10.875" style="43"/>
+    <col min="8" max="8" width="10.875" style="54"/>
+    <col min="9" max="10" width="10.875" style="43"/>
+    <col min="11" max="11" width="25.625" style="43" customWidth="1"/>
+    <col min="12" max="17" width="10.875" style="43"/>
+    <col min="18" max="18" width="10.875" style="54"/>
+    <col min="19" max="16384" width="10.875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>377</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C2" s="43" t="s">
         <v>66</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C3" s="43" t="s">
         <v>73</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C4" s="43" t="s">
         <v>76</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C5" s="43" t="s">
         <v>79</v>
       </c>
@@ -8209,7 +8215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="43" t="s">
         <v>144</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C7" s="43" t="s">
         <v>131</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C8" s="63" t="s">
         <v>138</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9" s="43" t="s">
         <v>142</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10" s="43" t="s">
         <v>146</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11" s="43" t="s">
         <v>148</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D12" s="54" t="s">
         <v>130</v>
       </c>
@@ -8385,7 +8391,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="63" t="s">
         <v>149</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" s="43" t="s">
         <v>150</v>
       </c>
@@ -8413,7 +8419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
         <v>152</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C16" s="63" t="s">
         <v>153</v>
       </c>
@@ -8435,7 +8441,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="43" t="s">
         <v>156</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D18" s="54" t="s">
         <v>155</v>
       </c>
@@ -8457,7 +8463,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="43" t="s">
         <v>157</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" s="43" t="s">
         <v>245</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="43" t="s">
         <v>163</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
@@ -8534,7 +8540,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="43" t="s">
         <v>170</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="43" t="s">
         <v>172</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="43" t="s">
         <v>174</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="43" t="s">
         <v>177</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="43" t="s">
         <v>180</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="43" t="s">
         <v>184</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="43" t="s">
         <v>186</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30" s="43" t="s">
         <v>188</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31" s="43" t="s">
         <v>195</v>
       </c>
@@ -8669,7 +8675,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="43" t="s">
         <v>198</v>
       </c>
@@ -8683,7 +8689,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="43" t="s">
         <v>201</v>
       </c>
@@ -8697,7 +8703,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="43" t="s">
         <v>203</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C35" s="43" t="s">
         <v>206</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="43" t="s">
         <v>208</v>
       </c>
@@ -8739,7 +8745,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="43" t="s">
         <v>209</v>
       </c>
@@ -8753,7 +8759,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" s="43" t="s">
         <v>212</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="43" t="s">
         <v>228</v>
       </c>
@@ -8784,7 +8790,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="43" t="s">
         <v>234</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" s="43" t="s">
         <v>239</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="43">
         <v>95532199</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="43" t="s">
         <v>246</v>
       </c>
@@ -8852,7 +8858,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" s="43" t="s">
         <v>250</v>
       </c>
@@ -8869,7 +8875,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="43" t="s">
         <v>251</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="43" t="s">
         <v>379</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="43">
         <v>13611340307</v>
       </c>
@@ -8923,7 +8929,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="43" t="s">
         <v>165</v>
       </c>
@@ -8934,7 +8940,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C49" s="43" t="s">
         <v>259</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C50" s="43">
         <v>133311993</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C51" s="43" t="s">
         <v>262</v>
       </c>
@@ -8973,7 +8979,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C52" s="43" t="s">
         <v>268</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="43" t="s">
         <v>281</v>
       </c>
@@ -9007,7 +9013,7 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C54" s="43" t="s">
         <v>272</v>
       </c>
@@ -9021,12 +9027,12 @@
         <v>118395</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C55" s="43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="43" t="s">
         <v>281</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="43" t="s">
         <v>281</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>157777</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="43" t="s">
         <v>281</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="43" t="s">
         <v>281</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="43" t="s">
         <v>281</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>171072</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="43" t="s">
         <v>281</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="43" t="s">
         <v>291</v>
       </c>
@@ -9118,7 +9124,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="43" t="s">
         <v>281</v>
       </c>
@@ -9141,7 +9147,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="43" t="s">
         <v>291</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>120666</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="43" t="s">
         <v>297</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="43" t="s">
         <v>300</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>111111</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="43" t="s">
         <v>301</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="43" t="s">
         <v>305</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="43" t="s">
         <v>305</v>
       </c>
@@ -9243,7 +9249,7 @@
         <v>123870</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="43" t="s">
         <v>305</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>1209333</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="43" t="s">
         <v>311</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="43" t="s">
         <v>313</v>
       </c>
@@ -9288,7 +9294,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="43" t="s">
         <v>313</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>21381923</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="43" t="s">
         <v>315</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>101248</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="43" t="s">
         <v>318</v>
       </c>
@@ -9339,7 +9345,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="43" t="s">
         <v>321</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>136818</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="43" t="s">
         <v>324</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>166704</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="43" t="s">
         <v>326</v>
       </c>
@@ -9381,7 +9387,7 @@
         <v>134668</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="43" t="s">
         <v>329</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>124685</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="43" t="s">
         <v>332</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B81" s="43" t="s">
         <v>334</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B82" s="43" t="s">
         <v>336</v>
       </c>
@@ -9455,7 +9461,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B83" s="43" t="s">
         <v>339</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>126995</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B84" s="43" t="s">
         <v>344</v>
       </c>
@@ -9486,7 +9492,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B85" s="43" t="s">
         <v>344</v>
       </c>
@@ -9497,7 +9503,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B86" s="43" t="s">
         <v>344</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B87" s="43" t="s">
         <v>344</v>
       </c>
@@ -9513,7 +9519,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B88" s="43" t="s">
         <v>353</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>177980</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B89" s="43" t="s">
         <v>354</v>
       </c>
@@ -9547,7 +9553,7 @@
         <v>135635</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="43" t="s">
         <v>402</v>
       </c>
@@ -9558,22 +9564,22 @@
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" s="43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" s="43" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C130" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C132" s="43" t="s">
         <v>220</v>
       </c>
@@ -9598,36 +9604,36 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="27" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="1"/>
+    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9877,7 +9883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -9963,7 +9969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -10006,7 +10012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10049,7 +10055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10092,7 +10098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10135,7 +10141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10221,7 +10227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10264,7 +10270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="29" customFormat="1">
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1">
+    <row r="16" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10450,7 +10456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="29" customFormat="1">
+    <row r="17" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10542,7 +10548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10636,7 +10642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10821,7 +10827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10913,7 +10919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="29" customFormat="1">
+    <row r="23" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1">
+    <row r="24" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -11283,7 +11289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -11377,7 +11383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -11471,7 +11477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="755"/>
+    <workbookView xWindow="5360" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="tmp_rec_club" sheetId="12" r:id="rId4"/>
     <sheet name="rec_unusual" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="417">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1566,6 +1566,34 @@
   </si>
   <si>
     <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laughing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上漂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,8 +1797,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="395">
+  <cellStyleXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2244,8 +2274,7 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="395">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="397">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2443,203 +2472,206 @@
     <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -4058,42 +4090,42 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="45" customWidth="1"/>
     <col min="5" max="5" width="5" style="67" customWidth="1"/>
-    <col min="6" max="7" width="5.125" style="67" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" style="67" customWidth="1"/>
     <col min="8" max="8" width="5" style="67" customWidth="1"/>
     <col min="9" max="9" width="2" style="67" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="68" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="66" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="66" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="69" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="48" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="49" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="48" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="49" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="50" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="50" customWidth="1"/>
-    <col min="20" max="21" width="6.375" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="52" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="50" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="50" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="52" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="52" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="53" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="54" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="43"/>
+    <col min="25" max="25" width="9.6640625" style="53" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
@@ -4173,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="56" customFormat="1">
       <c r="A2" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4267,7 +4299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="56" customFormat="1">
       <c r="A3" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4359,7 +4391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="56" customFormat="1">
       <c r="A4" s="55">
         <v>42925.631249999999</v>
       </c>
@@ -4451,7 +4483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4545,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4638,7 +4670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4732,7 +4764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="47">
         <v>42934.876388888886</v>
       </c>
@@ -4825,7 +4857,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="47">
         <v>42934.955555555556</v>
       </c>
@@ -4918,7 +4950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" s="56" customFormat="1">
       <c r="A10" s="55">
         <v>42936.855555555558</v>
       </c>
@@ -5012,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="56" customFormat="1">
       <c r="A11" s="55">
         <v>42936.855555555558</v>
       </c>
@@ -5106,7 +5138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="47">
         <v>42938.878472222219</v>
       </c>
@@ -5199,7 +5231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="47">
         <v>42938.878472222219</v>
       </c>
@@ -5293,7 +5325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="47">
         <v>42938.884027777778</v>
       </c>
@@ -5387,7 +5419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="47">
         <v>42938.876388888886</v>
       </c>
@@ -5479,7 +5511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="56" customFormat="1">
       <c r="A16" s="55">
         <v>42946.625</v>
       </c>
@@ -5573,7 +5605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="56" customFormat="1">
       <c r="A17" s="55">
         <v>42946.635416666664</v>
       </c>
@@ -5667,7 +5699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" s="56" customFormat="1">
       <c r="A18" s="55">
         <v>42946.677777777775</v>
       </c>
@@ -5760,7 +5792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="47">
         <v>42946.822916666664</v>
       </c>
@@ -5854,7 +5886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="47">
         <v>42946.840277777781</v>
       </c>
@@ -5948,7 +5980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="47">
         <v>42946.798611111109</v>
       </c>
@@ -6042,7 +6074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" s="56" customFormat="1">
       <c r="A22" s="55">
         <v>42954.911111111112</v>
       </c>
@@ -6135,7 +6167,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="56" customFormat="1">
       <c r="A23" s="55">
         <v>42954.915972222225</v>
       </c>
@@ -6228,7 +6260,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="56" customFormat="1">
       <c r="A24" s="55">
         <v>42954.915972222225</v>
       </c>
@@ -6321,7 +6353,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" s="56" customFormat="1">
       <c r="A25" s="55">
         <v>42954.917361111111</v>
       </c>
@@ -6414,7 +6446,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="47">
         <v>42957.952777777777</v>
       </c>
@@ -6508,7 +6540,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="47">
         <v>42957.929861111108</v>
       </c>
@@ -6602,7 +6634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="47">
         <v>42957.977083333331</v>
       </c>
@@ -6696,7 +6728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="47">
         <v>42957.932638888888</v>
       </c>
@@ -6790,7 +6822,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" s="56" customFormat="1">
       <c r="A30" s="55">
         <v>42960.638194444444</v>
       </c>
@@ -6884,7 +6916,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" s="56" customFormat="1">
       <c r="A31" s="55">
         <v>42960.638194444444</v>
       </c>
@@ -6977,7 +7009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" s="56" customFormat="1">
       <c r="A32" s="55">
         <v>42960.640972222223</v>
       </c>
@@ -7070,7 +7102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" s="56" customFormat="1">
       <c r="A33" s="55">
         <v>42960.629166666666</v>
       </c>
@@ -7163,253 +7195,362 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="47">
-        <v>42960</v>
+        <v>42961.911111111112</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="C34" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D34" s="44">
+        <v>400</v>
+      </c>
+      <c r="E34" s="67">
+        <v>3442</v>
+      </c>
+      <c r="F34" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="G34" s="67">
+        <v>3521</v>
+      </c>
+      <c r="H34" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="67">
+        <v>4</v>
+      </c>
+      <c r="J34" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="K34" s="46">
+        <f>D34+73</f>
+        <v>473</v>
+      </c>
       <c r="L34" s="47">
-        <v>42962</v>
+        <v>42961.958333333336</v>
       </c>
       <c r="N34" s="69">
         <f>MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
-        <v>12</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="O34" s="48">
         <f t="shared" ref="O34:O37" si="31">M34-D34</f>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P34" s="49">
         <f t="shared" ref="P34:P37" si="32">IF(K34&gt;D34,INT((K34-D34)*0.95),K34-D34)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="50">
         <f t="shared" ref="Q34:Q37" si="33">ROUND((L34-A34)*24,2)</f>
-        <v>48</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="R34" s="50">
         <f t="shared" ref="R34:R37" si="34">G34-E34</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="S34" s="50">
         <f>U34-T34</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T34" s="50">
         <f t="shared" ref="T34:T37" si="35">INT(E34*F34)</f>
-        <v>0</v>
+        <v>2099</v>
       </c>
       <c r="U34" s="50">
         <f t="shared" ref="U34:U37" si="36">INT(G34*H34)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="51" t="e">
+        <v>2112</v>
+      </c>
+      <c r="V34" s="51">
         <f>S34/R34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="52" t="e">
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="W34" s="52">
         <f t="shared" ref="W34:W37" si="37">P34/R34*100/I34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="52" t="e">
+        <v>21.835443037974684</v>
+      </c>
+      <c r="X34" s="52">
         <f t="shared" ref="X34:X37" si="38">P34/Q34/I34</f>
-        <v>#DIV/0!</v>
+        <v>15.265486725663719</v>
       </c>
       <c r="Y34" s="53">
         <f t="shared" ref="Y34:Y37" si="39">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="Z34" s="54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="47">
-        <v>42960</v>
+        <v>42961.893750000003</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="44">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="E35" s="67">
+        <v>4965</v>
+      </c>
+      <c r="F35" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="G35" s="67">
+        <v>5068</v>
+      </c>
+      <c r="H35" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="67">
+        <v>2</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" s="46">
+        <f>D35-34</f>
+        <v>166</v>
+      </c>
       <c r="L35" s="47">
-        <v>42962</v>
+        <v>42961.958333333336</v>
       </c>
       <c r="N35" s="69">
         <f t="shared" ref="N35:N37" si="40">MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
-        <v>12</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="O35" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="49">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="Q35" s="50">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>1.55</v>
       </c>
       <c r="R35" s="50">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="S35" s="50">
         <f t="shared" ref="S35" si="41">U35-T35</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T35" s="50">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>3028</v>
       </c>
       <c r="U35" s="50">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="51" t="e">
+        <v>3040</v>
+      </c>
+      <c r="V35" s="51">
         <f>S35/R35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" s="52" t="e">
+        <v>0.11650485436893204</v>
+      </c>
+      <c r="W35" s="52">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" s="52" t="e">
+        <v>-16.50485436893204</v>
+      </c>
+      <c r="X35" s="52">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>-10.96774193548387</v>
       </c>
       <c r="Y35" s="53">
         <f t="shared" si="39"/>
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="Z35" s="54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26">
       <c r="A36" s="47">
-        <v>42960</v>
+        <v>42961.902777777781</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="C36" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="44">
+        <v>200</v>
+      </c>
+      <c r="E36" s="67">
+        <v>3461</v>
+      </c>
+      <c r="F36" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="G36" s="67">
+        <v>3533</v>
+      </c>
+      <c r="H36" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="I36" s="67">
+        <v>4</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="K36" s="46">
+        <f>D36+128</f>
+        <v>328</v>
+      </c>
       <c r="L36" s="47">
-        <v>42962</v>
+        <v>42961.958333333336</v>
       </c>
       <c r="N36" s="69">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="O36" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P36" s="49">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="Q36" s="50">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>1.33</v>
       </c>
       <c r="R36" s="50">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="S36" s="50">
         <f>U36-T36</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T36" s="50">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2111</v>
       </c>
       <c r="U36" s="50">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="51" t="e">
+        <v>2119</v>
+      </c>
+      <c r="V36" s="51">
         <f>S36/R36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="52" t="e">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W36" s="52">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="52" t="e">
+        <v>42.013888888888893</v>
+      </c>
+      <c r="X36" s="52">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>22.744360902255639</v>
       </c>
       <c r="Y36" s="53">
         <f t="shared" si="39"/>
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="Z36" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26">
       <c r="A37" s="47">
-        <v>42960</v>
+        <v>42961.908333333333</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="44"/>
+        <v>414</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="44">
+        <v>200</v>
+      </c>
+      <c r="E37" s="67">
+        <v>4105</v>
+      </c>
+      <c r="F37" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="67">
+        <v>4176</v>
+      </c>
+      <c r="H37" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="I37" s="67">
+        <v>2</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="K37" s="46">
+        <f>D37-4</f>
+        <v>196</v>
+      </c>
       <c r="L37" s="47">
-        <v>42962</v>
+        <v>42961.958333333336</v>
       </c>
       <c r="N37" s="69">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="O37" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P37" s="49">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q37" s="50">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>1.2</v>
       </c>
       <c r="R37" s="50">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S37" s="50">
         <f t="shared" ref="S37" si="42">U37-T37</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="T37" s="50">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2463</v>
       </c>
       <c r="U37" s="50">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="51" t="e">
+        <v>2547</v>
+      </c>
+      <c r="V37" s="51">
         <f t="shared" ref="V37" si="43">S37/R37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="52" t="e">
+        <v>1.1830985915492958</v>
+      </c>
+      <c r="W37" s="52">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="52" t="e">
+        <v>-2.8169014084507045</v>
+      </c>
+      <c r="X37" s="52">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>-1.6666666666666667</v>
       </c>
       <c r="Y37" s="53">
         <f t="shared" si="39"/>
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="Z37" s="54" t="s">
         <v>376</v>
@@ -7435,14 +7576,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -7459,7 +7600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7476,7 +7617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7490,7 +7631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7501,7 +7642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7512,7 +7653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>42925.631249999999</v>
       </c>
@@ -7523,7 +7664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7531,7 +7672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7542,7 +7683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7550,7 +7691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>42935.041666666664</v>
       </c>
@@ -7558,7 +7699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7566,7 +7707,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7577,7 +7718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7585,7 +7726,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7593,7 +7734,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7601,7 +7742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>42939.026388888888</v>
       </c>
@@ -7629,17 +7770,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
     <col min="2" max="3" width="11" style="18"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="25" customWidth="1"/>
+    <col min="5" max="6" width="7.33203125" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="39" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
     <col min="14" max="14" width="3.5" customWidth="1"/>
@@ -7667,12 +7808,12 @@
     <col min="44" max="44" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="D2" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="E3" s="41" t="s">
         <v>118</v>
       </c>
@@ -7683,7 +7824,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
@@ -7718,7 +7859,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <f>F5/E5</f>
         <v>0.1928184948352189</v>
@@ -7756,7 +7897,7 @@
         <v>12.430999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <f t="shared" ref="A6:A7" si="0">F6/E6</f>
         <v>0.45287958115183247</v>
@@ -7794,7 +7935,7 @@
         <v>8.1890000000000018</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>0.34055661780327173</v>
@@ -7824,202 +7965,202 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:7" customFormat="1">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:7" customFormat="1">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:7" customFormat="1">
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:7" customFormat="1">
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:7" customFormat="1">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:7" customFormat="1">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:7" customFormat="1">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:7" customFormat="1">
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:7" customFormat="1">
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:7" customFormat="1">
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:7" customFormat="1">
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:7" customFormat="1">
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:7" customFormat="1">
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:7" customFormat="1">
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:7" customFormat="1">
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:7" customFormat="1">
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:7" customFormat="1">
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:7" customFormat="1">
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:7" customFormat="1">
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:7" customFormat="1">
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:7" customFormat="1">
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:7" customFormat="1">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:7" customFormat="1">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:7" customFormat="1">
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:7" customFormat="1">
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:7" customFormat="1">
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:7" customFormat="1">
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:7" customFormat="1">
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:7" customFormat="1">
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:7" customFormat="1">
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="5:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:7" customFormat="1">
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -8047,21 +8188,21 @@
       <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="43"/>
-    <col min="3" max="3" width="18.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="54"/>
-    <col min="5" max="7" width="10.875" style="43"/>
-    <col min="8" max="8" width="10.875" style="54"/>
-    <col min="9" max="10" width="10.875" style="43"/>
-    <col min="11" max="11" width="25.625" style="43" customWidth="1"/>
-    <col min="12" max="17" width="10.875" style="43"/>
-    <col min="18" max="18" width="10.875" style="54"/>
-    <col min="19" max="16384" width="10.875" style="43"/>
+    <col min="1" max="2" width="10.83203125" style="43"/>
+    <col min="3" max="3" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="54"/>
+    <col min="5" max="7" width="10.83203125" style="43"/>
+    <col min="8" max="8" width="10.83203125" style="54"/>
+    <col min="9" max="10" width="10.83203125" style="43"/>
+    <col min="11" max="11" width="25.6640625" style="43" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="43"/>
+    <col min="18" max="18" width="10.83203125" style="54"/>
+    <col min="19" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="43" t="s">
         <v>377</v>
       </c>
@@ -8102,7 +8243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="C2" s="43" t="s">
         <v>66</v>
       </c>
@@ -8128,7 +8269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="C3" s="43" t="s">
         <v>73</v>
       </c>
@@ -8157,7 +8298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="C4" s="43" t="s">
         <v>76</v>
       </c>
@@ -8186,7 +8327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="43" t="s">
         <v>79</v>
       </c>
@@ -8215,7 +8356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="B6" s="43" t="s">
         <v>144</v>
       </c>
@@ -8247,7 +8388,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="C7" s="43" t="s">
         <v>131</v>
       </c>
@@ -8273,7 +8414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="63" t="s">
         <v>138</v>
       </c>
@@ -8302,7 +8443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="B9" s="43" t="s">
         <v>142</v>
       </c>
@@ -8328,7 +8469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="B10" s="43" t="s">
         <v>146</v>
       </c>
@@ -8357,7 +8498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="B11" s="43" t="s">
         <v>148</v>
       </c>
@@ -8383,7 +8524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="D12" s="54" t="s">
         <v>130</v>
       </c>
@@ -8391,7 +8532,7 @@
         <v>180490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="63" t="s">
         <v>149</v>
       </c>
@@ -8405,7 +8546,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" s="43" t="s">
         <v>150</v>
       </c>
@@ -8419,7 +8560,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="B15" s="43" t="s">
         <v>152</v>
       </c>
@@ -8433,7 +8574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="C16" s="63" t="s">
         <v>153</v>
       </c>
@@ -8441,7 +8582,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="43" t="s">
         <v>156</v>
       </c>
@@ -8455,7 +8596,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="D18" s="54" t="s">
         <v>155</v>
       </c>
@@ -8463,7 +8604,7 @@
         <v>141928</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="43" t="s">
         <v>157</v>
       </c>
@@ -8483,7 +8624,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="43" t="s">
         <v>245</v>
       </c>
@@ -8506,7 +8647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="43" t="s">
         <v>163</v>
       </c>
@@ -8526,7 +8667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
@@ -8540,7 +8681,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="43" t="s">
         <v>170</v>
       </c>
@@ -8551,7 +8692,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="43" t="s">
         <v>172</v>
       </c>
@@ -8565,7 +8706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="43" t="s">
         <v>174</v>
       </c>
@@ -8576,7 +8717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="43" t="s">
         <v>177</v>
       </c>
@@ -8587,7 +8728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="43" t="s">
         <v>180</v>
       </c>
@@ -8604,7 +8745,7 @@
         <v>100363</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="43" t="s">
         <v>184</v>
       </c>
@@ -8621,7 +8762,7 @@
         <v>127896</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="43" t="s">
         <v>186</v>
       </c>
@@ -8638,7 +8779,7 @@
         <v>160208</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="43" t="s">
         <v>188</v>
       </c>
@@ -8658,7 +8799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="43" t="s">
         <v>195</v>
       </c>
@@ -8675,7 +8816,7 @@
         <v>134035</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="43" t="s">
         <v>198</v>
       </c>
@@ -8689,7 +8830,7 @@
         <v>171815</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="43" t="s">
         <v>201</v>
       </c>
@@ -8703,7 +8844,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="43" t="s">
         <v>203</v>
       </c>
@@ -8717,7 +8858,7 @@
         <v>107880</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="C35" s="43" t="s">
         <v>206</v>
       </c>
@@ -8731,7 +8872,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="C36" s="43" t="s">
         <v>208</v>
       </c>
@@ -8745,7 +8886,7 @@
         <v>121229</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="C37" s="43" t="s">
         <v>209</v>
       </c>
@@ -8759,7 +8900,7 @@
         <v>155265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" s="43" t="s">
         <v>212</v>
       </c>
@@ -8773,7 +8914,7 @@
         <v>136998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="C39" s="43" t="s">
         <v>228</v>
       </c>
@@ -8790,7 +8931,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="C40" s="43" t="s">
         <v>234</v>
       </c>
@@ -8804,7 +8945,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" s="43" t="s">
         <v>239</v>
       </c>
@@ -8824,7 +8965,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="C42" s="43">
         <v>95532199</v>
       </c>
@@ -8841,7 +8982,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="C43" s="43" t="s">
         <v>246</v>
       </c>
@@ -8858,7 +8999,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="C44" s="43" t="s">
         <v>250</v>
       </c>
@@ -8875,7 +9016,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="C45" s="43" t="s">
         <v>251</v>
       </c>
@@ -8895,7 +9036,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="43" t="s">
         <v>379</v>
       </c>
@@ -8915,7 +9056,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="C47" s="43">
         <v>13611340307</v>
       </c>
@@ -8929,7 +9070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="C48" s="43" t="s">
         <v>165</v>
       </c>
@@ -8940,7 +9081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="C49" s="43" t="s">
         <v>259</v>
       </c>
@@ -8954,7 +9095,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="C50" s="43">
         <v>133311993</v>
       </c>
@@ -8965,7 +9106,7 @@
         <v>124152</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="C51" s="43" t="s">
         <v>262</v>
       </c>
@@ -8979,7 +9120,7 @@
         <v>100034</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="C52" s="43" t="s">
         <v>268</v>
       </c>
@@ -8996,7 +9137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="43" t="s">
         <v>281</v>
       </c>
@@ -9013,7 +9154,7 @@
         <v>108520</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="C54" s="43" t="s">
         <v>272</v>
       </c>
@@ -9027,12 +9168,12 @@
         <v>118395</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="C55" s="43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="43" t="s">
         <v>281</v>
       </c>
@@ -9046,7 +9187,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="43" t="s">
         <v>281</v>
       </c>
@@ -9054,7 +9195,7 @@
         <v>157777</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="43" t="s">
         <v>281</v>
       </c>
@@ -9068,7 +9209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8">
       <c r="B59" s="43" t="s">
         <v>281</v>
       </c>
@@ -9082,7 +9223,7 @@
         <v>166275</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="43" t="s">
         <v>281</v>
       </c>
@@ -9099,7 +9240,7 @@
         <v>171072</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="43" t="s">
         <v>281</v>
       </c>
@@ -9113,7 +9254,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8">
       <c r="B62" s="43" t="s">
         <v>291</v>
       </c>
@@ -9124,7 +9265,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8">
       <c r="B63" s="43" t="s">
         <v>281</v>
       </c>
@@ -9147,7 +9288,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8">
       <c r="B64" s="43" t="s">
         <v>291</v>
       </c>
@@ -9164,7 +9305,7 @@
         <v>120666</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9">
       <c r="B65" s="43" t="s">
         <v>297</v>
       </c>
@@ -9190,7 +9331,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9">
       <c r="B66" s="43" t="s">
         <v>300</v>
       </c>
@@ -9201,7 +9342,7 @@
         <v>111111</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9">
       <c r="B67" s="43" t="s">
         <v>301</v>
       </c>
@@ -9218,7 +9359,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9">
       <c r="B68" s="43" t="s">
         <v>305</v>
       </c>
@@ -9238,7 +9379,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9">
       <c r="B69" s="43" t="s">
         <v>305</v>
       </c>
@@ -9249,7 +9390,7 @@
         <v>123870</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="43" t="s">
         <v>305</v>
       </c>
@@ -9257,7 +9398,7 @@
         <v>1209333</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="43" t="s">
         <v>311</v>
       </c>
@@ -9274,7 +9415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="43" t="s">
         <v>313</v>
       </c>
@@ -9294,7 +9435,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="43" t="s">
         <v>313</v>
       </c>
@@ -9305,7 +9446,7 @@
         <v>21381923</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9">
       <c r="B74" s="43" t="s">
         <v>315</v>
       </c>
@@ -9322,7 +9463,7 @@
         <v>101248</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9">
       <c r="B75" s="43" t="s">
         <v>318</v>
       </c>
@@ -9345,7 +9486,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="43" t="s">
         <v>321</v>
       </c>
@@ -9356,7 +9497,7 @@
         <v>136818</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="43" t="s">
         <v>324</v>
       </c>
@@ -9370,7 +9511,7 @@
         <v>166704</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9">
       <c r="B78" s="43" t="s">
         <v>326</v>
       </c>
@@ -9387,7 +9528,7 @@
         <v>134668</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9">
       <c r="B79" s="43" t="s">
         <v>329</v>
       </c>
@@ -9404,7 +9545,7 @@
         <v>124685</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9">
       <c r="B80" s="43" t="s">
         <v>332</v>
       </c>
@@ -9421,7 +9562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8">
       <c r="B81" s="43" t="s">
         <v>334</v>
       </c>
@@ -9441,7 +9582,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8">
       <c r="B82" s="43" t="s">
         <v>336</v>
       </c>
@@ -9461,7 +9602,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8">
       <c r="B83" s="43" t="s">
         <v>339</v>
       </c>
@@ -9478,7 +9619,7 @@
         <v>126995</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8">
       <c r="B84" s="43" t="s">
         <v>344</v>
       </c>
@@ -9492,7 +9633,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8">
       <c r="B85" s="43" t="s">
         <v>344</v>
       </c>
@@ -9503,7 +9644,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8">
       <c r="B86" s="43" t="s">
         <v>344</v>
       </c>
@@ -9511,7 +9652,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8">
       <c r="B87" s="43" t="s">
         <v>344</v>
       </c>
@@ -9519,7 +9660,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:8">
       <c r="B88" s="43" t="s">
         <v>353</v>
       </c>
@@ -9536,7 +9677,7 @@
         <v>177980</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8">
       <c r="B89" s="43" t="s">
         <v>354</v>
       </c>
@@ -9553,7 +9694,7 @@
         <v>135635</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8">
       <c r="B90" s="43" t="s">
         <v>402</v>
       </c>
@@ -9564,22 +9705,22 @@
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:2">
       <c r="B124" s="43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:2">
       <c r="B125" s="43" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:3">
       <c r="C130" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3">
       <c r="C132" s="43" t="s">
         <v>220</v>
       </c>
@@ -9604,36 +9745,36 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="6.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="27" customWidth="1"/>
     <col min="25" max="25" width="9.5" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="17.625" style="1"/>
+    <col min="26" max="26" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -9713,7 +9854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -9755,7 +9896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="24">
         <v>42891.833333333336</v>
       </c>
@@ -9797,7 +9938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9840,7 +9981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9883,7 +10024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="24">
         <v>42894.833333333336</v>
       </c>
@@ -9926,7 +10067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -9969,7 +10110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="24">
         <v>42899.833333333336</v>
       </c>
@@ -10012,7 +10153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10055,7 +10196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10098,7 +10239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="24">
         <v>42904.833333333336</v>
       </c>
@@ -10141,7 +10282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10184,7 +10325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10227,7 +10368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="24">
         <v>42905.883333333331</v>
       </c>
@@ -10270,7 +10411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="29" customFormat="1">
       <c r="A15" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10364,7 +10505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="29" customFormat="1">
       <c r="A16" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10456,7 +10597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" s="29" customFormat="1">
       <c r="A17" s="28">
         <v>42925.631249999999</v>
       </c>
@@ -10548,7 +10689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10642,7 +10783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10734,7 +10875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10827,7 +10968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="24">
         <v>42934.876388888886</v>
       </c>
@@ -10919,7 +11060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="24">
         <v>42934.955555555556</v>
       </c>
@@ -11011,7 +11152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" s="29" customFormat="1">
       <c r="A23" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -11105,7 +11246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" s="29" customFormat="1">
       <c r="A24" s="28">
         <v>42936.855555555558</v>
       </c>
@@ -11199,7 +11340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -11289,7 +11430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="A26" s="24">
         <v>42938.878472222219</v>
       </c>
@@ -11383,7 +11524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="A27" s="24">
         <v>42938.884027777778</v>
       </c>
@@ -11477,7 +11618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="24">
         <v>42938.876388888886</v>
       </c>

--- a/view/texas/rec_poker_self.xlsx
+++ b/view/texas/rec_poker_self.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="755"/>
+    <workbookView xWindow="18060" yWindow="8720" windowWidth="10880" windowHeight="15200" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="rec" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="417">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,8 +1797,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="397">
+  <cellStyleXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2274,7 +2276,7 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="397">
+  <cellStyles count="399">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2473,6 +2475,7 @@
     <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2671,6 +2674,7 @@
     <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -4087,13 +4091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7233,24 +7237,27 @@
       <c r="L34" s="47">
         <v>42961.958333333336</v>
       </c>
+      <c r="M34" s="66">
+        <v>469</v>
+      </c>
       <c r="N34" s="69">
         <f>MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
         <v>0.38750000000000001</v>
       </c>
       <c r="O34" s="48">
-        <f t="shared" ref="O34:O37" si="31">M34-D34</f>
-        <v>-400</v>
+        <f t="shared" ref="O34:O41" si="31">M34-D34</f>
+        <v>69</v>
       </c>
       <c r="P34" s="49">
-        <f t="shared" ref="P34:P37" si="32">IF(K34&gt;D34,INT((K34-D34)*0.95),K34-D34)</f>
+        <f t="shared" ref="P34:P41" si="32">IF(K34&gt;D34,INT((K34-D34)*0.95),K34-D34)</f>
         <v>69</v>
       </c>
       <c r="Q34" s="50">
-        <f t="shared" ref="Q34:Q37" si="33">ROUND((L34-A34)*24,2)</f>
+        <f t="shared" ref="Q34:Q41" si="33">ROUND((L34-A34)*24,2)</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="R34" s="50">
-        <f t="shared" ref="R34:R37" si="34">G34-E34</f>
+        <f t="shared" ref="R34:R41" si="34">G34-E34</f>
         <v>79</v>
       </c>
       <c r="S34" s="50">
@@ -7258,11 +7265,11 @@
         <v>13</v>
       </c>
       <c r="T34" s="50">
-        <f t="shared" ref="T34:T37" si="35">INT(E34*F34)</f>
+        <f t="shared" ref="T34:T41" si="35">INT(E34*F34)</f>
         <v>2099</v>
       </c>
       <c r="U34" s="50">
-        <f t="shared" ref="U34:U37" si="36">INT(G34*H34)</f>
+        <f t="shared" ref="U34:U41" si="36">INT(G34*H34)</f>
         <v>2112</v>
       </c>
       <c r="V34" s="51">
@@ -7270,15 +7277,15 @@
         <v>0.16455696202531644</v>
       </c>
       <c r="W34" s="52">
-        <f t="shared" ref="W34:W37" si="37">P34/R34*100/I34</f>
+        <f t="shared" ref="W34:W41" si="37">P34/R34*100/I34</f>
         <v>21.835443037974684</v>
       </c>
       <c r="X34" s="52">
-        <f t="shared" ref="X34:X37" si="38">P34/Q34/I34</f>
+        <f t="shared" ref="X34:X41" si="38">P34/Q34/I34</f>
         <v>15.265486725663719</v>
       </c>
       <c r="Y34" s="53">
-        <f t="shared" ref="Y34:Y37" si="39">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
+        <f t="shared" ref="Y34:Y41" si="39">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
         <v>42961</v>
       </c>
       <c r="Z34" s="54" t="s">
@@ -7324,13 +7331,16 @@
       <c r="L35" s="47">
         <v>42961.958333333336</v>
       </c>
+      <c r="M35" s="66">
+        <v>166</v>
+      </c>
       <c r="N35" s="69">
         <f t="shared" ref="N35:N37" si="40">MAX($Q$34:$Q$37)/SUBTOTAL(102,$Q$34:$Q$37)</f>
         <v>0.38750000000000001</v>
       </c>
       <c r="O35" s="48">
         <f t="shared" si="31"/>
-        <v>-200</v>
+        <v>-34</v>
       </c>
       <c r="P35" s="49">
         <f t="shared" si="32"/>
@@ -7414,13 +7424,16 @@
       <c r="L36" s="47">
         <v>42961.958333333336</v>
       </c>
+      <c r="M36" s="66">
+        <v>324</v>
+      </c>
       <c r="N36" s="69">
         <f t="shared" si="40"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="O36" s="48">
         <f t="shared" si="31"/>
-        <v>-200</v>
+        <v>124</v>
       </c>
       <c r="P36" s="49">
         <f t="shared" si="32"/>
@@ -7504,13 +7517,16 @@
       <c r="L37" s="47">
         <v>42961.958333333336</v>
       </c>
+      <c r="M37" s="66">
+        <v>196</v>
+      </c>
       <c r="N37" s="69">
         <f t="shared" si="40"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="O37" s="48">
         <f t="shared" si="31"/>
-        <v>-200</v>
+        <v>-4</v>
       </c>
       <c r="P37" s="49">
         <f t="shared" si="32"/>
@@ -7525,7 +7541,7 @@
         <v>71</v>
       </c>
       <c r="S37" s="50">
-        <f t="shared" ref="S37" si="42">U37-T37</f>
+        <f t="shared" ref="S37:S41" si="42">U37-T37</f>
         <v>84</v>
       </c>
       <c r="T37" s="50">
@@ -7537,7 +7553,7 @@
         <v>2547</v>
       </c>
       <c r="V37" s="51">
-        <f t="shared" ref="V37" si="43">S37/R37</f>
+        <f t="shared" ref="V37:V41" si="43">S37/R37</f>
         <v>1.1830985915492958</v>
       </c>
       <c r="W37" s="52">
@@ -7553,6 +7569,310 @@
         <v>42961</v>
       </c>
       <c r="Z37" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" s="56" customFormat="1">
+      <c r="A38" s="55">
+        <v>42962</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57">
+        <v>3521</v>
+      </c>
+      <c r="F38" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="55">
+        <v>42964</v>
+      </c>
+      <c r="M38" s="66"/>
+      <c r="N38" s="69">
+        <f>MAX($Q$38:$Q$41)/SUBTOTAL(102,$Q$38:$Q$41)</f>
+        <v>12</v>
+      </c>
+      <c r="O38" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R38" s="50">
+        <f t="shared" si="34"/>
+        <v>-3521</v>
+      </c>
+      <c r="S38" s="50">
+        <f t="shared" si="42"/>
+        <v>-2112</v>
+      </c>
+      <c r="T38" s="50">
+        <f t="shared" si="35"/>
+        <v>2112</v>
+      </c>
+      <c r="U38" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="51">
+        <f t="shared" si="43"/>
+        <v>0.59982959386537915</v>
+      </c>
+      <c r="W38" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="60">
+        <f t="shared" si="39"/>
+        <v>42962</v>
+      </c>
+      <c r="Z38" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" s="56" customFormat="1">
+      <c r="A39" s="55">
+        <v>42962</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57">
+        <v>5068</v>
+      </c>
+      <c r="F39" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="55">
+        <v>42964</v>
+      </c>
+      <c r="M39" s="66"/>
+      <c r="N39" s="69">
+        <f t="shared" ref="N39:N41" si="44">MAX($Q$38:$Q$41)/SUBTOTAL(102,$Q$38:$Q$41)</f>
+        <v>12</v>
+      </c>
+      <c r="O39" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R39" s="50">
+        <f t="shared" si="34"/>
+        <v>-5068</v>
+      </c>
+      <c r="S39" s="50">
+        <f t="shared" si="42"/>
+        <v>-3040</v>
+      </c>
+      <c r="T39" s="50">
+        <f t="shared" si="35"/>
+        <v>3040</v>
+      </c>
+      <c r="U39" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="51">
+        <f t="shared" si="43"/>
+        <v>0.59984214680347281</v>
+      </c>
+      <c r="W39" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="60">
+        <f t="shared" si="39"/>
+        <v>42962</v>
+      </c>
+      <c r="Z39" s="61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="56" customFormat="1">
+      <c r="A40" s="55">
+        <v>42962</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57">
+        <v>3533</v>
+      </c>
+      <c r="F40" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="55">
+        <v>42964</v>
+      </c>
+      <c r="M40" s="66"/>
+      <c r="N40" s="69">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="O40" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R40" s="50">
+        <f t="shared" si="34"/>
+        <v>-3533</v>
+      </c>
+      <c r="S40" s="50">
+        <f t="shared" si="42"/>
+        <v>-2119</v>
+      </c>
+      <c r="T40" s="50">
+        <f t="shared" si="35"/>
+        <v>2119</v>
+      </c>
+      <c r="U40" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="51">
+        <f t="shared" si="43"/>
+        <v>0.59977356354373057</v>
+      </c>
+      <c r="W40" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="60">
+        <f t="shared" si="39"/>
+        <v>42962</v>
+      </c>
+      <c r="Z40" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" s="56" customFormat="1">
+      <c r="A41" s="55">
+        <v>42962</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57">
+        <v>4177</v>
+      </c>
+      <c r="F41" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="55">
+        <v>42964</v>
+      </c>
+      <c r="M41" s="66"/>
+      <c r="N41" s="69">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="O41" s="48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="50">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="R41" s="50">
+        <f t="shared" si="34"/>
+        <v>-4177</v>
+      </c>
+      <c r="S41" s="50">
+        <f t="shared" si="42"/>
+        <v>-2547</v>
+      </c>
+      <c r="T41" s="50">
+        <f t="shared" si="35"/>
+        <v>2547</v>
+      </c>
+      <c r="U41" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="51">
+        <f t="shared" si="43"/>
+        <v>0.60976777591572895</v>
+      </c>
+      <c r="W41" s="52" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="52" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="60">
+        <f t="shared" si="39"/>
+        <v>42962</v>
+      </c>
+      <c r="Z41" s="61" t="s">
         <v>376</v>
       </c>
     </row>
